--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC336"/>
+  <dimension ref="A1:AC335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6007834</v>
+        <v>6007835</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,76 +4639,76 @@
         <v>44965.00347222222</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M47">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N47">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6007835</v>
+        <v>6007834</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>44965.00347222222</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N48">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P48">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q48">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
+        <v>1.925</v>
+      </c>
+      <c r="S48">
+        <v>1.875</v>
+      </c>
+      <c r="T48">
+        <v>2.25</v>
+      </c>
+      <c r="U48">
+        <v>1.85</v>
+      </c>
+      <c r="V48">
         <v>1.95</v>
       </c>
-      <c r="S48">
-        <v>1.85</v>
-      </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.825</v>
-      </c>
-      <c r="V48">
-        <v>1.975</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6007883</v>
+        <v>6007882</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,10 +9534,10 @@
         <v>45007.00347222222</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9549,61 +9549,61 @@
         <v>49</v>
       </c>
       <c r="K102">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L102">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N102">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O102">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3.333</v>
+        <v>2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6007882</v>
+        <v>6007883</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,10 +9623,10 @@
         <v>45007.00347222222</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9638,61 +9638,61 @@
         <v>49</v>
       </c>
       <c r="K103">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M103">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N103">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P103">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2</v>
+        <v>3.333</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -23762,7 +23762,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23774,76 +23774,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F262" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G262" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I262">
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K262">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L262">
+        <v>4</v>
+      </c>
+      <c r="M262">
+        <v>4.5</v>
+      </c>
+      <c r="N262">
+        <v>1.5</v>
+      </c>
+      <c r="O262">
+        <v>4.75</v>
+      </c>
+      <c r="P262">
+        <v>5.75</v>
+      </c>
+      <c r="Q262">
+        <v>-1.25</v>
+      </c>
+      <c r="R262">
+        <v>1.925</v>
+      </c>
+      <c r="S262">
+        <v>1.875</v>
+      </c>
+      <c r="T262">
         <v>3</v>
       </c>
-      <c r="M262">
-        <v>2.875</v>
-      </c>
-      <c r="N262">
-        <v>2.7</v>
-      </c>
-      <c r="O262">
-        <v>3.1</v>
-      </c>
-      <c r="P262">
-        <v>2.8</v>
-      </c>
-      <c r="Q262">
-        <v>0</v>
-      </c>
-      <c r="R262">
-        <v>1.85</v>
-      </c>
-      <c r="S262">
+      <c r="U262">
+        <v>1.75</v>
+      </c>
+      <c r="V262">
         <v>1.95</v>
       </c>
-      <c r="T262">
-        <v>2.25</v>
-      </c>
-      <c r="U262">
-        <v>1.975</v>
-      </c>
-      <c r="V262">
-        <v>1.725</v>
-      </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA262">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC262">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F263" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H263">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K263">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M263">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N263">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O263">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P263">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q263">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V263">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W263">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z263">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB263">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -30170,7 +30170,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7641672</v>
+        <v>7641673</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30179,16 +30179,16 @@
         <v>28</v>
       </c>
       <c r="E334" s="2">
-        <v>45338.92013888889</v>
+        <v>45339.83680555555</v>
       </c>
       <c r="F334" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G334" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K334">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L334">
         <v>3.4</v>
@@ -30197,31 +30197,31 @@
         <v>2.6</v>
       </c>
       <c r="N334">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O334">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P334">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q334">
         <v>-0.25</v>
       </c>
       <c r="R334">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S334">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T334">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U334">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V334">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W334">
         <v>0</v>
@@ -30244,7 +30244,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7641673</v>
+        <v>7640645</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30253,49 +30253,49 @@
         <v>28</v>
       </c>
       <c r="E335" s="2">
-        <v>45339.83680555555</v>
+        <v>45340.625</v>
       </c>
       <c r="F335" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G335" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K335">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="L335">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M335">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="N335">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="O335">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P335">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q335">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R335">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S335">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T335">
         <v>2.5</v>
       </c>
       <c r="U335">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V335">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W335">
         <v>0</v>
@@ -30310,80 +30310,6 @@
         <v>0</v>
       </c>
       <c r="AA335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:29">
-      <c r="A336" s="1">
-        <v>334</v>
-      </c>
-      <c r="B336">
-        <v>7640645</v>
-      </c>
-      <c r="C336" t="s">
-        <v>28</v>
-      </c>
-      <c r="D336" t="s">
-        <v>28</v>
-      </c>
-      <c r="E336" s="2">
-        <v>45340.625</v>
-      </c>
-      <c r="F336" t="s">
-        <v>33</v>
-      </c>
-      <c r="G336" t="s">
-        <v>41</v>
-      </c>
-      <c r="K336">
-        <v>1.55</v>
-      </c>
-      <c r="L336">
-        <v>3.75</v>
-      </c>
-      <c r="M336">
-        <v>5.75</v>
-      </c>
-      <c r="N336">
-        <v>1.533</v>
-      </c>
-      <c r="O336">
-        <v>4</v>
-      </c>
-      <c r="P336">
-        <v>6.5</v>
-      </c>
-      <c r="Q336">
-        <v>-1</v>
-      </c>
-      <c r="R336">
-        <v>1.825</v>
-      </c>
-      <c r="S336">
-        <v>1.975</v>
-      </c>
-      <c r="T336">
-        <v>2.5</v>
-      </c>
-      <c r="U336">
-        <v>1.95</v>
-      </c>
-      <c r="V336">
-        <v>1.85</v>
-      </c>
-      <c r="W336">
-        <v>0</v>
-      </c>
-      <c r="X336">
-        <v>0</v>
-      </c>
-      <c r="Y336">
-        <v>0</v>
-      </c>
-      <c r="Z336">
-        <v>0</v>
-      </c>
-      <c r="AA336">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC335"/>
+  <dimension ref="A1:AC334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6007835</v>
+        <v>6007834</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,76 +4639,76 @@
         <v>44965.00347222222</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N47">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P47">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q47">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
+        <v>1.925</v>
+      </c>
+      <c r="S47">
+        <v>1.875</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>1.85</v>
+      </c>
+      <c r="V47">
         <v>1.95</v>
       </c>
-      <c r="S47">
-        <v>1.85</v>
-      </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.825</v>
-      </c>
-      <c r="V47">
-        <v>1.975</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6007834</v>
+        <v>6007835</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>44965.00347222222</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L48">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N48">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O48">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R48">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -30170,7 +30170,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7641673</v>
+        <v>7640645</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30179,49 +30179,49 @@
         <v>28</v>
       </c>
       <c r="E334" s="2">
-        <v>45339.83680555555</v>
+        <v>45340.625</v>
       </c>
       <c r="F334" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G334" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K334">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="L334">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M334">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="N334">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="O334">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P334">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q334">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R334">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S334">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T334">
         <v>2.5</v>
       </c>
       <c r="U334">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V334">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W334">
         <v>0</v>
@@ -30236,80 +30236,6 @@
         <v>0</v>
       </c>
       <c r="AA334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:29">
-      <c r="A335" s="1">
-        <v>333</v>
-      </c>
-      <c r="B335">
-        <v>7640645</v>
-      </c>
-      <c r="C335" t="s">
-        <v>28</v>
-      </c>
-      <c r="D335" t="s">
-        <v>28</v>
-      </c>
-      <c r="E335" s="2">
-        <v>45340.625</v>
-      </c>
-      <c r="F335" t="s">
-        <v>33</v>
-      </c>
-      <c r="G335" t="s">
-        <v>41</v>
-      </c>
-      <c r="K335">
-        <v>1.55</v>
-      </c>
-      <c r="L335">
-        <v>3.75</v>
-      </c>
-      <c r="M335">
-        <v>5.75</v>
-      </c>
-      <c r="N335">
-        <v>1.571</v>
-      </c>
-      <c r="O335">
-        <v>4</v>
-      </c>
-      <c r="P335">
-        <v>6</v>
-      </c>
-      <c r="Q335">
-        <v>-1</v>
-      </c>
-      <c r="R335">
-        <v>1.9</v>
-      </c>
-      <c r="S335">
-        <v>1.9</v>
-      </c>
-      <c r="T335">
-        <v>2.5</v>
-      </c>
-      <c r="U335">
-        <v>1.95</v>
-      </c>
-      <c r="V335">
-        <v>1.85</v>
-      </c>
-      <c r="W335">
-        <v>0</v>
-      </c>
-      <c r="X335">
-        <v>0</v>
-      </c>
-      <c r="Y335">
-        <v>0</v>
-      </c>
-      <c r="Z335">
-        <v>0</v>
-      </c>
-      <c r="AA335">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Atlante</t>
   </si>
   <si>
-    <t>Raya2 Expansion</t>
+    <t>Tlaxcala FC</t>
   </si>
   <si>
-    <t>Tlaxcala FC</t>
+    <t>Raya2 Expansion</t>
   </si>
   <si>
     <t>Correcaminos</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC334"/>
+  <dimension ref="A1:AC342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6007798</v>
+        <v>6007799</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1094,61 +1094,61 @@
         <v>49</v>
       </c>
       <c r="K7">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6007799</v>
+        <v>6007798</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1183,61 +1183,61 @@
         <v>49</v>
       </c>
       <c r="K8">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
+        <v>3.4</v>
+      </c>
+      <c r="N8">
+        <v>2.1</v>
+      </c>
+      <c r="O8">
+        <v>3.3</v>
+      </c>
+      <c r="P8">
+        <v>3.6</v>
+      </c>
+      <c r="Q8">
+        <v>-0.25</v>
+      </c>
+      <c r="R8">
+        <v>1.775</v>
+      </c>
+      <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>2.25</v>
+      </c>
+      <c r="U8">
+        <v>1.95</v>
+      </c>
+      <c r="V8">
+        <v>1.85</v>
+      </c>
+      <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
         <v>2.3</v>
       </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <v>3.5</v>
-      </c>
-      <c r="P8">
-        <v>1.95</v>
-      </c>
-      <c r="Q8">
-        <v>0.5</v>
-      </c>
-      <c r="R8">
-        <v>1.875</v>
-      </c>
-      <c r="S8">
-        <v>1.925</v>
-      </c>
-      <c r="T8">
-        <v>2.5</v>
-      </c>
-      <c r="U8">
-        <v>1.925</v>
-      </c>
-      <c r="V8">
-        <v>1.875</v>
-      </c>
-      <c r="W8">
-        <v>-1</v>
-      </c>
-      <c r="X8">
-        <v>2.5</v>
-      </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>44943.83680555555</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
@@ -2150,7 +2150,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2859,10 +2859,10 @@
         <v>44950.83680555555</v>
       </c>
       <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
         <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3927,7 +3927,7 @@
         <v>44958.83333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4019,7 +4019,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>44964.83680555555</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
         <v>30</v>
@@ -4731,7 +4731,7 @@
         <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5888,7 +5888,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>44978.83680555555</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
         <v>43</v>
@@ -6241,7 +6241,7 @@
         <v>44978.92013888889</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>40</v>
@@ -7490,7 +7490,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7668,7 +7668,7 @@
         <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8021,7 +8021,7 @@
         <v>44993.83333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8199,7 +8199,7 @@
         <v>44994.00347222222</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
         <v>39</v>
@@ -8555,7 +8555,7 @@
         <v>44999.83680555555</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>31</v>
@@ -8914,7 +8914,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6007882</v>
+        <v>6007883</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,10 +9534,10 @@
         <v>45007.00347222222</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9549,61 +9549,61 @@
         <v>49</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L102">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M102">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N102">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P102">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2</v>
+        <v>3.333</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6007883</v>
+        <v>6007882</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,10 +9623,10 @@
         <v>45007.00347222222</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9638,61 +9638,61 @@
         <v>49</v>
       </c>
       <c r="K103">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N103">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O103">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3.333</v>
+        <v>2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9801,7 +9801,7 @@
         <v>45007.92013888889</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
         <v>36</v>
@@ -9982,7 +9982,7 @@
         <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10516,7 +10516,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10869,7 +10869,7 @@
         <v>45012.00347222222</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -11314,7 +11314,7 @@
         <v>45015.00347222222</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11670,7 +11670,7 @@
         <v>45020.83680555555</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
         <v>30</v>
@@ -11848,7 +11848,7 @@
         <v>45021.00347222222</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
         <v>32</v>
@@ -13008,7 +13008,7 @@
         <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13186,7 +13186,7 @@
         <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13806,7 +13806,7 @@
         <v>45036.00347222222</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>44</v>
@@ -13984,7 +13984,7 @@
         <v>45037.83333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
         <v>36</v>
@@ -14162,7 +14162,7 @@
         <v>45042.91666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
         <v>39</v>
@@ -14340,7 +14340,7 @@
         <v>45043.91666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
         <v>31</v>
@@ -14607,7 +14607,7 @@
         <v>45049.91666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>33</v>
@@ -14696,7 +14696,7 @@
         <v>45050.00347222222</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
         <v>43</v>
@@ -14966,7 +14966,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15055,7 +15055,7 @@
         <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15945,7 +15945,7 @@
         <v>31</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16654,7 +16654,7 @@
         <v>45136.83680555555</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G182" t="s">
         <v>33</v>
@@ -17191,7 +17191,7 @@
         <v>38</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H188">
         <v>5</v>
@@ -18790,7 +18790,7 @@
         <v>45156.83680555555</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
         <v>41</v>
@@ -19505,7 +19505,7 @@
         <v>43</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19947,7 +19947,7 @@
         <v>45168.92013888889</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
         <v>29</v>
@@ -20573,7 +20573,7 @@
         <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -21371,7 +21371,7 @@
         <v>45186.00347222222</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G235" t="s">
         <v>39</v>
@@ -21816,7 +21816,7 @@
         <v>45189.83680555555</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
         <v>42</v>
@@ -22175,7 +22175,7 @@
         <v>30</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22798,7 +22798,7 @@
         <v>45</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H251">
         <v>3</v>
@@ -23507,7 +23507,7 @@
         <v>45212.83680555555</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G259" t="s">
         <v>44</v>
@@ -23762,7 +23762,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23774,76 +23774,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G262" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H262">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I262">
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K262">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M262">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N262">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O262">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P262">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q262">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R262">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S262">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T262">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U262">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V262">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W262">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z262">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB262">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G263" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L263">
+        <v>4</v>
+      </c>
+      <c r="M263">
+        <v>4.5</v>
+      </c>
+      <c r="N263">
+        <v>1.5</v>
+      </c>
+      <c r="O263">
+        <v>4.75</v>
+      </c>
+      <c r="P263">
+        <v>5.75</v>
+      </c>
+      <c r="Q263">
+        <v>-1.25</v>
+      </c>
+      <c r="R263">
+        <v>1.925</v>
+      </c>
+      <c r="S263">
+        <v>1.875</v>
+      </c>
+      <c r="T263">
         <v>3</v>
       </c>
-      <c r="M263">
-        <v>2.875</v>
-      </c>
-      <c r="N263">
-        <v>2.7</v>
-      </c>
-      <c r="O263">
-        <v>3.1</v>
-      </c>
-      <c r="P263">
-        <v>2.8</v>
-      </c>
-      <c r="Q263">
-        <v>0</v>
-      </c>
-      <c r="R263">
-        <v>1.85</v>
-      </c>
-      <c r="S263">
+      <c r="U263">
+        <v>1.75</v>
+      </c>
+      <c r="V263">
         <v>1.95</v>
       </c>
-      <c r="T263">
-        <v>2.25</v>
-      </c>
-      <c r="U263">
-        <v>1.975</v>
-      </c>
-      <c r="V263">
-        <v>1.725</v>
-      </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA263">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC263">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24667,7 +24667,7 @@
         <v>46</v>
       </c>
       <c r="G272" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -24842,7 +24842,7 @@
         <v>45231.83680555555</v>
       </c>
       <c r="F274" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G274" t="s">
         <v>36</v>
@@ -26978,7 +26978,7 @@
         <v>45301.92013888889</v>
       </c>
       <c r="F298" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G298" t="s">
         <v>40</v>
@@ -28135,7 +28135,7 @@
         <v>45315.92013888889</v>
       </c>
       <c r="F311" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G311" t="s">
         <v>45</v>
@@ -28583,7 +28583,7 @@
         <v>41</v>
       </c>
       <c r="G316" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -29651,7 +29651,7 @@
         <v>42</v>
       </c>
       <c r="G328" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H328">
         <v>3</v>
@@ -30170,72 +30170,709 @@
         <v>332</v>
       </c>
       <c r="B334">
+        <v>7641672</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334" t="s">
+        <v>28</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45338.92013888889</v>
+      </c>
+      <c r="F334" t="s">
+        <v>34</v>
+      </c>
+      <c r="G334" t="s">
+        <v>30</v>
+      </c>
+      <c r="H334">
+        <v>2</v>
+      </c>
+      <c r="I334">
+        <v>3</v>
+      </c>
+      <c r="J334" t="s">
+        <v>48</v>
+      </c>
+      <c r="K334">
+        <v>2.4</v>
+      </c>
+      <c r="L334">
+        <v>3.4</v>
+      </c>
+      <c r="M334">
+        <v>2.6</v>
+      </c>
+      <c r="N334">
+        <v>2.1</v>
+      </c>
+      <c r="O334">
+        <v>3.3</v>
+      </c>
+      <c r="P334">
+        <v>3.6</v>
+      </c>
+      <c r="Q334">
+        <v>-0.25</v>
+      </c>
+      <c r="R334">
+        <v>1.8</v>
+      </c>
+      <c r="S334">
+        <v>2</v>
+      </c>
+      <c r="T334">
+        <v>2.25</v>
+      </c>
+      <c r="U334">
+        <v>1.75</v>
+      </c>
+      <c r="V334">
+        <v>1.95</v>
+      </c>
+      <c r="W334">
+        <v>-1</v>
+      </c>
+      <c r="X334">
+        <v>-1</v>
+      </c>
+      <c r="Y334">
+        <v>2.6</v>
+      </c>
+      <c r="Z334">
+        <v>-1</v>
+      </c>
+      <c r="AA334">
+        <v>1</v>
+      </c>
+      <c r="AB334">
+        <v>0.75</v>
+      </c>
+      <c r="AC334">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:29">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>7641673</v>
+      </c>
+      <c r="C335" t="s">
+        <v>28</v>
+      </c>
+      <c r="D335" t="s">
+        <v>28</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45339.83680555555</v>
+      </c>
+      <c r="F335" t="s">
+        <v>43</v>
+      </c>
+      <c r="G335" t="s">
+        <v>42</v>
+      </c>
+      <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335" t="s">
+        <v>49</v>
+      </c>
+      <c r="K335">
+        <v>2.45</v>
+      </c>
+      <c r="L335">
+        <v>3.4</v>
+      </c>
+      <c r="M335">
+        <v>2.6</v>
+      </c>
+      <c r="N335">
+        <v>2.7</v>
+      </c>
+      <c r="O335">
+        <v>3.25</v>
+      </c>
+      <c r="P335">
+        <v>2.7</v>
+      </c>
+      <c r="Q335">
+        <v>0</v>
+      </c>
+      <c r="R335">
+        <v>1.85</v>
+      </c>
+      <c r="S335">
+        <v>1.95</v>
+      </c>
+      <c r="T335">
+        <v>2.25</v>
+      </c>
+      <c r="U335">
+        <v>1.825</v>
+      </c>
+      <c r="V335">
+        <v>1.975</v>
+      </c>
+      <c r="W335">
+        <v>-1</v>
+      </c>
+      <c r="X335">
+        <v>2.25</v>
+      </c>
+      <c r="Y335">
+        <v>-1</v>
+      </c>
+      <c r="Z335">
+        <v>0</v>
+      </c>
+      <c r="AA335">
+        <v>-0</v>
+      </c>
+      <c r="AB335">
+        <v>-1</v>
+      </c>
+      <c r="AC335">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
         <v>7640645</v>
       </c>
-      <c r="C334" t="s">
-        <v>28</v>
-      </c>
-      <c r="D334" t="s">
-        <v>28</v>
-      </c>
-      <c r="E334" s="2">
+      <c r="C336" t="s">
+        <v>28</v>
+      </c>
+      <c r="D336" t="s">
+        <v>28</v>
+      </c>
+      <c r="E336" s="2">
         <v>45340.625</v>
       </c>
-      <c r="F334" t="s">
+      <c r="F336" t="s">
         <v>33</v>
       </c>
-      <c r="G334" t="s">
+      <c r="G336" t="s">
         <v>41</v>
       </c>
-      <c r="K334">
+      <c r="H336">
+        <v>2</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336" t="s">
+        <v>47</v>
+      </c>
+      <c r="K336">
         <v>1.55</v>
       </c>
-      <c r="L334">
+      <c r="L336">
         <v>3.75</v>
       </c>
-      <c r="M334">
+      <c r="M336">
         <v>5.75</v>
       </c>
-      <c r="N334">
-        <v>1.571</v>
-      </c>
-      <c r="O334">
+      <c r="N336">
+        <v>1.4</v>
+      </c>
+      <c r="O336">
+        <v>4.5</v>
+      </c>
+      <c r="P336">
+        <v>8</v>
+      </c>
+      <c r="Q336">
+        <v>-1.25</v>
+      </c>
+      <c r="R336">
+        <v>1.825</v>
+      </c>
+      <c r="S336">
+        <v>1.975</v>
+      </c>
+      <c r="T336">
+        <v>2.5</v>
+      </c>
+      <c r="U336">
+        <v>1.75</v>
+      </c>
+      <c r="V336">
+        <v>1.95</v>
+      </c>
+      <c r="W336">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X336">
+        <v>-1</v>
+      </c>
+      <c r="Y336">
+        <v>-1</v>
+      </c>
+      <c r="Z336">
+        <v>0.825</v>
+      </c>
+      <c r="AA336">
+        <v>-1</v>
+      </c>
+      <c r="AB336">
+        <v>-1</v>
+      </c>
+      <c r="AC336">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>7641679</v>
+      </c>
+      <c r="C337" t="s">
+        <v>28</v>
+      </c>
+      <c r="D337" t="s">
+        <v>28</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45342.92013888889</v>
+      </c>
+      <c r="F337" t="s">
+        <v>38</v>
+      </c>
+      <c r="G337" t="s">
+        <v>40</v>
+      </c>
+      <c r="K337">
+        <v>1.909</v>
+      </c>
+      <c r="L337">
+        <v>3.5</v>
+      </c>
+      <c r="M337">
         <v>4</v>
       </c>
-      <c r="P334">
-        <v>6</v>
-      </c>
-      <c r="Q334">
-        <v>-1</v>
-      </c>
-      <c r="R334">
+      <c r="N337">
+        <v>1.909</v>
+      </c>
+      <c r="O337">
+        <v>3.5</v>
+      </c>
+      <c r="P337">
+        <v>4</v>
+      </c>
+      <c r="Q337">
+        <v>-0.5</v>
+      </c>
+      <c r="R337">
+        <v>1.925</v>
+      </c>
+      <c r="S337">
+        <v>1.875</v>
+      </c>
+      <c r="T337">
+        <v>2.5</v>
+      </c>
+      <c r="U337">
+        <v>1.85</v>
+      </c>
+      <c r="V337">
+        <v>1.95</v>
+      </c>
+      <c r="W337">
+        <v>0</v>
+      </c>
+      <c r="X337">
+        <v>0</v>
+      </c>
+      <c r="Y337">
+        <v>0</v>
+      </c>
+      <c r="Z337">
+        <v>0</v>
+      </c>
+      <c r="AA337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>7641675</v>
+      </c>
+      <c r="C338" t="s">
+        <v>28</v>
+      </c>
+      <c r="D338" t="s">
+        <v>28</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45343.00347222222</v>
+      </c>
+      <c r="F338" t="s">
+        <v>36</v>
+      </c>
+      <c r="G338" t="s">
+        <v>42</v>
+      </c>
+      <c r="K338">
+        <v>2.45</v>
+      </c>
+      <c r="L338">
+        <v>3.25</v>
+      </c>
+      <c r="M338">
+        <v>2.875</v>
+      </c>
+      <c r="N338">
+        <v>2.45</v>
+      </c>
+      <c r="O338">
+        <v>3.25</v>
+      </c>
+      <c r="P338">
+        <v>2.875</v>
+      </c>
+      <c r="Q338">
+        <v>0</v>
+      </c>
+      <c r="R338">
+        <v>1.75</v>
+      </c>
+      <c r="S338">
+        <v>2.05</v>
+      </c>
+      <c r="T338">
+        <v>2.25</v>
+      </c>
+      <c r="U338">
+        <v>1.85</v>
+      </c>
+      <c r="V338">
+        <v>1.95</v>
+      </c>
+      <c r="W338">
+        <v>0</v>
+      </c>
+      <c r="X338">
+        <v>0</v>
+      </c>
+      <c r="Y338">
+        <v>0</v>
+      </c>
+      <c r="Z338">
+        <v>0</v>
+      </c>
+      <c r="AA338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>7641676</v>
+      </c>
+      <c r="C339" t="s">
+        <v>28</v>
+      </c>
+      <c r="D339" t="s">
+        <v>28</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45343.92013888889</v>
+      </c>
+      <c r="F339" t="s">
+        <v>34</v>
+      </c>
+      <c r="G339" t="s">
+        <v>31</v>
+      </c>
+      <c r="K339">
+        <v>3.4</v>
+      </c>
+      <c r="L339">
+        <v>3.3</v>
+      </c>
+      <c r="M339">
+        <v>2.1</v>
+      </c>
+      <c r="N339">
+        <v>3.4</v>
+      </c>
+      <c r="O339">
+        <v>3.3</v>
+      </c>
+      <c r="P339">
+        <v>2.1</v>
+      </c>
+      <c r="Q339">
+        <v>0.25</v>
+      </c>
+      <c r="R339">
+        <v>1.975</v>
+      </c>
+      <c r="S339">
+        <v>1.825</v>
+      </c>
+      <c r="T339">
+        <v>2.5</v>
+      </c>
+      <c r="U339">
+        <v>2.025</v>
+      </c>
+      <c r="V339">
+        <v>1.775</v>
+      </c>
+      <c r="W339">
+        <v>0</v>
+      </c>
+      <c r="X339">
+        <v>0</v>
+      </c>
+      <c r="Y339">
+        <v>0</v>
+      </c>
+      <c r="Z339">
+        <v>0</v>
+      </c>
+      <c r="AA339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>7641674</v>
+      </c>
+      <c r="C340" t="s">
+        <v>28</v>
+      </c>
+      <c r="D340" t="s">
+        <v>28</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45344.00347222222</v>
+      </c>
+      <c r="F340" t="s">
+        <v>41</v>
+      </c>
+      <c r="G340" t="s">
+        <v>44</v>
+      </c>
+      <c r="K340">
+        <v>2</v>
+      </c>
+      <c r="L340">
+        <v>3.4</v>
+      </c>
+      <c r="M340">
+        <v>3.6</v>
+      </c>
+      <c r="N340">
+        <v>2</v>
+      </c>
+      <c r="O340">
+        <v>3.4</v>
+      </c>
+      <c r="P340">
+        <v>3.6</v>
+      </c>
+      <c r="Q340">
+        <v>-0.5</v>
+      </c>
+      <c r="R340">
+        <v>1.975</v>
+      </c>
+      <c r="S340">
+        <v>1.825</v>
+      </c>
+      <c r="T340">
+        <v>2.5</v>
+      </c>
+      <c r="U340">
+        <v>1.875</v>
+      </c>
+      <c r="V340">
+        <v>1.925</v>
+      </c>
+      <c r="W340">
+        <v>0</v>
+      </c>
+      <c r="X340">
+        <v>0</v>
+      </c>
+      <c r="Y340">
+        <v>0</v>
+      </c>
+      <c r="Z340">
+        <v>0</v>
+      </c>
+      <c r="AA340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:27">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>7641678</v>
+      </c>
+      <c r="C341" t="s">
+        <v>28</v>
+      </c>
+      <c r="D341" t="s">
+        <v>28</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45344.92013888889</v>
+      </c>
+      <c r="F341" t="s">
+        <v>46</v>
+      </c>
+      <c r="G341" t="s">
+        <v>43</v>
+      </c>
+      <c r="K341">
+        <v>1.8</v>
+      </c>
+      <c r="L341">
+        <v>3.5</v>
+      </c>
+      <c r="M341">
+        <v>4.5</v>
+      </c>
+      <c r="N341">
+        <v>1.8</v>
+      </c>
+      <c r="O341">
+        <v>3.5</v>
+      </c>
+      <c r="P341">
+        <v>4.5</v>
+      </c>
+      <c r="Q341">
+        <v>-0.75</v>
+      </c>
+      <c r="R341">
+        <v>1.975</v>
+      </c>
+      <c r="S341">
+        <v>1.825</v>
+      </c>
+      <c r="T341">
+        <v>2.5</v>
+      </c>
+      <c r="U341">
+        <v>1.825</v>
+      </c>
+      <c r="V341">
+        <v>1.975</v>
+      </c>
+      <c r="W341">
+        <v>0</v>
+      </c>
+      <c r="X341">
+        <v>0</v>
+      </c>
+      <c r="Y341">
+        <v>0</v>
+      </c>
+      <c r="Z341">
+        <v>0</v>
+      </c>
+      <c r="AA341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:27">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>7641677</v>
+      </c>
+      <c r="C342" t="s">
+        <v>28</v>
+      </c>
+      <c r="D342" t="s">
+        <v>28</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45345.00347222222</v>
+      </c>
+      <c r="F342" t="s">
+        <v>30</v>
+      </c>
+      <c r="G342" t="s">
+        <v>45</v>
+      </c>
+      <c r="K342">
+        <v>1.6</v>
+      </c>
+      <c r="L342">
+        <v>4</v>
+      </c>
+      <c r="M342">
+        <v>4.75</v>
+      </c>
+      <c r="N342">
+        <v>1.6</v>
+      </c>
+      <c r="O342">
+        <v>4</v>
+      </c>
+      <c r="P342">
+        <v>4.75</v>
+      </c>
+      <c r="Q342">
+        <v>-1</v>
+      </c>
+      <c r="R342">
+        <v>1.975</v>
+      </c>
+      <c r="S342">
+        <v>1.825</v>
+      </c>
+      <c r="T342">
+        <v>3</v>
+      </c>
+      <c r="U342">
         <v>1.9</v>
       </c>
-      <c r="S334">
+      <c r="V342">
         <v>1.9</v>
       </c>
-      <c r="T334">
-        <v>2.5</v>
-      </c>
-      <c r="U334">
-        <v>1.95</v>
-      </c>
-      <c r="V334">
-        <v>1.85</v>
-      </c>
-      <c r="W334">
+      <c r="W342">
         <v>0</v>
       </c>
-      <c r="X334">
+      <c r="X342">
         <v>0</v>
       </c>
-      <c r="Y334">
+      <c r="Y342">
         <v>0</v>
       </c>
-      <c r="Z334">
+      <c r="Z342">
         <v>0</v>
       </c>
-      <c r="AA334">
+      <c r="AA342">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC342"/>
+  <dimension ref="A1:AC343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6007883</v>
+        <v>6007882</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,10 +9534,10 @@
         <v>45007.00347222222</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9549,61 +9549,61 @@
         <v>49</v>
       </c>
       <c r="K102">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L102">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N102">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O102">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P102">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>3.333</v>
+        <v>2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6007882</v>
+        <v>6007883</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,10 +9623,10 @@
         <v>45007.00347222222</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9638,61 +9638,61 @@
         <v>49</v>
       </c>
       <c r="K103">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M103">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N103">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P103">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2</v>
+        <v>3.333</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -23762,7 +23762,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23774,76 +23774,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F262" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G262" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I262">
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K262">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L262">
+        <v>4</v>
+      </c>
+      <c r="M262">
+        <v>4.5</v>
+      </c>
+      <c r="N262">
+        <v>1.5</v>
+      </c>
+      <c r="O262">
+        <v>4.75</v>
+      </c>
+      <c r="P262">
+        <v>5.75</v>
+      </c>
+      <c r="Q262">
+        <v>-1.25</v>
+      </c>
+      <c r="R262">
+        <v>1.925</v>
+      </c>
+      <c r="S262">
+        <v>1.875</v>
+      </c>
+      <c r="T262">
         <v>3</v>
       </c>
-      <c r="M262">
-        <v>2.875</v>
-      </c>
-      <c r="N262">
-        <v>2.7</v>
-      </c>
-      <c r="O262">
-        <v>3.1</v>
-      </c>
-      <c r="P262">
-        <v>2.8</v>
-      </c>
-      <c r="Q262">
-        <v>0</v>
-      </c>
-      <c r="R262">
-        <v>1.85</v>
-      </c>
-      <c r="S262">
+      <c r="U262">
+        <v>1.75</v>
+      </c>
+      <c r="V262">
         <v>1.95</v>
       </c>
-      <c r="T262">
-        <v>2.25</v>
-      </c>
-      <c r="U262">
-        <v>1.975</v>
-      </c>
-      <c r="V262">
-        <v>1.725</v>
-      </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA262">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC262">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F263" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H263">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K263">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M263">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N263">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O263">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P263">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q263">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V263">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W263">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z263">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB263">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -30464,31 +30464,31 @@
         <v>4</v>
       </c>
       <c r="N337">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O337">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P337">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q337">
         <v>-0.5</v>
       </c>
       <c r="R337">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S337">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T337">
         <v>2.5</v>
       </c>
       <c r="U337">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V337">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W337">
         <v>0</v>
@@ -30538,22 +30538,22 @@
         <v>2.875</v>
       </c>
       <c r="N338">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O338">
         <v>3.25</v>
       </c>
       <c r="P338">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q338">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R338">
+        <v>2.05</v>
+      </c>
+      <c r="S338">
         <v>1.75</v>
-      </c>
-      <c r="S338">
-        <v>2.05</v>
       </c>
       <c r="T338">
         <v>2.25</v>
@@ -30612,10 +30612,10 @@
         <v>2.1</v>
       </c>
       <c r="N339">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O339">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P339">
         <v>2.1</v>
@@ -30624,19 +30624,19 @@
         <v>0.25</v>
       </c>
       <c r="R339">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S339">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T339">
         <v>2.5</v>
       </c>
       <c r="U339">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V339">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W339">
         <v>0</v>
@@ -30689,28 +30689,28 @@
         <v>2</v>
       </c>
       <c r="O340">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P340">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q340">
         <v>-0.5</v>
       </c>
       <c r="R340">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S340">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T340">
         <v>2.5</v>
       </c>
       <c r="U340">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V340">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W340">
         <v>0</v>
@@ -30766,25 +30766,25 @@
         <v>3.5</v>
       </c>
       <c r="P341">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q341">
         <v>-0.75</v>
       </c>
       <c r="R341">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S341">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T341">
         <v>2.5</v>
       </c>
       <c r="U341">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V341">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W341">
         <v>0</v>
@@ -30834,22 +30834,22 @@
         <v>4.75</v>
       </c>
       <c r="N342">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O342">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P342">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q342">
         <v>-1</v>
       </c>
       <c r="R342">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S342">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T342">
         <v>3</v>
@@ -30873,6 +30873,80 @@
         <v>0</v>
       </c>
       <c r="AA342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:27">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>7641680</v>
+      </c>
+      <c r="C343" t="s">
+        <v>28</v>
+      </c>
+      <c r="D343" t="s">
+        <v>28</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45347.83680555555</v>
+      </c>
+      <c r="F343" t="s">
+        <v>29</v>
+      </c>
+      <c r="G343" t="s">
+        <v>39</v>
+      </c>
+      <c r="K343">
+        <v>1.333</v>
+      </c>
+      <c r="L343">
+        <v>4.75</v>
+      </c>
+      <c r="M343">
+        <v>7.5</v>
+      </c>
+      <c r="N343">
+        <v>1.363</v>
+      </c>
+      <c r="O343">
+        <v>4.75</v>
+      </c>
+      <c r="P343">
+        <v>7</v>
+      </c>
+      <c r="Q343">
+        <v>-1.5</v>
+      </c>
+      <c r="R343">
+        <v>1.975</v>
+      </c>
+      <c r="S343">
+        <v>1.825</v>
+      </c>
+      <c r="T343">
+        <v>3</v>
+      </c>
+      <c r="U343">
+        <v>1.975</v>
+      </c>
+      <c r="V343">
+        <v>1.825</v>
+      </c>
+      <c r="W343">
+        <v>0</v>
+      </c>
+      <c r="X343">
+        <v>0</v>
+      </c>
+      <c r="Y343">
+        <v>0</v>
+      </c>
+      <c r="Z343">
+        <v>0</v>
+      </c>
+      <c r="AA343">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC343"/>
+  <dimension ref="A1:AC342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6007834</v>
+        <v>6007835</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,76 +4639,76 @@
         <v>44965.00347222222</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M47">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N47">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6007835</v>
+        <v>6007834</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>44965.00347222222</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N48">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O48">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P48">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q48">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
+        <v>1.925</v>
+      </c>
+      <c r="S48">
+        <v>1.875</v>
+      </c>
+      <c r="T48">
+        <v>2.25</v>
+      </c>
+      <c r="U48">
+        <v>1.85</v>
+      </c>
+      <c r="V48">
         <v>1.95</v>
       </c>
-      <c r="S48">
-        <v>1.85</v>
-      </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.825</v>
-      </c>
-      <c r="V48">
-        <v>1.975</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -23762,7 +23762,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23774,76 +23774,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G262" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H262">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I262">
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K262">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M262">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N262">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O262">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P262">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q262">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R262">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S262">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T262">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U262">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V262">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W262">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z262">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB262">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G263" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L263">
+        <v>4</v>
+      </c>
+      <c r="M263">
+        <v>4.5</v>
+      </c>
+      <c r="N263">
+        <v>1.5</v>
+      </c>
+      <c r="O263">
+        <v>4.75</v>
+      </c>
+      <c r="P263">
+        <v>5.75</v>
+      </c>
+      <c r="Q263">
+        <v>-1.25</v>
+      </c>
+      <c r="R263">
+        <v>1.925</v>
+      </c>
+      <c r="S263">
+        <v>1.875</v>
+      </c>
+      <c r="T263">
         <v>3</v>
       </c>
-      <c r="M263">
-        <v>2.875</v>
-      </c>
-      <c r="N263">
-        <v>2.7</v>
-      </c>
-      <c r="O263">
-        <v>3.1</v>
-      </c>
-      <c r="P263">
-        <v>2.8</v>
-      </c>
-      <c r="Q263">
-        <v>0</v>
-      </c>
-      <c r="R263">
-        <v>1.85</v>
-      </c>
-      <c r="S263">
+      <c r="U263">
+        <v>1.75</v>
+      </c>
+      <c r="V263">
         <v>1.95</v>
       </c>
-      <c r="T263">
-        <v>2.25</v>
-      </c>
-      <c r="U263">
-        <v>1.975</v>
-      </c>
-      <c r="V263">
-        <v>1.725</v>
-      </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA263">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC263">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -30437,7 +30437,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7641679</v>
+        <v>7641675</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30446,49 +30446,49 @@
         <v>28</v>
       </c>
       <c r="E337" s="2">
-        <v>45342.92013888889</v>
+        <v>45343.00347222222</v>
       </c>
       <c r="F337" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G337" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K337">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L337">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M337">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N337">
+        <v>2.5</v>
+      </c>
+      <c r="O337">
+        <v>3.25</v>
+      </c>
+      <c r="P337">
+        <v>2.9</v>
+      </c>
+      <c r="Q337">
+        <v>-0.25</v>
+      </c>
+      <c r="R337">
+        <v>2.05</v>
+      </c>
+      <c r="S337">
+        <v>1.75</v>
+      </c>
+      <c r="T337">
+        <v>2.25</v>
+      </c>
+      <c r="U337">
         <v>1.85</v>
       </c>
-      <c r="O337">
-        <v>3.6</v>
-      </c>
-      <c r="P337">
-        <v>4.333</v>
-      </c>
-      <c r="Q337">
-        <v>-0.5</v>
-      </c>
-      <c r="R337">
-        <v>1.825</v>
-      </c>
-      <c r="S337">
-        <v>1.975</v>
-      </c>
-      <c r="T337">
-        <v>2.5</v>
-      </c>
-      <c r="U337">
-        <v>1.825</v>
-      </c>
       <c r="V337">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W337">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7641675</v>
+        <v>7641676</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30520,49 +30520,49 @@
         <v>28</v>
       </c>
       <c r="E338" s="2">
-        <v>45343.00347222222</v>
+        <v>45343.92013888889</v>
       </c>
       <c r="F338" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G338" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K338">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="L338">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M338">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="N338">
+        <v>3.6</v>
+      </c>
+      <c r="O338">
+        <v>3.5</v>
+      </c>
+      <c r="P338">
+        <v>2.05</v>
+      </c>
+      <c r="Q338">
+        <v>0.5</v>
+      </c>
+      <c r="R338">
+        <v>1.775</v>
+      </c>
+      <c r="S338">
+        <v>2.025</v>
+      </c>
+      <c r="T338">
         <v>2.5</v>
       </c>
-      <c r="O338">
-        <v>3.25</v>
-      </c>
-      <c r="P338">
-        <v>2.9</v>
-      </c>
-      <c r="Q338">
-        <v>-0.25</v>
-      </c>
-      <c r="R338">
-        <v>2.05</v>
-      </c>
-      <c r="S338">
-        <v>1.75</v>
-      </c>
-      <c r="T338">
-        <v>2.25</v>
-      </c>
       <c r="U338">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V338">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W338">
         <v>0</v>
@@ -30585,7 +30585,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7641676</v>
+        <v>7641674</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30594,49 +30594,49 @@
         <v>28</v>
       </c>
       <c r="E339" s="2">
-        <v>45343.92013888889</v>
+        <v>45344.00347222222</v>
       </c>
       <c r="F339" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G339" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K339">
+        <v>2</v>
+      </c>
+      <c r="L339">
         <v>3.4</v>
       </c>
-      <c r="L339">
-        <v>3.3</v>
-      </c>
       <c r="M339">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N339">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O339">
         <v>3.5</v>
       </c>
       <c r="P339">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q339">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R339">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S339">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T339">
         <v>2.5</v>
       </c>
       <c r="U339">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V339">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W339">
         <v>0</v>
@@ -30659,7 +30659,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7641674</v>
+        <v>7641678</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30668,49 +30668,49 @@
         <v>28</v>
       </c>
       <c r="E340" s="2">
-        <v>45344.00347222222</v>
+        <v>45344.92013888889</v>
       </c>
       <c r="F340" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G340" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K340">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L340">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M340">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N340">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O340">
         <v>3.5</v>
       </c>
       <c r="P340">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q340">
         <v>-0.5</v>
       </c>
       <c r="R340">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S340">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T340">
         <v>2.5</v>
       </c>
       <c r="U340">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V340">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W340">
         <v>0</v>
@@ -30733,7 +30733,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7641678</v>
+        <v>7641677</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30742,34 +30742,34 @@
         <v>28</v>
       </c>
       <c r="E341" s="2">
-        <v>45344.92013888889</v>
+        <v>45345.00347222222</v>
       </c>
       <c r="F341" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G341" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K341">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L341">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M341">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N341">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O341">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P341">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q341">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R341">
         <v>2</v>
@@ -30778,13 +30778,13 @@
         <v>1.8</v>
       </c>
       <c r="T341">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U341">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V341">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W341">
         <v>0</v>
@@ -30807,7 +30807,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7641677</v>
+        <v>7641680</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30816,49 +30816,49 @@
         <v>28</v>
       </c>
       <c r="E342" s="2">
-        <v>45345.00347222222</v>
+        <v>45347.83680555555</v>
       </c>
       <c r="F342" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G342" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K342">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L342">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M342">
+        <v>7.5</v>
+      </c>
+      <c r="N342">
+        <v>1.363</v>
+      </c>
+      <c r="O342">
         <v>4.75</v>
       </c>
-      <c r="N342">
-        <v>1.65</v>
-      </c>
-      <c r="O342">
-        <v>4.2</v>
-      </c>
       <c r="P342">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q342">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R342">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S342">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T342">
         <v>3</v>
       </c>
       <c r="U342">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V342">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W342">
         <v>0</v>
@@ -30873,80 +30873,6 @@
         <v>0</v>
       </c>
       <c r="AA342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:27">
-      <c r="A343" s="1">
-        <v>341</v>
-      </c>
-      <c r="B343">
-        <v>7641680</v>
-      </c>
-      <c r="C343" t="s">
-        <v>28</v>
-      </c>
-      <c r="D343" t="s">
-        <v>28</v>
-      </c>
-      <c r="E343" s="2">
-        <v>45347.83680555555</v>
-      </c>
-      <c r="F343" t="s">
-        <v>29</v>
-      </c>
-      <c r="G343" t="s">
-        <v>39</v>
-      </c>
-      <c r="K343">
-        <v>1.333</v>
-      </c>
-      <c r="L343">
-        <v>4.75</v>
-      </c>
-      <c r="M343">
-        <v>7.5</v>
-      </c>
-      <c r="N343">
-        <v>1.363</v>
-      </c>
-      <c r="O343">
-        <v>4.75</v>
-      </c>
-      <c r="P343">
-        <v>7</v>
-      </c>
-      <c r="Q343">
-        <v>-1.5</v>
-      </c>
-      <c r="R343">
-        <v>1.975</v>
-      </c>
-      <c r="S343">
-        <v>1.825</v>
-      </c>
-      <c r="T343">
-        <v>3</v>
-      </c>
-      <c r="U343">
-        <v>1.975</v>
-      </c>
-      <c r="V343">
-        <v>1.825</v>
-      </c>
-      <c r="W343">
-        <v>0</v>
-      </c>
-      <c r="X343">
-        <v>0</v>
-      </c>
-      <c r="Y343">
-        <v>0</v>
-      </c>
-      <c r="Z343">
-        <v>0</v>
-      </c>
-      <c r="AA343">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC342"/>
+  <dimension ref="A1:AC343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23762,7 +23762,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23774,76 +23774,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F262" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G262" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I262">
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K262">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L262">
+        <v>4</v>
+      </c>
+      <c r="M262">
+        <v>4.5</v>
+      </c>
+      <c r="N262">
+        <v>1.5</v>
+      </c>
+      <c r="O262">
+        <v>4.75</v>
+      </c>
+      <c r="P262">
+        <v>5.75</v>
+      </c>
+      <c r="Q262">
+        <v>-1.25</v>
+      </c>
+      <c r="R262">
+        <v>1.925</v>
+      </c>
+      <c r="S262">
+        <v>1.875</v>
+      </c>
+      <c r="T262">
         <v>3</v>
       </c>
-      <c r="M262">
-        <v>2.875</v>
-      </c>
-      <c r="N262">
-        <v>2.7</v>
-      </c>
-      <c r="O262">
-        <v>3.1</v>
-      </c>
-      <c r="P262">
-        <v>2.8</v>
-      </c>
-      <c r="Q262">
-        <v>0</v>
-      </c>
-      <c r="R262">
-        <v>1.85</v>
-      </c>
-      <c r="S262">
+      <c r="U262">
+        <v>1.75</v>
+      </c>
+      <c r="V262">
         <v>1.95</v>
       </c>
-      <c r="T262">
-        <v>2.25</v>
-      </c>
-      <c r="U262">
-        <v>1.975</v>
-      </c>
-      <c r="V262">
-        <v>1.725</v>
-      </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA262">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC262">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F263" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H263">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K263">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M263">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N263">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O263">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P263">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q263">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V263">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W263">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z263">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB263">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -30432,12 +30432,12 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="337" spans="1:27">
+    <row r="337" spans="1:29">
       <c r="A337" s="1">
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7641675</v>
+        <v>7641679</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30446,72 +30446,87 @@
         <v>28</v>
       </c>
       <c r="E337" s="2">
-        <v>45343.00347222222</v>
+        <v>45342.92013888889</v>
       </c>
       <c r="F337" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G337" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
+        <v>2</v>
+      </c>
+      <c r="J337" t="s">
+        <v>48</v>
       </c>
       <c r="K337">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L337">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M337">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N337">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O337">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P337">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q337">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R337">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S337">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T337">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U337">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V337">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W337">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X337">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y337">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z337">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB337">
+        <v>-1</v>
+      </c>
+      <c r="AC337">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="338" spans="1:29">
       <c r="A338" s="1">
         <v>336</v>
       </c>
       <c r="B338">
-        <v>7641676</v>
+        <v>7641675</v>
       </c>
       <c r="C338" t="s">
         <v>28</v>
@@ -30520,72 +30535,87 @@
         <v>28</v>
       </c>
       <c r="E338" s="2">
-        <v>45343.92013888889</v>
+        <v>45343.00347222222</v>
       </c>
       <c r="F338" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G338" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="H338">
+        <v>3</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338" t="s">
+        <v>47</v>
       </c>
       <c r="K338">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="L338">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M338">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N338">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="O338">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P338">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="Q338">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R338">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S338">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T338">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U338">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V338">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W338">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X338">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y338">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z338">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB338">
+        <v>0.875</v>
+      </c>
+      <c r="AC338">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:29">
       <c r="A339" s="1">
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7641674</v>
+        <v>7641676</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30594,49 +30624,49 @@
         <v>28</v>
       </c>
       <c r="E339" s="2">
-        <v>45344.00347222222</v>
+        <v>45343.92013888889</v>
       </c>
       <c r="F339" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G339" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K339">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L339">
+        <v>3.3</v>
+      </c>
+      <c r="M339">
+        <v>2.1</v>
+      </c>
+      <c r="N339">
+        <v>2.9</v>
+      </c>
+      <c r="O339">
         <v>3.4</v>
       </c>
-      <c r="M339">
-        <v>3.6</v>
-      </c>
-      <c r="N339">
-        <v>2</v>
-      </c>
-      <c r="O339">
-        <v>3.5</v>
-      </c>
       <c r="P339">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q339">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R339">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S339">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T339">
         <v>2.5</v>
       </c>
       <c r="U339">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V339">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W339">
         <v>0</v>
@@ -30654,12 +30684,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:27">
+    <row r="340" spans="1:29">
       <c r="A340" s="1">
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7641678</v>
+        <v>7641674</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30668,49 +30698,49 @@
         <v>28</v>
       </c>
       <c r="E340" s="2">
-        <v>45344.92013888889</v>
+        <v>45344.00347222222</v>
       </c>
       <c r="F340" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G340" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K340">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L340">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M340">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N340">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O340">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P340">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q340">
         <v>-0.5</v>
       </c>
       <c r="R340">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S340">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T340">
         <v>2.5</v>
       </c>
       <c r="U340">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V340">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W340">
         <v>0</v>
@@ -30728,12 +30758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:27">
+    <row r="341" spans="1:29">
       <c r="A341" s="1">
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7641677</v>
+        <v>7641678</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30742,43 +30772,43 @@
         <v>28</v>
       </c>
       <c r="E341" s="2">
-        <v>45345.00347222222</v>
+        <v>45344.92013888889</v>
       </c>
       <c r="F341" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G341" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K341">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L341">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M341">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N341">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O341">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P341">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q341">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R341">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S341">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T341">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U341">
         <v>1.975</v>
@@ -30802,12 +30832,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:27">
+    <row r="342" spans="1:29">
       <c r="A342" s="1">
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7641680</v>
+        <v>7641677</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30816,49 +30846,49 @@
         <v>28</v>
       </c>
       <c r="E342" s="2">
-        <v>45347.83680555555</v>
+        <v>45345.00347222222</v>
       </c>
       <c r="F342" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G342" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K342">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L342">
+        <v>4</v>
+      </c>
+      <c r="M342">
         <v>4.75</v>
       </c>
-      <c r="M342">
-        <v>7.5</v>
-      </c>
       <c r="N342">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O342">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P342">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q342">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R342">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S342">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T342">
         <v>3</v>
       </c>
       <c r="U342">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V342">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W342">
         <v>0</v>
@@ -30873,6 +30903,80 @@
         <v>0</v>
       </c>
       <c r="AA342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:29">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>7641680</v>
+      </c>
+      <c r="C343" t="s">
+        <v>28</v>
+      </c>
+      <c r="D343" t="s">
+        <v>28</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45347.83680555555</v>
+      </c>
+      <c r="F343" t="s">
+        <v>29</v>
+      </c>
+      <c r="G343" t="s">
+        <v>39</v>
+      </c>
+      <c r="K343">
+        <v>1.333</v>
+      </c>
+      <c r="L343">
+        <v>4.75</v>
+      </c>
+      <c r="M343">
+        <v>7.5</v>
+      </c>
+      <c r="N343">
+        <v>1.363</v>
+      </c>
+      <c r="O343">
+        <v>4.75</v>
+      </c>
+      <c r="P343">
+        <v>7</v>
+      </c>
+      <c r="Q343">
+        <v>-1.5</v>
+      </c>
+      <c r="R343">
+        <v>1.95</v>
+      </c>
+      <c r="S343">
+        <v>1.85</v>
+      </c>
+      <c r="T343">
+        <v>3</v>
+      </c>
+      <c r="U343">
+        <v>1.95</v>
+      </c>
+      <c r="V343">
+        <v>1.85</v>
+      </c>
+      <c r="W343">
+        <v>0</v>
+      </c>
+      <c r="X343">
+        <v>0</v>
+      </c>
+      <c r="Y343">
+        <v>0</v>
+      </c>
+      <c r="Z343">
+        <v>0</v>
+      </c>
+      <c r="AA343">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC343"/>
+  <dimension ref="A1:AC342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23762,7 +23762,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23774,76 +23774,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G262" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H262">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I262">
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K262">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M262">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N262">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O262">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P262">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q262">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R262">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S262">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T262">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U262">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V262">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W262">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z262">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB262">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G263" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L263">
+        <v>4</v>
+      </c>
+      <c r="M263">
+        <v>4.5</v>
+      </c>
+      <c r="N263">
+        <v>1.5</v>
+      </c>
+      <c r="O263">
+        <v>4.75</v>
+      </c>
+      <c r="P263">
+        <v>5.75</v>
+      </c>
+      <c r="Q263">
+        <v>-1.25</v>
+      </c>
+      <c r="R263">
+        <v>1.925</v>
+      </c>
+      <c r="S263">
+        <v>1.875</v>
+      </c>
+      <c r="T263">
         <v>3</v>
       </c>
-      <c r="M263">
-        <v>2.875</v>
-      </c>
-      <c r="N263">
-        <v>2.7</v>
-      </c>
-      <c r="O263">
-        <v>3.1</v>
-      </c>
-      <c r="P263">
-        <v>2.8</v>
-      </c>
-      <c r="Q263">
-        <v>0</v>
-      </c>
-      <c r="R263">
-        <v>1.85</v>
-      </c>
-      <c r="S263">
+      <c r="U263">
+        <v>1.75</v>
+      </c>
+      <c r="V263">
         <v>1.95</v>
       </c>
-      <c r="T263">
-        <v>2.25</v>
-      </c>
-      <c r="U263">
-        <v>1.975</v>
-      </c>
-      <c r="V263">
-        <v>1.725</v>
-      </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA263">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC263">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -30632,6 +30632,15 @@
       <c r="G339" t="s">
         <v>31</v>
       </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339" t="s">
+        <v>47</v>
+      </c>
       <c r="K339">
         <v>3.4</v>
       </c>
@@ -30654,34 +30663,40 @@
         <v>0</v>
       </c>
       <c r="R339">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S339">
+        <v>1.775</v>
+      </c>
+      <c r="T339">
+        <v>2.25</v>
+      </c>
+      <c r="U339">
         <v>1.75</v>
       </c>
-      <c r="T339">
-        <v>2.5</v>
-      </c>
-      <c r="U339">
-        <v>2.025</v>
-      </c>
       <c r="V339">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W339">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X339">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y339">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA339">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB339">
+        <v>-1</v>
+      </c>
+      <c r="AC339">
+        <v>0.95</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30706,6 +30721,15 @@
       <c r="G340" t="s">
         <v>44</v>
       </c>
+      <c r="H340">
+        <v>4</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340" t="s">
+        <v>47</v>
+      </c>
       <c r="K340">
         <v>2</v>
       </c>
@@ -30716,46 +30740,52 @@
         <v>3.6</v>
       </c>
       <c r="N340">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O340">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P340">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q340">
         <v>-0.5</v>
       </c>
       <c r="R340">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S340">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T340">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U340">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V340">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W340">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="X340">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA340">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB340">
+        <v>1</v>
+      </c>
+      <c r="AC340">
+        <v>-1</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -30780,6 +30810,15 @@
       <c r="G341" t="s">
         <v>43</v>
       </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341" t="s">
+        <v>47</v>
+      </c>
       <c r="K341">
         <v>1.8</v>
       </c>
@@ -30802,34 +30841,40 @@
         <v>-0.5</v>
       </c>
       <c r="R341">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S341">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T341">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U341">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V341">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W341">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X341">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y341">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z341">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA341">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB341">
+        <v>-1</v>
+      </c>
+      <c r="AC341">
+        <v>0.95</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -30837,7 +30882,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7641677</v>
+        <v>7641680</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30846,49 +30891,49 @@
         <v>28</v>
       </c>
       <c r="E342" s="2">
-        <v>45345.00347222222</v>
+        <v>45347.83680555555</v>
       </c>
       <c r="F342" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G342" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K342">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="L342">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M342">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N342">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O342">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P342">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q342">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R342">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S342">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T342">
         <v>3</v>
       </c>
       <c r="U342">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V342">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W342">
         <v>0</v>
@@ -30903,80 +30948,6 @@
         <v>0</v>
       </c>
       <c r="AA342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:29">
-      <c r="A343" s="1">
-        <v>341</v>
-      </c>
-      <c r="B343">
-        <v>7641680</v>
-      </c>
-      <c r="C343" t="s">
-        <v>28</v>
-      </c>
-      <c r="D343" t="s">
-        <v>28</v>
-      </c>
-      <c r="E343" s="2">
-        <v>45347.83680555555</v>
-      </c>
-      <c r="F343" t="s">
-        <v>29</v>
-      </c>
-      <c r="G343" t="s">
-        <v>39</v>
-      </c>
-      <c r="K343">
-        <v>1.333</v>
-      </c>
-      <c r="L343">
-        <v>4.75</v>
-      </c>
-      <c r="M343">
-        <v>7.5</v>
-      </c>
-      <c r="N343">
-        <v>1.363</v>
-      </c>
-      <c r="O343">
-        <v>4.75</v>
-      </c>
-      <c r="P343">
-        <v>7</v>
-      </c>
-      <c r="Q343">
-        <v>-1.5</v>
-      </c>
-      <c r="R343">
-        <v>1.95</v>
-      </c>
-      <c r="S343">
-        <v>1.85</v>
-      </c>
-      <c r="T343">
-        <v>3</v>
-      </c>
-      <c r="U343">
-        <v>1.95</v>
-      </c>
-      <c r="V343">
-        <v>1.85</v>
-      </c>
-      <c r="W343">
-        <v>0</v>
-      </c>
-      <c r="X343">
-        <v>0</v>
-      </c>
-      <c r="Y343">
-        <v>0</v>
-      </c>
-      <c r="Z343">
-        <v>0</v>
-      </c>
-      <c r="AA343">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>Atlante</t>
   </si>
   <si>
-    <t>Tlaxcala FC</t>
+    <t>Raya2 Expansion</t>
   </si>
   <si>
-    <t>Raya2 Expansion</t>
+    <t>Tlaxcala FC</t>
   </si>
   <si>
     <t>Correcaminos</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC342"/>
+  <dimension ref="A1:AC346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6007799</v>
+        <v>6007798</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1094,61 +1094,61 @@
         <v>49</v>
       </c>
       <c r="K7">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
+        <v>3.4</v>
+      </c>
+      <c r="N7">
+        <v>2.1</v>
+      </c>
+      <c r="O7">
+        <v>3.3</v>
+      </c>
+      <c r="P7">
+        <v>3.6</v>
+      </c>
+      <c r="Q7">
+        <v>-0.25</v>
+      </c>
+      <c r="R7">
+        <v>1.775</v>
+      </c>
+      <c r="S7">
+        <v>2.025</v>
+      </c>
+      <c r="T7">
+        <v>2.25</v>
+      </c>
+      <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
+        <v>1.85</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
         <v>2.3</v>
       </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <v>3.5</v>
-      </c>
-      <c r="P7">
-        <v>1.95</v>
-      </c>
-      <c r="Q7">
-        <v>0.5</v>
-      </c>
-      <c r="R7">
-        <v>1.875</v>
-      </c>
-      <c r="S7">
-        <v>1.925</v>
-      </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
-      <c r="U7">
-        <v>1.925</v>
-      </c>
-      <c r="V7">
-        <v>1.875</v>
-      </c>
-      <c r="W7">
-        <v>-1</v>
-      </c>
-      <c r="X7">
-        <v>2.5</v>
-      </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6007798</v>
+        <v>6007799</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1183,61 +1183,61 @@
         <v>49</v>
       </c>
       <c r="K8">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M8">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O8">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA8">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>44943.83680555555</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
@@ -2150,7 +2150,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2859,10 +2859,10 @@
         <v>44950.83680555555</v>
       </c>
       <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
         <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3927,7 +3927,7 @@
         <v>44958.83333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4019,7 +4019,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>44964.83680555555</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
         <v>30</v>
@@ -4642,7 +4642,7 @@
         <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5888,7 +5888,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>44978.83680555555</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
         <v>43</v>
@@ -6241,7 +6241,7 @@
         <v>44978.92013888889</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>40</v>
@@ -7490,7 +7490,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7668,7 +7668,7 @@
         <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8021,7 +8021,7 @@
         <v>44993.83333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8199,7 +8199,7 @@
         <v>44994.00347222222</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
         <v>39</v>
@@ -8555,7 +8555,7 @@
         <v>44999.83680555555</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
         <v>31</v>
@@ -8914,7 +8914,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9801,7 +9801,7 @@
         <v>45007.92013888889</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
         <v>36</v>
@@ -9982,7 +9982,7 @@
         <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10516,7 +10516,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10869,7 +10869,7 @@
         <v>45012.00347222222</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -11314,7 +11314,7 @@
         <v>45015.00347222222</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11670,7 +11670,7 @@
         <v>45020.83680555555</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
         <v>30</v>
@@ -11848,7 +11848,7 @@
         <v>45021.00347222222</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
         <v>32</v>
@@ -13008,7 +13008,7 @@
         <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13186,7 +13186,7 @@
         <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13806,7 +13806,7 @@
         <v>45036.00347222222</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
         <v>44</v>
@@ -13984,7 +13984,7 @@
         <v>45037.83333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
         <v>36</v>
@@ -14162,7 +14162,7 @@
         <v>45042.91666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
         <v>39</v>
@@ -14340,7 +14340,7 @@
         <v>45043.91666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
         <v>31</v>
@@ -14607,7 +14607,7 @@
         <v>45049.91666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
         <v>33</v>
@@ -14696,7 +14696,7 @@
         <v>45050.00347222222</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>43</v>
@@ -14966,7 +14966,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15055,7 +15055,7 @@
         <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15945,7 +15945,7 @@
         <v>31</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16654,7 +16654,7 @@
         <v>45136.83680555555</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
         <v>33</v>
@@ -17191,7 +17191,7 @@
         <v>38</v>
       </c>
       <c r="G188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H188">
         <v>5</v>
@@ -18790,7 +18790,7 @@
         <v>45156.83680555555</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
         <v>41</v>
@@ -19505,7 +19505,7 @@
         <v>43</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19947,7 +19947,7 @@
         <v>45168.92013888889</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
         <v>29</v>
@@ -20573,7 +20573,7 @@
         <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -21371,7 +21371,7 @@
         <v>45186.00347222222</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G235" t="s">
         <v>39</v>
@@ -21816,7 +21816,7 @@
         <v>45189.83680555555</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
         <v>42</v>
@@ -22175,7 +22175,7 @@
         <v>30</v>
       </c>
       <c r="G244" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22798,7 +22798,7 @@
         <v>45</v>
       </c>
       <c r="G251" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H251">
         <v>3</v>
@@ -23507,7 +23507,7 @@
         <v>45212.83680555555</v>
       </c>
       <c r="F259" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G259" t="s">
         <v>44</v>
@@ -23762,7 +23762,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23774,76 +23774,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F262" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G262" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I262">
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K262">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L262">
+        <v>4</v>
+      </c>
+      <c r="M262">
+        <v>4.5</v>
+      </c>
+      <c r="N262">
+        <v>1.5</v>
+      </c>
+      <c r="O262">
+        <v>4.75</v>
+      </c>
+      <c r="P262">
+        <v>5.75</v>
+      </c>
+      <c r="Q262">
+        <v>-1.25</v>
+      </c>
+      <c r="R262">
+        <v>1.925</v>
+      </c>
+      <c r="S262">
+        <v>1.875</v>
+      </c>
+      <c r="T262">
         <v>3</v>
       </c>
-      <c r="M262">
-        <v>2.875</v>
-      </c>
-      <c r="N262">
-        <v>2.7</v>
-      </c>
-      <c r="O262">
-        <v>3.1</v>
-      </c>
-      <c r="P262">
-        <v>2.8</v>
-      </c>
-      <c r="Q262">
-        <v>0</v>
-      </c>
-      <c r="R262">
-        <v>1.85</v>
-      </c>
-      <c r="S262">
+      <c r="U262">
+        <v>1.75</v>
+      </c>
+      <c r="V262">
         <v>1.95</v>
       </c>
-      <c r="T262">
-        <v>2.25</v>
-      </c>
-      <c r="U262">
-        <v>1.975</v>
-      </c>
-      <c r="V262">
-        <v>1.725</v>
-      </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA262">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC262">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F263" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H263">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K263">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M263">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N263">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O263">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P263">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q263">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R263">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S263">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T263">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U263">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V263">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W263">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z263">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB263">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24667,7 +24667,7 @@
         <v>46</v>
       </c>
       <c r="G272" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -24842,7 +24842,7 @@
         <v>45231.83680555555</v>
       </c>
       <c r="F274" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G274" t="s">
         <v>36</v>
@@ -26978,7 +26978,7 @@
         <v>45301.92013888889</v>
       </c>
       <c r="F298" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G298" t="s">
         <v>40</v>
@@ -28135,7 +28135,7 @@
         <v>45315.92013888889</v>
       </c>
       <c r="F311" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G311" t="s">
         <v>45</v>
@@ -28583,7 +28583,7 @@
         <v>41</v>
       </c>
       <c r="G316" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -29651,7 +29651,7 @@
         <v>42</v>
       </c>
       <c r="G328" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H328">
         <v>3</v>
@@ -30182,7 +30182,7 @@
         <v>45338.92013888889</v>
       </c>
       <c r="F334" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G334" t="s">
         <v>30</v>
@@ -30627,7 +30627,7 @@
         <v>45343.92013888889</v>
       </c>
       <c r="F339" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G339" t="s">
         <v>31</v>
@@ -30882,72 +30882,383 @@
         <v>340</v>
       </c>
       <c r="B342">
+        <v>7641677</v>
+      </c>
+      <c r="C342" t="s">
+        <v>28</v>
+      </c>
+      <c r="D342" t="s">
+        <v>28</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45345.00347222222</v>
+      </c>
+      <c r="F342" t="s">
+        <v>30</v>
+      </c>
+      <c r="G342" t="s">
+        <v>45</v>
+      </c>
+      <c r="H342">
+        <v>1</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342" t="s">
+        <v>47</v>
+      </c>
+      <c r="K342">
+        <v>1.6</v>
+      </c>
+      <c r="L342">
+        <v>4</v>
+      </c>
+      <c r="M342">
+        <v>4.75</v>
+      </c>
+      <c r="N342">
+        <v>1.7</v>
+      </c>
+      <c r="O342">
+        <v>4</v>
+      </c>
+      <c r="P342">
+        <v>4.75</v>
+      </c>
+      <c r="Q342">
+        <v>-0.75</v>
+      </c>
+      <c r="R342">
+        <v>1.9</v>
+      </c>
+      <c r="S342">
+        <v>1.9</v>
+      </c>
+      <c r="T342">
+        <v>2.75</v>
+      </c>
+      <c r="U342">
+        <v>1.825</v>
+      </c>
+      <c r="V342">
+        <v>1.975</v>
+      </c>
+      <c r="W342">
+        <v>0.7</v>
+      </c>
+      <c r="X342">
+        <v>-1</v>
+      </c>
+      <c r="Y342">
+        <v>-1</v>
+      </c>
+      <c r="Z342">
+        <v>0.45</v>
+      </c>
+      <c r="AA342">
+        <v>-0.5</v>
+      </c>
+      <c r="AB342">
+        <v>-1</v>
+      </c>
+      <c r="AC342">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:29">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
         <v>7641680</v>
       </c>
-      <c r="C342" t="s">
-        <v>28</v>
-      </c>
-      <c r="D342" t="s">
-        <v>28</v>
-      </c>
-      <c r="E342" s="2">
+      <c r="C343" t="s">
+        <v>28</v>
+      </c>
+      <c r="D343" t="s">
+        <v>28</v>
+      </c>
+      <c r="E343" s="2">
         <v>45347.83680555555</v>
       </c>
-      <c r="F342" t="s">
+      <c r="F343" t="s">
         <v>29</v>
       </c>
-      <c r="G342" t="s">
+      <c r="G343" t="s">
         <v>39</v>
       </c>
-      <c r="K342">
+      <c r="K343">
         <v>1.333</v>
       </c>
-      <c r="L342">
+      <c r="L343">
         <v>4.75</v>
       </c>
-      <c r="M342">
+      <c r="M343">
         <v>7.5</v>
       </c>
-      <c r="N342">
+      <c r="N343">
         <v>1.363</v>
       </c>
-      <c r="O342">
+      <c r="O343">
         <v>5</v>
       </c>
-      <c r="P342">
+      <c r="P343">
         <v>8</v>
       </c>
-      <c r="Q342">
+      <c r="Q343">
         <v>-1.5</v>
       </c>
-      <c r="R342">
+      <c r="R343">
         <v>1.95</v>
       </c>
-      <c r="S342">
+      <c r="S343">
         <v>1.85</v>
       </c>
-      <c r="T342">
+      <c r="T343">
         <v>3</v>
       </c>
-      <c r="U342">
+      <c r="U343">
         <v>1.95</v>
       </c>
-      <c r="V342">
+      <c r="V343">
         <v>1.85</v>
       </c>
-      <c r="W342">
+      <c r="W343">
         <v>0</v>
       </c>
-      <c r="X342">
+      <c r="X343">
         <v>0</v>
       </c>
-      <c r="Y342">
+      <c r="Y343">
         <v>0</v>
       </c>
-      <c r="Z342">
+      <c r="Z343">
         <v>0</v>
       </c>
-      <c r="AA342">
+      <c r="AA343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:29">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>7640646</v>
+      </c>
+      <c r="C344" t="s">
+        <v>28</v>
+      </c>
+      <c r="D344" t="s">
+        <v>28</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45349.92013888889</v>
+      </c>
+      <c r="F344" t="s">
+        <v>31</v>
+      </c>
+      <c r="G344" t="s">
+        <v>33</v>
+      </c>
+      <c r="K344">
+        <v>2.9</v>
+      </c>
+      <c r="L344">
+        <v>3.1</v>
+      </c>
+      <c r="M344">
+        <v>2.3</v>
+      </c>
+      <c r="N344">
+        <v>2.9</v>
+      </c>
+      <c r="O344">
+        <v>3.1</v>
+      </c>
+      <c r="P344">
+        <v>2.3</v>
+      </c>
+      <c r="Q344">
+        <v>0.25</v>
+      </c>
+      <c r="R344">
+        <v>1.775</v>
+      </c>
+      <c r="S344">
+        <v>2.025</v>
+      </c>
+      <c r="T344">
+        <v>2.25</v>
+      </c>
+      <c r="U344">
+        <v>2</v>
+      </c>
+      <c r="V344">
+        <v>1.8</v>
+      </c>
+      <c r="W344">
+        <v>0</v>
+      </c>
+      <c r="X344">
+        <v>0</v>
+      </c>
+      <c r="Y344">
+        <v>0</v>
+      </c>
+      <c r="Z344">
+        <v>0</v>
+      </c>
+      <c r="AA344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:29">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>7641681</v>
+      </c>
+      <c r="C345" t="s">
+        <v>28</v>
+      </c>
+      <c r="D345" t="s">
+        <v>28</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45350.00347222222</v>
+      </c>
+      <c r="F345" t="s">
+        <v>46</v>
+      </c>
+      <c r="G345" t="s">
+        <v>36</v>
+      </c>
+      <c r="K345">
+        <v>1.666</v>
+      </c>
+      <c r="L345">
+        <v>3.6</v>
+      </c>
+      <c r="M345">
+        <v>4.333</v>
+      </c>
+      <c r="N345">
+        <v>1.65</v>
+      </c>
+      <c r="O345">
+        <v>3.6</v>
+      </c>
+      <c r="P345">
+        <v>4.5</v>
+      </c>
+      <c r="Q345">
+        <v>-0.75</v>
+      </c>
+      <c r="R345">
+        <v>1.85</v>
+      </c>
+      <c r="S345">
+        <v>1.95</v>
+      </c>
+      <c r="T345">
+        <v>2.5</v>
+      </c>
+      <c r="U345">
+        <v>1.8</v>
+      </c>
+      <c r="V345">
+        <v>2</v>
+      </c>
+      <c r="W345">
+        <v>0</v>
+      </c>
+      <c r="X345">
+        <v>0</v>
+      </c>
+      <c r="Y345">
+        <v>0</v>
+      </c>
+      <c r="Z345">
+        <v>0</v>
+      </c>
+      <c r="AA345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:29">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>7641683</v>
+      </c>
+      <c r="C346" t="s">
+        <v>28</v>
+      </c>
+      <c r="D346" t="s">
+        <v>28</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45351.00347222222</v>
+      </c>
+      <c r="F346" t="s">
+        <v>45</v>
+      </c>
+      <c r="G346" t="s">
+        <v>43</v>
+      </c>
+      <c r="K346">
+        <v>2.9</v>
+      </c>
+      <c r="L346">
+        <v>3.4</v>
+      </c>
+      <c r="M346">
+        <v>2.15</v>
+      </c>
+      <c r="N346">
+        <v>2.9</v>
+      </c>
+      <c r="O346">
+        <v>3.4</v>
+      </c>
+      <c r="P346">
+        <v>2.15</v>
+      </c>
+      <c r="Q346">
+        <v>0.25</v>
+      </c>
+      <c r="R346">
+        <v>1.875</v>
+      </c>
+      <c r="S346">
+        <v>1.925</v>
+      </c>
+      <c r="T346">
+        <v>2.5</v>
+      </c>
+      <c r="U346">
+        <v>1.925</v>
+      </c>
+      <c r="V346">
+        <v>1.875</v>
+      </c>
+      <c r="W346">
+        <v>0</v>
+      </c>
+      <c r="X346">
+        <v>0</v>
+      </c>
+      <c r="Y346">
+        <v>0</v>
+      </c>
+      <c r="Z346">
+        <v>0</v>
+      </c>
+      <c r="AA346">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC346"/>
+  <dimension ref="A1:AC348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30998,13 +30998,13 @@
         <v>7.5</v>
       </c>
       <c r="N343">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O343">
         <v>5</v>
       </c>
       <c r="P343">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q343">
         <v>-1.5</v>
@@ -31193,7 +31193,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7641683</v>
+        <v>7641682</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31202,49 +31202,49 @@
         <v>28</v>
       </c>
       <c r="E346" s="2">
-        <v>45351.00347222222</v>
+        <v>45350.92013888889</v>
       </c>
       <c r="F346" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G346" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K346">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L346">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M346">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N346">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O346">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P346">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q346">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S346">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T346">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U346">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V346">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W346">
         <v>0</v>
@@ -31259,6 +31259,154 @@
         <v>0</v>
       </c>
       <c r="AA346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:29">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>7641683</v>
+      </c>
+      <c r="C347" t="s">
+        <v>28</v>
+      </c>
+      <c r="D347" t="s">
+        <v>28</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45351.00347222222</v>
+      </c>
+      <c r="F347" t="s">
+        <v>45</v>
+      </c>
+      <c r="G347" t="s">
+        <v>43</v>
+      </c>
+      <c r="K347">
+        <v>2.9</v>
+      </c>
+      <c r="L347">
+        <v>3.4</v>
+      </c>
+      <c r="M347">
+        <v>2.15</v>
+      </c>
+      <c r="N347">
+        <v>2.9</v>
+      </c>
+      <c r="O347">
+        <v>3.4</v>
+      </c>
+      <c r="P347">
+        <v>2.15</v>
+      </c>
+      <c r="Q347">
+        <v>0.25</v>
+      </c>
+      <c r="R347">
+        <v>1.875</v>
+      </c>
+      <c r="S347">
+        <v>1.925</v>
+      </c>
+      <c r="T347">
+        <v>2.5</v>
+      </c>
+      <c r="U347">
+        <v>1.925</v>
+      </c>
+      <c r="V347">
+        <v>1.875</v>
+      </c>
+      <c r="W347">
+        <v>0</v>
+      </c>
+      <c r="X347">
+        <v>0</v>
+      </c>
+      <c r="Y347">
+        <v>0</v>
+      </c>
+      <c r="Z347">
+        <v>0</v>
+      </c>
+      <c r="AA347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:29">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>7641685</v>
+      </c>
+      <c r="C348" t="s">
+        <v>28</v>
+      </c>
+      <c r="D348" t="s">
+        <v>28</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45352.00347222222</v>
+      </c>
+      <c r="F348" t="s">
+        <v>42</v>
+      </c>
+      <c r="G348" t="s">
+        <v>41</v>
+      </c>
+      <c r="K348">
+        <v>1.8</v>
+      </c>
+      <c r="L348">
+        <v>3.25</v>
+      </c>
+      <c r="M348">
+        <v>4</v>
+      </c>
+      <c r="N348">
+        <v>1.8</v>
+      </c>
+      <c r="O348">
+        <v>3.25</v>
+      </c>
+      <c r="P348">
+        <v>4</v>
+      </c>
+      <c r="Q348">
+        <v>-0.5</v>
+      </c>
+      <c r="R348">
+        <v>1.85</v>
+      </c>
+      <c r="S348">
+        <v>1.95</v>
+      </c>
+      <c r="T348">
+        <v>2.25</v>
+      </c>
+      <c r="U348">
+        <v>1.85</v>
+      </c>
+      <c r="V348">
+        <v>1.95</v>
+      </c>
+      <c r="W348">
+        <v>0</v>
+      </c>
+      <c r="X348">
+        <v>0</v>
+      </c>
+      <c r="Y348">
+        <v>0</v>
+      </c>
+      <c r="Z348">
+        <v>0</v>
+      </c>
+      <c r="AA348">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -118,10 +118,10 @@
     <t>Atlante</t>
   </si>
   <si>
-    <t>Raya2 Expansion</t>
+    <t>Tlaxcala FC</t>
   </si>
   <si>
-    <t>Tlaxcala FC</t>
+    <t>Raya2 Expansion</t>
   </si>
   <si>
     <t>Correcaminos</t>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6007798</v>
+        <v>6007799</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1094,61 +1094,61 @@
         <v>49</v>
       </c>
       <c r="K7">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6007799</v>
+        <v>6007798</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1171,7 +1171,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1183,61 +1183,61 @@
         <v>49</v>
       </c>
       <c r="K8">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
+        <v>3.4</v>
+      </c>
+      <c r="N8">
+        <v>2.1</v>
+      </c>
+      <c r="O8">
+        <v>3.3</v>
+      </c>
+      <c r="P8">
+        <v>3.6</v>
+      </c>
+      <c r="Q8">
+        <v>-0.25</v>
+      </c>
+      <c r="R8">
+        <v>1.775</v>
+      </c>
+      <c r="S8">
+        <v>2.025</v>
+      </c>
+      <c r="T8">
+        <v>2.25</v>
+      </c>
+      <c r="U8">
+        <v>1.95</v>
+      </c>
+      <c r="V8">
+        <v>1.85</v>
+      </c>
+      <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
         <v>2.3</v>
       </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <v>3.5</v>
-      </c>
-      <c r="P8">
-        <v>1.95</v>
-      </c>
-      <c r="Q8">
-        <v>0.5</v>
-      </c>
-      <c r="R8">
-        <v>1.875</v>
-      </c>
-      <c r="S8">
-        <v>1.925</v>
-      </c>
-      <c r="T8">
-        <v>2.5</v>
-      </c>
-      <c r="U8">
-        <v>1.925</v>
-      </c>
-      <c r="V8">
-        <v>1.875</v>
-      </c>
-      <c r="W8">
-        <v>-1</v>
-      </c>
-      <c r="X8">
-        <v>2.5</v>
-      </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB8">
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1349,7 +1349,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1705,7 +1705,7 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>44943.83680555555</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>38</v>
@@ -2150,7 +2150,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2859,10 +2859,10 @@
         <v>44950.83680555555</v>
       </c>
       <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
         <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3927,7 +3927,7 @@
         <v>44958.83333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4019,7 +4019,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>44964.83680555555</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
         <v>30</v>
@@ -4627,7 +4627,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6007835</v>
+        <v>6007834</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4639,76 +4639,76 @@
         <v>44965.00347222222</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N47">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P47">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="Q47">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
+        <v>1.925</v>
+      </c>
+      <c r="S47">
+        <v>1.875</v>
+      </c>
+      <c r="T47">
+        <v>2.25</v>
+      </c>
+      <c r="U47">
+        <v>1.85</v>
+      </c>
+      <c r="V47">
         <v>1.95</v>
       </c>
-      <c r="S47">
-        <v>1.85</v>
-      </c>
-      <c r="T47">
-        <v>2.75</v>
-      </c>
-      <c r="U47">
-        <v>1.825</v>
-      </c>
-      <c r="V47">
-        <v>1.975</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6007834</v>
+        <v>6007835</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>44965.00347222222</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="L48">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N48">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O48">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P48">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R48">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5888,7 +5888,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>44978.83680555555</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
         <v>43</v>
@@ -6241,7 +6241,7 @@
         <v>44978.92013888889</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>40</v>
@@ -7490,7 +7490,7 @@
         <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7668,7 +7668,7 @@
         <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -8021,7 +8021,7 @@
         <v>44993.83333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
         <v>40</v>
@@ -8199,7 +8199,7 @@
         <v>44994.00347222222</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
         <v>39</v>
@@ -8555,7 +8555,7 @@
         <v>44999.83680555555</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>31</v>
@@ -8914,7 +8914,7 @@
         <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6007882</v>
+        <v>6007883</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,10 +9534,10 @@
         <v>45007.00347222222</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9549,61 +9549,61 @@
         <v>49</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L102">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M102">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N102">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P102">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2</v>
+        <v>3.333</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6007883</v>
+        <v>6007882</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,10 +9623,10 @@
         <v>45007.00347222222</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9638,61 +9638,61 @@
         <v>49</v>
       </c>
       <c r="K103">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N103">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="O103">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P103">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3.333</v>
+        <v>2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9801,7 +9801,7 @@
         <v>45007.92013888889</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
         <v>36</v>
@@ -9982,7 +9982,7 @@
         <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10516,7 +10516,7 @@
         <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10869,7 +10869,7 @@
         <v>45012.00347222222</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
         <v>32</v>
@@ -11314,7 +11314,7 @@
         <v>45015.00347222222</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>45</v>
@@ -11495,7 +11495,7 @@
         <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -11670,7 +11670,7 @@
         <v>45020.83680555555</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
         <v>30</v>
@@ -11848,7 +11848,7 @@
         <v>45021.00347222222</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
         <v>32</v>
@@ -13008,7 +13008,7 @@
         <v>46</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13186,7 +13186,7 @@
         <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13806,7 +13806,7 @@
         <v>45036.00347222222</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>44</v>
@@ -13984,7 +13984,7 @@
         <v>45037.83333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
         <v>36</v>
@@ -14162,7 +14162,7 @@
         <v>45042.91666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
         <v>39</v>
@@ -14340,7 +14340,7 @@
         <v>45043.91666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
         <v>31</v>
@@ -14607,7 +14607,7 @@
         <v>45049.91666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>33</v>
@@ -14696,7 +14696,7 @@
         <v>45050.00347222222</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
         <v>43</v>
@@ -14966,7 +14966,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15055,7 +15055,7 @@
         <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15945,7 +15945,7 @@
         <v>31</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16654,7 +16654,7 @@
         <v>45136.83680555555</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G182" t="s">
         <v>33</v>
@@ -17191,7 +17191,7 @@
         <v>38</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H188">
         <v>5</v>
@@ -18790,7 +18790,7 @@
         <v>45156.83680555555</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
         <v>41</v>
@@ -19505,7 +19505,7 @@
         <v>43</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19947,7 +19947,7 @@
         <v>45168.92013888889</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
         <v>29</v>
@@ -20573,7 +20573,7 @@
         <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -21371,7 +21371,7 @@
         <v>45186.00347222222</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G235" t="s">
         <v>39</v>
@@ -21816,7 +21816,7 @@
         <v>45189.83680555555</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
         <v>42</v>
@@ -22175,7 +22175,7 @@
         <v>30</v>
       </c>
       <c r="G244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22798,7 +22798,7 @@
         <v>45</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H251">
         <v>3</v>
@@ -23507,7 +23507,7 @@
         <v>45212.83680555555</v>
       </c>
       <c r="F259" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G259" t="s">
         <v>44</v>
@@ -23762,7 +23762,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23774,76 +23774,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F262" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G262" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H262">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I262">
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K262">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M262">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N262">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O262">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P262">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q262">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R262">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S262">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T262">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U262">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V262">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W262">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z262">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB262">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,76 +23863,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G263" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L263">
+        <v>4</v>
+      </c>
+      <c r="M263">
+        <v>4.5</v>
+      </c>
+      <c r="N263">
+        <v>1.5</v>
+      </c>
+      <c r="O263">
+        <v>4.75</v>
+      </c>
+      <c r="P263">
+        <v>5.75</v>
+      </c>
+      <c r="Q263">
+        <v>-1.25</v>
+      </c>
+      <c r="R263">
+        <v>1.925</v>
+      </c>
+      <c r="S263">
+        <v>1.875</v>
+      </c>
+      <c r="T263">
         <v>3</v>
       </c>
-      <c r="M263">
-        <v>2.875</v>
-      </c>
-      <c r="N263">
-        <v>2.7</v>
-      </c>
-      <c r="O263">
-        <v>3.1</v>
-      </c>
-      <c r="P263">
-        <v>2.8</v>
-      </c>
-      <c r="Q263">
-        <v>0</v>
-      </c>
-      <c r="R263">
-        <v>1.85</v>
-      </c>
-      <c r="S263">
+      <c r="U263">
+        <v>1.75</v>
+      </c>
+      <c r="V263">
         <v>1.95</v>
       </c>
-      <c r="T263">
-        <v>2.25</v>
-      </c>
-      <c r="U263">
-        <v>1.975</v>
-      </c>
-      <c r="V263">
-        <v>1.725</v>
-      </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA263">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC263">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24667,7 +24667,7 @@
         <v>46</v>
       </c>
       <c r="G272" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -24842,7 +24842,7 @@
         <v>45231.83680555555</v>
       </c>
       <c r="F274" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G274" t="s">
         <v>36</v>
@@ -26978,7 +26978,7 @@
         <v>45301.92013888889</v>
       </c>
       <c r="F298" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G298" t="s">
         <v>40</v>
@@ -28135,7 +28135,7 @@
         <v>45315.92013888889</v>
       </c>
       <c r="F311" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G311" t="s">
         <v>45</v>
@@ -28583,7 +28583,7 @@
         <v>41</v>
       </c>
       <c r="G316" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H316">
         <v>1</v>
@@ -29651,7 +29651,7 @@
         <v>42</v>
       </c>
       <c r="G328" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H328">
         <v>3</v>
@@ -30182,7 +30182,7 @@
         <v>45338.92013888889</v>
       </c>
       <c r="F334" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G334" t="s">
         <v>30</v>
@@ -30627,7 +30627,7 @@
         <v>45343.92013888889</v>
       </c>
       <c r="F339" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G339" t="s">
         <v>31</v>
@@ -31072,22 +31072,22 @@
         <v>2.3</v>
       </c>
       <c r="N344">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O344">
         <v>3.1</v>
       </c>
       <c r="P344">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q344">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R344">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S344">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T344">
         <v>2.25</v>
@@ -31158,10 +31158,10 @@
         <v>-0.75</v>
       </c>
       <c r="R345">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S345">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T345">
         <v>2.5</v>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -30998,31 +30998,31 @@
         <v>7.5</v>
       </c>
       <c r="N343">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="O343">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P343">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q343">
         <v>-1.5</v>
       </c>
       <c r="R343">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S343">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T343">
         <v>3</v>
       </c>
       <c r="U343">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V343">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W343">
         <v>0</v>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC176"/>
+  <dimension ref="A1:AC178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15743,7 +15743,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7640646</v>
+        <v>7641680</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15752,64 +15752,79 @@
         <v>28</v>
       </c>
       <c r="E172" s="2">
-        <v>45349.92013888889</v>
+        <v>45347.83680555555</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172" t="s">
+        <v>44</v>
       </c>
       <c r="K172">
-        <v>2.9</v>
+        <v>1.333</v>
       </c>
       <c r="L172">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M172">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N172">
+        <v>1.333</v>
+      </c>
+      <c r="O172">
+        <v>5.5</v>
+      </c>
+      <c r="P172">
+        <v>8.5</v>
+      </c>
+      <c r="Q172">
+        <v>-1.5</v>
+      </c>
+      <c r="R172">
+        <v>1.85</v>
+      </c>
+      <c r="S172">
+        <v>1.95</v>
+      </c>
+      <c r="T172">
         <v>3</v>
       </c>
-      <c r="O172">
-        <v>3.3</v>
-      </c>
-      <c r="P172">
-        <v>2.4</v>
-      </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172">
-        <v>2.05</v>
-      </c>
-      <c r="S172">
-        <v>1.75</v>
-      </c>
-      <c r="T172">
-        <v>2.25</v>
-      </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="X172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA172">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>-1</v>
+      </c>
+      <c r="AC172">
+        <v>0.95</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15817,7 +15832,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7641681</v>
+        <v>7640646</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15826,49 +15841,49 @@
         <v>28</v>
       </c>
       <c r="E173" s="2">
-        <v>45350.00347222222</v>
+        <v>45349.92013888889</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K173">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="L173">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N173">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O173">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P173">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q173">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
+        <v>2</v>
+      </c>
+      <c r="V173">
         <v>1.8</v>
-      </c>
-      <c r="V173">
-        <v>2</v>
       </c>
       <c r="W173">
         <v>0</v>
@@ -15891,7 +15906,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7641682</v>
+        <v>7641681</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15900,49 +15915,49 @@
         <v>28</v>
       </c>
       <c r="E174" s="2">
-        <v>45350.92013888889</v>
+        <v>45350.00347222222</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K174">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L174">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N174">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O174">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P174">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
         <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V174">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W174">
         <v>0</v>
@@ -15965,7 +15980,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7641683</v>
+        <v>7641682</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -15974,31 +15989,31 @@
         <v>28</v>
       </c>
       <c r="E175" s="2">
-        <v>45351.00347222222</v>
+        <v>45350.92013888889</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K175">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="L175">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M175">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N175">
         <v>2.9</v>
       </c>
       <c r="O175">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P175">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q175">
         <v>0.25</v>
@@ -16013,10 +16028,10 @@
         <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
         <v>0</v>
@@ -16039,7 +16054,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7641685</v>
+        <v>7641683</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16048,34 +16063,34 @@
         <v>28</v>
       </c>
       <c r="E176" s="2">
-        <v>45352.00347222222</v>
+        <v>45351.00347222222</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K176">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="L176">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="N176">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P176">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
         <v>1.825</v>
@@ -16084,27 +16099,175 @@
         <v>1.975</v>
       </c>
       <c r="T176">
+        <v>2.5</v>
+      </c>
+      <c r="U176">
+        <v>1.925</v>
+      </c>
+      <c r="V176">
+        <v>1.875</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <v>0</v>
+      </c>
+      <c r="AA176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>7641684</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45351.92013888889</v>
+      </c>
+      <c r="F177" t="s">
+        <v>33</v>
+      </c>
+      <c r="G177" t="s">
+        <v>43</v>
+      </c>
+      <c r="K177">
+        <v>4</v>
+      </c>
+      <c r="L177">
+        <v>3.3</v>
+      </c>
+      <c r="M177">
+        <v>1.95</v>
+      </c>
+      <c r="N177">
+        <v>4.2</v>
+      </c>
+      <c r="O177">
+        <v>3.4</v>
+      </c>
+      <c r="P177">
+        <v>1.85</v>
+      </c>
+      <c r="Q177">
+        <v>0.5</v>
+      </c>
+      <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
+        <v>1.85</v>
+      </c>
+      <c r="T177">
         <v>2.25</v>
       </c>
-      <c r="U176">
+      <c r="U177">
         <v>1.825</v>
       </c>
-      <c r="V176">
+      <c r="V177">
         <v>1.975</v>
       </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-      <c r="X176">
-        <v>0</v>
-      </c>
-      <c r="Y176">
-        <v>0</v>
-      </c>
-      <c r="Z176">
-        <v>0</v>
-      </c>
-      <c r="AA176">
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>7641685</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45352.00347222222</v>
+      </c>
+      <c r="F178" t="s">
+        <v>42</v>
+      </c>
+      <c r="G178" t="s">
+        <v>41</v>
+      </c>
+      <c r="K178">
+        <v>1.8</v>
+      </c>
+      <c r="L178">
+        <v>3.25</v>
+      </c>
+      <c r="M178">
+        <v>4</v>
+      </c>
+      <c r="N178">
+        <v>1.8</v>
+      </c>
+      <c r="O178">
+        <v>3.3</v>
+      </c>
+      <c r="P178">
+        <v>4</v>
+      </c>
+      <c r="Q178">
+        <v>-0.5</v>
+      </c>
+      <c r="R178">
+        <v>1.8</v>
+      </c>
+      <c r="S178">
+        <v>2</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>1.8</v>
+      </c>
+      <c r="V178">
+        <v>2</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC178"/>
+  <dimension ref="A1:AC179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,76 +8546,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,76 +8635,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>4.5</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <v>4.75</v>
+      </c>
+      <c r="P92">
+        <v>5.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1.25</v>
+      </c>
+      <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
         <v>3</v>
       </c>
-      <c r="M92">
-        <v>2.875</v>
-      </c>
-      <c r="N92">
-        <v>2.7</v>
-      </c>
-      <c r="O92">
-        <v>3.1</v>
-      </c>
-      <c r="P92">
-        <v>2.8</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
+      <c r="U92">
+        <v>1.75</v>
+      </c>
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
-      <c r="V92">
-        <v>1.725</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -15849,6 +15849,15 @@
       <c r="G173" t="s">
         <v>29</v>
       </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173" t="s">
+        <v>44</v>
+      </c>
       <c r="K173">
         <v>2.9</v>
       </c>
@@ -15859,10 +15868,10 @@
         <v>2.3</v>
       </c>
       <c r="N173">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O173">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P173">
         <v>2.625</v>
@@ -15871,34 +15880,40 @@
         <v>0</v>
       </c>
       <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.85</v>
+      </c>
+      <c r="T173">
+        <v>2</v>
+      </c>
+      <c r="U173">
+        <v>1.825</v>
+      </c>
+      <c r="V173">
         <v>1.975</v>
       </c>
-      <c r="S173">
-        <v>1.825</v>
-      </c>
-      <c r="T173">
-        <v>2.25</v>
-      </c>
-      <c r="U173">
-        <v>2</v>
-      </c>
-      <c r="V173">
+      <c r="W173">
         <v>1.8</v>
       </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
       <c r="X173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA173">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15923,6 +15938,15 @@
       <c r="G174" t="s">
         <v>32</v>
       </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174" t="s">
+        <v>45</v>
+      </c>
       <c r="K174">
         <v>1.666</v>
       </c>
@@ -15933,46 +15957,52 @@
         <v>4.333</v>
       </c>
       <c r="N174">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O174">
         <v>3.75</v>
       </c>
       <c r="P174">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q174">
         <v>-0.75</v>
       </c>
       <c r="R174">
+        <v>1.95</v>
+      </c>
+      <c r="S174">
         <v>1.85</v>
-      </c>
-      <c r="S174">
-        <v>1.95</v>
       </c>
       <c r="T174">
         <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
+        <v>0.95</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -15997,6 +16027,15 @@
       <c r="G175" t="s">
         <v>34</v>
       </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="s">
+        <v>45</v>
+      </c>
       <c r="K175">
         <v>2.3</v>
       </c>
@@ -16007,46 +16046,52 @@
         <v>2.875</v>
       </c>
       <c r="N175">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O175">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P175">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q175">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R175">
+        <v>1.8</v>
+      </c>
+      <c r="S175">
+        <v>2</v>
+      </c>
+      <c r="T175">
+        <v>2.75</v>
+      </c>
+      <c r="U175">
+        <v>1.925</v>
+      </c>
+      <c r="V175">
         <v>1.875</v>
       </c>
-      <c r="S175">
-        <v>1.925</v>
-      </c>
-      <c r="T175">
-        <v>2.5</v>
-      </c>
-      <c r="U175">
-        <v>1.85</v>
-      </c>
-      <c r="V175">
-        <v>1.95</v>
-      </c>
       <c r="W175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA175">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
+        <v>0.875</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16054,7 +16099,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7641683</v>
+        <v>7641684</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16063,49 +16108,49 @@
         <v>28</v>
       </c>
       <c r="E176" s="2">
-        <v>45351.00347222222</v>
+        <v>45351.92013888889</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K176">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N176">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O176">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P176">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="Q176">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R176">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
         <v>0</v>
@@ -16128,7 +16173,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7641684</v>
+        <v>7641685</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16137,49 +16182,49 @@
         <v>28</v>
       </c>
       <c r="E177" s="2">
-        <v>45351.92013888889</v>
+        <v>45352.00347222222</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K177">
+        <v>1.8</v>
+      </c>
+      <c r="L177">
+        <v>3.25</v>
+      </c>
+      <c r="M177">
         <v>4</v>
       </c>
-      <c r="L177">
-        <v>3.3</v>
-      </c>
-      <c r="M177">
+      <c r="N177">
+        <v>1.65</v>
+      </c>
+      <c r="O177">
+        <v>4</v>
+      </c>
+      <c r="P177">
+        <v>5.25</v>
+      </c>
+      <c r="Q177">
+        <v>-0.75</v>
+      </c>
+      <c r="R177">
+        <v>1.85</v>
+      </c>
+      <c r="S177">
         <v>1.95</v>
       </c>
-      <c r="N177">
-        <v>4.2</v>
-      </c>
-      <c r="O177">
-        <v>3.4</v>
-      </c>
-      <c r="P177">
-        <v>1.85</v>
-      </c>
-      <c r="Q177">
-        <v>0.5</v>
-      </c>
-      <c r="R177">
-        <v>1.95</v>
-      </c>
-      <c r="S177">
-        <v>1.85</v>
-      </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W177">
         <v>0</v>
@@ -16202,7 +16247,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7641685</v>
+        <v>7701489</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16211,63 +16256,137 @@
         <v>28</v>
       </c>
       <c r="E178" s="2">
-        <v>45352.00347222222</v>
+        <v>45352.83333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K178">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L178">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M178">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N178">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O178">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
+        <v>1.95</v>
+      </c>
+      <c r="V178">
+        <v>1.85</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>7641686</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45353.83680555555</v>
+      </c>
+      <c r="F179" t="s">
+        <v>37</v>
+      </c>
+      <c r="G179" t="s">
+        <v>35</v>
+      </c>
+      <c r="K179">
+        <v>2</v>
+      </c>
+      <c r="L179">
+        <v>3.1</v>
+      </c>
+      <c r="M179">
+        <v>3.4</v>
+      </c>
+      <c r="N179">
         <v>1.8</v>
       </c>
-      <c r="V178">
-        <v>2</v>
-      </c>
-      <c r="W178">
-        <v>0</v>
-      </c>
-      <c r="X178">
-        <v>0</v>
-      </c>
-      <c r="Y178">
-        <v>0</v>
-      </c>
-      <c r="Z178">
-        <v>0</v>
-      </c>
-      <c r="AA178">
+      <c r="O179">
+        <v>3.4</v>
+      </c>
+      <c r="P179">
+        <v>5</v>
+      </c>
+      <c r="Q179">
+        <v>-0.5</v>
+      </c>
+      <c r="R179">
+        <v>1.8</v>
+      </c>
+      <c r="S179">
+        <v>2</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>1.775</v>
+      </c>
+      <c r="V179">
+        <v>2.025</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,76 +8546,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4.5</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>5.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1.25</v>
+      </c>
+      <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
         <v>3</v>
       </c>
-      <c r="M91">
-        <v>2.875</v>
-      </c>
-      <c r="N91">
-        <v>2.7</v>
-      </c>
-      <c r="O91">
-        <v>3.1</v>
-      </c>
-      <c r="P91">
-        <v>2.8</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>1.85</v>
-      </c>
-      <c r="S91">
+      <c r="U91">
+        <v>1.75</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
-      <c r="V91">
-        <v>1.725</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,76 +8635,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -16116,6 +16116,15 @@
       <c r="G176" t="s">
         <v>43</v>
       </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176" t="s">
+        <v>46</v>
+      </c>
       <c r="K176">
         <v>4</v>
       </c>
@@ -16126,49 +16135,55 @@
         <v>1.95</v>
       </c>
       <c r="N176">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="O176">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="Q176">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R176">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S176">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -16190,6 +16205,15 @@
       <c r="G177" t="s">
         <v>41</v>
       </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="s">
+        <v>46</v>
+      </c>
       <c r="K177">
         <v>1.8</v>
       </c>
@@ -16200,49 +16224,55 @@
         <v>4</v>
       </c>
       <c r="N177">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P177">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q177">
         <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:27">
+        <v>0.875</v>
+      </c>
+      <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -16264,6 +16294,15 @@
       <c r="G178" t="s">
         <v>36</v>
       </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>45</v>
+      </c>
       <c r="K178">
         <v>1.571</v>
       </c>
@@ -16274,49 +16313,55 @@
         <v>5</v>
       </c>
       <c r="N178">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P178">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q178">
         <v>-0.75</v>
       </c>
       <c r="R178">
+        <v>1.95</v>
+      </c>
+      <c r="S178">
+        <v>1.85</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
         <v>1.825</v>
       </c>
-      <c r="S178">
+      <c r="V178">
         <v>1.975</v>
       </c>
-      <c r="T178">
-        <v>2.25</v>
-      </c>
-      <c r="U178">
-        <v>1.95</v>
-      </c>
-      <c r="V178">
-        <v>1.85</v>
-      </c>
       <c r="W178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:27">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -16348,31 +16393,31 @@
         <v>3.4</v>
       </c>
       <c r="N179">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O179">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P179">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
+        <v>2.025</v>
+      </c>
+      <c r="V179">
         <v>1.775</v>
-      </c>
-      <c r="V179">
-        <v>2.025</v>
       </c>
       <c r="W179">
         <v>0</v>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC179"/>
+  <dimension ref="A1:AC183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,76 +8546,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,76 +8635,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>4.5</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <v>4.75</v>
+      </c>
+      <c r="P92">
+        <v>5.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1.25</v>
+      </c>
+      <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
         <v>3</v>
       </c>
-      <c r="M92">
-        <v>2.875</v>
-      </c>
-      <c r="N92">
-        <v>2.7</v>
-      </c>
-      <c r="O92">
-        <v>3.1</v>
-      </c>
-      <c r="P92">
-        <v>2.8</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
+      <c r="U92">
+        <v>1.75</v>
+      </c>
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
-      <c r="V92">
-        <v>1.725</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -16366,7 +16366,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7641686</v>
+        <v>7640647</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,49 +16375,49 @@
         <v>28</v>
       </c>
       <c r="E179" s="2">
-        <v>45353.83680555555</v>
+        <v>45356.92013888889</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L179">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M179">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="N179">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="O179">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P179">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R179">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
         <v>0</v>
@@ -16432,6 +16432,302 @@
         <v>0</v>
       </c>
       <c r="AA179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>7641687</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45357.00347222222</v>
+      </c>
+      <c r="F180" t="s">
+        <v>43</v>
+      </c>
+      <c r="G180" t="s">
+        <v>30</v>
+      </c>
+      <c r="K180">
+        <v>1.65</v>
+      </c>
+      <c r="L180">
+        <v>3.5</v>
+      </c>
+      <c r="M180">
+        <v>4.5</v>
+      </c>
+      <c r="N180">
+        <v>1.65</v>
+      </c>
+      <c r="O180">
+        <v>3.5</v>
+      </c>
+      <c r="P180">
+        <v>4.5</v>
+      </c>
+      <c r="Q180">
+        <v>-0.75</v>
+      </c>
+      <c r="R180">
+        <v>1.825</v>
+      </c>
+      <c r="S180">
+        <v>1.975</v>
+      </c>
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
+        <v>1.975</v>
+      </c>
+      <c r="V180">
+        <v>1.825</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>7641688</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45357.92013888889</v>
+      </c>
+      <c r="F181" t="s">
+        <v>32</v>
+      </c>
+      <c r="G181" t="s">
+        <v>33</v>
+      </c>
+      <c r="K181">
+        <v>1.571</v>
+      </c>
+      <c r="L181">
+        <v>3.6</v>
+      </c>
+      <c r="M181">
+        <v>5.25</v>
+      </c>
+      <c r="N181">
+        <v>1.571</v>
+      </c>
+      <c r="O181">
+        <v>3.6</v>
+      </c>
+      <c r="P181">
+        <v>5.25</v>
+      </c>
+      <c r="Q181">
+        <v>-1</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>1.8</v>
+      </c>
+      <c r="T181">
+        <v>2.5</v>
+      </c>
+      <c r="U181">
+        <v>1.975</v>
+      </c>
+      <c r="V181">
+        <v>1.825</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>7641689</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45358.00347222222</v>
+      </c>
+      <c r="F182" t="s">
+        <v>39</v>
+      </c>
+      <c r="G182" t="s">
+        <v>42</v>
+      </c>
+      <c r="K182">
+        <v>3.6</v>
+      </c>
+      <c r="L182">
+        <v>3.5</v>
+      </c>
+      <c r="M182">
+        <v>1.833</v>
+      </c>
+      <c r="N182">
+        <v>3.6</v>
+      </c>
+      <c r="O182">
+        <v>3.5</v>
+      </c>
+      <c r="P182">
+        <v>1.833</v>
+      </c>
+      <c r="Q182">
+        <v>0.5</v>
+      </c>
+      <c r="R182">
+        <v>1.925</v>
+      </c>
+      <c r="S182">
+        <v>1.875</v>
+      </c>
+      <c r="T182">
+        <v>2.5</v>
+      </c>
+      <c r="U182">
+        <v>1.95</v>
+      </c>
+      <c r="V182">
+        <v>1.85</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>7641691</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45359.00347222222</v>
+      </c>
+      <c r="F183" t="s">
+        <v>31</v>
+      </c>
+      <c r="G183" t="s">
+        <v>40</v>
+      </c>
+      <c r="K183">
+        <v>1.571</v>
+      </c>
+      <c r="L183">
+        <v>3.75</v>
+      </c>
+      <c r="M183">
+        <v>4.75</v>
+      </c>
+      <c r="N183">
+        <v>1.571</v>
+      </c>
+      <c r="O183">
+        <v>3.75</v>
+      </c>
+      <c r="P183">
+        <v>4.75</v>
+      </c>
+      <c r="Q183">
+        <v>-1</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>1.8</v>
+      </c>
+      <c r="T183">
+        <v>2.5</v>
+      </c>
+      <c r="U183">
+        <v>1.8</v>
+      </c>
+      <c r="V183">
+        <v>2</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,76 +8546,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4.5</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>5.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1.25</v>
+      </c>
+      <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
         <v>3</v>
       </c>
-      <c r="M91">
-        <v>2.875</v>
-      </c>
-      <c r="N91">
-        <v>2.7</v>
-      </c>
-      <c r="O91">
-        <v>3.1</v>
-      </c>
-      <c r="P91">
-        <v>2.8</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>1.85</v>
-      </c>
-      <c r="S91">
+      <c r="U91">
+        <v>1.75</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
-      <c r="V91">
-        <v>1.725</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,76 +8635,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -16366,7 +16366,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7640647</v>
+        <v>7641686</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16375,64 +16375,79 @@
         <v>28</v>
       </c>
       <c r="E179" s="2">
-        <v>45356.92013888889</v>
+        <v>45353.83680555555</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179" t="s">
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L179">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M179">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="N179">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O179">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
         <v>6</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
         <v>2.5</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB179">
+        <v>1</v>
+      </c>
+      <c r="AC179">
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16440,7 +16455,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7641687</v>
+        <v>7640647</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16449,40 +16464,49 @@
         <v>28</v>
       </c>
       <c r="E180" s="2">
-        <v>45357.00347222222</v>
+        <v>45356.92013888889</v>
       </c>
       <c r="F180" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180" t="s">
+        <v>44</v>
       </c>
       <c r="K180">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="L180">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M180">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="N180">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P180">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T180">
         <v>2.5</v>
@@ -16494,19 +16518,25 @@
         <v>1.825</v>
       </c>
       <c r="W180">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB180">
+        <v>-1</v>
+      </c>
+      <c r="AC180">
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16514,7 +16544,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7641688</v>
+        <v>7641687</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16523,64 +16553,79 @@
         <v>28</v>
       </c>
       <c r="E181" s="2">
-        <v>45357.92013888889</v>
+        <v>45357.00347222222</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181" t="s">
+        <v>46</v>
       </c>
       <c r="K181">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="L181">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N181">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q181">
         <v>-1</v>
       </c>
       <c r="R181">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
         <v>2.5</v>
       </c>
       <c r="U181">
+        <v>1.825</v>
+      </c>
+      <c r="V181">
         <v>1.975</v>
       </c>
-      <c r="V181">
-        <v>1.825</v>
-      </c>
       <c r="W181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB181">
+        <v>-1</v>
+      </c>
+      <c r="AC181">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16588,7 +16633,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7641689</v>
+        <v>7641691</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16597,49 +16642,49 @@
         <v>28</v>
       </c>
       <c r="E182" s="2">
-        <v>45358.00347222222</v>
+        <v>45359.00347222222</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K182">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="L182">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M182">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N182">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="O182">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P182">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q182">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R182">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S182">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
+        <v>1.85</v>
+      </c>
+      <c r="V182">
         <v>1.95</v>
-      </c>
-      <c r="V182">
-        <v>1.85</v>
       </c>
       <c r="W182">
         <v>0</v>
@@ -16662,7 +16707,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7641691</v>
+        <v>7641692</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16671,49 +16716,49 @@
         <v>28</v>
       </c>
       <c r="E183" s="2">
-        <v>45359.00347222222</v>
+        <v>45361.92013888889</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G183" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K183">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L183">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M183">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N183">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O183">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P183">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S183">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T183">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W183">
         <v>0</v>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC183"/>
+  <dimension ref="A1:AC186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,76 +8546,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,76 +8635,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>4.5</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <v>4.75</v>
+      </c>
+      <c r="P92">
+        <v>5.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1.25</v>
+      </c>
+      <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
         <v>3</v>
       </c>
-      <c r="M92">
-        <v>2.875</v>
-      </c>
-      <c r="N92">
-        <v>2.7</v>
-      </c>
-      <c r="O92">
-        <v>3.1</v>
-      </c>
-      <c r="P92">
-        <v>2.8</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
+      <c r="U92">
+        <v>1.75</v>
+      </c>
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
-      <c r="V92">
-        <v>1.725</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -16633,7 +16633,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7641691</v>
+        <v>7641688</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16642,22 +16642,31 @@
         <v>28</v>
       </c>
       <c r="E182" s="2">
-        <v>45359.00347222222</v>
+        <v>45357.92013888889</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182" t="s">
+        <v>44</v>
       </c>
       <c r="K182">
         <v>1.571</v>
       </c>
       <c r="L182">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M182">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N182">
         <v>1.65</v>
@@ -16666,40 +16675,46 @@
         <v>3.8</v>
       </c>
       <c r="P182">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q182">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S182">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T182">
         <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V182">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W182">
-        <v>0</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA182">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB182">
+        <v>-1</v>
+      </c>
+      <c r="AC182">
+        <v>0.875</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16707,7 +16722,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7641692</v>
+        <v>7641689</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16716,63 +16731,330 @@
         <v>28</v>
       </c>
       <c r="E183" s="2">
-        <v>45361.92013888889</v>
+        <v>45358.00347222222</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>44</v>
       </c>
       <c r="K183">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="L183">
+        <v>3.5</v>
+      </c>
+      <c r="M183">
+        <v>1.833</v>
+      </c>
+      <c r="N183">
+        <v>3.3</v>
+      </c>
+      <c r="O183">
         <v>3.2</v>
       </c>
-      <c r="M183">
-        <v>3.1</v>
-      </c>
-      <c r="N183">
-        <v>2.15</v>
-      </c>
-      <c r="O183">
-        <v>3.1</v>
-      </c>
       <c r="P183">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
         <v>2.25</v>
       </c>
       <c r="U183">
+        <v>2</v>
+      </c>
+      <c r="V183">
+        <v>1.8</v>
+      </c>
+      <c r="W183">
+        <v>2.3</v>
+      </c>
+      <c r="X183">
+        <v>-1</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA183">
+        <v>-1</v>
+      </c>
+      <c r="AB183">
+        <v>1</v>
+      </c>
+      <c r="AC183">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>7641690</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45358.92013888889</v>
+      </c>
+      <c r="F184" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" t="s">
+        <v>35</v>
+      </c>
+      <c r="H184">
+        <v>3</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>44</v>
+      </c>
+      <c r="K184">
+        <v>1.7</v>
+      </c>
+      <c r="L184">
+        <v>4</v>
+      </c>
+      <c r="M184">
+        <v>4.333</v>
+      </c>
+      <c r="N184">
+        <v>1.55</v>
+      </c>
+      <c r="O184">
+        <v>4.333</v>
+      </c>
+      <c r="P184">
+        <v>5.25</v>
+      </c>
+      <c r="Q184">
+        <v>-1</v>
+      </c>
+      <c r="R184">
+        <v>1.85</v>
+      </c>
+      <c r="S184">
+        <v>1.95</v>
+      </c>
+      <c r="T184">
+        <v>3</v>
+      </c>
+      <c r="U184">
+        <v>1.95</v>
+      </c>
+      <c r="V184">
+        <v>1.75</v>
+      </c>
+      <c r="W184">
+        <v>0.55</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA184">
+        <v>-1</v>
+      </c>
+      <c r="AB184">
+        <v>0</v>
+      </c>
+      <c r="AC184">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>7641691</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45359.00347222222</v>
+      </c>
+      <c r="F185" t="s">
+        <v>31</v>
+      </c>
+      <c r="G185" t="s">
+        <v>40</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185" t="s">
+        <v>46</v>
+      </c>
+      <c r="K185">
+        <v>1.571</v>
+      </c>
+      <c r="L185">
+        <v>3.75</v>
+      </c>
+      <c r="M185">
+        <v>4.75</v>
+      </c>
+      <c r="N185">
+        <v>1.65</v>
+      </c>
+      <c r="O185">
+        <v>3.8</v>
+      </c>
+      <c r="P185">
+        <v>5</v>
+      </c>
+      <c r="Q185">
+        <v>-0.75</v>
+      </c>
+      <c r="R185">
         <v>1.825</v>
       </c>
-      <c r="V183">
+      <c r="S185">
         <v>1.975</v>
       </c>
-      <c r="W183">
+      <c r="T185">
+        <v>2.5</v>
+      </c>
+      <c r="U185">
+        <v>1.85</v>
+      </c>
+      <c r="V185">
+        <v>1.95</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
+        <v>4</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB185">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC185">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>7641692</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45361.92013888889</v>
+      </c>
+      <c r="F186" t="s">
+        <v>41</v>
+      </c>
+      <c r="G186" t="s">
+        <v>37</v>
+      </c>
+      <c r="K186">
+        <v>2.15</v>
+      </c>
+      <c r="L186">
+        <v>3.2</v>
+      </c>
+      <c r="M186">
+        <v>3.1</v>
+      </c>
+      <c r="N186">
+        <v>2.15</v>
+      </c>
+      <c r="O186">
+        <v>3.1</v>
+      </c>
+      <c r="P186">
+        <v>3.1</v>
+      </c>
+      <c r="Q186">
+        <v>-0.25</v>
+      </c>
+      <c r="R186">
+        <v>1.9</v>
+      </c>
+      <c r="S186">
+        <v>1.9</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>1.825</v>
+      </c>
+      <c r="V186">
+        <v>1.975</v>
+      </c>
+      <c r="W186">
         <v>0</v>
       </c>
-      <c r="X183">
+      <c r="X186">
         <v>0</v>
       </c>
-      <c r="Y183">
+      <c r="Y186">
         <v>0</v>
       </c>
-      <c r="Z183">
+      <c r="Z186">
         <v>0</v>
       </c>
-      <c r="AA183">
+      <c r="AA186">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>Club Celaya</t>
+  </si>
+  <si>
+    <t>Unam Pumas U23</t>
+  </si>
+  <si>
+    <t>Monterrey U23</t>
+  </si>
+  <si>
+    <t>Tijuana U23</t>
+  </si>
+  <si>
+    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>H</t>
@@ -516,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC186"/>
+  <dimension ref="A1:AC195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K2">
         <v>1.909</v>
@@ -726,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>2.25</v>
@@ -815,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K4">
         <v>1.8</v>
@@ -904,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>1.571</v>
@@ -993,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>2.4</v>
@@ -1082,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>2.6</v>
@@ -1171,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>1.571</v>
@@ -1260,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>2.75</v>
@@ -1349,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>1.909</v>
@@ -1438,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>3.5</v>
@@ -1527,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>2.375</v>
@@ -1616,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1705,7 +1717,7 @@
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>3.2</v>
@@ -1794,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1883,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>2.2</v>
@@ -1972,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K17">
         <v>1.571</v>
@@ -2061,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>2.8</v>
@@ -2150,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2239,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K20">
         <v>1.571</v>
@@ -2328,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>2.9</v>
@@ -2417,7 +2429,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>2.375</v>
@@ -2506,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K23">
         <v>2.25</v>
@@ -2595,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K24">
         <v>1.952</v>
@@ -2684,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K25">
         <v>1.952</v>
@@ -2773,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>2.8</v>
@@ -2862,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>2.5</v>
@@ -2951,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>1.909</v>
@@ -3040,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K29">
         <v>2.5</v>
@@ -3129,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>2.5</v>
@@ -3218,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>3.6</v>
@@ -3307,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K32">
         <v>1.444</v>
@@ -3396,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>1.909</v>
@@ -3485,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>1.85</v>
@@ -3574,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K35">
         <v>3.1</v>
@@ -3663,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K36">
         <v>1.833</v>
@@ -3752,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K37">
         <v>2.6</v>
@@ -3841,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>2.75</v>
@@ -3930,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K39">
         <v>2.55</v>
@@ -4019,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K40">
         <v>2.2</v>
@@ -4108,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K41">
         <v>1.65</v>
@@ -4197,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>1.571</v>
@@ -4286,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>1.571</v>
@@ -4375,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>1.363</v>
@@ -4464,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>2.25</v>
@@ -4553,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K46">
         <v>1.7</v>
@@ -4642,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -4731,7 +4743,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K48">
         <v>3.4</v>
@@ -4820,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>2.1</v>
@@ -4909,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>1.285</v>
@@ -4998,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5087,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>2.4</v>
@@ -5176,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K53">
         <v>1.8</v>
@@ -5265,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K54">
         <v>2.6</v>
@@ -5354,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K55">
         <v>1.55</v>
@@ -5443,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K56">
         <v>1.95</v>
@@ -5532,7 +5544,7 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K57">
         <v>2.7</v>
@@ -5621,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>1.727</v>
@@ -5710,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K59">
         <v>2.3</v>
@@ -5799,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>2.75</v>
@@ -5888,7 +5900,7 @@
         <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K61">
         <v>2.2</v>
@@ -5977,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>1.3</v>
@@ -6066,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K63">
         <v>2.05</v>
@@ -6155,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6244,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6333,7 +6345,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K66">
         <v>1.85</v>
@@ -6422,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K67">
         <v>2.25</v>
@@ -6511,7 +6523,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>2.05</v>
@@ -6600,7 +6612,7 @@
         <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -6689,7 +6701,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -6778,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>1.5</v>
@@ -6867,7 +6879,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K72">
         <v>1.8</v>
@@ -6956,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K73">
         <v>1.615</v>
@@ -7045,7 +7057,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>2.15</v>
@@ -7134,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K75">
         <v>1.45</v>
@@ -7223,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K76">
         <v>2.1</v>
@@ -7312,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K77">
         <v>1.8</v>
@@ -7401,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K78">
         <v>1.75</v>
@@ -7490,7 +7502,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7579,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>2.3</v>
@@ -7668,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>1.909</v>
@@ -7757,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>1.5</v>
@@ -7846,7 +7858,7 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K83">
         <v>1.909</v>
@@ -7935,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>2.1</v>
@@ -8024,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K85">
         <v>2.2</v>
@@ -8113,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8202,7 +8214,7 @@
         <v>4</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K87">
         <v>2.25</v>
@@ -8291,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K88">
         <v>2.625</v>
@@ -8380,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K89">
         <v>2.1</v>
@@ -8469,7 +8481,7 @@
         <v>5</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K90">
         <v>2.25</v>
@@ -8534,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,76 +8558,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4.5</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>5.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1.25</v>
+      </c>
+      <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
         <v>3</v>
       </c>
-      <c r="M91">
-        <v>2.875</v>
-      </c>
-      <c r="N91">
-        <v>2.7</v>
-      </c>
-      <c r="O91">
-        <v>3.1</v>
-      </c>
-      <c r="P91">
-        <v>2.8</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>1.85</v>
-      </c>
-      <c r="S91">
+      <c r="U91">
+        <v>1.75</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
-      <c r="V91">
-        <v>1.725</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8623,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,76 +8647,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8736,7 +8748,7 @@
         <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K93">
         <v>2.375</v>
@@ -8825,7 +8837,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K94">
         <v>2.5</v>
@@ -8914,7 +8926,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K95">
         <v>2.5</v>
@@ -9003,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>2.1</v>
@@ -9092,7 +9104,7 @@
         <v>4</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K97">
         <v>2.9</v>
@@ -9181,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K98">
         <v>1.615</v>
@@ -9270,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K99">
         <v>2</v>
@@ -9359,7 +9371,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>2.1</v>
@@ -9448,7 +9460,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>1.363</v>
@@ -9537,7 +9549,7 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K102">
         <v>4</v>
@@ -9626,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K103">
         <v>4.333</v>
@@ -9715,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K104">
         <v>2.3</v>
@@ -9804,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K105">
         <v>2.375</v>
@@ -9893,7 +9905,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K106">
         <v>1.4</v>
@@ -9982,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>1.65</v>
@@ -10071,7 +10083,7 @@
         <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K108">
         <v>1.666</v>
@@ -10160,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K109">
         <v>1.444</v>
@@ -10249,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K110">
         <v>1.7</v>
@@ -10338,7 +10350,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K111">
         <v>2.3</v>
@@ -10427,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2.25</v>
@@ -10516,7 +10528,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K113">
         <v>2.3</v>
@@ -10605,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>2.75</v>
@@ -10694,7 +10706,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K115">
         <v>1.6</v>
@@ -10783,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K116">
         <v>2.05</v>
@@ -10872,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K117">
         <v>1.909</v>
@@ -10961,7 +10973,7 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K118">
         <v>1.666</v>
@@ -11050,7 +11062,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K119">
         <v>1.727</v>
@@ -11139,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>1.85</v>
@@ -11228,7 +11240,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K121">
         <v>2.625</v>
@@ -11317,7 +11329,7 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>2.1</v>
@@ -11406,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11495,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K124">
         <v>2.375</v>
@@ -11584,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K125">
         <v>2.1</v>
@@ -11673,7 +11685,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K126">
         <v>2.45</v>
@@ -11762,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>3.6</v>
@@ -11851,7 +11863,7 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K128">
         <v>1.95</v>
@@ -11940,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K129">
         <v>1.5</v>
@@ -12029,7 +12041,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K130">
         <v>1.95</v>
@@ -12118,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K131">
         <v>1.833</v>
@@ -12207,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K132">
         <v>1.571</v>
@@ -12296,7 +12308,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>1.615</v>
@@ -12385,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K134">
         <v>3.6</v>
@@ -12474,7 +12486,7 @@
         <v>5</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K135">
         <v>2.1</v>
@@ -12563,7 +12575,7 @@
         <v>4</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K136">
         <v>1.8</v>
@@ -12652,7 +12664,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K137">
         <v>2.75</v>
@@ -12741,7 +12753,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K138">
         <v>2.8</v>
@@ -12830,7 +12842,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>2.05</v>
@@ -12919,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K140">
         <v>2.1</v>
@@ -13008,7 +13020,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K141">
         <v>2.55</v>
@@ -13097,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K142">
         <v>2.4</v>
@@ -13186,7 +13198,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>1.7</v>
@@ -13275,7 +13287,7 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K144">
         <v>1.909</v>
@@ -13364,7 +13376,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K145">
         <v>1.5</v>
@@ -13453,7 +13465,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K146">
         <v>1.4</v>
@@ -13542,7 +13554,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K147">
         <v>3.8</v>
@@ -13631,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K148">
         <v>2.05</v>
@@ -13720,7 +13732,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K149">
         <v>2.15</v>
@@ -13809,7 +13821,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K150">
         <v>2</v>
@@ -13898,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K151">
         <v>3</v>
@@ -13987,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14076,7 +14088,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K153">
         <v>1.333</v>
@@ -14165,7 +14177,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K154">
         <v>2.5</v>
@@ -14254,7 +14266,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K155">
         <v>3.5</v>
@@ -14343,7 +14355,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K156">
         <v>2.05</v>
@@ -14432,7 +14444,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K157">
         <v>1.8</v>
@@ -14521,7 +14533,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K158">
         <v>2</v>
@@ -14610,7 +14622,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K159">
         <v>2.5</v>
@@ -14699,7 +14711,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K160">
         <v>3.1</v>
@@ -14788,7 +14800,7 @@
         <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K161">
         <v>2.5</v>
@@ -14877,7 +14889,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K162">
         <v>2.7</v>
@@ -14966,7 +14978,7 @@
         <v>3</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K163">
         <v>2.4</v>
@@ -15055,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K164">
         <v>2.45</v>
@@ -15144,7 +15156,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>1.55</v>
@@ -15233,7 +15245,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K166">
         <v>1.909</v>
@@ -15322,7 +15334,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K167">
         <v>2.45</v>
@@ -15411,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>3.4</v>
@@ -15500,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>2</v>
@@ -15589,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K170">
         <v>1.8</v>
@@ -15678,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>1.6</v>
@@ -15767,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K172">
         <v>1.333</v>
@@ -15856,7 +15868,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K173">
         <v>2.9</v>
@@ -15945,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K174">
         <v>1.666</v>
@@ -16034,7 +16046,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K175">
         <v>2.3</v>
@@ -16123,7 +16135,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K176">
         <v>4</v>
@@ -16212,7 +16224,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K177">
         <v>1.8</v>
@@ -16301,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K178">
         <v>1.571</v>
@@ -16390,7 +16402,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K179">
         <v>2</v>
@@ -16479,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K180">
         <v>1.4</v>
@@ -16568,7 +16580,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K181">
         <v>1.65</v>
@@ -16657,7 +16669,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>1.571</v>
@@ -16746,7 +16758,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K183">
         <v>3.6</v>
@@ -16835,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K184">
         <v>1.7</v>
@@ -16924,7 +16936,7 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K185">
         <v>1.571</v>
@@ -16989,72 +17001,783 @@
         <v>184</v>
       </c>
       <c r="B186">
+        <v>7648957</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45361.5</v>
+      </c>
+      <c r="F186" t="s">
+        <v>44</v>
+      </c>
+      <c r="G186" t="s">
+        <v>46</v>
+      </c>
+      <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186" t="s">
+        <v>48</v>
+      </c>
+      <c r="K186">
+        <v>1.666</v>
+      </c>
+      <c r="L186">
+        <v>3.5</v>
+      </c>
+      <c r="M186">
+        <v>4.2</v>
+      </c>
+      <c r="N186">
+        <v>1.533</v>
+      </c>
+      <c r="O186">
+        <v>4.333</v>
+      </c>
+      <c r="P186">
+        <v>6</v>
+      </c>
+      <c r="Q186">
+        <v>-1.25</v>
+      </c>
+      <c r="R186">
+        <v>2.025</v>
+      </c>
+      <c r="S186">
+        <v>1.775</v>
+      </c>
+      <c r="T186">
+        <v>2.75</v>
+      </c>
+      <c r="U186">
+        <v>1.775</v>
+      </c>
+      <c r="V186">
+        <v>2.025</v>
+      </c>
+      <c r="W186">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X186">
+        <v>-1</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>1.025</v>
+      </c>
+      <c r="AA186">
+        <v>-1</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>7648958</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45361.5</v>
+      </c>
+      <c r="F187" t="s">
+        <v>45</v>
+      </c>
+      <c r="G187" t="s">
+        <v>47</v>
+      </c>
+      <c r="H187">
+        <v>4</v>
+      </c>
+      <c r="I187">
+        <v>3</v>
+      </c>
+      <c r="J187" t="s">
+        <v>48</v>
+      </c>
+      <c r="K187">
+        <v>2.375</v>
+      </c>
+      <c r="L187">
+        <v>3.1</v>
+      </c>
+      <c r="M187">
+        <v>2.75</v>
+      </c>
+      <c r="N187">
+        <v>2.375</v>
+      </c>
+      <c r="O187">
+        <v>3.4</v>
+      </c>
+      <c r="P187">
+        <v>3</v>
+      </c>
+      <c r="Q187">
+        <v>-0.25</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>1.8</v>
+      </c>
+      <c r="T187">
+        <v>2.75</v>
+      </c>
+      <c r="U187">
+        <v>1.95</v>
+      </c>
+      <c r="V187">
+        <v>1.85</v>
+      </c>
+      <c r="W187">
+        <v>1.375</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>-1</v>
+      </c>
+      <c r="Z187">
+        <v>1</v>
+      </c>
+      <c r="AA187">
+        <v>-1</v>
+      </c>
+      <c r="AB187">
+        <v>0.95</v>
+      </c>
+      <c r="AC187">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
         <v>7641692</v>
       </c>
-      <c r="C186" t="s">
-        <v>28</v>
-      </c>
-      <c r="D186" t="s">
-        <v>28</v>
-      </c>
-      <c r="E186" s="2">
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
         <v>45361.92013888889</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F188" t="s">
         <v>41</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G188" t="s">
         <v>37</v>
       </c>
-      <c r="K186">
+      <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>4</v>
+      </c>
+      <c r="J188" t="s">
+        <v>50</v>
+      </c>
+      <c r="K188">
         <v>2.15</v>
       </c>
-      <c r="L186">
+      <c r="L188">
         <v>3.2</v>
       </c>
-      <c r="M186">
+      <c r="M188">
         <v>3.1</v>
       </c>
-      <c r="N186">
-        <v>2.15</v>
-      </c>
-      <c r="O186">
+      <c r="N188">
         <v>3.1</v>
       </c>
-      <c r="P186">
+      <c r="O188">
+        <v>3</v>
+      </c>
+      <c r="P188">
+        <v>2.55</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>2.075</v>
+      </c>
+      <c r="S188">
+        <v>1.725</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>2.05</v>
+      </c>
+      <c r="V188">
+        <v>1.75</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>1.55</v>
+      </c>
+      <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB188">
+        <v>1.05</v>
+      </c>
+      <c r="AC188">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>7641693</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45363.92013888889</v>
+      </c>
+      <c r="F189" t="s">
+        <v>36</v>
+      </c>
+      <c r="G189" t="s">
+        <v>31</v>
+      </c>
+      <c r="K189">
+        <v>2.4</v>
+      </c>
+      <c r="L189">
+        <v>3.25</v>
+      </c>
+      <c r="M189">
+        <v>2.7</v>
+      </c>
+      <c r="N189">
+        <v>2.4</v>
+      </c>
+      <c r="O189">
         <v>3.1</v>
       </c>
-      <c r="Q186">
+      <c r="P189">
+        <v>2.8</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>1.75</v>
+      </c>
+      <c r="S189">
+        <v>2.05</v>
+      </c>
+      <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
+        <v>1.9</v>
+      </c>
+      <c r="V189">
+        <v>1.9</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>7641694</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45364.00347222222</v>
+      </c>
+      <c r="F190" t="s">
+        <v>30</v>
+      </c>
+      <c r="G190" t="s">
+        <v>40</v>
+      </c>
+      <c r="K190">
+        <v>1.4</v>
+      </c>
+      <c r="L190">
+        <v>4.5</v>
+      </c>
+      <c r="M190">
+        <v>6.5</v>
+      </c>
+      <c r="N190">
+        <v>1.5</v>
+      </c>
+      <c r="O190">
+        <v>4.333</v>
+      </c>
+      <c r="P190">
+        <v>5.25</v>
+      </c>
+      <c r="Q190">
+        <v>-1</v>
+      </c>
+      <c r="R190">
+        <v>1.775</v>
+      </c>
+      <c r="S190">
+        <v>2.025</v>
+      </c>
+      <c r="T190">
+        <v>2.75</v>
+      </c>
+      <c r="U190">
+        <v>1.825</v>
+      </c>
+      <c r="V190">
+        <v>1.975</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>7640648</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45364.92013888889</v>
+      </c>
+      <c r="F191" t="s">
+        <v>33</v>
+      </c>
+      <c r="G191" t="s">
+        <v>29</v>
+      </c>
+      <c r="K191">
+        <v>4</v>
+      </c>
+      <c r="L191">
+        <v>3.5</v>
+      </c>
+      <c r="M191">
+        <v>1.833</v>
+      </c>
+      <c r="N191">
+        <v>4.2</v>
+      </c>
+      <c r="O191">
+        <v>3.5</v>
+      </c>
+      <c r="P191">
+        <v>1.8</v>
+      </c>
+      <c r="Q191">
+        <v>0.75</v>
+      </c>
+      <c r="R191">
+        <v>1.775</v>
+      </c>
+      <c r="S191">
+        <v>2.025</v>
+      </c>
+      <c r="T191">
+        <v>2.25</v>
+      </c>
+      <c r="U191">
+        <v>2.05</v>
+      </c>
+      <c r="V191">
+        <v>1.75</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>7641695</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45365.00347222222</v>
+      </c>
+      <c r="F192" t="s">
+        <v>41</v>
+      </c>
+      <c r="G192" t="s">
+        <v>34</v>
+      </c>
+      <c r="K192">
+        <v>2.25</v>
+      </c>
+      <c r="L192">
+        <v>3.4</v>
+      </c>
+      <c r="M192">
+        <v>2.875</v>
+      </c>
+      <c r="N192">
+        <v>2.375</v>
+      </c>
+      <c r="O192">
+        <v>3.4</v>
+      </c>
+      <c r="P192">
+        <v>2.75</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>1.775</v>
+      </c>
+      <c r="S192">
+        <v>2.025</v>
+      </c>
+      <c r="T192">
+        <v>2.75</v>
+      </c>
+      <c r="U192">
+        <v>1.95</v>
+      </c>
+      <c r="V192">
+        <v>1.85</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>7641696</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45365.92013888889</v>
+      </c>
+      <c r="F193" t="s">
+        <v>42</v>
+      </c>
+      <c r="G193" t="s">
+        <v>37</v>
+      </c>
+      <c r="K193">
+        <v>2.1</v>
+      </c>
+      <c r="L193">
+        <v>3.75</v>
+      </c>
+      <c r="M193">
+        <v>2.75</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193">
+        <v>3.75</v>
+      </c>
+      <c r="P193">
+        <v>3</v>
+      </c>
+      <c r="Q193">
         <v>-0.25</v>
       </c>
-      <c r="R186">
+      <c r="R193">
+        <v>1.8</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
+        <v>2.5</v>
+      </c>
+      <c r="U193">
         <v>1.9</v>
       </c>
-      <c r="S186">
+      <c r="V193">
         <v>1.9</v>
       </c>
-      <c r="T186">
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>7641697</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45366.00347222222</v>
+      </c>
+      <c r="F194" t="s">
+        <v>38</v>
+      </c>
+      <c r="G194" t="s">
+        <v>43</v>
+      </c>
+      <c r="K194">
         <v>2.25</v>
       </c>
-      <c r="U186">
+      <c r="L194">
+        <v>3.1</v>
+      </c>
+      <c r="M194">
+        <v>3.1</v>
+      </c>
+      <c r="N194">
+        <v>2.3</v>
+      </c>
+      <c r="O194">
+        <v>3.1</v>
+      </c>
+      <c r="P194">
+        <v>3</v>
+      </c>
+      <c r="Q194">
+        <v>-0.25</v>
+      </c>
+      <c r="R194">
+        <v>2</v>
+      </c>
+      <c r="S194">
+        <v>1.8</v>
+      </c>
+      <c r="T194">
+        <v>2.25</v>
+      </c>
+      <c r="U194">
+        <v>1.975</v>
+      </c>
+      <c r="V194">
         <v>1.825</v>
       </c>
-      <c r="V186">
-        <v>1.975</v>
-      </c>
-      <c r="W186">
-        <v>0</v>
-      </c>
-      <c r="X186">
-        <v>0</v>
-      </c>
-      <c r="Y186">
-        <v>0</v>
-      </c>
-      <c r="Z186">
-        <v>0</v>
-      </c>
-      <c r="AA186">
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>7641698</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45368.92013888889</v>
+      </c>
+      <c r="F195" t="s">
+        <v>35</v>
+      </c>
+      <c r="G195" t="s">
+        <v>32</v>
+      </c>
+      <c r="K195">
+        <v>2.3</v>
+      </c>
+      <c r="L195">
+        <v>3.25</v>
+      </c>
+      <c r="M195">
+        <v>2.875</v>
+      </c>
+      <c r="N195">
+        <v>2.3</v>
+      </c>
+      <c r="O195">
+        <v>3.25</v>
+      </c>
+      <c r="P195">
+        <v>2.875</v>
+      </c>
+      <c r="Q195">
+        <v>-0.25</v>
+      </c>
+      <c r="R195">
+        <v>2.025</v>
+      </c>
+      <c r="S195">
+        <v>1.775</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>1.95</v>
+      </c>
+      <c r="V195">
+        <v>1.85</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -17285,6 +17285,15 @@
       <c r="G189" t="s">
         <v>31</v>
       </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>3</v>
+      </c>
+      <c r="J189" t="s">
+        <v>50</v>
+      </c>
       <c r="K189">
         <v>2.4</v>
       </c>
@@ -17295,46 +17304,52 @@
         <v>2.7</v>
       </c>
       <c r="N189">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O189">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P189">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S189">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T189">
         <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB189">
+        <v>0.95</v>
+      </c>
+      <c r="AC189">
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17359,6 +17374,15 @@
       <c r="G190" t="s">
         <v>40</v>
       </c>
+      <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190" t="s">
+        <v>48</v>
+      </c>
       <c r="K190">
         <v>1.4</v>
       </c>
@@ -17369,46 +17393,52 @@
         <v>6.5</v>
       </c>
       <c r="N190">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O190">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P190">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q190">
         <v>-1</v>
       </c>
       <c r="R190">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T190">
         <v>2.75</v>
       </c>
       <c r="U190">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
         <v>0</v>
       </c>
       <c r="AA190">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB190">
+        <v>0.425</v>
+      </c>
+      <c r="AC190">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17433,6 +17463,15 @@
       <c r="G191" t="s">
         <v>29</v>
       </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191" t="s">
+        <v>50</v>
+      </c>
       <c r="K191">
         <v>4</v>
       </c>
@@ -17443,46 +17482,52 @@
         <v>1.833</v>
       </c>
       <c r="N191">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P191">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="Q191">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R191">
+        <v>1.725</v>
+      </c>
+      <c r="S191">
+        <v>1.975</v>
+      </c>
+      <c r="T191">
+        <v>2</v>
+      </c>
+      <c r="U191">
         <v>1.775</v>
       </c>
-      <c r="S191">
+      <c r="V191">
         <v>2.025</v>
       </c>
-      <c r="T191">
-        <v>2.25</v>
-      </c>
-      <c r="U191">
-        <v>2.05</v>
-      </c>
-      <c r="V191">
-        <v>1.75</v>
-      </c>
       <c r="W191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z191">
         <v>0</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB191">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC191">
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17507,6 +17552,15 @@
       <c r="G192" t="s">
         <v>34</v>
       </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192" t="s">
+        <v>49</v>
+      </c>
       <c r="K192">
         <v>2.25</v>
       </c>
@@ -17517,16 +17571,16 @@
         <v>2.875</v>
       </c>
       <c r="N192">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O192">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q192">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R192">
         <v>1.775</v>
@@ -17544,22 +17598,28 @@
         <v>1.85</v>
       </c>
       <c r="W192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB192">
+        <v>0.95</v>
+      </c>
+      <c r="AC192">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -17581,6 +17641,15 @@
       <c r="G193" t="s">
         <v>37</v>
       </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193" t="s">
+        <v>50</v>
+      </c>
       <c r="K193">
         <v>2.1</v>
       </c>
@@ -17591,49 +17660,55 @@
         <v>2.75</v>
       </c>
       <c r="N193">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O193">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R193">
+        <v>1.775</v>
+      </c>
+      <c r="S193">
+        <v>2.025</v>
+      </c>
+      <c r="T193">
+        <v>2.25</v>
+      </c>
+      <c r="U193">
+        <v>1.775</v>
+      </c>
+      <c r="V193">
+        <v>2.025</v>
+      </c>
+      <c r="W193">
+        <v>-1</v>
+      </c>
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
         <v>1.8</v>
       </c>
-      <c r="S193">
-        <v>2</v>
-      </c>
-      <c r="T193">
-        <v>2.5</v>
-      </c>
-      <c r="U193">
-        <v>1.9</v>
-      </c>
-      <c r="V193">
-        <v>1.9</v>
-      </c>
-      <c r="W193">
-        <v>0</v>
-      </c>
-      <c r="X193">
-        <v>0</v>
-      </c>
-      <c r="Y193">
-        <v>0</v>
-      </c>
       <c r="Z193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27">
+        <v>1.025</v>
+      </c>
+      <c r="AB193">
+        <v>-1</v>
+      </c>
+      <c r="AC193">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -17655,6 +17730,15 @@
       <c r="G194" t="s">
         <v>43</v>
       </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194" t="s">
+        <v>49</v>
+      </c>
       <c r="K194">
         <v>2.25</v>
       </c>
@@ -17665,49 +17749,55 @@
         <v>3.1</v>
       </c>
       <c r="N194">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="O194">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P194">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q194">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S194">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T194">
         <v>2.25</v>
       </c>
       <c r="U194">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V194">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -17742,19 +17832,19 @@
         <v>2.3</v>
       </c>
       <c r="O195">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P195">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q195">
         <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S195">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T195">
         <v>2.5</v>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -148,16 +148,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Monterrey U23</t>
+  </si>
+  <si>
     <t>Unam Pumas U23</t>
   </si>
   <si>
-    <t>Monterrey U23</t>
+    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>Tijuana U23</t>
-  </si>
-  <si>
-    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>H</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC195"/>
+  <dimension ref="A1:AC214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17019,52 +17019,52 @@
         <v>46</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N186">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O186">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17108,52 +17108,52 @@
         <v>47</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N187">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W187">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17162,16 +17162,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17819,6 +17819,15 @@
       <c r="G195" t="s">
         <v>32</v>
       </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" t="s">
+        <v>49</v>
+      </c>
       <c r="K195">
         <v>2.3</v>
       </c>
@@ -17829,45 +17838,1667 @@
         <v>2.875</v>
       </c>
       <c r="N195">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O195">
         <v>3.4</v>
       </c>
       <c r="P195">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q195">
         <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S195">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T195">
         <v>2.5</v>
       </c>
       <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
+        <v>1.8</v>
+      </c>
+      <c r="W195">
+        <v>-1</v>
+      </c>
+      <c r="X195">
+        <v>2.4</v>
+      </c>
+      <c r="Y195">
+        <v>-1</v>
+      </c>
+      <c r="Z195">
+        <v>-0.5</v>
+      </c>
+      <c r="AA195">
+        <v>0.3625</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>7641699</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45370.83680555555</v>
+      </c>
+      <c r="F196" t="s">
+        <v>37</v>
+      </c>
+      <c r="G196" t="s">
+        <v>33</v>
+      </c>
+      <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>48</v>
+      </c>
+      <c r="K196">
+        <v>1.533</v>
+      </c>
+      <c r="L196">
+        <v>4</v>
+      </c>
+      <c r="M196">
+        <v>5.25</v>
+      </c>
+      <c r="N196">
+        <v>1.333</v>
+      </c>
+      <c r="O196">
+        <v>5</v>
+      </c>
+      <c r="P196">
+        <v>8</v>
+      </c>
+      <c r="Q196">
+        <v>-1.5</v>
+      </c>
+      <c r="R196">
+        <v>1.925</v>
+      </c>
+      <c r="S196">
+        <v>1.875</v>
+      </c>
+      <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>1.8</v>
+      </c>
+      <c r="V196">
+        <v>2</v>
+      </c>
+      <c r="W196">
+        <v>0.333</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
+        <v>0.925</v>
+      </c>
+      <c r="AA196">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>7640649</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45370.92013888889</v>
+      </c>
+      <c r="F197" t="s">
+        <v>29</v>
+      </c>
+      <c r="G197" t="s">
+        <v>34</v>
+      </c>
+      <c r="H197">
+        <v>3</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>48</v>
+      </c>
+      <c r="K197">
+        <v>1.65</v>
+      </c>
+      <c r="L197">
+        <v>3.6</v>
+      </c>
+      <c r="M197">
+        <v>4.5</v>
+      </c>
+      <c r="N197">
+        <v>1.8</v>
+      </c>
+      <c r="O197">
+        <v>3.75</v>
+      </c>
+      <c r="P197">
+        <v>4.5</v>
+      </c>
+      <c r="Q197">
+        <v>-0.75</v>
+      </c>
+      <c r="R197">
+        <v>1.925</v>
+      </c>
+      <c r="S197">
+        <v>1.875</v>
+      </c>
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
         <v>1.95</v>
       </c>
-      <c r="V195">
+      <c r="V197">
         <v>1.85</v>
       </c>
-      <c r="W195">
-        <v>0</v>
-      </c>
-      <c r="X195">
-        <v>0</v>
-      </c>
-      <c r="Y195">
-        <v>0</v>
-      </c>
-      <c r="Z195">
-        <v>0</v>
-      </c>
-      <c r="AA195">
+      <c r="W197">
+        <v>0.8</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>0.925</v>
+      </c>
+      <c r="AA197">
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>0.95</v>
+      </c>
+      <c r="AC197">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>7641700</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45371.00347222222</v>
+      </c>
+      <c r="F198" t="s">
+        <v>40</v>
+      </c>
+      <c r="G198" t="s">
+        <v>36</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>49</v>
+      </c>
+      <c r="K198">
+        <v>1.95</v>
+      </c>
+      <c r="L198">
+        <v>3.4</v>
+      </c>
+      <c r="M198">
+        <v>3.5</v>
+      </c>
+      <c r="N198">
+        <v>2.45</v>
+      </c>
+      <c r="O198">
+        <v>3.3</v>
+      </c>
+      <c r="P198">
+        <v>2.9</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>1.75</v>
+      </c>
+      <c r="S198">
+        <v>2.05</v>
+      </c>
+      <c r="T198">
+        <v>2.5</v>
+      </c>
+      <c r="U198">
+        <v>1.975</v>
+      </c>
+      <c r="V198">
+        <v>1.825</v>
+      </c>
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
+        <v>2.3</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>-0</v>
+      </c>
+      <c r="AB198">
+        <v>-1</v>
+      </c>
+      <c r="AC198">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>7641701</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45371.83680555555</v>
+      </c>
+      <c r="F199" t="s">
+        <v>31</v>
+      </c>
+      <c r="G199" t="s">
+        <v>32</v>
+      </c>
+      <c r="H199">
+        <v>2</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" t="s">
+        <v>49</v>
+      </c>
+      <c r="K199">
+        <v>2.1</v>
+      </c>
+      <c r="L199">
+        <v>3.3</v>
+      </c>
+      <c r="M199">
+        <v>3.2</v>
+      </c>
+      <c r="N199">
+        <v>2.1</v>
+      </c>
+      <c r="O199">
+        <v>3.4</v>
+      </c>
+      <c r="P199">
+        <v>3.6</v>
+      </c>
+      <c r="Q199">
+        <v>-0.25</v>
+      </c>
+      <c r="R199">
+        <v>1.775</v>
+      </c>
+      <c r="S199">
+        <v>2.025</v>
+      </c>
+      <c r="T199">
+        <v>2.25</v>
+      </c>
+      <c r="U199">
+        <v>1.775</v>
+      </c>
+      <c r="V199">
+        <v>2.025</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
+        <v>2.4</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
+        <v>-0.5</v>
+      </c>
+      <c r="AA199">
+        <v>0.5125</v>
+      </c>
+      <c r="AB199">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7641702</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45371.92013888889</v>
+      </c>
+      <c r="F200" t="s">
+        <v>30</v>
+      </c>
+      <c r="G200" t="s">
+        <v>41</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200" t="s">
+        <v>49</v>
+      </c>
+      <c r="K200">
+        <v>1.8</v>
+      </c>
+      <c r="L200">
+        <v>3.5</v>
+      </c>
+      <c r="M200">
+        <v>4</v>
+      </c>
+      <c r="N200">
+        <v>1.8</v>
+      </c>
+      <c r="O200">
+        <v>3.75</v>
+      </c>
+      <c r="P200">
+        <v>4.333</v>
+      </c>
+      <c r="Q200">
+        <v>-0.75</v>
+      </c>
+      <c r="R200">
+        <v>2</v>
+      </c>
+      <c r="S200">
+        <v>1.8</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
+        <v>1.925</v>
+      </c>
+      <c r="V200">
+        <v>1.875</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
+        <v>2.75</v>
+      </c>
+      <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
+        <v>-1</v>
+      </c>
+      <c r="AA200">
+        <v>0.8</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7641703</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45372.00347222222</v>
+      </c>
+      <c r="F201" t="s">
+        <v>39</v>
+      </c>
+      <c r="G201" t="s">
+        <v>38</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201" t="s">
+        <v>50</v>
+      </c>
+      <c r="K201">
+        <v>3.6</v>
+      </c>
+      <c r="L201">
+        <v>3.4</v>
+      </c>
+      <c r="M201">
+        <v>1.909</v>
+      </c>
+      <c r="N201">
+        <v>7</v>
+      </c>
+      <c r="O201">
+        <v>4</v>
+      </c>
+      <c r="P201">
+        <v>1.533</v>
+      </c>
+      <c r="Q201">
+        <v>1</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.85</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
+        <v>1.8</v>
+      </c>
+      <c r="V201">
+        <v>2</v>
+      </c>
+      <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>-0</v>
+      </c>
+      <c r="AB201">
+        <v>0.8</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>7641704</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45372.92013888889</v>
+      </c>
+      <c r="F202" t="s">
+        <v>43</v>
+      </c>
+      <c r="G202" t="s">
+        <v>42</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202" t="s">
+        <v>50</v>
+      </c>
+      <c r="K202">
+        <v>1.6</v>
+      </c>
+      <c r="L202">
+        <v>3.8</v>
+      </c>
+      <c r="M202">
+        <v>5</v>
+      </c>
+      <c r="N202">
+        <v>1.615</v>
+      </c>
+      <c r="O202">
+        <v>4</v>
+      </c>
+      <c r="P202">
+        <v>5.5</v>
+      </c>
+      <c r="Q202">
+        <v>-0.75</v>
+      </c>
+      <c r="R202">
+        <v>1.825</v>
+      </c>
+      <c r="S202">
+        <v>1.975</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.9</v>
+      </c>
+      <c r="V202">
+        <v>1.9</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>4.5</v>
+      </c>
+      <c r="Z202">
+        <v>-1</v>
+      </c>
+      <c r="AA202">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB202">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC202">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>7641705</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45373.92013888889</v>
+      </c>
+      <c r="F203" t="s">
+        <v>35</v>
+      </c>
+      <c r="G203" t="s">
+        <v>40</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>48</v>
+      </c>
+      <c r="K203">
+        <v>1.75</v>
+      </c>
+      <c r="L203">
+        <v>3.4</v>
+      </c>
+      <c r="M203">
+        <v>4</v>
+      </c>
+      <c r="N203">
+        <v>1.909</v>
+      </c>
+      <c r="O203">
+        <v>3.5</v>
+      </c>
+      <c r="P203">
+        <v>4</v>
+      </c>
+      <c r="Q203">
+        <v>-0.5</v>
+      </c>
+      <c r="R203">
+        <v>1.95</v>
+      </c>
+      <c r="S203">
+        <v>1.85</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.95</v>
+      </c>
+      <c r="V203">
+        <v>1.85</v>
+      </c>
+      <c r="W203">
+        <v>0.909</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.95</v>
+      </c>
+      <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>0.95</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7641706</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45374.75</v>
+      </c>
+      <c r="F204" t="s">
+        <v>33</v>
+      </c>
+      <c r="G204" t="s">
+        <v>31</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>4</v>
+      </c>
+      <c r="J204" t="s">
+        <v>50</v>
+      </c>
+      <c r="K204">
+        <v>2.7</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>2.4</v>
+      </c>
+      <c r="N204">
+        <v>3.25</v>
+      </c>
+      <c r="O204">
+        <v>3.1</v>
+      </c>
+      <c r="P204">
+        <v>2.375</v>
+      </c>
+      <c r="Q204">
+        <v>0.25</v>
+      </c>
+      <c r="R204">
+        <v>1.85</v>
+      </c>
+      <c r="S204">
+        <v>1.95</v>
+      </c>
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
+        <v>2.025</v>
+      </c>
+      <c r="V204">
+        <v>1.775</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>1.375</v>
+      </c>
+      <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
+        <v>0.95</v>
+      </c>
+      <c r="AB204">
+        <v>1.025</v>
+      </c>
+      <c r="AC204">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>7641707</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45374.83333333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>34</v>
+      </c>
+      <c r="G205" t="s">
+        <v>39</v>
+      </c>
+      <c r="H205">
+        <v>3</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>48</v>
+      </c>
+      <c r="K205">
+        <v>1.333</v>
+      </c>
+      <c r="L205">
+        <v>5</v>
+      </c>
+      <c r="M205">
+        <v>6</v>
+      </c>
+      <c r="N205">
+        <v>1.444</v>
+      </c>
+      <c r="O205">
+        <v>5.25</v>
+      </c>
+      <c r="P205">
+        <v>5.75</v>
+      </c>
+      <c r="Q205">
+        <v>-1.5</v>
+      </c>
+      <c r="R205">
+        <v>1.925</v>
+      </c>
+      <c r="S205">
+        <v>1.775</v>
+      </c>
+      <c r="T205">
+        <v>3.25</v>
+      </c>
+      <c r="U205">
+        <v>1.85</v>
+      </c>
+      <c r="V205">
+        <v>1.95</v>
+      </c>
+      <c r="W205">
+        <v>0.444</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>0.925</v>
+      </c>
+      <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC205">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7641708</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45374.92013888889</v>
+      </c>
+      <c r="F206" t="s">
+        <v>32</v>
+      </c>
+      <c r="G206" t="s">
+        <v>30</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
+        <v>48</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>3.2</v>
+      </c>
+      <c r="M206">
+        <v>3.3</v>
+      </c>
+      <c r="N206">
+        <v>2.625</v>
+      </c>
+      <c r="O206">
+        <v>3.2</v>
+      </c>
+      <c r="P206">
+        <v>2.625</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>1.9</v>
+      </c>
+      <c r="S206">
+        <v>1.9</v>
+      </c>
+      <c r="T206">
+        <v>2.25</v>
+      </c>
+      <c r="U206">
+        <v>1.925</v>
+      </c>
+      <c r="V206">
+        <v>1.875</v>
+      </c>
+      <c r="W206">
+        <v>1.625</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>0.925</v>
+      </c>
+      <c r="AC206">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>7641709</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45375.00347222222</v>
+      </c>
+      <c r="F207" t="s">
+        <v>36</v>
+      </c>
+      <c r="G207" t="s">
+        <v>38</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>4</v>
+      </c>
+      <c r="J207" t="s">
+        <v>50</v>
+      </c>
+      <c r="K207">
+        <v>4</v>
+      </c>
+      <c r="L207">
+        <v>3.5</v>
+      </c>
+      <c r="M207">
+        <v>1.727</v>
+      </c>
+      <c r="N207">
+        <v>3.6</v>
+      </c>
+      <c r="O207">
+        <v>3.4</v>
+      </c>
+      <c r="P207">
+        <v>2.1</v>
+      </c>
+      <c r="Q207">
+        <v>0.25</v>
+      </c>
+      <c r="R207">
+        <v>2.025</v>
+      </c>
+      <c r="S207">
+        <v>1.775</v>
+      </c>
+      <c r="T207">
+        <v>2.25</v>
+      </c>
+      <c r="U207">
+        <v>1.8</v>
+      </c>
+      <c r="V207">
+        <v>2</v>
+      </c>
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
+        <v>1.1</v>
+      </c>
+      <c r="Z207">
+        <v>-1</v>
+      </c>
+      <c r="AA207">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB207">
+        <v>0.8</v>
+      </c>
+      <c r="AC207">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>7640650</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45375.625</v>
+      </c>
+      <c r="F208" t="s">
+        <v>29</v>
+      </c>
+      <c r="G208" t="s">
+        <v>42</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208" t="s">
+        <v>49</v>
+      </c>
+      <c r="K208">
+        <v>1.444</v>
+      </c>
+      <c r="L208">
+        <v>4.333</v>
+      </c>
+      <c r="M208">
+        <v>5.25</v>
+      </c>
+      <c r="N208">
+        <v>1.533</v>
+      </c>
+      <c r="O208">
+        <v>4.2</v>
+      </c>
+      <c r="P208">
+        <v>6.5</v>
+      </c>
+      <c r="Q208">
+        <v>-1</v>
+      </c>
+      <c r="R208">
+        <v>1.85</v>
+      </c>
+      <c r="S208">
+        <v>1.95</v>
+      </c>
+      <c r="T208">
+        <v>2.25</v>
+      </c>
+      <c r="U208">
+        <v>1.875</v>
+      </c>
+      <c r="V208">
+        <v>1.925</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>3.2</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
+        <v>0.95</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>7641710</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45375.92013888889</v>
+      </c>
+      <c r="F209" t="s">
+        <v>41</v>
+      </c>
+      <c r="G209" t="s">
+        <v>43</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="s">
+        <v>50</v>
+      </c>
+      <c r="K209">
+        <v>2.6</v>
+      </c>
+      <c r="L209">
+        <v>3</v>
+      </c>
+      <c r="M209">
+        <v>2.5</v>
+      </c>
+      <c r="N209">
+        <v>3.4</v>
+      </c>
+      <c r="O209">
+        <v>3.3</v>
+      </c>
+      <c r="P209">
+        <v>2.2</v>
+      </c>
+      <c r="Q209">
+        <v>0.25</v>
+      </c>
+      <c r="R209">
+        <v>1.925</v>
+      </c>
+      <c r="S209">
+        <v>1.875</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>1.875</v>
+      </c>
+      <c r="V209">
+        <v>1.925</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>1.2</v>
+      </c>
+      <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>0.875</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>7641713</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45378.92013888889</v>
+      </c>
+      <c r="F210" t="s">
+        <v>38</v>
+      </c>
+      <c r="G210" t="s">
+        <v>35</v>
+      </c>
+      <c r="K210">
+        <v>1.666</v>
+      </c>
+      <c r="L210">
+        <v>3.8</v>
+      </c>
+      <c r="M210">
+        <v>4.333</v>
+      </c>
+      <c r="N210">
+        <v>1.444</v>
+      </c>
+      <c r="O210">
+        <v>4.5</v>
+      </c>
+      <c r="P210">
+        <v>7</v>
+      </c>
+      <c r="Q210">
+        <v>-1.25</v>
+      </c>
+      <c r="R210">
+        <v>1.95</v>
+      </c>
+      <c r="S210">
+        <v>1.85</v>
+      </c>
+      <c r="T210">
+        <v>2.75</v>
+      </c>
+      <c r="U210">
+        <v>1.95</v>
+      </c>
+      <c r="V210">
+        <v>1.85</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>7641714</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45379.00347222222</v>
+      </c>
+      <c r="F211" t="s">
+        <v>32</v>
+      </c>
+      <c r="G211" t="s">
+        <v>41</v>
+      </c>
+      <c r="K211">
+        <v>1.95</v>
+      </c>
+      <c r="L211">
+        <v>3.25</v>
+      </c>
+      <c r="M211">
+        <v>3.6</v>
+      </c>
+      <c r="N211">
+        <v>2.2</v>
+      </c>
+      <c r="O211">
+        <v>3.3</v>
+      </c>
+      <c r="P211">
+        <v>3.4</v>
+      </c>
+      <c r="Q211">
+        <v>-0.25</v>
+      </c>
+      <c r="R211">
+        <v>1.875</v>
+      </c>
+      <c r="S211">
+        <v>1.925</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>1.875</v>
+      </c>
+      <c r="V211">
+        <v>1.925</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>7641715</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45379.92013888889</v>
+      </c>
+      <c r="F212" t="s">
+        <v>42</v>
+      </c>
+      <c r="G212" t="s">
+        <v>30</v>
+      </c>
+      <c r="K212">
+        <v>2.6</v>
+      </c>
+      <c r="L212">
+        <v>3.4</v>
+      </c>
+      <c r="M212">
+        <v>2.4</v>
+      </c>
+      <c r="N212">
+        <v>2.45</v>
+      </c>
+      <c r="O212">
+        <v>3.3</v>
+      </c>
+      <c r="P212">
+        <v>2.6</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
+        <v>1.975</v>
+      </c>
+      <c r="V212">
+        <v>1.825</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>7640651</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45380.00347222222</v>
+      </c>
+      <c r="F213" t="s">
+        <v>39</v>
+      </c>
+      <c r="G213" t="s">
+        <v>29</v>
+      </c>
+      <c r="K213">
+        <v>7.5</v>
+      </c>
+      <c r="L213">
+        <v>4.2</v>
+      </c>
+      <c r="M213">
+        <v>1.444</v>
+      </c>
+      <c r="N213">
+        <v>6</v>
+      </c>
+      <c r="O213">
+        <v>4</v>
+      </c>
+      <c r="P213">
+        <v>1.55</v>
+      </c>
+      <c r="Q213">
+        <v>1</v>
+      </c>
+      <c r="R213">
+        <v>1.925</v>
+      </c>
+      <c r="S213">
+        <v>1.875</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
+        <v>2</v>
+      </c>
+      <c r="V213">
+        <v>1.8</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>7641716</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45380.875</v>
+      </c>
+      <c r="F214" t="s">
+        <v>43</v>
+      </c>
+      <c r="G214" t="s">
+        <v>36</v>
+      </c>
+      <c r="K214">
+        <v>1.444</v>
+      </c>
+      <c r="L214">
+        <v>4.2</v>
+      </c>
+      <c r="M214">
+        <v>7.5</v>
+      </c>
+      <c r="N214">
+        <v>1.533</v>
+      </c>
+      <c r="O214">
+        <v>4.2</v>
+      </c>
+      <c r="P214">
+        <v>6.5</v>
+      </c>
+      <c r="Q214">
+        <v>-1</v>
+      </c>
+      <c r="R214">
+        <v>1.8</v>
+      </c>
+      <c r="S214">
+        <v>2</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>1.825</v>
+      </c>
+      <c r="V214">
+        <v>1.975</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC214"/>
+  <dimension ref="A1:AC216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>4.5</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <v>4.75</v>
+      </c>
+      <c r="P92">
+        <v>5.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1.25</v>
+      </c>
+      <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
         <v>3</v>
       </c>
-      <c r="M92">
-        <v>2.875</v>
-      </c>
-      <c r="N92">
-        <v>2.7</v>
-      </c>
-      <c r="O92">
-        <v>3.1</v>
-      </c>
-      <c r="P92">
-        <v>2.8</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
+      <c r="U92">
+        <v>1.75</v>
+      </c>
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
-      <c r="V92">
-        <v>1.725</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -19137,7 +19137,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7641713</v>
+        <v>7641711</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19146,64 +19146,79 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45378.92013888889</v>
+        <v>45377.92013888889</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210" t="s">
+        <v>49</v>
       </c>
       <c r="K210">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L210">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N210">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O210">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P210">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q210">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R210">
+        <v>1.85</v>
+      </c>
+      <c r="S210">
         <v>1.95</v>
       </c>
-      <c r="S210">
-        <v>1.85</v>
-      </c>
       <c r="T210">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
         <v>1.95</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
+        <v>0.75</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19211,7 +19226,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7641714</v>
+        <v>7641712</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19220,64 +19235,79 @@
         <v>28</v>
       </c>
       <c r="E211" s="2">
-        <v>45379.00347222222</v>
+        <v>45378.00347222222</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G211" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>48</v>
       </c>
       <c r="K211">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="L211">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M211">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N211">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O211">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P211">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R211">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S211">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V211">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W211">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA211">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19285,7 +19315,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7641715</v>
+        <v>7641713</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19294,64 +19324,79 @@
         <v>28</v>
       </c>
       <c r="E212" s="2">
-        <v>45379.92013888889</v>
+        <v>45378.92013888889</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212">
+        <v>4</v>
+      </c>
+      <c r="J212" t="s">
+        <v>50</v>
       </c>
       <c r="K212">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L212">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M212">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N212">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="O212">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P212">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB212">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC212">
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19359,7 +19404,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7640651</v>
+        <v>7641714</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19368,64 +19413,79 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45380.00347222222</v>
+        <v>45379.00347222222</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213" t="s">
+        <v>50</v>
       </c>
       <c r="K213">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="L213">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M213">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="N213">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P213">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q213">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
+        <v>1.85</v>
+      </c>
+      <c r="S213">
+        <v>1.95</v>
+      </c>
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
         <v>1.925</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.875</v>
       </c>
-      <c r="T213">
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
         <v>2.5</v>
       </c>
-      <c r="U213">
-        <v>2</v>
-      </c>
-      <c r="V213">
-        <v>1.8</v>
-      </c>
-      <c r="W213">
-        <v>0</v>
-      </c>
-      <c r="X213">
-        <v>0</v>
-      </c>
-      <c r="Y213">
-        <v>0</v>
-      </c>
       <c r="Z213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB213">
+        <v>-0.5</v>
+      </c>
+      <c r="AC213">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19433,72 +19493,250 @@
         <v>212</v>
       </c>
       <c r="B214">
+        <v>7641715</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45379.92013888889</v>
+      </c>
+      <c r="F214" t="s">
+        <v>42</v>
+      </c>
+      <c r="G214" t="s">
+        <v>30</v>
+      </c>
+      <c r="H214">
+        <v>3</v>
+      </c>
+      <c r="I214">
+        <v>4</v>
+      </c>
+      <c r="J214" t="s">
+        <v>50</v>
+      </c>
+      <c r="K214">
+        <v>2.6</v>
+      </c>
+      <c r="L214">
+        <v>3.4</v>
+      </c>
+      <c r="M214">
+        <v>2.4</v>
+      </c>
+      <c r="N214">
+        <v>2.45</v>
+      </c>
+      <c r="O214">
+        <v>3.2</v>
+      </c>
+      <c r="P214">
+        <v>3.1</v>
+      </c>
+      <c r="Q214">
+        <v>-0.25</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>1.8</v>
+      </c>
+      <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
+        <v>1.9</v>
+      </c>
+      <c r="V214">
+        <v>1.9</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>2.1</v>
+      </c>
+      <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
+        <v>0.8</v>
+      </c>
+      <c r="AB214">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC214">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7640651</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45380.00347222222</v>
+      </c>
+      <c r="F215" t="s">
+        <v>39</v>
+      </c>
+      <c r="G215" t="s">
+        <v>29</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>3</v>
+      </c>
+      <c r="J215" t="s">
+        <v>50</v>
+      </c>
+      <c r="K215">
+        <v>7.5</v>
+      </c>
+      <c r="L215">
+        <v>4.2</v>
+      </c>
+      <c r="M215">
+        <v>1.444</v>
+      </c>
+      <c r="N215">
+        <v>5.25</v>
+      </c>
+      <c r="O215">
+        <v>4</v>
+      </c>
+      <c r="P215">
+        <v>1.615</v>
+      </c>
+      <c r="Q215">
+        <v>1</v>
+      </c>
+      <c r="R215">
+        <v>1.775</v>
+      </c>
+      <c r="S215">
+        <v>2.025</v>
+      </c>
+      <c r="T215">
+        <v>2.25</v>
+      </c>
+      <c r="U215">
+        <v>1.75</v>
+      </c>
+      <c r="V215">
+        <v>1.95</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>0.615</v>
+      </c>
+      <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
+        <v>1.025</v>
+      </c>
+      <c r="AB215">
+        <v>0.75</v>
+      </c>
+      <c r="AC215">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
         <v>7641716</v>
       </c>
-      <c r="C214" t="s">
-        <v>28</v>
-      </c>
-      <c r="D214" t="s">
-        <v>28</v>
-      </c>
-      <c r="E214" s="2">
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
         <v>45380.875</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F216" t="s">
         <v>43</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G216" t="s">
         <v>36</v>
       </c>
-      <c r="K214">
+      <c r="K216">
         <v>1.444</v>
       </c>
-      <c r="L214">
+      <c r="L216">
         <v>4.2</v>
       </c>
-      <c r="M214">
+      <c r="M216">
         <v>7.5</v>
       </c>
-      <c r="N214">
-        <v>1.533</v>
-      </c>
-      <c r="O214">
+      <c r="N216">
+        <v>1.5</v>
+      </c>
+      <c r="O216">
         <v>4.2</v>
       </c>
-      <c r="P214">
+      <c r="P216">
         <v>6.5</v>
       </c>
-      <c r="Q214">
-        <v>-1</v>
-      </c>
-      <c r="R214">
-        <v>1.8</v>
-      </c>
-      <c r="S214">
-        <v>2</v>
-      </c>
-      <c r="T214">
+      <c r="Q216">
+        <v>-1</v>
+      </c>
+      <c r="R216">
+        <v>1.775</v>
+      </c>
+      <c r="S216">
+        <v>2.025</v>
+      </c>
+      <c r="T216">
         <v>2.5</v>
       </c>
-      <c r="U214">
+      <c r="U216">
         <v>1.825</v>
       </c>
-      <c r="V214">
+      <c r="V216">
         <v>1.975</v>
       </c>
-      <c r="W214">
+      <c r="W216">
         <v>0</v>
       </c>
-      <c r="X214">
+      <c r="X216">
         <v>0</v>
       </c>
-      <c r="Y214">
+      <c r="Y216">
         <v>0</v>
       </c>
-      <c r="Z214">
+      <c r="Z216">
         <v>0</v>
       </c>
-      <c r="AA214">
+      <c r="AA216">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4.5</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>5.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1.25</v>
+      </c>
+      <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
         <v>3</v>
       </c>
-      <c r="M91">
-        <v>2.875</v>
-      </c>
-      <c r="N91">
-        <v>2.7</v>
-      </c>
-      <c r="O91">
-        <v>3.1</v>
-      </c>
-      <c r="P91">
-        <v>2.8</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>1.85</v>
-      </c>
-      <c r="S91">
+      <c r="U91">
+        <v>1.75</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
-      <c r="V91">
-        <v>1.725</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -19701,28 +19701,28 @@
         <v>1.5</v>
       </c>
       <c r="O216">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P216">
         <v>6.5</v>
       </c>
       <c r="Q216">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R216">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T216">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U216">
+        <v>1.975</v>
+      </c>
+      <c r="V216">
         <v>1.825</v>
-      </c>
-      <c r="V216">
-        <v>1.975</v>
       </c>
       <c r="W216">
         <v>0</v>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC216"/>
+  <dimension ref="A1:AC215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>4.5</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <v>4.75</v>
+      </c>
+      <c r="P92">
+        <v>5.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1.25</v>
+      </c>
+      <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
         <v>3</v>
       </c>
-      <c r="M92">
-        <v>2.875</v>
-      </c>
-      <c r="N92">
-        <v>2.7</v>
-      </c>
-      <c r="O92">
-        <v>3.1</v>
-      </c>
-      <c r="P92">
-        <v>2.8</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
+      <c r="U92">
+        <v>1.75</v>
+      </c>
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
-      <c r="V92">
-        <v>1.725</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -19664,80 +19664,6 @@
       </c>
       <c r="AC215">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:29">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216">
-        <v>7641716</v>
-      </c>
-      <c r="C216" t="s">
-        <v>28</v>
-      </c>
-      <c r="D216" t="s">
-        <v>28</v>
-      </c>
-      <c r="E216" s="2">
-        <v>45380.875</v>
-      </c>
-      <c r="F216" t="s">
-        <v>43</v>
-      </c>
-      <c r="G216" t="s">
-        <v>36</v>
-      </c>
-      <c r="K216">
-        <v>1.444</v>
-      </c>
-      <c r="L216">
-        <v>4.2</v>
-      </c>
-      <c r="M216">
-        <v>7.5</v>
-      </c>
-      <c r="N216">
-        <v>1.5</v>
-      </c>
-      <c r="O216">
-        <v>4.333</v>
-      </c>
-      <c r="P216">
-        <v>6.5</v>
-      </c>
-      <c r="Q216">
-        <v>-1.25</v>
-      </c>
-      <c r="R216">
-        <v>2</v>
-      </c>
-      <c r="S216">
-        <v>1.8</v>
-      </c>
-      <c r="T216">
-        <v>2.75</v>
-      </c>
-      <c r="U216">
-        <v>1.975</v>
-      </c>
-      <c r="V216">
-        <v>1.825</v>
-      </c>
-      <c r="W216">
-        <v>0</v>
-      </c>
-      <c r="X216">
-        <v>0</v>
-      </c>
-      <c r="Y216">
-        <v>0</v>
-      </c>
-      <c r="Z216">
-        <v>0</v>
-      </c>
-      <c r="AA216">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC215"/>
+  <dimension ref="A1:AC216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19666,6 +19666,95 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>7641716</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45380.875</v>
+      </c>
+      <c r="F216" t="s">
+        <v>43</v>
+      </c>
+      <c r="G216" t="s">
+        <v>36</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216" t="s">
+        <v>49</v>
+      </c>
+      <c r="K216">
+        <v>1.444</v>
+      </c>
+      <c r="L216">
+        <v>4.2</v>
+      </c>
+      <c r="M216">
+        <v>7.5</v>
+      </c>
+      <c r="N216">
+        <v>1.5</v>
+      </c>
+      <c r="O216">
+        <v>4.333</v>
+      </c>
+      <c r="P216">
+        <v>6.5</v>
+      </c>
+      <c r="Q216">
+        <v>-1.25</v>
+      </c>
+      <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
+        <v>1.825</v>
+      </c>
+      <c r="T216">
+        <v>2.75</v>
+      </c>
+      <c r="U216">
+        <v>1.975</v>
+      </c>
+      <c r="V216">
+        <v>1.825</v>
+      </c>
+      <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
+        <v>3.333</v>
+      </c>
+      <c r="Y216">
+        <v>-1</v>
+      </c>
+      <c r="Z216">
+        <v>-1</v>
+      </c>
+      <c r="AA216">
+        <v>0.825</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
+        <v>0.825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -148,16 +148,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Unam Pumas U23</t>
+  </si>
+  <si>
     <t>Monterrey U23</t>
   </si>
   <si>
-    <t>Unam Pumas U23</t>
+    <t>Tijuana U23</t>
   </si>
   <si>
     <t>Mazatlan FC U23</t>
-  </si>
-  <si>
-    <t>Tijuana U23</t>
   </si>
   <si>
     <t>H</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC216"/>
+  <dimension ref="A1:AC221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17019,52 +17019,52 @@
         <v>46</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L186">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N186">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W186">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17108,52 +17108,52 @@
         <v>47</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M187">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N187">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V187">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17162,16 +17162,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -19753,6 +19753,376 @@
       </c>
       <c r="AC216">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>7640652</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45384.83680555555</v>
+      </c>
+      <c r="F217" t="s">
+        <v>31</v>
+      </c>
+      <c r="G217" t="s">
+        <v>29</v>
+      </c>
+      <c r="K217">
+        <v>2.6</v>
+      </c>
+      <c r="L217">
+        <v>3.3</v>
+      </c>
+      <c r="M217">
+        <v>2.5</v>
+      </c>
+      <c r="N217">
+        <v>2.7</v>
+      </c>
+      <c r="O217">
+        <v>3.3</v>
+      </c>
+      <c r="P217">
+        <v>2.4</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>2.025</v>
+      </c>
+      <c r="S217">
+        <v>1.775</v>
+      </c>
+      <c r="T217">
+        <v>2.5</v>
+      </c>
+      <c r="U217">
+        <v>1.975</v>
+      </c>
+      <c r="V217">
+        <v>1.825</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>7641717</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45384.92013888889</v>
+      </c>
+      <c r="F218" t="s">
+        <v>41</v>
+      </c>
+      <c r="G218" t="s">
+        <v>35</v>
+      </c>
+      <c r="K218">
+        <v>2.15</v>
+      </c>
+      <c r="L218">
+        <v>3.25</v>
+      </c>
+      <c r="M218">
+        <v>3.25</v>
+      </c>
+      <c r="N218">
+        <v>2</v>
+      </c>
+      <c r="O218">
+        <v>3.4</v>
+      </c>
+      <c r="P218">
+        <v>3.6</v>
+      </c>
+      <c r="Q218">
+        <v>-0.5</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
+        <v>1.8</v>
+      </c>
+      <c r="T218">
+        <v>2.5</v>
+      </c>
+      <c r="U218">
+        <v>2</v>
+      </c>
+      <c r="V218">
+        <v>1.8</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>7641718</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45385.00347222222</v>
+      </c>
+      <c r="F219" t="s">
+        <v>39</v>
+      </c>
+      <c r="G219" t="s">
+        <v>40</v>
+      </c>
+      <c r="K219">
+        <v>2.25</v>
+      </c>
+      <c r="L219">
+        <v>3.25</v>
+      </c>
+      <c r="M219">
+        <v>3</v>
+      </c>
+      <c r="N219">
+        <v>2.2</v>
+      </c>
+      <c r="O219">
+        <v>3.25</v>
+      </c>
+      <c r="P219">
+        <v>3.1</v>
+      </c>
+      <c r="Q219">
+        <v>-0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.925</v>
+      </c>
+      <c r="S219">
+        <v>1.875</v>
+      </c>
+      <c r="T219">
+        <v>2.5</v>
+      </c>
+      <c r="U219">
+        <v>2</v>
+      </c>
+      <c r="V219">
+        <v>1.8</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>7641720</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45386.00347222222</v>
+      </c>
+      <c r="F220" t="s">
+        <v>30</v>
+      </c>
+      <c r="G220" t="s">
+        <v>37</v>
+      </c>
+      <c r="K220">
+        <v>2.5</v>
+      </c>
+      <c r="L220">
+        <v>3.1</v>
+      </c>
+      <c r="M220">
+        <v>2.75</v>
+      </c>
+      <c r="N220">
+        <v>2.55</v>
+      </c>
+      <c r="O220">
+        <v>3.1</v>
+      </c>
+      <c r="P220">
+        <v>2.7</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>1.85</v>
+      </c>
+      <c r="S220">
+        <v>1.95</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>2</v>
+      </c>
+      <c r="V220">
+        <v>1.8</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>7641722</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45387.00347222222</v>
+      </c>
+      <c r="F221" t="s">
+        <v>33</v>
+      </c>
+      <c r="G221" t="s">
+        <v>36</v>
+      </c>
+      <c r="K221">
+        <v>2.6</v>
+      </c>
+      <c r="L221">
+        <v>3.1</v>
+      </c>
+      <c r="M221">
+        <v>2.65</v>
+      </c>
+      <c r="N221">
+        <v>2.5</v>
+      </c>
+      <c r="O221">
+        <v>3.1</v>
+      </c>
+      <c r="P221">
+        <v>2.75</v>
+      </c>
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>1.8</v>
+      </c>
+      <c r="S221">
+        <v>2</v>
+      </c>
+      <c r="T221">
+        <v>2.25</v>
+      </c>
+      <c r="U221">
+        <v>1.85</v>
+      </c>
+      <c r="V221">
+        <v>1.95</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4.5</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>5.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1.25</v>
+      </c>
+      <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
         <v>3</v>
       </c>
-      <c r="M91">
-        <v>2.875</v>
-      </c>
-      <c r="N91">
-        <v>2.7</v>
-      </c>
-      <c r="O91">
-        <v>3.1</v>
-      </c>
-      <c r="P91">
-        <v>2.8</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>1.85</v>
-      </c>
-      <c r="S91">
+      <c r="U91">
+        <v>1.75</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
-      <c r="V91">
-        <v>1.725</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -19760,7 +19760,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7640652</v>
+        <v>7641718</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,49 +19769,49 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45384.83680555555</v>
+        <v>45385.00347222222</v>
       </c>
       <c r="F217" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G217" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K217">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L217">
+        <v>3.25</v>
+      </c>
+      <c r="M217">
+        <v>3</v>
+      </c>
+      <c r="N217">
+        <v>2.25</v>
+      </c>
+      <c r="O217">
+        <v>3.25</v>
+      </c>
+      <c r="P217">
         <v>3.3</v>
       </c>
-      <c r="M217">
-        <v>2.5</v>
-      </c>
-      <c r="N217">
-        <v>2.7</v>
-      </c>
-      <c r="O217">
-        <v>3.3</v>
-      </c>
-      <c r="P217">
-        <v>2.4</v>
-      </c>
       <c r="Q217">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
+        <v>1.925</v>
+      </c>
+      <c r="S217">
+        <v>1.875</v>
+      </c>
+      <c r="T217">
+        <v>2.25</v>
+      </c>
+      <c r="U217">
+        <v>1.775</v>
+      </c>
+      <c r="V217">
         <v>2.025</v>
-      </c>
-      <c r="S217">
-        <v>1.775</v>
-      </c>
-      <c r="T217">
-        <v>2.5</v>
-      </c>
-      <c r="U217">
-        <v>1.975</v>
-      </c>
-      <c r="V217">
-        <v>1.825</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19834,7 +19834,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7641717</v>
+        <v>7641719</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19843,13 +19843,13 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45384.92013888889</v>
+        <v>45385.92013888889</v>
       </c>
       <c r="F218" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G218" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K218">
         <v>2.15</v>
@@ -19858,34 +19858,34 @@
         <v>3.25</v>
       </c>
       <c r="M218">
+        <v>3.2</v>
+      </c>
+      <c r="N218">
+        <v>2.25</v>
+      </c>
+      <c r="O218">
+        <v>3.3</v>
+      </c>
+      <c r="P218">
         <v>3.25</v>
       </c>
-      <c r="N218">
-        <v>2</v>
-      </c>
-      <c r="O218">
-        <v>3.4</v>
-      </c>
-      <c r="P218">
-        <v>3.6</v>
-      </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S218">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V218">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19908,7 +19908,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7641718</v>
+        <v>7641720</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19917,40 +19917,40 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45385.00347222222</v>
+        <v>45386.00347222222</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K219">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L219">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M219">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N219">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O219">
         <v>3.25</v>
       </c>
       <c r="P219">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R219">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S219">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T219">
         <v>2.5</v>
@@ -19982,7 +19982,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7641720</v>
+        <v>7641721</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -19991,49 +19991,49 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45386.00347222222</v>
+        <v>45386.92013888889</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G220" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K220">
+        <v>2.6</v>
+      </c>
+      <c r="L220">
+        <v>3.3</v>
+      </c>
+      <c r="M220">
         <v>2.5</v>
       </c>
-      <c r="L220">
-        <v>3.1</v>
-      </c>
-      <c r="M220">
-        <v>2.75</v>
-      </c>
       <c r="N220">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O220">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P220">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q220">
         <v>0</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V220">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20086,10 +20086,10 @@
         <v>2.5</v>
       </c>
       <c r="O221">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P221">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -20104,10 +20104,10 @@
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
         <v>0</v>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC221"/>
+  <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19760,7 +19760,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7641718</v>
+        <v>7641719</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,49 +19769,49 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45385.00347222222</v>
+        <v>45385.92013888889</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G217" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K217">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L217">
         <v>3.25</v>
       </c>
       <c r="M217">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N217">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O217">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P217">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q217">
         <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T217">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V217">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19834,7 +19834,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7641719</v>
+        <v>7641720</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19843,49 +19843,49 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45385.92013888889</v>
+        <v>45386.00347222222</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G218" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K218">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L218">
+        <v>3.1</v>
+      </c>
+      <c r="M218">
+        <v>2.75</v>
+      </c>
+      <c r="N218">
+        <v>2.5</v>
+      </c>
+      <c r="O218">
         <v>3.25</v>
       </c>
-      <c r="M218">
-        <v>3.2</v>
-      </c>
-      <c r="N218">
-        <v>2.25</v>
-      </c>
-      <c r="O218">
-        <v>3.3</v>
-      </c>
       <c r="P218">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q218">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V218">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19908,7 +19908,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7641720</v>
+        <v>7641721</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19917,49 +19917,49 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45386.00347222222</v>
+        <v>45386.92013888889</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K219">
+        <v>2.6</v>
+      </c>
+      <c r="L219">
+        <v>3.3</v>
+      </c>
+      <c r="M219">
         <v>2.5</v>
       </c>
-      <c r="L219">
+      <c r="N219">
         <v>3.1</v>
       </c>
-      <c r="M219">
-        <v>2.75</v>
-      </c>
-      <c r="N219">
-        <v>2.8</v>
-      </c>
       <c r="O219">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P219">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="Q219">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S219">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V219">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19982,7 +19982,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7641721</v>
+        <v>7641722</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -19991,40 +19991,40 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45386.92013888889</v>
+        <v>45387.00347222222</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K220">
         <v>2.6</v>
       </c>
       <c r="L220">
+        <v>3.1</v>
+      </c>
+      <c r="M220">
+        <v>2.65</v>
+      </c>
+      <c r="N220">
+        <v>2.625</v>
+      </c>
+      <c r="O220">
         <v>3.3</v>
       </c>
-      <c r="M220">
-        <v>2.5</v>
-      </c>
-      <c r="N220">
-        <v>2.8</v>
-      </c>
-      <c r="O220">
-        <v>3.25</v>
-      </c>
       <c r="P220">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q220">
         <v>0</v>
       </c>
       <c r="R220">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T220">
         <v>2.25</v>
@@ -20048,80 +20048,6 @@
         <v>0</v>
       </c>
       <c r="AA220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:29">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>7641722</v>
-      </c>
-      <c r="C221" t="s">
-        <v>28</v>
-      </c>
-      <c r="D221" t="s">
-        <v>28</v>
-      </c>
-      <c r="E221" s="2">
-        <v>45387.00347222222</v>
-      </c>
-      <c r="F221" t="s">
-        <v>33</v>
-      </c>
-      <c r="G221" t="s">
-        <v>36</v>
-      </c>
-      <c r="K221">
-        <v>2.6</v>
-      </c>
-      <c r="L221">
-        <v>3.1</v>
-      </c>
-      <c r="M221">
-        <v>2.65</v>
-      </c>
-      <c r="N221">
-        <v>2.5</v>
-      </c>
-      <c r="O221">
-        <v>3.25</v>
-      </c>
-      <c r="P221">
-        <v>2.875</v>
-      </c>
-      <c r="Q221">
-        <v>0</v>
-      </c>
-      <c r="R221">
-        <v>1.8</v>
-      </c>
-      <c r="S221">
-        <v>2</v>
-      </c>
-      <c r="T221">
-        <v>2.25</v>
-      </c>
-      <c r="U221">
-        <v>1.825</v>
-      </c>
-      <c r="V221">
-        <v>1.975</v>
-      </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-      <c r="X221">
-        <v>0</v>
-      </c>
-      <c r="Y221">
-        <v>0</v>
-      </c>
-      <c r="Z221">
-        <v>0</v>
-      </c>
-      <c r="AA221">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19760,7 +19760,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7641719</v>
+        <v>7641721</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,34 +19769,34 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45385.92013888889</v>
+        <v>45386.92013888889</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G217" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K217">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L217">
+        <v>3.3</v>
+      </c>
+      <c r="M217">
+        <v>2.5</v>
+      </c>
+      <c r="N217">
         <v>3.25</v>
       </c>
-      <c r="M217">
-        <v>3.2</v>
-      </c>
-      <c r="N217">
+      <c r="O217">
+        <v>3.25</v>
+      </c>
+      <c r="P217">
         <v>2.3</v>
       </c>
-      <c r="O217">
-        <v>3.3</v>
-      </c>
-      <c r="P217">
-        <v>3.1</v>
-      </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
         <v>1.95</v>
@@ -19805,13 +19805,13 @@
         <v>1.85</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V217">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19834,7 +19834,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7641720</v>
+        <v>7641722</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19843,49 +19843,49 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45386.00347222222</v>
+        <v>45387.00347222222</v>
       </c>
       <c r="F218" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K218">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L218">
         <v>3.1</v>
       </c>
       <c r="M218">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="N218">
+        <v>2.875</v>
+      </c>
+      <c r="O218">
+        <v>3.3</v>
+      </c>
+      <c r="P218">
         <v>2.5</v>
-      </c>
-      <c r="O218">
-        <v>3.25</v>
-      </c>
-      <c r="P218">
-        <v>2.875</v>
       </c>
       <c r="Q218">
         <v>0</v>
       </c>
       <c r="R218">
+        <v>2.025</v>
+      </c>
+      <c r="S218">
+        <v>1.775</v>
+      </c>
+      <c r="T218">
+        <v>2.25</v>
+      </c>
+      <c r="U218">
         <v>1.8</v>
       </c>
-      <c r="S218">
-        <v>2</v>
-      </c>
-      <c r="T218">
-        <v>2.5</v>
-      </c>
-      <c r="U218">
-        <v>2</v>
-      </c>
       <c r="V218">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19908,7 +19908,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7641721</v>
+        <v>7893216</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19917,49 +19917,49 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45386.92013888889</v>
+        <v>45388.00347222222</v>
       </c>
       <c r="F219" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G219" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K219">
+        <v>2.3</v>
+      </c>
+      <c r="L219">
+        <v>3</v>
+      </c>
+      <c r="M219">
+        <v>2.9</v>
+      </c>
+      <c r="N219">
         <v>2.6</v>
       </c>
-      <c r="L219">
-        <v>3.3</v>
-      </c>
-      <c r="M219">
+      <c r="O219">
+        <v>3</v>
+      </c>
+      <c r="P219">
+        <v>2.6</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>1.9</v>
+      </c>
+      <c r="S219">
+        <v>1.9</v>
+      </c>
+      <c r="T219">
         <v>2.5</v>
       </c>
-      <c r="N219">
-        <v>3.1</v>
-      </c>
-      <c r="O219">
-        <v>3.3</v>
-      </c>
-      <c r="P219">
-        <v>2.375</v>
-      </c>
-      <c r="Q219">
-        <v>0.25</v>
-      </c>
-      <c r="R219">
-        <v>1.825</v>
-      </c>
-      <c r="S219">
-        <v>1.975</v>
-      </c>
-      <c r="T219">
-        <v>2.25</v>
-      </c>
       <c r="U219">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19974,80 +19974,6 @@
         <v>0</v>
       </c>
       <c r="AA219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>7641722</v>
-      </c>
-      <c r="C220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D220" t="s">
-        <v>28</v>
-      </c>
-      <c r="E220" s="2">
-        <v>45387.00347222222</v>
-      </c>
-      <c r="F220" t="s">
-        <v>33</v>
-      </c>
-      <c r="G220" t="s">
-        <v>36</v>
-      </c>
-      <c r="K220">
-        <v>2.6</v>
-      </c>
-      <c r="L220">
-        <v>3.1</v>
-      </c>
-      <c r="M220">
-        <v>2.65</v>
-      </c>
-      <c r="N220">
-        <v>2.625</v>
-      </c>
-      <c r="O220">
-        <v>3.3</v>
-      </c>
-      <c r="P220">
-        <v>2.75</v>
-      </c>
-      <c r="Q220">
-        <v>0</v>
-      </c>
-      <c r="R220">
-        <v>1.9</v>
-      </c>
-      <c r="S220">
-        <v>1.9</v>
-      </c>
-      <c r="T220">
-        <v>2.25</v>
-      </c>
-      <c r="U220">
-        <v>1.775</v>
-      </c>
-      <c r="V220">
-        <v>2.025</v>
-      </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <v>0</v>
-      </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-      <c r="Z220">
-        <v>0</v>
-      </c>
-      <c r="AA220">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC219"/>
+  <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19760,7 +19760,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7641721</v>
+        <v>7640652</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19769,13 +19769,22 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45386.92013888889</v>
+        <v>45384.83680555555</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G217" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217" t="s">
+        <v>49</v>
       </c>
       <c r="K217">
         <v>2.6</v>
@@ -19787,13 +19796,13 @@
         <v>2.5</v>
       </c>
       <c r="N217">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O217">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q217">
         <v>0.25</v>
@@ -19808,25 +19817,31 @@
         <v>2.25</v>
       </c>
       <c r="U217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V217">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA217">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB217">
+        <v>-1</v>
+      </c>
+      <c r="AC217">
+        <v>0.825</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19834,7 +19849,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7641722</v>
+        <v>7641717</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19843,64 +19858,79 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45387.00347222222</v>
+        <v>45384.92013888889</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G218" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218" t="s">
+        <v>48</v>
       </c>
       <c r="K218">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L218">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M218">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="N218">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O218">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P218">
+        <v>4.5</v>
+      </c>
+      <c r="Q218">
+        <v>-0.5</v>
+      </c>
+      <c r="R218">
+        <v>1.8</v>
+      </c>
+      <c r="S218">
+        <v>2</v>
+      </c>
+      <c r="T218">
         <v>2.5</v>
       </c>
-      <c r="Q218">
-        <v>0</v>
-      </c>
-      <c r="R218">
-        <v>2.025</v>
-      </c>
-      <c r="S218">
-        <v>1.775</v>
-      </c>
-      <c r="T218">
-        <v>2.25</v>
-      </c>
       <c r="U218">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V218">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W218">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA218">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB218">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC218">
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19908,7 +19938,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7893216</v>
+        <v>7641718</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19917,64 +19947,435 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45388.00347222222</v>
+        <v>45385.00347222222</v>
       </c>
       <c r="F219" t="s">
         <v>39</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>3</v>
+      </c>
+      <c r="J219" t="s">
+        <v>50</v>
       </c>
       <c r="K219">
+        <v>2.25</v>
+      </c>
+      <c r="L219">
+        <v>3.25</v>
+      </c>
+      <c r="M219">
+        <v>3</v>
+      </c>
+      <c r="N219">
         <v>2.3</v>
       </c>
-      <c r="L219">
-        <v>3</v>
-      </c>
-      <c r="M219">
-        <v>2.9</v>
-      </c>
-      <c r="N219">
-        <v>2.6</v>
-      </c>
       <c r="O219">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P219">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q219">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S219">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W219">
+        <v>-1</v>
+      </c>
+      <c r="X219">
+        <v>-1</v>
+      </c>
+      <c r="Y219">
+        <v>2.2</v>
+      </c>
+      <c r="Z219">
+        <v>-1</v>
+      </c>
+      <c r="AA219">
+        <v>0.8</v>
+      </c>
+      <c r="AB219">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC219">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>7641719</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45385.92013888889</v>
+      </c>
+      <c r="F220" t="s">
+        <v>34</v>
+      </c>
+      <c r="G220" t="s">
+        <v>43</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220" t="s">
+        <v>49</v>
+      </c>
+      <c r="K220">
+        <v>2.15</v>
+      </c>
+      <c r="L220">
+        <v>3.25</v>
+      </c>
+      <c r="M220">
+        <v>3.2</v>
+      </c>
+      <c r="N220">
+        <v>2.3</v>
+      </c>
+      <c r="O220">
+        <v>3.3</v>
+      </c>
+      <c r="P220">
+        <v>3.1</v>
+      </c>
+      <c r="Q220">
+        <v>-0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.975</v>
+      </c>
+      <c r="S220">
+        <v>1.825</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>1.85</v>
+      </c>
+      <c r="V220">
+        <v>1.95</v>
+      </c>
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>2.3</v>
+      </c>
+      <c r="Y220">
+        <v>-1</v>
+      </c>
+      <c r="Z220">
+        <v>-0.5</v>
+      </c>
+      <c r="AA220">
+        <v>0.4125</v>
+      </c>
+      <c r="AB220">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC220">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>7641720</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45386.00347222222</v>
+      </c>
+      <c r="F221" t="s">
+        <v>30</v>
+      </c>
+      <c r="G221" t="s">
+        <v>37</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
         <v>0</v>
       </c>
-      <c r="X219">
+      <c r="J221" t="s">
+        <v>48</v>
+      </c>
+      <c r="K221">
+        <v>2.5</v>
+      </c>
+      <c r="L221">
+        <v>3.1</v>
+      </c>
+      <c r="M221">
+        <v>2.75</v>
+      </c>
+      <c r="N221">
+        <v>2.5</v>
+      </c>
+      <c r="O221">
+        <v>3.25</v>
+      </c>
+      <c r="P221">
+        <v>2.875</v>
+      </c>
+      <c r="Q221">
         <v>0</v>
       </c>
-      <c r="Y219">
+      <c r="R221">
+        <v>1.775</v>
+      </c>
+      <c r="S221">
+        <v>2.025</v>
+      </c>
+      <c r="T221">
+        <v>2.25</v>
+      </c>
+      <c r="U221">
+        <v>1.8</v>
+      </c>
+      <c r="V221">
+        <v>2</v>
+      </c>
+      <c r="W221">
+        <v>1.5</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
+        <v>-1</v>
+      </c>
+      <c r="Z221">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA221">
+        <v>-1</v>
+      </c>
+      <c r="AB221">
+        <v>-0.5</v>
+      </c>
+      <c r="AC221">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>7641721</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45386.92013888889</v>
+      </c>
+      <c r="F222" t="s">
+        <v>42</v>
+      </c>
+      <c r="G222" t="s">
+        <v>38</v>
+      </c>
+      <c r="H222">
         <v>0</v>
       </c>
-      <c r="Z219">
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222" t="s">
+        <v>50</v>
+      </c>
+      <c r="K222">
+        <v>2.6</v>
+      </c>
+      <c r="L222">
+        <v>3.3</v>
+      </c>
+      <c r="M222">
+        <v>2.5</v>
+      </c>
+      <c r="N222">
+        <v>3.3</v>
+      </c>
+      <c r="O222">
+        <v>3.3</v>
+      </c>
+      <c r="P222">
+        <v>2.25</v>
+      </c>
+      <c r="Q222">
+        <v>0.25</v>
+      </c>
+      <c r="R222">
+        <v>1.825</v>
+      </c>
+      <c r="S222">
+        <v>1.975</v>
+      </c>
+      <c r="T222">
+        <v>2.25</v>
+      </c>
+      <c r="U222">
+        <v>1.8</v>
+      </c>
+      <c r="V222">
+        <v>2</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>1.25</v>
+      </c>
+      <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB222">
+        <v>-0.5</v>
+      </c>
+      <c r="AC222">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>7641722</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45387.00347222222</v>
+      </c>
+      <c r="F223" t="s">
+        <v>33</v>
+      </c>
+      <c r="G223" t="s">
+        <v>36</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223" t="s">
+        <v>49</v>
+      </c>
+      <c r="K223">
+        <v>2.6</v>
+      </c>
+      <c r="L223">
+        <v>3.1</v>
+      </c>
+      <c r="M223">
+        <v>2.65</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223">
+        <v>3.3</v>
+      </c>
+      <c r="P223">
+        <v>2.4</v>
+      </c>
+      <c r="Q223">
         <v>0</v>
       </c>
-      <c r="AA219">
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
+        <v>1.8</v>
+      </c>
+      <c r="T223">
+        <v>2.25</v>
+      </c>
+      <c r="U223">
+        <v>1.85</v>
+      </c>
+      <c r="V223">
+        <v>1.95</v>
+      </c>
+      <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
+        <v>2.3</v>
+      </c>
+      <c r="Y223">
+        <v>-1</v>
+      </c>
+      <c r="Z223">
         <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>-0</v>
+      </c>
+      <c r="AB223">
+        <v>-0.5</v>
+      </c>
+      <c r="AC223">
+        <v>0.475</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -148,16 +148,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Monterrey U23</t>
+  </si>
+  <si>
     <t>Unam Pumas U23</t>
   </si>
   <si>
-    <t>Monterrey U23</t>
+    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>Tijuana U23</t>
-  </si>
-  <si>
-    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>H</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC223"/>
+  <dimension ref="A1:AC224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>4.5</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <v>4.75</v>
+      </c>
+      <c r="P92">
+        <v>5.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1.25</v>
+      </c>
+      <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
         <v>3</v>
       </c>
-      <c r="M92">
-        <v>2.875</v>
-      </c>
-      <c r="N92">
-        <v>2.7</v>
-      </c>
-      <c r="O92">
-        <v>3.1</v>
-      </c>
-      <c r="P92">
-        <v>2.8</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
+      <c r="U92">
+        <v>1.75</v>
+      </c>
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
-      <c r="V92">
-        <v>1.725</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17019,52 +17019,52 @@
         <v>46</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N186">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O186">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17108,52 +17108,52 @@
         <v>47</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N187">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W187">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17162,16 +17162,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -20376,6 +20376,95 @@
       </c>
       <c r="AC223">
         <v>0.475</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>7893216</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45388.00347222222</v>
+      </c>
+      <c r="F224" t="s">
+        <v>39</v>
+      </c>
+      <c r="G224" t="s">
+        <v>31</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>3</v>
+      </c>
+      <c r="J224" t="s">
+        <v>50</v>
+      </c>
+      <c r="K224">
+        <v>2.3</v>
+      </c>
+      <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>2.9</v>
+      </c>
+      <c r="N224">
+        <v>3.3</v>
+      </c>
+      <c r="O224">
+        <v>3.6</v>
+      </c>
+      <c r="P224">
+        <v>2.1</v>
+      </c>
+      <c r="Q224">
+        <v>0.25</v>
+      </c>
+      <c r="R224">
+        <v>2</v>
+      </c>
+      <c r="S224">
+        <v>1.8</v>
+      </c>
+      <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
+        <v>1.825</v>
+      </c>
+      <c r="V224">
+        <v>1.975</v>
+      </c>
+      <c r="W224">
+        <v>-1</v>
+      </c>
+      <c r="X224">
+        <v>-1</v>
+      </c>
+      <c r="Y224">
+        <v>1.1</v>
+      </c>
+      <c r="Z224">
+        <v>-1</v>
+      </c>
+      <c r="AA224">
+        <v>0.8</v>
+      </c>
+      <c r="AB224">
+        <v>0.825</v>
+      </c>
+      <c r="AC224">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC224"/>
+  <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4.5</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>5.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1.25</v>
+      </c>
+      <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
         <v>3</v>
       </c>
-      <c r="M91">
-        <v>2.875</v>
-      </c>
-      <c r="N91">
-        <v>2.7</v>
-      </c>
-      <c r="O91">
-        <v>3.1</v>
-      </c>
-      <c r="P91">
-        <v>2.8</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>1.85</v>
-      </c>
-      <c r="S91">
+      <c r="U91">
+        <v>1.75</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
-      <c r="V91">
-        <v>1.725</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -20465,6 +20465,80 @@
       </c>
       <c r="AC224">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>7641726</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45393.00347222222</v>
+      </c>
+      <c r="F225" t="s">
+        <v>38</v>
+      </c>
+      <c r="G225" t="s">
+        <v>33</v>
+      </c>
+      <c r="K225">
+        <v>1.25</v>
+      </c>
+      <c r="L225">
+        <v>5.5</v>
+      </c>
+      <c r="M225">
+        <v>7.5</v>
+      </c>
+      <c r="N225">
+        <v>1.3</v>
+      </c>
+      <c r="O225">
+        <v>5.25</v>
+      </c>
+      <c r="P225">
+        <v>6.5</v>
+      </c>
+      <c r="Q225">
+        <v>-1.5</v>
+      </c>
+      <c r="R225">
+        <v>1.9</v>
+      </c>
+      <c r="S225">
+        <v>1.9</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
+        <v>1.875</v>
+      </c>
+      <c r="V225">
+        <v>1.925</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -148,16 +148,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Unam Pumas U23</t>
+  </si>
+  <si>
     <t>Monterrey U23</t>
   </si>
   <si>
-    <t>Unam Pumas U23</t>
+    <t>Tijuana U23</t>
   </si>
   <si>
     <t>Mazatlan FC U23</t>
-  </si>
-  <si>
-    <t>Tijuana U23</t>
   </si>
   <si>
     <t>H</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC225"/>
+  <dimension ref="A1:AC228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17019,52 +17019,52 @@
         <v>46</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L186">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N186">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W186">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17108,52 +17108,52 @@
         <v>47</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M187">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N187">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V187">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17162,16 +17162,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -20472,7 +20472,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7641726</v>
+        <v>7641723</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,22 +20481,22 @@
         <v>28</v>
       </c>
       <c r="E225" s="2">
-        <v>45393.00347222222</v>
+        <v>45391.92013888889</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G225" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K225">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L225">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M225">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N225">
         <v>1.3</v>
@@ -20505,25 +20505,25 @@
         <v>5.25</v>
       </c>
       <c r="P225">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Q225">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R225">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S225">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U225">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20538,6 +20538,228 @@
         <v>0</v>
       </c>
       <c r="AA225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>7641724</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45392.00347222222</v>
+      </c>
+      <c r="F226" t="s">
+        <v>35</v>
+      </c>
+      <c r="G226" t="s">
+        <v>30</v>
+      </c>
+      <c r="K226">
+        <v>2.3</v>
+      </c>
+      <c r="L226">
+        <v>3.25</v>
+      </c>
+      <c r="M226">
+        <v>2.7</v>
+      </c>
+      <c r="N226">
+        <v>2.9</v>
+      </c>
+      <c r="O226">
+        <v>3.4</v>
+      </c>
+      <c r="P226">
+        <v>2.375</v>
+      </c>
+      <c r="Q226">
+        <v>0.25</v>
+      </c>
+      <c r="R226">
+        <v>1.775</v>
+      </c>
+      <c r="S226">
+        <v>2.025</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
+        <v>1.925</v>
+      </c>
+      <c r="V226">
+        <v>1.875</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>7641725</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45392.92013888889</v>
+      </c>
+      <c r="F227" t="s">
+        <v>36</v>
+      </c>
+      <c r="G227" t="s">
+        <v>34</v>
+      </c>
+      <c r="K227">
+        <v>2.75</v>
+      </c>
+      <c r="L227">
+        <v>3.25</v>
+      </c>
+      <c r="M227">
+        <v>2.25</v>
+      </c>
+      <c r="N227">
+        <v>3.6</v>
+      </c>
+      <c r="O227">
+        <v>3.6</v>
+      </c>
+      <c r="P227">
+        <v>1.95</v>
+      </c>
+      <c r="Q227">
+        <v>0.5</v>
+      </c>
+      <c r="R227">
+        <v>1.875</v>
+      </c>
+      <c r="S227">
+        <v>1.925</v>
+      </c>
+      <c r="T227">
+        <v>2.75</v>
+      </c>
+      <c r="U227">
+        <v>1.9</v>
+      </c>
+      <c r="V227">
+        <v>1.9</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>7641726</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45393.00347222222</v>
+      </c>
+      <c r="F228" t="s">
+        <v>38</v>
+      </c>
+      <c r="G228" t="s">
+        <v>33</v>
+      </c>
+      <c r="K228">
+        <v>1.25</v>
+      </c>
+      <c r="L228">
+        <v>5.5</v>
+      </c>
+      <c r="M228">
+        <v>7.5</v>
+      </c>
+      <c r="N228">
+        <v>1.3</v>
+      </c>
+      <c r="O228">
+        <v>5.5</v>
+      </c>
+      <c r="P228">
+        <v>8</v>
+      </c>
+      <c r="Q228">
+        <v>-1.5</v>
+      </c>
+      <c r="R228">
+        <v>1.825</v>
+      </c>
+      <c r="S228">
+        <v>1.975</v>
+      </c>
+      <c r="T228">
+        <v>2.75</v>
+      </c>
+      <c r="U228">
+        <v>1.825</v>
+      </c>
+      <c r="V228">
+        <v>1.975</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC228"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20472,7 +20472,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7641723</v>
+        <v>7641726</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,49 +20481,49 @@
         <v>28</v>
       </c>
       <c r="E225" s="2">
-        <v>45391.92013888889</v>
+        <v>45393.00347222222</v>
       </c>
       <c r="F225" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K225">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M225">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N225">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O225">
         <v>5.25</v>
       </c>
       <c r="P225">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q225">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R225">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S225">
+        <v>1.85</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
         <v>1.8</v>
       </c>
-      <c r="T225">
-        <v>3</v>
-      </c>
-      <c r="U225">
-        <v>1.85</v>
-      </c>
       <c r="V225">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20546,7 +20546,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7641724</v>
+        <v>7640653</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20555,49 +20555,49 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45392.00347222222</v>
+        <v>45393.92013888889</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K226">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="L226">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M226">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="N226">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O226">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P226">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="Q226">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S226">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V226">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20620,7 +20620,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7641725</v>
+        <v>7641727</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20629,43 +20629,43 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45392.92013888889</v>
+        <v>45394.00347222222</v>
       </c>
       <c r="F227" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G227" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K227">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L227">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M227">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N227">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O227">
         <v>3.6</v>
       </c>
       <c r="P227">
+        <v>5.25</v>
+      </c>
+      <c r="Q227">
+        <v>-0.75</v>
+      </c>
+      <c r="R227">
         <v>1.95</v>
       </c>
-      <c r="Q227">
-        <v>0.5</v>
-      </c>
-      <c r="R227">
-        <v>1.875</v>
-      </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T227">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
         <v>1.9</v>
@@ -20686,80 +20686,6 @@
         <v>0</v>
       </c>
       <c r="AA227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228">
-        <v>7641726</v>
-      </c>
-      <c r="C228" t="s">
-        <v>28</v>
-      </c>
-      <c r="D228" t="s">
-        <v>28</v>
-      </c>
-      <c r="E228" s="2">
-        <v>45393.00347222222</v>
-      </c>
-      <c r="F228" t="s">
-        <v>38</v>
-      </c>
-      <c r="G228" t="s">
-        <v>33</v>
-      </c>
-      <c r="K228">
-        <v>1.25</v>
-      </c>
-      <c r="L228">
-        <v>5.5</v>
-      </c>
-      <c r="M228">
-        <v>7.5</v>
-      </c>
-      <c r="N228">
-        <v>1.3</v>
-      </c>
-      <c r="O228">
-        <v>5.5</v>
-      </c>
-      <c r="P228">
-        <v>8</v>
-      </c>
-      <c r="Q228">
-        <v>-1.5</v>
-      </c>
-      <c r="R228">
-        <v>1.825</v>
-      </c>
-      <c r="S228">
-        <v>1.975</v>
-      </c>
-      <c r="T228">
-        <v>2.75</v>
-      </c>
-      <c r="U228">
-        <v>1.825</v>
-      </c>
-      <c r="V228">
-        <v>1.975</v>
-      </c>
-      <c r="W228">
-        <v>0</v>
-      </c>
-      <c r="X228">
-        <v>0</v>
-      </c>
-      <c r="Y228">
-        <v>0</v>
-      </c>
-      <c r="Z228">
-        <v>0</v>
-      </c>
-      <c r="AA228">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -148,16 +148,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Monterrey U23</t>
+  </si>
+  <si>
     <t>Unam Pumas U23</t>
   </si>
   <si>
-    <t>Monterrey U23</t>
+    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>Tijuana U23</t>
-  </si>
-  <si>
-    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>H</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC227"/>
+  <dimension ref="A1:AC228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17019,52 +17019,52 @@
         <v>46</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N186">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O186">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17108,52 +17108,52 @@
         <v>47</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N187">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W187">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17162,16 +17162,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -20467,12 +20467,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="225" spans="1:27">
+    <row r="225" spans="1:29">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7641726</v>
+        <v>7641723</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20481,72 +20481,87 @@
         <v>28</v>
       </c>
       <c r="E225" s="2">
-        <v>45393.00347222222</v>
+        <v>45391.92013888889</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G225" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
+        <v>2</v>
+      </c>
+      <c r="J225" t="s">
+        <v>49</v>
       </c>
       <c r="K225">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L225">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M225">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N225">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O225">
         <v>5.25</v>
       </c>
       <c r="P225">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Q225">
         <v>-1.5</v>
       </c>
       <c r="R225">
+        <v>1.85</v>
+      </c>
+      <c r="S225">
         <v>1.95</v>
       </c>
-      <c r="S225">
-        <v>1.85</v>
-      </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U225">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V225">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="Y225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB225">
+        <v>0.825</v>
+      </c>
+      <c r="AC225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7640653</v>
+        <v>7641724</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20555,72 +20570,87 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45393.92013888889</v>
+        <v>45392.00347222222</v>
       </c>
       <c r="F226" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>50</v>
       </c>
       <c r="K226">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="L226">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M226">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="N226">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="O226">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P226">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="Q226">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R226">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27">
+        <v>0.75</v>
+      </c>
+      <c r="AB226">
+        <v>-1</v>
+      </c>
+      <c r="AC226">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7641727</v>
+        <v>7640653</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20629,49 +20659,49 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45394.00347222222</v>
+        <v>45393.92013888889</v>
       </c>
       <c r="F227" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K227">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L227">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M227">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N227">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="O227">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P227">
-        <v>5.25</v>
+        <v>8</v>
       </c>
       <c r="Q227">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R227">
+        <v>1.85</v>
+      </c>
+      <c r="S227">
         <v>1.95</v>
-      </c>
-      <c r="S227">
-        <v>1.85</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W227">
         <v>0</v>
@@ -20686,6 +20716,80 @@
         <v>0</v>
       </c>
       <c r="AA227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>7641727</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45394.00347222222</v>
+      </c>
+      <c r="F228" t="s">
+        <v>43</v>
+      </c>
+      <c r="G228" t="s">
+        <v>31</v>
+      </c>
+      <c r="K228">
+        <v>1.8</v>
+      </c>
+      <c r="L228">
+        <v>3.4</v>
+      </c>
+      <c r="M228">
+        <v>3.8</v>
+      </c>
+      <c r="N228">
+        <v>1.75</v>
+      </c>
+      <c r="O228">
+        <v>3.8</v>
+      </c>
+      <c r="P228">
+        <v>4.5</v>
+      </c>
+      <c r="Q228">
+        <v>-0.75</v>
+      </c>
+      <c r="R228">
+        <v>1.975</v>
+      </c>
+      <c r="S228">
+        <v>1.825</v>
+      </c>
+      <c r="T228">
+        <v>2.75</v>
+      </c>
+      <c r="U228">
+        <v>1.9</v>
+      </c>
+      <c r="V228">
+        <v>1.9</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -148,16 +148,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Unam Pumas U23</t>
+  </si>
+  <si>
     <t>Monterrey U23</t>
   </si>
   <si>
-    <t>Unam Pumas U23</t>
+    <t>Tijuana U23</t>
   </si>
   <si>
     <t>Mazatlan FC U23</t>
-  </si>
-  <si>
-    <t>Tijuana U23</t>
   </si>
   <si>
     <t>H</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC228"/>
+  <dimension ref="A1:AC229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>4.5</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <v>4.75</v>
+      </c>
+      <c r="P92">
+        <v>5.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1.25</v>
+      </c>
+      <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
         <v>3</v>
       </c>
-      <c r="M92">
-        <v>2.875</v>
-      </c>
-      <c r="N92">
-        <v>2.7</v>
-      </c>
-      <c r="O92">
-        <v>3.1</v>
-      </c>
-      <c r="P92">
-        <v>2.8</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
+      <c r="U92">
+        <v>1.75</v>
+      </c>
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
-      <c r="V92">
-        <v>1.725</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17019,52 +17019,52 @@
         <v>46</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L186">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N186">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W186">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17108,52 +17108,52 @@
         <v>47</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M187">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N187">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V187">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17162,16 +17162,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -20650,7 +20650,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7640653</v>
+        <v>7641725</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20659,64 +20659,79 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45393.92013888889</v>
+        <v>45392.92013888889</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G227" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>50</v>
       </c>
       <c r="K227">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="L227">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M227">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N227">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="O227">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>8</v>
+        <v>2.15</v>
       </c>
       <c r="Q227">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U227">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V227">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB227">
+        <v>-1</v>
+      </c>
+      <c r="AC227">
+        <v>0.875</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20724,7 +20739,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7641727</v>
+        <v>7641726</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20733,63 +20748,152 @@
         <v>28</v>
       </c>
       <c r="E228" s="2">
-        <v>45394.00347222222</v>
+        <v>45393.00347222222</v>
       </c>
       <c r="F228" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="H228">
+        <v>3</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228" t="s">
+        <v>48</v>
       </c>
       <c r="K228">
+        <v>1.25</v>
+      </c>
+      <c r="L228">
+        <v>5.5</v>
+      </c>
+      <c r="M228">
+        <v>7.5</v>
+      </c>
+      <c r="N228">
+        <v>1.3</v>
+      </c>
+      <c r="O228">
+        <v>5.75</v>
+      </c>
+      <c r="P228">
+        <v>7.5</v>
+      </c>
+      <c r="Q228">
+        <v>-1.5</v>
+      </c>
+      <c r="R228">
+        <v>1.775</v>
+      </c>
+      <c r="S228">
+        <v>1.925</v>
+      </c>
+      <c r="T228">
+        <v>3</v>
+      </c>
+      <c r="U228">
+        <v>1.975</v>
+      </c>
+      <c r="V228">
+        <v>1.825</v>
+      </c>
+      <c r="W228">
+        <v>0.3</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
+        <v>-1</v>
+      </c>
+      <c r="Z228">
+        <v>-1</v>
+      </c>
+      <c r="AA228">
+        <v>0.925</v>
+      </c>
+      <c r="AB228">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC228">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>7641728</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45395.83680555555</v>
+      </c>
+      <c r="F229" t="s">
+        <v>40</v>
+      </c>
+      <c r="G229" t="s">
+        <v>42</v>
+      </c>
+      <c r="K229">
+        <v>2.25</v>
+      </c>
+      <c r="L229">
+        <v>3.5</v>
+      </c>
+      <c r="M229">
+        <v>2.7</v>
+      </c>
+      <c r="N229">
+        <v>2.25</v>
+      </c>
+      <c r="O229">
+        <v>3.5</v>
+      </c>
+      <c r="P229">
+        <v>2.7</v>
+      </c>
+      <c r="Q229">
+        <v>-0.25</v>
+      </c>
+      <c r="R229">
+        <v>2</v>
+      </c>
+      <c r="S229">
         <v>1.8</v>
       </c>
-      <c r="L228">
-        <v>3.4</v>
-      </c>
-      <c r="M228">
-        <v>3.8</v>
-      </c>
-      <c r="N228">
-        <v>1.75</v>
-      </c>
-      <c r="O228">
-        <v>3.8</v>
-      </c>
-      <c r="P228">
-        <v>4.5</v>
-      </c>
-      <c r="Q228">
-        <v>-0.75</v>
-      </c>
-      <c r="R228">
+      <c r="T229">
+        <v>2.75</v>
+      </c>
+      <c r="U229">
         <v>1.975</v>
       </c>
-      <c r="S228">
+      <c r="V229">
         <v>1.825</v>
       </c>
-      <c r="T228">
-        <v>2.75</v>
-      </c>
-      <c r="U228">
-        <v>1.9</v>
-      </c>
-      <c r="V228">
-        <v>1.9</v>
-      </c>
-      <c r="W228">
+      <c r="W229">
         <v>0</v>
       </c>
-      <c r="X228">
+      <c r="X229">
         <v>0</v>
       </c>
-      <c r="Y228">
+      <c r="Y229">
         <v>0</v>
       </c>
-      <c r="Z228">
+      <c r="Z229">
         <v>0</v>
       </c>
-      <c r="AA228">
+      <c r="AA229">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -148,16 +148,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Monterrey U23</t>
+  </si>
+  <si>
     <t>Unam Pumas U23</t>
   </si>
   <si>
-    <t>Monterrey U23</t>
+    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>Tijuana U23</t>
-  </si>
-  <si>
-    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>H</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC229"/>
+  <dimension ref="A1:AC231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17019,52 +17019,52 @@
         <v>46</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N186">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O186">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17108,52 +17108,52 @@
         <v>47</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N187">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W187">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17162,16 +17162,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -20828,72 +20828,250 @@
         <v>227</v>
       </c>
       <c r="B229">
+        <v>7640653</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45393.92013888889</v>
+      </c>
+      <c r="F229" t="s">
+        <v>29</v>
+      </c>
+      <c r="G229" t="s">
+        <v>32</v>
+      </c>
+      <c r="H229">
+        <v>4</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229" t="s">
+        <v>48</v>
+      </c>
+      <c r="K229">
+        <v>1.6</v>
+      </c>
+      <c r="L229">
+        <v>3.8</v>
+      </c>
+      <c r="M229">
+        <v>4.5</v>
+      </c>
+      <c r="N229">
+        <v>1.4</v>
+      </c>
+      <c r="O229">
+        <v>4.5</v>
+      </c>
+      <c r="P229">
+        <v>8</v>
+      </c>
+      <c r="Q229">
+        <v>-1.25</v>
+      </c>
+      <c r="R229">
+        <v>1.85</v>
+      </c>
+      <c r="S229">
+        <v>1.95</v>
+      </c>
+      <c r="T229">
+        <v>2.5</v>
+      </c>
+      <c r="U229">
+        <v>1.8</v>
+      </c>
+      <c r="V229">
+        <v>2</v>
+      </c>
+      <c r="W229">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA229">
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>0.8</v>
+      </c>
+      <c r="AC229">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>7641727</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45394.00347222222</v>
+      </c>
+      <c r="F230" t="s">
+        <v>43</v>
+      </c>
+      <c r="G230" t="s">
+        <v>31</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>2</v>
+      </c>
+      <c r="J230" t="s">
+        <v>50</v>
+      </c>
+      <c r="K230">
+        <v>1.8</v>
+      </c>
+      <c r="L230">
+        <v>3.4</v>
+      </c>
+      <c r="M230">
+        <v>3.8</v>
+      </c>
+      <c r="N230">
+        <v>2.375</v>
+      </c>
+      <c r="O230">
+        <v>3.6</v>
+      </c>
+      <c r="P230">
+        <v>2.875</v>
+      </c>
+      <c r="Q230">
+        <v>-0.25</v>
+      </c>
+      <c r="R230">
+        <v>2.025</v>
+      </c>
+      <c r="S230">
+        <v>1.775</v>
+      </c>
+      <c r="T230">
+        <v>2.75</v>
+      </c>
+      <c r="U230">
+        <v>1.925</v>
+      </c>
+      <c r="V230">
+        <v>1.775</v>
+      </c>
+      <c r="W230">
+        <v>-1</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
+        <v>1.875</v>
+      </c>
+      <c r="Z230">
+        <v>-1</v>
+      </c>
+      <c r="AA230">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB230">
+        <v>0.4625</v>
+      </c>
+      <c r="AC230">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
         <v>7641728</v>
       </c>
-      <c r="C229" t="s">
-        <v>28</v>
-      </c>
-      <c r="D229" t="s">
-        <v>28</v>
-      </c>
-      <c r="E229" s="2">
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
         <v>45395.83680555555</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F231" t="s">
         <v>40</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G231" t="s">
         <v>42</v>
       </c>
-      <c r="K229">
+      <c r="K231">
         <v>2.25</v>
       </c>
-      <c r="L229">
+      <c r="L231">
         <v>3.5</v>
       </c>
-      <c r="M229">
+      <c r="M231">
         <v>2.7</v>
       </c>
-      <c r="N229">
-        <v>2.25</v>
-      </c>
-      <c r="O229">
-        <v>3.5</v>
-      </c>
-      <c r="P229">
+      <c r="N231">
+        <v>2.375</v>
+      </c>
+      <c r="O231">
+        <v>3.6</v>
+      </c>
+      <c r="P231">
         <v>2.7</v>
       </c>
-      <c r="Q229">
-        <v>-0.25</v>
-      </c>
-      <c r="R229">
-        <v>2</v>
-      </c>
-      <c r="S229">
-        <v>1.8</v>
-      </c>
-      <c r="T229">
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>1.775</v>
+      </c>
+      <c r="S231">
+        <v>2.025</v>
+      </c>
+      <c r="T231">
         <v>2.75</v>
       </c>
-      <c r="U229">
+      <c r="U231">
         <v>1.975</v>
       </c>
-      <c r="V229">
+      <c r="V231">
         <v>1.825</v>
       </c>
-      <c r="W229">
+      <c r="W231">
         <v>0</v>
       </c>
-      <c r="X229">
+      <c r="X231">
         <v>0</v>
       </c>
-      <c r="Y229">
+      <c r="Y231">
         <v>0</v>
       </c>
-      <c r="Z229">
+      <c r="Z231">
         <v>0</v>
       </c>
-      <c r="AA229">
+      <c r="AA231">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -148,16 +148,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Unam Pumas U23</t>
+  </si>
+  <si>
     <t>Monterrey U23</t>
   </si>
   <si>
-    <t>Unam Pumas U23</t>
+    <t>Tijuana U23</t>
   </si>
   <si>
     <t>Mazatlan FC U23</t>
-  </si>
-  <si>
-    <t>Tijuana U23</t>
   </si>
   <si>
     <t>H</t>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC231"/>
+  <dimension ref="A1:AC230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4.5</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>5.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1.25</v>
+      </c>
+      <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
         <v>3</v>
       </c>
-      <c r="M91">
-        <v>2.875</v>
-      </c>
-      <c r="N91">
-        <v>2.7</v>
-      </c>
-      <c r="O91">
-        <v>3.1</v>
-      </c>
-      <c r="P91">
-        <v>2.8</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>1.85</v>
-      </c>
-      <c r="S91">
+      <c r="U91">
+        <v>1.75</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
-      <c r="V91">
-        <v>1.725</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17019,52 +17019,52 @@
         <v>46</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L186">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N186">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W186">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17108,52 +17108,52 @@
         <v>47</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M187">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N187">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V187">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17162,16 +17162,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -20999,80 +20999,6 @@
       </c>
       <c r="AC230">
         <v>-0.5</v>
-      </c>
-    </row>
-    <row r="231" spans="1:29">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231">
-        <v>7641728</v>
-      </c>
-      <c r="C231" t="s">
-        <v>28</v>
-      </c>
-      <c r="D231" t="s">
-        <v>28</v>
-      </c>
-      <c r="E231" s="2">
-        <v>45395.83680555555</v>
-      </c>
-      <c r="F231" t="s">
-        <v>40</v>
-      </c>
-      <c r="G231" t="s">
-        <v>42</v>
-      </c>
-      <c r="K231">
-        <v>2.25</v>
-      </c>
-      <c r="L231">
-        <v>3.5</v>
-      </c>
-      <c r="M231">
-        <v>2.7</v>
-      </c>
-      <c r="N231">
-        <v>2.375</v>
-      </c>
-      <c r="O231">
-        <v>3.6</v>
-      </c>
-      <c r="P231">
-        <v>2.7</v>
-      </c>
-      <c r="Q231">
-        <v>0</v>
-      </c>
-      <c r="R231">
-        <v>1.775</v>
-      </c>
-      <c r="S231">
-        <v>2.025</v>
-      </c>
-      <c r="T231">
-        <v>2.75</v>
-      </c>
-      <c r="U231">
-        <v>1.975</v>
-      </c>
-      <c r="V231">
-        <v>1.825</v>
-      </c>
-      <c r="W231">
-        <v>0</v>
-      </c>
-      <c r="X231">
-        <v>0</v>
-      </c>
-      <c r="Y231">
-        <v>0</v>
-      </c>
-      <c r="Z231">
-        <v>0</v>
-      </c>
-      <c r="AA231">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC230"/>
+  <dimension ref="A1:AC231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>4.5</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <v>4.75</v>
+      </c>
+      <c r="P92">
+        <v>5.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1.25</v>
+      </c>
+      <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
         <v>3</v>
       </c>
-      <c r="M92">
-        <v>2.875</v>
-      </c>
-      <c r="N92">
-        <v>2.7</v>
-      </c>
-      <c r="O92">
-        <v>3.1</v>
-      </c>
-      <c r="P92">
-        <v>2.8</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
+      <c r="U92">
+        <v>1.75</v>
+      </c>
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
-      <c r="V92">
-        <v>1.725</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -20999,6 +20999,95 @@
       </c>
       <c r="AC230">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>7641728</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45395.83680555555</v>
+      </c>
+      <c r="F231" t="s">
+        <v>40</v>
+      </c>
+      <c r="G231" t="s">
+        <v>42</v>
+      </c>
+      <c r="H231">
+        <v>3</v>
+      </c>
+      <c r="I231">
+        <v>3</v>
+      </c>
+      <c r="J231" t="s">
+        <v>49</v>
+      </c>
+      <c r="K231">
+        <v>2.25</v>
+      </c>
+      <c r="L231">
+        <v>3.5</v>
+      </c>
+      <c r="M231">
+        <v>2.7</v>
+      </c>
+      <c r="N231">
+        <v>2.3</v>
+      </c>
+      <c r="O231">
+        <v>3.6</v>
+      </c>
+      <c r="P231">
+        <v>2.875</v>
+      </c>
+      <c r="Q231">
+        <v>-0.25</v>
+      </c>
+      <c r="R231">
+        <v>2.025</v>
+      </c>
+      <c r="S231">
+        <v>1.775</v>
+      </c>
+      <c r="T231">
+        <v>2.75</v>
+      </c>
+      <c r="U231">
+        <v>1.9</v>
+      </c>
+      <c r="V231">
+        <v>1.9</v>
+      </c>
+      <c r="W231">
+        <v>-1</v>
+      </c>
+      <c r="X231">
+        <v>2.6</v>
+      </c>
+      <c r="Y231">
+        <v>-1</v>
+      </c>
+      <c r="Z231">
+        <v>-0.5</v>
+      </c>
+      <c r="AA231">
+        <v>0.3875</v>
+      </c>
+      <c r="AB231">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC231">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -148,16 +148,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Monterrey U23</t>
+  </si>
+  <si>
     <t>Unam Pumas U23</t>
   </si>
   <si>
-    <t>Monterrey U23</t>
+    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>Tijuana U23</t>
-  </si>
-  <si>
-    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>H</t>
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4.5</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>5.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1.25</v>
+      </c>
+      <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
         <v>3</v>
       </c>
-      <c r="M91">
-        <v>2.875</v>
-      </c>
-      <c r="N91">
-        <v>2.7</v>
-      </c>
-      <c r="O91">
-        <v>3.1</v>
-      </c>
-      <c r="P91">
-        <v>2.8</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>1.85</v>
-      </c>
-      <c r="S91">
+      <c r="U91">
+        <v>1.75</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
-      <c r="V91">
-        <v>1.725</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17019,52 +17019,52 @@
         <v>46</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N186">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O186">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17108,52 +17108,52 @@
         <v>47</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N187">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W187">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17162,16 +17162,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:29">

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>4.5</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <v>4.75</v>
+      </c>
+      <c r="P92">
+        <v>5.75</v>
+      </c>
+      <c r="Q92">
+        <v>-1.25</v>
+      </c>
+      <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
         <v>3</v>
       </c>
-      <c r="M92">
-        <v>2.875</v>
-      </c>
-      <c r="N92">
-        <v>2.7</v>
-      </c>
-      <c r="O92">
-        <v>3.1</v>
-      </c>
-      <c r="P92">
-        <v>2.8</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
+      <c r="U92">
+        <v>1.75</v>
+      </c>
+      <c r="V92">
         <v>1.95</v>
       </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
-      <c r="V92">
-        <v>1.725</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC231"/>
+  <dimension ref="A1:AC233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21090,6 +21090,184 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>8104978</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45399.91666666666</v>
+      </c>
+      <c r="F232" t="s">
+        <v>40</v>
+      </c>
+      <c r="G232" t="s">
+        <v>41</v>
+      </c>
+      <c r="H232">
+        <v>7</v>
+      </c>
+      <c r="I232">
+        <v>6</v>
+      </c>
+      <c r="J232" t="s">
+        <v>48</v>
+      </c>
+      <c r="K232">
+        <v>2.2</v>
+      </c>
+      <c r="L232">
+        <v>3.4</v>
+      </c>
+      <c r="M232">
+        <v>2.875</v>
+      </c>
+      <c r="N232">
+        <v>2.9</v>
+      </c>
+      <c r="O232">
+        <v>3.25</v>
+      </c>
+      <c r="P232">
+        <v>2.45</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>2.025</v>
+      </c>
+      <c r="S232">
+        <v>1.775</v>
+      </c>
+      <c r="T232">
+        <v>2.5</v>
+      </c>
+      <c r="U232">
+        <v>1.925</v>
+      </c>
+      <c r="V232">
+        <v>1.875</v>
+      </c>
+      <c r="W232">
+        <v>1.9</v>
+      </c>
+      <c r="X232">
+        <v>-1</v>
+      </c>
+      <c r="Y232">
+        <v>-1</v>
+      </c>
+      <c r="Z232">
+        <v>1.025</v>
+      </c>
+      <c r="AA232">
+        <v>-1</v>
+      </c>
+      <c r="AB232">
+        <v>0.925</v>
+      </c>
+      <c r="AC232">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>8104979</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45400</v>
+      </c>
+      <c r="F233" t="s">
+        <v>35</v>
+      </c>
+      <c r="G233" t="s">
+        <v>34</v>
+      </c>
+      <c r="H233">
+        <v>2</v>
+      </c>
+      <c r="I233">
+        <v>3</v>
+      </c>
+      <c r="J233" t="s">
+        <v>50</v>
+      </c>
+      <c r="K233">
+        <v>2.25</v>
+      </c>
+      <c r="L233">
+        <v>3.3</v>
+      </c>
+      <c r="M233">
+        <v>2.875</v>
+      </c>
+      <c r="N233">
+        <v>3.6</v>
+      </c>
+      <c r="O233">
+        <v>3.5</v>
+      </c>
+      <c r="P233">
+        <v>2</v>
+      </c>
+      <c r="Q233">
+        <v>0.25</v>
+      </c>
+      <c r="R233">
+        <v>2</v>
+      </c>
+      <c r="S233">
+        <v>1.8</v>
+      </c>
+      <c r="T233">
+        <v>2.75</v>
+      </c>
+      <c r="U233">
+        <v>1.85</v>
+      </c>
+      <c r="V233">
+        <v>1.95</v>
+      </c>
+      <c r="W233">
+        <v>-1</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
+        <v>1</v>
+      </c>
+      <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
+        <v>0.8</v>
+      </c>
+      <c r="AB233">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC233">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -148,16 +148,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Unam Pumas U23</t>
+  </si>
+  <si>
     <t>Monterrey U23</t>
   </si>
   <si>
-    <t>Unam Pumas U23</t>
+    <t>Tijuana U23</t>
   </si>
   <si>
     <t>Mazatlan FC U23</t>
-  </si>
-  <si>
-    <t>Tijuana U23</t>
   </si>
   <si>
     <t>H</t>
@@ -17001,7 +17001,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17019,52 +17019,52 @@
         <v>46</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
         <v>48</v>
       </c>
       <c r="K186">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L186">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M186">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N186">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
         <v>2.75</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V186">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W186">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17073,16 +17073,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17090,7 +17090,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17108,52 +17108,52 @@
         <v>47</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M187">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="N187">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V187">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17162,16 +17162,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC233"/>
+  <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8546,7 +8546,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8558,76 +8558,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>4.5</v>
+      </c>
+      <c r="N91">
+        <v>1.5</v>
+      </c>
+      <c r="O91">
+        <v>4.75</v>
+      </c>
+      <c r="P91">
+        <v>5.75</v>
+      </c>
+      <c r="Q91">
+        <v>-1.25</v>
+      </c>
+      <c r="R91">
+        <v>1.925</v>
+      </c>
+      <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
         <v>3</v>
       </c>
-      <c r="M91">
-        <v>2.875</v>
-      </c>
-      <c r="N91">
-        <v>2.7</v>
-      </c>
-      <c r="O91">
-        <v>3.1</v>
-      </c>
-      <c r="P91">
-        <v>2.8</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>1.85</v>
-      </c>
-      <c r="S91">
+      <c r="U91">
+        <v>1.75</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
-      <c r="V91">
-        <v>1.725</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8635,7 +8635,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8647,76 +8647,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -21265,6 +21265,95 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC233">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>8117254</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45403</v>
+      </c>
+      <c r="F234" t="s">
+        <v>35</v>
+      </c>
+      <c r="G234" t="s">
+        <v>40</v>
+      </c>
+      <c r="H234">
+        <v>3</v>
+      </c>
+      <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234" t="s">
+        <v>48</v>
+      </c>
+      <c r="K234">
+        <v>1.909</v>
+      </c>
+      <c r="L234">
+        <v>3.5</v>
+      </c>
+      <c r="M234">
+        <v>3.4</v>
+      </c>
+      <c r="N234">
+        <v>1.85</v>
+      </c>
+      <c r="O234">
+        <v>3.5</v>
+      </c>
+      <c r="P234">
+        <v>3.5</v>
+      </c>
+      <c r="Q234">
+        <v>-0.5</v>
+      </c>
+      <c r="R234">
+        <v>1.85</v>
+      </c>
+      <c r="S234">
+        <v>1.95</v>
+      </c>
+      <c r="T234">
+        <v>2.5</v>
+      </c>
+      <c r="U234">
+        <v>1.775</v>
+      </c>
+      <c r="V234">
+        <v>1.925</v>
+      </c>
+      <c r="W234">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X234">
+        <v>-1</v>
+      </c>
+      <c r="Y234">
+        <v>-1</v>
+      </c>
+      <c r="Z234">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA234">
+        <v>-1</v>
+      </c>
+      <c r="AB234">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC234">
         <v>-1</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -688,10 +688,10 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z2">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
         <v>-1</v>
@@ -774,10 +774,10 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
         <v>0.8</v>
@@ -946,10 +946,10 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -1118,10 +1118,10 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z7">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
         <v>0.8500000000000001</v>
@@ -1204,10 +1204,10 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
         <v>-1</v>
@@ -1290,10 +1290,10 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>0.8999999999999999</v>
@@ -1462,10 +1462,10 @@
         <v>0.75</v>
       </c>
       <c r="Y11">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA11">
         <v>0.875</v>
@@ -1548,10 +1548,10 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
         <v>0.8999999999999999</v>
@@ -1634,10 +1634,10 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>0.825</v>
@@ -1720,10 +1720,10 @@
         <v>1.1</v>
       </c>
       <c r="Y14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
         <v>0.9750000000000001</v>
@@ -1892,10 +1892,10 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
         <v>0.8500000000000001</v>
@@ -1978,10 +1978,10 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
         <v>0.75</v>
@@ -2064,10 +2064,10 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
         <v>0.8999999999999999</v>
@@ -2150,10 +2150,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>-1</v>
@@ -2322,10 +2322,10 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
@@ -2666,10 +2666,10 @@
         <v>3</v>
       </c>
       <c r="Y25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA25">
         <v>0.875</v>
@@ -2752,10 +2752,10 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2924,10 +2924,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -3096,10 +3096,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
         <v>1</v>
@@ -3182,10 +3182,10 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
         <v>0.8999999999999999</v>
@@ -3268,10 +3268,10 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
         <v>0</v>
@@ -3440,10 +3440,10 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
         <v>0.8</v>
@@ -3526,10 +3526,10 @@
         <v>1.375</v>
       </c>
       <c r="Y35">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA35">
         <v>1.025</v>
@@ -3698,10 +3698,10 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3870,10 +3870,10 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
         <v>0.8500000000000001</v>
@@ -3956,10 +3956,10 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
         <v>0.875</v>
@@ -4042,10 +4042,10 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
         <v>0.875</v>
@@ -4128,10 +4128,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>0.9750000000000001</v>
@@ -4214,10 +4214,10 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4300,10 +4300,10 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
         <v>0.8500000000000001</v>
@@ -4386,10 +4386,10 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
         <v>0.425</v>
@@ -4472,10 +4472,10 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
         <v>0.8</v>
@@ -4558,10 +4558,10 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
         <v>0.9750000000000001</v>
@@ -4644,10 +4644,10 @@
         <v>0.95</v>
       </c>
       <c r="Y48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
         <v>0.925</v>
@@ -4730,10 +4730,10 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z49">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
         <v>0.4875</v>
@@ -4816,10 +4816,10 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z50">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
         <v>0</v>
@@ -4988,10 +4988,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>-0.5</v>
@@ -5160,10 +5160,10 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z54">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5246,10 +5246,10 @@
         <v>4.75</v>
       </c>
       <c r="Y55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="AA55">
         <v>0.4</v>
@@ -5332,10 +5332,10 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
         <v>-1</v>
@@ -5418,10 +5418,10 @@
         <v>1.2</v>
       </c>
       <c r="Y57">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA57">
         <v>0.95</v>
@@ -5504,10 +5504,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5590,10 +5590,10 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
         <v>0.8999999999999999</v>
@@ -5676,10 +5676,10 @@
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z60">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
         <v>-1</v>
@@ -5762,10 +5762,10 @@
         <v>2.5</v>
       </c>
       <c r="Y61">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA61">
         <v>0.8500000000000001</v>
@@ -5848,10 +5848,10 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z62">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
         <v>0.825</v>
@@ -5934,10 +5934,10 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6020,10 +6020,10 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>0.4125</v>
@@ -6192,10 +6192,10 @@
         <v>2.75</v>
       </c>
       <c r="Y66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA66">
         <v>0.825</v>
@@ -6278,10 +6278,10 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
         <v>0.8500000000000001</v>
@@ -6450,10 +6450,10 @@
         <v>1.45</v>
       </c>
       <c r="Y69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA69">
         <v>0.75</v>
@@ -6536,10 +6536,10 @@
         <v>2.75</v>
       </c>
       <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z70">
-        <v>-1</v>
       </c>
       <c r="AA70">
         <v>0.4125</v>
@@ -6622,10 +6622,10 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
         <v>-1</v>
@@ -6794,10 +6794,10 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z73">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA73">
         <v>-1</v>
@@ -6880,10 +6880,10 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
         <v>0.875</v>
@@ -6966,10 +6966,10 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
         <v>0.8500000000000001</v>
@@ -7052,10 +7052,10 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
         <v>0.825</v>
@@ -7138,10 +7138,10 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z77">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
         <v>-1</v>
@@ -7310,10 +7310,10 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
         <v>0.75</v>
@@ -7396,10 +7396,10 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
         <v>0.8999999999999999</v>
@@ -7482,10 +7482,10 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
         <v>0</v>
@@ -7654,10 +7654,10 @@
         <v>2.2</v>
       </c>
       <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
       </c>
       <c r="AA83">
         <v>0.8500000000000001</v>
@@ -7740,10 +7740,10 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z84">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -7826,10 +7826,10 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
         <v>0.8999999999999999</v>
@@ -7912,10 +7912,10 @@
         <v>2.8</v>
       </c>
       <c r="Y86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -7998,10 +7998,10 @@
         <v>1.5</v>
       </c>
       <c r="Y87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
         <v>0.95</v>
@@ -8084,10 +8084,10 @@
         <v>1.5</v>
       </c>
       <c r="Y88">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA88">
         <v>-1</v>
@@ -8170,10 +8170,10 @@
         <v>2.8</v>
       </c>
       <c r="Y89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
         <v>-1</v>
@@ -8256,10 +8256,10 @@
         <v>1.8</v>
       </c>
       <c r="Y90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA90">
         <v>0.875</v>
@@ -8342,10 +8342,10 @@
         <v>1.8</v>
       </c>
       <c r="Y91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8428,10 +8428,10 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
         <v>0.75</v>
@@ -8514,10 +8514,10 @@
         <v>1.9</v>
       </c>
       <c r="Y93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
         <v>0.8500000000000001</v>
@@ -8600,10 +8600,10 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z94">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
         <v>0.475</v>
@@ -8772,10 +8772,10 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
         <v>0.8999999999999999</v>
@@ -8858,10 +8858,10 @@
         <v>0.6499999999999999</v>
       </c>
       <c r="Y97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA97">
         <v>0.8</v>
@@ -8944,10 +8944,10 @@
         <v>4.75</v>
       </c>
       <c r="Y98">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA98">
         <v>-1</v>
@@ -9030,10 +9030,10 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="Z99">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
         <v>-1</v>
@@ -9116,10 +9116,10 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
         <v>0.925</v>
@@ -9288,10 +9288,10 @@
         <v>0.75</v>
       </c>
       <c r="Y102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA102">
         <v>0.825</v>
@@ -9374,10 +9374,10 @@
         <v>0.5329999999999999</v>
       </c>
       <c r="Y103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA103">
         <v>-1</v>
@@ -9460,10 +9460,10 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
         <v>0</v>
@@ -9718,10 +9718,10 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z107">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
         <v>-1</v>
@@ -9804,10 +9804,10 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z108">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
         <v>0.95</v>
@@ -9890,10 +9890,10 @@
         <v>4.5</v>
       </c>
       <c r="Y109">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
         <v>-1</v>
@@ -9976,10 +9976,10 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z110">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
         <v>-1</v>
@@ -10062,10 +10062,10 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
         <v>1</v>
@@ -10148,10 +10148,10 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
         <v>0</v>
@@ -10234,10 +10234,10 @@
         <v>1.75</v>
       </c>
       <c r="Y113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
         <v>-1</v>
@@ -10320,10 +10320,10 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>-1</v>
@@ -10406,10 +10406,10 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
         <v>0.8999999999999999</v>
@@ -10492,10 +10492,10 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z116">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10578,10 +10578,10 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z117">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
         <v>0.4625</v>
@@ -10664,10 +10664,10 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
         <v>0.8999999999999999</v>
@@ -10750,10 +10750,10 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
         <v>0.8</v>
@@ -10836,10 +10836,10 @@
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
         <v>-1</v>
@@ -10922,10 +10922,10 @@
         <v>2.1</v>
       </c>
       <c r="Y121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -11008,10 +11008,10 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
         <v>0.8</v>
@@ -11180,10 +11180,10 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z124">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
         <v>0.9750000000000001</v>
@@ -11438,10 +11438,10 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
         <v>-1</v>
@@ -11524,10 +11524,10 @@
         <v>2.3</v>
       </c>
       <c r="Y128">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA128">
         <v>-0.5</v>
@@ -11610,10 +11610,10 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
         <v>-1</v>
@@ -11696,10 +11696,10 @@
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
         <v>0.875</v>
@@ -11782,10 +11782,10 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>0.825</v>
@@ -11868,10 +11868,10 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
         <v>0.375</v>
@@ -11954,10 +11954,10 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
         <v>0.8999999999999999</v>
@@ -12126,10 +12126,10 @@
         <v>1.5</v>
       </c>
       <c r="Y135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA135">
         <v>0.8999999999999999</v>
@@ -12212,10 +12212,10 @@
         <v>5</v>
       </c>
       <c r="Y136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA136">
         <v>0.9750000000000001</v>
@@ -12470,10 +12470,10 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
         <v>-1</v>
@@ -12556,10 +12556,10 @@
         <v>3.2</v>
       </c>
       <c r="Y140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
         <v>-1</v>
@@ -12728,10 +12728,10 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
         <v>0.3625</v>
@@ -12814,10 +12814,10 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z143">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
         <v>-1</v>
@@ -12900,10 +12900,10 @@
         <v>2.2</v>
       </c>
       <c r="Y144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA144">
         <v>0.4625</v>
@@ -12986,10 +12986,10 @@
         <v>4.5</v>
       </c>
       <c r="Y145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
         <v>0.4625</v>
@@ -13072,10 +13072,10 @@
         <v>6</v>
       </c>
       <c r="Y146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
         <v>0.475</v>
@@ -13158,10 +13158,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA147">
         <v>0.8</v>
@@ -13244,10 +13244,10 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z148">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
         <v>0.95</v>
@@ -13330,10 +13330,10 @@
         <v>3.333</v>
       </c>
       <c r="Y149">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA149">
         <v>-1</v>
@@ -13416,10 +13416,10 @@
         <v>2.3</v>
       </c>
       <c r="Y150">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA150">
         <v>-1</v>
@@ -13502,10 +13502,10 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
         <v>0.95</v>
@@ -13588,10 +13588,10 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z152">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
         <v>-1</v>
@@ -13674,10 +13674,10 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z153">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA153">
         <v>0.825</v>
@@ -13760,10 +13760,10 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
         <v>-1</v>
@@ -13932,10 +13932,10 @@
         <v>2.75</v>
       </c>
       <c r="Y156">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA156">
         <v>0.9750000000000001</v>
@@ -14018,10 +14018,10 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z157">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
         <v>0.8999999999999999</v>
@@ -14104,10 +14104,10 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z158">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
         <v>-0.5</v>
@@ -14276,10 +14276,10 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z160">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
         <v>0.8999999999999999</v>
@@ -14362,10 +14362,10 @@
         <v>1.3</v>
       </c>
       <c r="Y161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA161">
         <v>0.825</v>
@@ -14534,10 +14534,10 @@
         <v>2.6</v>
       </c>
       <c r="Y163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA163">
         <v>0.75</v>
@@ -14706,10 +14706,10 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z165">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
         <v>-1</v>
@@ -14792,10 +14792,10 @@
         <v>3</v>
       </c>
       <c r="Y166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
         <v>-1</v>
@@ -14878,10 +14878,10 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
         <v>0.875</v>
@@ -14964,10 +14964,10 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z168">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
         <v>-1</v>
@@ -15050,10 +15050,10 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z169">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
         <v>1</v>
@@ -15136,10 +15136,10 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z170">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
         <v>-1</v>
@@ -15222,10 +15222,10 @@
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z171">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA171">
         <v>-1</v>
@@ -15308,10 +15308,10 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
         <v>-1</v>
@@ -15394,10 +15394,10 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
         <v>-1</v>
@@ -15652,10 +15652,10 @@
         <v>0.571</v>
       </c>
       <c r="Y176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA176">
         <v>-1</v>
@@ -15738,10 +15738,10 @@
         <v>3.5</v>
       </c>
       <c r="Y177">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA177">
         <v>-1</v>
@@ -15996,10 +15996,10 @@
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
         <v>-1</v>
@@ -16082,10 +16082,10 @@
         <v>6</v>
       </c>
       <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z181">
-        <v>-1</v>
       </c>
       <c r="AA181">
         <v>-1</v>
@@ -16168,10 +16168,10 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z182">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
         <v>-1</v>
@@ -16254,10 +16254,10 @@
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z183">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
         <v>1</v>
@@ -16340,10 +16340,10 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z184">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
         <v>0</v>
@@ -16426,10 +16426,10 @@
         <v>4</v>
       </c>
       <c r="Y185">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA185">
         <v>0.8500000000000001</v>
@@ -16512,10 +16512,10 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z186">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
         <v>-1</v>
@@ -16598,10 +16598,10 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z187">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
         <v>0.95</v>
@@ -16684,10 +16684,10 @@
         <v>1.55</v>
       </c>
       <c r="Y188">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA188">
         <v>1.05</v>
@@ -16770,10 +16770,10 @@
         <v>2.2</v>
       </c>
       <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z189">
-        <v>-1</v>
       </c>
       <c r="AA189">
         <v>0.95</v>
@@ -16856,10 +16856,10 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z190">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA190">
         <v>0.425</v>
@@ -16942,10 +16942,10 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="Y191">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA191">
         <v>0.7749999999999999</v>
@@ -17114,10 +17114,10 @@
         <v>1.8</v>
       </c>
       <c r="Y193">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA193">
         <v>-1</v>
@@ -17372,10 +17372,10 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17458,10 +17458,10 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
         <v>0.95</v>
@@ -17802,10 +17802,10 @@
         <v>0.5329999999999999</v>
       </c>
       <c r="Y201">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA201">
         <v>0.8</v>
@@ -17888,10 +17888,10 @@
         <v>4.5</v>
       </c>
       <c r="Y202">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA202">
         <v>0.8999999999999999</v>
@@ -17974,10 +17974,10 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z203">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
         <v>0.95</v>
@@ -18060,10 +18060,10 @@
         <v>1.375</v>
       </c>
       <c r="Y204">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA204">
         <v>1.025</v>
@@ -18146,10 +18146,10 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z205">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
         <v>0.8500000000000001</v>
@@ -18232,10 +18232,10 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z206">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
         <v>0.925</v>
@@ -18318,10 +18318,10 @@
         <v>1.1</v>
       </c>
       <c r="Y207">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA207">
         <v>0.8</v>
@@ -18490,10 +18490,10 @@
         <v>1.2</v>
       </c>
       <c r="Y209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA209">
         <v>-1</v>
@@ -18662,10 +18662,10 @@
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z211">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
         <v>-1</v>
@@ -18748,10 +18748,10 @@
         <v>6</v>
       </c>
       <c r="Y212">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA212">
         <v>0.8999999999999999</v>
@@ -18834,10 +18834,10 @@
         <v>2.5</v>
       </c>
       <c r="Y213">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA213">
         <v>-0.5</v>
@@ -18920,10 +18920,10 @@
         <v>2.1</v>
       </c>
       <c r="Y214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
         <v>0.8999999999999999</v>
@@ -19006,10 +19006,10 @@
         <v>0.615</v>
       </c>
       <c r="Y215">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA215">
         <v>0.75</v>
@@ -19264,10 +19264,10 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z218">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
         <v>0.8500000000000001</v>
@@ -19350,10 +19350,10 @@
         <v>2.2</v>
       </c>
       <c r="Y219">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA219">
         <v>0.9750000000000001</v>
@@ -19522,10 +19522,10 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z221">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
         <v>-0.5</v>
@@ -19608,10 +19608,10 @@
         <v>1.25</v>
       </c>
       <c r="Y222">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA222">
         <v>-0.5</v>
@@ -19780,10 +19780,10 @@
         <v>1.1</v>
       </c>
       <c r="Y224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA224">
         <v>0.825</v>
@@ -19952,10 +19952,10 @@
         <v>1.45</v>
       </c>
       <c r="Y226">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA226">
         <v>-1</v>
@@ -20038,10 +20038,10 @@
         <v>1.15</v>
       </c>
       <c r="Y227">
+        <v>-1</v>
+      </c>
+      <c r="Z227">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z227">
-        <v>-1</v>
       </c>
       <c r="AA227">
         <v>-1</v>
@@ -20210,10 +20210,10 @@
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z229">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
         <v>0.8</v>
@@ -20296,10 +20296,10 @@
         <v>1.875</v>
       </c>
       <c r="Y230">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA230">
         <v>0.4625</v>
@@ -20468,10 +20468,10 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z232">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
         <v>0.925</v>
@@ -20554,10 +20554,10 @@
         <v>1</v>
       </c>
       <c r="Y233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA233">
         <v>0.8500000000000001</v>
@@ -20640,10 +20640,10 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z234">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
         <v>0.7749999999999999</v>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -97,6 +97,12 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>8127901</t>
+  </si>
+  <si>
+    <t>8134907</t>
+  </si>
+  <si>
     <t>Mexico Liga de Expansion</t>
   </si>
   <si>
@@ -145,16 +151,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Monterrey U23</t>
+  </si>
+  <si>
     <t>Unam Pumas U23</t>
   </si>
   <si>
-    <t>Monterrey U23</t>
+    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>Tijuana U23</t>
-  </si>
-  <si>
-    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB234"/>
+  <dimension ref="A1:AB238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +628,16 @@
         <v>6704110</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
         <v>45080.91666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -640,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J2">
         <v>1.909</v>
@@ -708,16 +714,16 @@
         <v>6924481</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>45128.92013888889</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -726,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J3">
         <v>2.25</v>
@@ -794,16 +800,16 @@
         <v>6924480</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
         <v>45129.83680555555</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -812,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>1.8</v>
@@ -880,16 +886,16 @@
         <v>6924482</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
         <v>45129.92013888889</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -898,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J5">
         <v>1.571</v>
@@ -966,16 +972,16 @@
         <v>6924483</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
         <v>45130.625</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -984,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J6">
         <v>2.4</v>
@@ -1052,16 +1058,16 @@
         <v>6924484</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>45130.92013888889</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1070,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J7">
         <v>2.6</v>
@@ -1138,16 +1144,16 @@
         <v>6924485</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>45131.92013888889</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1156,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1224,16 +1230,16 @@
         <v>6923357</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>45134.00347222222</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1242,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>2.75</v>
@@ -1310,16 +1316,16 @@
         <v>6924486</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>45136.00347222222</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1328,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>1.909</v>
@@ -1396,16 +1402,16 @@
         <v>6924487</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>45136.83680555555</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1414,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <v>3.5</v>
@@ -1482,16 +1488,16 @@
         <v>6924488</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>45136.92013888889</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1500,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J12">
         <v>2.375</v>
@@ -1568,16 +1574,16 @@
         <v>6924490</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>45137.92013888889</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1586,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1654,16 +1660,16 @@
         <v>6924491</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>45138.00347222222</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1672,7 +1678,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1740,16 +1746,16 @@
         <v>6924492</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2">
         <v>45138.92013888889</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1758,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1826,16 +1832,16 @@
         <v>6924493</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>45141.92013888889</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1844,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1912,16 +1918,16 @@
         <v>6924494</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>45143.83680555555</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -1930,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -1998,16 +2004,16 @@
         <v>6924495</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2">
         <v>45143.92013888889</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2016,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J18">
         <v>2.8</v>
@@ -2084,17 +2090,17 @@
         <v>6924496</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>45144.00347222222</v>
       </c>
       <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
         <v>40</v>
       </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
       <c r="G19">
         <v>2</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2170,16 +2176,16 @@
         <v>6924498</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
         <v>45144.625</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2188,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J20">
         <v>1.571</v>
@@ -2256,16 +2262,16 @@
         <v>6924497</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2">
         <v>45144.83680555555</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2274,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J21">
         <v>2.9</v>
@@ -2342,16 +2348,16 @@
         <v>6924499</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>45145.00347222222</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2360,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J22">
         <v>2.375</v>
@@ -2428,16 +2434,16 @@
         <v>6924500</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2">
         <v>45148.92013888889</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2446,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <v>2.25</v>
@@ -2514,16 +2520,16 @@
         <v>6924501</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2">
         <v>45149.83680555555</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2532,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>1.952</v>
@@ -2600,16 +2606,16 @@
         <v>6924502</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2">
         <v>45149.92013888889</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2618,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J25">
         <v>1.952</v>
@@ -2686,16 +2692,16 @@
         <v>6924503</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" s="2">
         <v>45150.92013888889</v>
       </c>
       <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
         <v>38</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2704,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J26">
         <v>2.8</v>
@@ -2772,16 +2778,16 @@
         <v>6924504</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2">
         <v>45151.00347222222</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2790,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2858,16 +2864,16 @@
         <v>6924506</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>45151.83680555555</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2876,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J28">
         <v>1.909</v>
@@ -2944,16 +2950,16 @@
         <v>6924507</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>45152.00347222222</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2962,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3030,16 +3036,16 @@
         <v>6924508</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
         <v>45153.92013888889</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3048,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J30">
         <v>2.5</v>
@@ -3116,16 +3122,16 @@
         <v>6924509</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2">
         <v>45154.00347222222</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -3134,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J31">
         <v>3.6</v>
@@ -3202,16 +3208,16 @@
         <v>6924513</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>45154.83680555555</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3220,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J32">
         <v>1.444</v>
@@ -3288,16 +3294,16 @@
         <v>6924510</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="2">
         <v>45155.00347222222</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3306,7 +3312,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <v>1.909</v>
@@ -3374,16 +3380,16 @@
         <v>6924511</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34" s="2">
         <v>45155.83680555555</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3392,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J34">
         <v>1.85</v>
@@ -3460,16 +3466,16 @@
         <v>6924512</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D35" s="2">
         <v>45156.83680555555</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3478,7 +3484,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J35">
         <v>3.1</v>
@@ -3546,16 +3552,16 @@
         <v>7067400</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2">
         <v>45157.83680555555</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3564,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <v>1.833</v>
@@ -3632,16 +3638,16 @@
         <v>6924514</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D37" s="2">
         <v>45157.92013888889</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3650,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J37">
         <v>2.6</v>
@@ -3718,16 +3724,16 @@
         <v>6924515</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2">
         <v>45160.83680555555</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3736,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3804,16 +3810,16 @@
         <v>6924516</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D39" s="2">
         <v>45160.92013888889</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -3822,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J39">
         <v>2.55</v>
@@ -3890,16 +3896,16 @@
         <v>6924517</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D40" s="2">
         <v>45161.00347222222</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3908,7 +3914,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J40">
         <v>2.2</v>
@@ -3976,16 +3982,16 @@
         <v>6924518</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D41" s="2">
         <v>45161.92013888889</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -3994,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J41">
         <v>1.65</v>
@@ -4062,16 +4068,16 @@
         <v>6924519</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D42" s="2">
         <v>45162.00347222222</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4080,7 +4086,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>1.571</v>
@@ -4148,16 +4154,16 @@
         <v>6924520</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2">
         <v>45162.83680555555</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4166,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J43">
         <v>1.571</v>
@@ -4234,16 +4240,16 @@
         <v>6924521</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D44" s="2">
         <v>45162.92013888889</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -4252,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J44">
         <v>1.363</v>
@@ -4320,16 +4326,16 @@
         <v>6924522</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>45167.92013888889</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4338,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J45">
         <v>2.25</v>
@@ -4406,16 +4412,16 @@
         <v>6924523</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
         <v>45168.00347222222</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -4424,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4492,16 +4498,16 @@
         <v>6924524</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2">
         <v>45168.83333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4510,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4578,16 +4584,16 @@
         <v>6924525</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D48" s="2">
         <v>45168.92013888889</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4596,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J48">
         <v>3.4</v>
@@ -4664,16 +4670,16 @@
         <v>6924526</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D49" s="2">
         <v>45169.00347222222</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4682,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J49">
         <v>2.1</v>
@@ -4750,16 +4756,16 @@
         <v>6924527</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2">
         <v>45170.00347222222</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4768,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J50">
         <v>1.285</v>
@@ -4836,16 +4842,16 @@
         <v>6924528</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D51" s="2">
         <v>45171.00347222222</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4854,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4922,16 +4928,16 @@
         <v>6924529</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D52" s="2">
         <v>45174.83680555555</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4940,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J52">
         <v>2.4</v>
@@ -5008,16 +5014,16 @@
         <v>6924530</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="2">
         <v>45174.92013888889</v>
       </c>
       <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
         <v>42</v>
-      </c>
-      <c r="F53" t="s">
-        <v>40</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5026,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5094,16 +5100,16 @@
         <v>6924531</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D54" s="2">
         <v>45175.00347222222</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5112,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J54">
         <v>2.6</v>
@@ -5180,16 +5186,16 @@
         <v>6924532</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D55" s="2">
         <v>45175.92013888889</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5198,7 +5204,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J55">
         <v>1.55</v>
@@ -5266,16 +5272,16 @@
         <v>6924533</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D56" s="2">
         <v>45176.92013888889</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5284,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J56">
         <v>1.95</v>
@@ -5352,16 +5358,16 @@
         <v>6924534</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D57" s="2">
         <v>45179.00347222222</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5370,7 +5376,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J57">
         <v>2.7</v>
@@ -5438,16 +5444,16 @@
         <v>6924535</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D58" s="2">
         <v>45179.92013888889</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5456,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J58">
         <v>1.727</v>
@@ -5524,16 +5530,16 @@
         <v>6924536</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2">
         <v>45182.83680555555</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5542,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5610,16 +5616,16 @@
         <v>6924537</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D60" s="2">
         <v>45182.92013888889</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5628,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J60">
         <v>2.75</v>
@@ -5696,16 +5702,16 @@
         <v>6924538</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D61" s="2">
         <v>45183.00347222222</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5714,7 +5720,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J61">
         <v>2.2</v>
@@ -5782,16 +5788,16 @@
         <v>6924539</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D62" s="2">
         <v>45183.92013888889</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>4</v>
@@ -5800,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J62">
         <v>1.3</v>
@@ -5868,16 +5874,16 @@
         <v>6924540</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2">
         <v>45185.92013888889</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5886,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J63">
         <v>2.05</v>
@@ -5954,16 +5960,16 @@
         <v>6924541</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D64" s="2">
         <v>45186.00347222222</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5972,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J64">
         <v>2.5</v>
@@ -6040,16 +6046,16 @@
         <v>6924542</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D65" s="2">
         <v>45186.83680555555</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6058,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J65">
         <v>1.85</v>
@@ -6126,16 +6132,16 @@
         <v>6924543</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D66" s="2">
         <v>45188.83680555555</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6144,7 +6150,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J66">
         <v>1.85</v>
@@ -6212,16 +6218,16 @@
         <v>6924544</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D67" s="2">
         <v>45188.92013888889</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -6230,7 +6236,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J67">
         <v>2.25</v>
@@ -6298,16 +6304,16 @@
         <v>6924545</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D68" s="2">
         <v>45189.00347222222</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6316,7 +6322,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J68">
         <v>2.05</v>
@@ -6384,16 +6390,16 @@
         <v>6924546</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D69" s="2">
         <v>45189.83680555555</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6402,7 +6408,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -6470,16 +6476,16 @@
         <v>6924547</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D70" s="2">
         <v>45189.92013888889</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6488,7 +6494,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -6556,16 +6562,16 @@
         <v>6924548</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>45191</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6574,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J71">
         <v>1.5</v>
@@ -6642,16 +6648,16 @@
         <v>6924549</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D72" s="2">
         <v>45193.875</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6660,7 +6666,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>1.8</v>
@@ -6728,16 +6734,16 @@
         <v>6924550</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
         <v>45195.92013888889</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6746,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J73">
         <v>1.615</v>
@@ -6814,16 +6820,16 @@
         <v>6924551</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D74" s="2">
         <v>45196.00347222222</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6832,7 +6838,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J74">
         <v>2.15</v>
@@ -6900,16 +6906,16 @@
         <v>6924552</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D75" s="2">
         <v>45196.83680555555</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>4</v>
@@ -6918,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J75">
         <v>1.45</v>
@@ -6986,16 +6992,16 @@
         <v>6924553</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>45196.92013888889</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -7004,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7072,16 +7078,16 @@
         <v>6924554</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D77" s="2">
         <v>45197.00347222222</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7090,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J77">
         <v>1.8</v>
@@ -7158,16 +7164,16 @@
         <v>6924555</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>45199.83680555555</v>
       </c>
       <c r="E78" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7176,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J78">
         <v>1.75</v>
@@ -7244,16 +7250,16 @@
         <v>6924556</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
         <v>45200.91666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7262,7 +7268,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J79">
         <v>2.1</v>
@@ -7330,16 +7336,16 @@
         <v>6924559</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
         <v>45203.00347222222</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7348,7 +7354,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7416,16 +7422,16 @@
         <v>6924560</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>45203.92013888889</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7434,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J81">
         <v>1.909</v>
@@ -7502,17 +7508,17 @@
         <v>6924561</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>45204.00347222222</v>
       </c>
       <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
         <v>41</v>
       </c>
-      <c r="F82" t="s">
-        <v>39</v>
-      </c>
       <c r="G82">
         <v>0</v>
       </c>
@@ -7520,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J82">
         <v>1.5</v>
@@ -7588,16 +7594,16 @@
         <v>6924562</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
         <v>45204.83680555555</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7606,7 +7612,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J83">
         <v>1.909</v>
@@ -7674,16 +7680,16 @@
         <v>6924558</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
         <v>45204.92013888889</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7692,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J84">
         <v>2.1</v>
@@ -7760,16 +7766,16 @@
         <v>6924563</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>45205.00347222222</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -7778,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J85">
         <v>2.2</v>
@@ -7846,16 +7852,16 @@
         <v>6924557</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7864,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J86">
         <v>2.1</v>
@@ -7932,16 +7938,16 @@
         <v>6924564</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D87" s="2">
         <v>45210.92013888889</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7950,7 +7956,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -8018,16 +8024,16 @@
         <v>6924565</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D88" s="2">
         <v>45212.83680555555</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8036,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J88">
         <v>2.625</v>
@@ -8104,16 +8110,16 @@
         <v>6924566</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2">
         <v>45213.00347222222</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8122,7 +8128,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J89">
         <v>2.1</v>
@@ -8190,16 +8196,16 @@
         <v>6924567</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D90" s="2">
         <v>45213.83680555555</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8208,7 +8214,7 @@
         <v>5</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J90">
         <v>2.25</v>
@@ -8273,22 +8279,22 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D91" s="2">
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8297,61 +8303,61 @@
         <v>49</v>
       </c>
       <c r="J91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>4.5</v>
+      </c>
+      <c r="M91">
+        <v>1.5</v>
+      </c>
+      <c r="N91">
+        <v>4.75</v>
+      </c>
+      <c r="O91">
+        <v>5.75</v>
+      </c>
+      <c r="P91">
+        <v>-1.25</v>
+      </c>
+      <c r="Q91">
+        <v>1.925</v>
+      </c>
+      <c r="R91">
+        <v>1.875</v>
+      </c>
+      <c r="S91">
         <v>3</v>
       </c>
-      <c r="L91">
-        <v>2.875</v>
-      </c>
-      <c r="M91">
-        <v>2.7</v>
-      </c>
-      <c r="N91">
-        <v>3.1</v>
-      </c>
-      <c r="O91">
-        <v>2.8</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>1.85</v>
-      </c>
-      <c r="R91">
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.95</v>
       </c>
-      <c r="S91">
-        <v>2.25</v>
-      </c>
-      <c r="T91">
-        <v>1.975</v>
-      </c>
-      <c r="U91">
-        <v>1.725</v>
-      </c>
       <c r="V91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8359,85 +8365,85 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="K92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8448,16 +8454,16 @@
         <v>6924570</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D93" s="2">
         <v>45215.00347222222</v>
       </c>
       <c r="E93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8466,7 +8472,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J93">
         <v>2.375</v>
@@ -8534,16 +8540,16 @@
         <v>6924571</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D94" s="2">
         <v>45219.00347222222</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8552,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J94">
         <v>2.5</v>
@@ -8620,16 +8626,16 @@
         <v>6924572</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>45223.92013888889</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8638,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8706,16 +8712,16 @@
         <v>6924574</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D96" s="2">
         <v>45224.92013888889</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8724,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8792,16 +8798,16 @@
         <v>6924575</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>45225.00347222222</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8810,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J97">
         <v>2.9</v>
@@ -8878,16 +8884,16 @@
         <v>6924576</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D98" s="2">
         <v>45225.92013888889</v>
       </c>
       <c r="E98" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8896,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J98">
         <v>1.615</v>
@@ -8964,16 +8970,16 @@
         <v>6924573</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D99" s="2">
         <v>45226.00347222222</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8982,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9050,16 +9056,16 @@
         <v>6924578</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D100" s="2">
         <v>45227.92013888889</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G100">
         <v>4</v>
@@ -9068,7 +9074,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J100">
         <v>2.1</v>
@@ -9136,16 +9142,16 @@
         <v>6924577</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D101" s="2">
         <v>45228.83333333334</v>
       </c>
       <c r="E101" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101" t="s">
         <v>37</v>
-      </c>
-      <c r="F101" t="s">
-        <v>35</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9154,7 +9160,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J101">
         <v>1.363</v>
@@ -9222,16 +9228,16 @@
         <v>6924579</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D102" s="2">
         <v>45230.83680555555</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9240,7 +9246,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -9308,16 +9314,16 @@
         <v>6924581</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D103" s="2">
         <v>45231.83680555555</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9326,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J103">
         <v>4.333</v>
@@ -9394,16 +9400,16 @@
         <v>6924582</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D104" s="2">
         <v>45231.92013888889</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9412,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9480,16 +9486,16 @@
         <v>6924580</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
         <v>45232.83680555555</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9498,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J105">
         <v>2.375</v>
@@ -9566,16 +9572,16 @@
         <v>6924583</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D106" s="2">
         <v>45232.92013888889</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9584,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J106">
         <v>1.4</v>
@@ -9652,16 +9658,16 @@
         <v>6924584</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D107" s="2">
         <v>45233.00347222222</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9670,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J107">
         <v>1.65</v>
@@ -9738,16 +9744,16 @@
         <v>7449159</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D108" s="2">
         <v>45239.92013888889</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G108">
         <v>5</v>
@@ -9756,7 +9762,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9824,16 +9830,16 @@
         <v>7449160</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2">
         <v>45240.00347222222</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9842,7 +9848,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J109">
         <v>1.444</v>
@@ -9910,16 +9916,16 @@
         <v>7460657</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D110" s="2">
         <v>45242.83680555555</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9928,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -9996,16 +10002,16 @@
         <v>7473421</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D111" s="2">
         <v>45245.92013888889</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10014,7 +10020,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J111">
         <v>2.3</v>
@@ -10082,16 +10088,16 @@
         <v>7473419</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D112" s="2">
         <v>45246.00347222222</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10100,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J112">
         <v>2.25</v>
@@ -10168,16 +10174,16 @@
         <v>7473420</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D113" s="2">
         <v>45246.92013888889</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10186,7 +10192,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J113">
         <v>2.3</v>
@@ -10254,16 +10260,16 @@
         <v>7473526</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D114" s="2">
         <v>45247.00347222222</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10272,7 +10278,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J114">
         <v>2.75</v>
@@ -10340,16 +10346,16 @@
         <v>7450712</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D115" s="2">
         <v>45248.83680555555</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -10358,7 +10364,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J115">
         <v>1.6</v>
@@ -10426,16 +10432,16 @@
         <v>7473836</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D116" s="2">
         <v>45248.92013888889</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10444,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J116">
         <v>2.05</v>
@@ -10512,16 +10518,16 @@
         <v>7473837</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D117" s="2">
         <v>45249.83680555555</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10530,7 +10536,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J117">
         <v>1.909</v>
@@ -10598,16 +10604,16 @@
         <v>7450713</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D118" s="2">
         <v>45249.92013888889</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10616,7 +10622,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10684,16 +10690,16 @@
         <v>7505184</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D119" s="2">
         <v>45252.91666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10702,7 +10708,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J119">
         <v>1.727</v>
@@ -10770,16 +10776,16 @@
         <v>7505183</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2">
         <v>45253.91666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10788,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J120">
         <v>1.85</v>
@@ -10856,16 +10862,16 @@
         <v>7506103</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>45256.00347222222</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10874,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J121">
         <v>2.625</v>
@@ -10942,16 +10948,16 @@
         <v>7506798</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10960,7 +10966,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J122">
         <v>2.1</v>
@@ -11028,16 +11034,16 @@
         <v>7528853</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D123" s="2">
         <v>45260.91666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11046,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J123">
         <v>1.909</v>
@@ -11114,16 +11120,16 @@
         <v>7531699</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D124" s="2">
         <v>45263.79166666666</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11132,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J124">
         <v>2.375</v>
@@ -11200,16 +11206,16 @@
         <v>7641630</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D125" s="2">
         <v>45300.92013888889</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11218,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J125">
         <v>2.1</v>
@@ -11286,16 +11292,16 @@
         <v>7641631</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D126" s="2">
         <v>45301.00347222222</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11304,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J126">
         <v>2.45</v>
@@ -11372,16 +11378,16 @@
         <v>7641632</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D127" s="2">
         <v>45301.92013888889</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11390,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J127">
         <v>3.6</v>
@@ -11458,16 +11464,16 @@
         <v>7641633</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D128" s="2">
         <v>45302.00347222222</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11476,7 +11482,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11544,16 +11550,16 @@
         <v>7641634</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>45302.92013888889</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11562,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J129">
         <v>1.5</v>
@@ -11630,16 +11636,16 @@
         <v>7641635</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D130" s="2">
         <v>45303.00347222222</v>
       </c>
       <c r="E130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F130" t="s">
         <v>33</v>
-      </c>
-      <c r="F130" t="s">
-        <v>31</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11648,7 +11654,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J130">
         <v>1.95</v>
@@ -11716,16 +11722,16 @@
         <v>7640640</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
         <v>45305.79513888889</v>
       </c>
       <c r="E131" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11734,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J131">
         <v>1.833</v>
@@ -11802,16 +11808,16 @@
         <v>7641636</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D132" s="2">
         <v>45307.92013888889</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -11820,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J132">
         <v>1.571</v>
@@ -11888,16 +11894,16 @@
         <v>7641638</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D133" s="2">
         <v>45308.92013888889</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11906,7 +11912,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J133">
         <v>1.615</v>
@@ -11974,16 +11980,16 @@
         <v>7641639</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D134" s="2">
         <v>45309.00347222222</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11992,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J134">
         <v>3.6</v>
@@ -12060,16 +12066,16 @@
         <v>7641640</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D135" s="2">
         <v>45309.92013888889</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12078,7 +12084,7 @@
         <v>5</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J135">
         <v>2.1</v>
@@ -12146,16 +12152,16 @@
         <v>7641641</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D136" s="2">
         <v>45310.00347222222</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12164,7 +12170,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J136">
         <v>1.8</v>
@@ -12232,16 +12238,16 @@
         <v>7640641</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D137" s="2">
         <v>45312.83680555555</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12250,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J137">
         <v>2.75</v>
@@ -12318,16 +12324,16 @@
         <v>7641642</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2">
         <v>45314.92013888889</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12336,7 +12342,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J138">
         <v>2.8</v>
@@ -12404,17 +12410,17 @@
         <v>7641643</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D139" s="2">
         <v>45315.00347222222</v>
       </c>
       <c r="E139" t="s">
+        <v>36</v>
+      </c>
+      <c r="F139" t="s">
         <v>34</v>
       </c>
-      <c r="F139" t="s">
-        <v>32</v>
-      </c>
       <c r="G139">
         <v>2</v>
       </c>
@@ -12422,7 +12428,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J139">
         <v>2.05</v>
@@ -12490,16 +12496,16 @@
         <v>7641644</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D140" s="2">
         <v>45315.92013888889</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12508,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12576,16 +12582,16 @@
         <v>7641645</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D141" s="2">
         <v>45316.00347222222</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12594,7 +12600,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J141">
         <v>2.55</v>
@@ -12662,16 +12668,16 @@
         <v>7640642</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D142" s="2">
         <v>45316.92013888889</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12680,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12748,16 +12754,16 @@
         <v>7641646</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D143" s="2">
         <v>45317.00347222222</v>
       </c>
       <c r="E143" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12766,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J143">
         <v>1.7</v>
@@ -12834,16 +12840,16 @@
         <v>7641647</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>45319.87847222222</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12852,7 +12858,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J144">
         <v>1.909</v>
@@ -12920,16 +12926,16 @@
         <v>7641648</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>45322.00347222222</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12938,7 +12944,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J145">
         <v>1.5</v>
@@ -13006,16 +13012,16 @@
         <v>7640643</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>45322.83680555555</v>
       </c>
       <c r="E146" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13024,7 +13030,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J146">
         <v>1.4</v>
@@ -13092,16 +13098,16 @@
         <v>7641649</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>45322.92013888889</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13110,7 +13116,7 @@
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J147">
         <v>3.8</v>
@@ -13178,16 +13184,16 @@
         <v>7641650</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>45323.00347222222</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13196,7 +13202,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J148">
         <v>2.05</v>
@@ -13264,16 +13270,16 @@
         <v>7641651</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>45323.92013888889</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13282,7 +13288,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J149">
         <v>2.15</v>
@@ -13350,16 +13356,16 @@
         <v>7641652</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>45324.00347222222</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13368,7 +13374,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J150">
         <v>2</v>
@@ -13436,16 +13442,16 @@
         <v>7641653</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D151" s="2">
         <v>45326.79513888889</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13454,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J151">
         <v>3</v>
@@ -13522,16 +13528,16 @@
         <v>7641659</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D152" s="2">
         <v>45326.92013888889</v>
       </c>
       <c r="E152" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13540,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J152">
         <v>2.2</v>
@@ -13608,16 +13614,16 @@
         <v>7641655</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2">
         <v>45328.83680555555</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13626,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J153">
         <v>1.333</v>
@@ -13694,16 +13700,16 @@
         <v>7641654</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D154" s="2">
         <v>45328.92013888889</v>
       </c>
       <c r="E154" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13712,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J154">
         <v>2.5</v>
@@ -13780,16 +13786,16 @@
         <v>7640644</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D155" s="2">
         <v>45329.92013888889</v>
       </c>
       <c r="E155" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13798,7 +13804,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J155">
         <v>3.5</v>
@@ -13866,16 +13872,16 @@
         <v>7641656</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D156" s="2">
         <v>45330.00347222222</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13884,7 +13890,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J156">
         <v>2.05</v>
@@ -13952,16 +13958,16 @@
         <v>7641658</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D157" s="2">
         <v>45330.92013888889</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13970,7 +13976,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J157">
         <v>1.8</v>
@@ -14038,16 +14044,16 @@
         <v>7641657</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D158" s="2">
         <v>45331.83680555555</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14056,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J158">
         <v>2</v>
@@ -14124,16 +14130,16 @@
         <v>7641660</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D159" s="2">
         <v>45335.92013888889</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14142,7 +14148,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J159">
         <v>2.5</v>
@@ -14210,16 +14216,16 @@
         <v>7641661</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D160" s="2">
         <v>45336.00347222222</v>
       </c>
       <c r="E160" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14228,7 +14234,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J160">
         <v>3.1</v>
@@ -14296,16 +14302,16 @@
         <v>7641670</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>45336.92013888889</v>
       </c>
       <c r="E161" t="s">
+        <v>41</v>
+      </c>
+      <c r="F161" t="s">
         <v>39</v>
-      </c>
-      <c r="F161" t="s">
-        <v>37</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14314,7 +14320,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J161">
         <v>2.5</v>
@@ -14382,16 +14388,16 @@
         <v>7641671</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D162" s="2">
         <v>45338.00347222222</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14400,7 +14406,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J162">
         <v>2.7</v>
@@ -14468,16 +14474,16 @@
         <v>7641672</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D163" s="2">
         <v>45338.92013888889</v>
       </c>
       <c r="E163" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14486,7 +14492,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J163">
         <v>2.4</v>
@@ -14554,16 +14560,16 @@
         <v>7641673</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D164" s="2">
         <v>45339.83680555555</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14572,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J164">
         <v>2.45</v>
@@ -14640,16 +14646,16 @@
         <v>7640645</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D165" s="2">
         <v>45340.625</v>
       </c>
       <c r="E165" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14658,7 +14664,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J165">
         <v>1.55</v>
@@ -14726,16 +14732,16 @@
         <v>7641679</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D166" s="2">
         <v>45342.92013888889</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14744,7 +14750,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J166">
         <v>1.909</v>
@@ -14812,16 +14818,16 @@
         <v>7641675</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
         <v>45343.00347222222</v>
       </c>
       <c r="E167" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -14830,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J167">
         <v>2.45</v>
@@ -14898,16 +14904,16 @@
         <v>7641676</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2">
         <v>45343.92013888889</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14916,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J168">
         <v>3.4</v>
@@ -14984,16 +14990,16 @@
         <v>7641674</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D169" s="2">
         <v>45344.00347222222</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G169">
         <v>4</v>
@@ -15002,7 +15008,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J169">
         <v>2</v>
@@ -15070,16 +15076,16 @@
         <v>7641678</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D170" s="2">
         <v>45344.92013888889</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15088,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J170">
         <v>1.8</v>
@@ -15156,16 +15162,16 @@
         <v>7641677</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D171" s="2">
         <v>45345.00347222222</v>
       </c>
       <c r="E171" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15174,7 +15180,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J171">
         <v>1.6</v>
@@ -15242,16 +15248,16 @@
         <v>7641680</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D172" s="2">
         <v>45347.83680555555</v>
       </c>
       <c r="E172" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15260,7 +15266,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J172">
         <v>1.333</v>
@@ -15328,16 +15334,16 @@
         <v>7640646</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D173" s="2">
         <v>45349.92013888889</v>
       </c>
       <c r="E173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F173" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15346,7 +15352,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J173">
         <v>2.9</v>
@@ -15414,16 +15420,16 @@
         <v>7641681</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D174" s="2">
         <v>45350.00347222222</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15432,7 +15438,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J174">
         <v>1.666</v>
@@ -15500,16 +15506,16 @@
         <v>7641682</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D175" s="2">
         <v>45350.92013888889</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15518,7 +15524,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J175">
         <v>2.3</v>
@@ -15586,16 +15592,16 @@
         <v>7641684</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D176" s="2">
         <v>45351.92013888889</v>
       </c>
       <c r="E176" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -15604,7 +15610,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J176">
         <v>4</v>
@@ -15672,16 +15678,16 @@
         <v>7641685</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D177" s="2">
         <v>45352.00347222222</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15690,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J177">
         <v>1.8</v>
@@ -15758,16 +15764,16 @@
         <v>7701489</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D178" s="2">
         <v>45352.83333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15776,7 +15782,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J178">
         <v>1.571</v>
@@ -15844,17 +15850,17 @@
         <v>7641686</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D179" s="2">
         <v>45353.83680555555</v>
       </c>
       <c r="E179" t="s">
+        <v>38</v>
+      </c>
+      <c r="F179" t="s">
         <v>36</v>
       </c>
-      <c r="F179" t="s">
-        <v>34</v>
-      </c>
       <c r="G179">
         <v>2</v>
       </c>
@@ -15862,7 +15868,7 @@
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J179">
         <v>2</v>
@@ -15930,16 +15936,16 @@
         <v>7640647</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D180" s="2">
         <v>45356.92013888889</v>
       </c>
       <c r="E180" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15948,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J180">
         <v>1.4</v>
@@ -16016,16 +16022,16 @@
         <v>7641687</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D181" s="2">
         <v>45357.00347222222</v>
       </c>
       <c r="E181" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16034,7 +16040,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J181">
         <v>1.65</v>
@@ -16102,16 +16108,16 @@
         <v>7641688</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D182" s="2">
         <v>45357.92013888889</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16120,7 +16126,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J182">
         <v>1.571</v>
@@ -16188,16 +16194,16 @@
         <v>7641689</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D183" s="2">
         <v>45358.00347222222</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16206,7 +16212,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J183">
         <v>3.6</v>
@@ -16274,16 +16280,16 @@
         <v>7641690</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D184" s="2">
         <v>45358.92013888889</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G184">
         <v>3</v>
@@ -16292,7 +16298,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J184">
         <v>1.7</v>
@@ -16360,16 +16366,16 @@
         <v>7641691</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D185" s="2">
         <v>45359.00347222222</v>
       </c>
       <c r="E185" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16378,7 +16384,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J185">
         <v>1.571</v>
@@ -16443,67 +16449,67 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D186" s="2">
         <v>45361.5</v>
       </c>
       <c r="E186" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J186">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L186">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M186">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q186">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R186">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
         <v>2.75</v>
       </c>
       <c r="T186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -16512,16 +16518,16 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16529,67 +16535,67 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D187" s="2">
         <v>45361.5</v>
       </c>
       <c r="E187" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J187">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="K187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L187">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M187">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N187">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P187">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q187">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
         <v>2.75</v>
       </c>
       <c r="T187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -16598,16 +16604,16 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16618,16 +16624,16 @@
         <v>7641692</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D188" s="2">
         <v>45361.92013888889</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16636,7 +16642,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J188">
         <v>2.15</v>
@@ -16704,16 +16710,16 @@
         <v>7641693</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D189" s="2">
         <v>45363.92013888889</v>
       </c>
       <c r="E189" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16722,7 +16728,7 @@
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J189">
         <v>2.4</v>
@@ -16790,16 +16796,16 @@
         <v>7641694</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D190" s="2">
         <v>45364.00347222222</v>
       </c>
       <c r="E190" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16808,7 +16814,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J190">
         <v>1.4</v>
@@ -16876,16 +16882,16 @@
         <v>7640648</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D191" s="2">
         <v>45364.92013888889</v>
       </c>
       <c r="E191" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F191" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16894,7 +16900,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J191">
         <v>4</v>
@@ -16962,16 +16968,16 @@
         <v>7641695</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D192" s="2">
         <v>45365.00347222222</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16980,7 +16986,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J192">
         <v>2.25</v>
@@ -17048,16 +17054,16 @@
         <v>7641696</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D193" s="2">
         <v>45365.92013888889</v>
       </c>
       <c r="E193" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17066,7 +17072,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J193">
         <v>2.1</v>
@@ -17134,16 +17140,16 @@
         <v>7641697</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D194" s="2">
         <v>45366.00347222222</v>
       </c>
       <c r="E194" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17152,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J194">
         <v>2.25</v>
@@ -17220,16 +17226,16 @@
         <v>7641698</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D195" s="2">
         <v>45368.92013888889</v>
       </c>
       <c r="E195" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17238,7 +17244,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J195">
         <v>2.3</v>
@@ -17306,16 +17312,16 @@
         <v>7641699</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D196" s="2">
         <v>45370.83680555555</v>
       </c>
       <c r="E196" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17324,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J196">
         <v>1.533</v>
@@ -17392,16 +17398,16 @@
         <v>7640649</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D197" s="2">
         <v>45370.92013888889</v>
       </c>
       <c r="E197" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17410,7 +17416,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J197">
         <v>1.65</v>
@@ -17478,16 +17484,16 @@
         <v>7641700</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D198" s="2">
         <v>45371.00347222222</v>
       </c>
       <c r="E198" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17496,7 +17502,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J198">
         <v>1.95</v>
@@ -17564,16 +17570,16 @@
         <v>7641701</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D199" s="2">
         <v>45371.83680555555</v>
       </c>
       <c r="E199" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17582,7 +17588,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J199">
         <v>2.1</v>
@@ -17650,16 +17656,16 @@
         <v>7641702</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D200" s="2">
         <v>45371.92013888889</v>
       </c>
       <c r="E200" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -17668,7 +17674,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J200">
         <v>1.8</v>
@@ -17736,16 +17742,16 @@
         <v>7641703</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D201" s="2">
         <v>45372.00347222222</v>
       </c>
       <c r="E201" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F201" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17754,7 +17760,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J201">
         <v>3.6</v>
@@ -17822,16 +17828,16 @@
         <v>7641704</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D202" s="2">
         <v>45372.92013888889</v>
       </c>
       <c r="E202" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17840,7 +17846,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J202">
         <v>1.6</v>
@@ -17908,16 +17914,16 @@
         <v>7641705</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D203" s="2">
         <v>45373.92013888889</v>
       </c>
       <c r="E203" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17926,7 +17932,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J203">
         <v>1.75</v>
@@ -17994,16 +18000,16 @@
         <v>7641706</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D204" s="2">
         <v>45374.75</v>
       </c>
       <c r="E204" t="s">
+        <v>34</v>
+      </c>
+      <c r="F204" t="s">
         <v>32</v>
-      </c>
-      <c r="F204" t="s">
-        <v>30</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -18012,7 +18018,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J204">
         <v>2.7</v>
@@ -18080,16 +18086,16 @@
         <v>7641707</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D205" s="2">
         <v>45374.83333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18098,7 +18104,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J205">
         <v>1.333</v>
@@ -18166,16 +18172,16 @@
         <v>7641708</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D206" s="2">
         <v>45374.92013888889</v>
       </c>
       <c r="E206" t="s">
+        <v>33</v>
+      </c>
+      <c r="F206" t="s">
         <v>31</v>
-      </c>
-      <c r="F206" t="s">
-        <v>29</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18184,7 +18190,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J206">
         <v>2</v>
@@ -18252,16 +18258,16 @@
         <v>7641709</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D207" s="2">
         <v>45375.00347222222</v>
       </c>
       <c r="E207" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18270,7 +18276,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J207">
         <v>4</v>
@@ -18338,16 +18344,16 @@
         <v>7640650</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D208" s="2">
         <v>45375.625</v>
       </c>
       <c r="E208" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18356,7 +18362,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J208">
         <v>1.444</v>
@@ -18424,16 +18430,16 @@
         <v>7641710</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D209" s="2">
         <v>45375.92013888889</v>
       </c>
       <c r="E209" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18442,7 +18448,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J209">
         <v>2.6</v>
@@ -18510,16 +18516,16 @@
         <v>7641711</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D210" s="2">
         <v>45377.92013888889</v>
       </c>
       <c r="E210" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18528,7 +18534,7 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J210">
         <v>1.909</v>
@@ -18596,16 +18602,16 @@
         <v>7641712</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D211" s="2">
         <v>45378.00347222222</v>
       </c>
       <c r="E211" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18614,7 +18620,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J211">
         <v>1.833</v>
@@ -18682,16 +18688,16 @@
         <v>7641713</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D212" s="2">
         <v>45378.92013888889</v>
       </c>
       <c r="E212" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18700,7 +18706,7 @@
         <v>4</v>
       </c>
       <c r="I212" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J212">
         <v>1.666</v>
@@ -18768,16 +18774,16 @@
         <v>7641714</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D213" s="2">
         <v>45379.00347222222</v>
       </c>
       <c r="E213" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18786,7 +18792,7 @@
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J213">
         <v>1.95</v>
@@ -18854,16 +18860,16 @@
         <v>7641715</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D214" s="2">
         <v>45379.92013888889</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G214">
         <v>3</v>
@@ -18872,7 +18878,7 @@
         <v>4</v>
       </c>
       <c r="I214" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J214">
         <v>2.6</v>
@@ -18940,16 +18946,16 @@
         <v>7640651</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D215" s="2">
         <v>45380.00347222222</v>
       </c>
       <c r="E215" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F215" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -18958,7 +18964,7 @@
         <v>3</v>
       </c>
       <c r="I215" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J215">
         <v>7.5</v>
@@ -19026,16 +19032,16 @@
         <v>7641716</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D216" s="2">
         <v>45380.875</v>
       </c>
       <c r="E216" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -19044,7 +19050,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J216">
         <v>1.444</v>
@@ -19112,17 +19118,17 @@
         <v>7640652</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D217" s="2">
         <v>45384.83680555555</v>
       </c>
       <c r="E217" t="s">
+        <v>32</v>
+      </c>
+      <c r="F217" t="s">
         <v>30</v>
       </c>
-      <c r="F217" t="s">
-        <v>28</v>
-      </c>
       <c r="G217">
         <v>0</v>
       </c>
@@ -19130,7 +19136,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J217">
         <v>2.6</v>
@@ -19198,16 +19204,16 @@
         <v>7641717</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D218" s="2">
         <v>45384.92013888889</v>
       </c>
       <c r="E218" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19216,7 +19222,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J218">
         <v>2.15</v>
@@ -19284,16 +19290,16 @@
         <v>7641718</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D219" s="2">
         <v>45385.00347222222</v>
       </c>
       <c r="E219" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19302,7 +19308,7 @@
         <v>3</v>
       </c>
       <c r="I219" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J219">
         <v>2.25</v>
@@ -19370,16 +19376,16 @@
         <v>7641719</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D220" s="2">
         <v>45385.92013888889</v>
       </c>
       <c r="E220" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -19388,7 +19394,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J220">
         <v>2.15</v>
@@ -19456,16 +19462,16 @@
         <v>7641720</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D221" s="2">
         <v>45386.00347222222</v>
       </c>
       <c r="E221" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19474,7 +19480,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J221">
         <v>2.5</v>
@@ -19542,16 +19548,16 @@
         <v>7641721</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D222" s="2">
         <v>45386.92013888889</v>
       </c>
       <c r="E222" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F222" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19560,7 +19566,7 @@
         <v>2</v>
       </c>
       <c r="I222" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J222">
         <v>2.6</v>
@@ -19628,16 +19634,16 @@
         <v>7641722</v>
       </c>
       <c r="C223" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D223" s="2">
         <v>45387.00347222222</v>
       </c>
       <c r="E223" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19646,7 +19652,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J223">
         <v>2.6</v>
@@ -19714,16 +19720,16 @@
         <v>7893216</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D224" s="2">
         <v>45388.00347222222</v>
       </c>
       <c r="E224" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19732,7 +19738,7 @@
         <v>3</v>
       </c>
       <c r="I224" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J224">
         <v>2.3</v>
@@ -19800,16 +19806,16 @@
         <v>7641723</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D225" s="2">
         <v>45391.92013888889</v>
       </c>
       <c r="E225" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19818,7 +19824,7 @@
         <v>2</v>
       </c>
       <c r="I225" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J225">
         <v>1.4</v>
@@ -19886,16 +19892,16 @@
         <v>7641724</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D226" s="2">
         <v>45392.00347222222</v>
       </c>
       <c r="E226" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F226" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -19904,7 +19910,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J226">
         <v>2.3</v>
@@ -19972,17 +19978,17 @@
         <v>7641725</v>
       </c>
       <c r="C227" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D227" s="2">
         <v>45392.92013888889</v>
       </c>
       <c r="E227" t="s">
+        <v>37</v>
+      </c>
+      <c r="F227" t="s">
         <v>35</v>
       </c>
-      <c r="F227" t="s">
-        <v>33</v>
-      </c>
       <c r="G227">
         <v>0</v>
       </c>
@@ -19990,7 +19996,7 @@
         <v>2</v>
       </c>
       <c r="I227" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J227">
         <v>2.75</v>
@@ -20058,16 +20064,16 @@
         <v>7641726</v>
       </c>
       <c r="C228" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D228" s="2">
         <v>45393.00347222222</v>
       </c>
       <c r="E228" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20076,7 +20082,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J228">
         <v>1.25</v>
@@ -20144,16 +20150,16 @@
         <v>7640653</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D229" s="2">
         <v>45393.92013888889</v>
       </c>
       <c r="E229" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -20162,7 +20168,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J229">
         <v>1.6</v>
@@ -20230,16 +20236,16 @@
         <v>7641727</v>
       </c>
       <c r="C230" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D230" s="2">
         <v>45394.00347222222</v>
       </c>
       <c r="E230" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20248,7 +20254,7 @@
         <v>2</v>
       </c>
       <c r="I230" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J230">
         <v>1.8</v>
@@ -20316,16 +20322,16 @@
         <v>7641728</v>
       </c>
       <c r="C231" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D231" s="2">
         <v>45395.83680555555</v>
       </c>
       <c r="E231" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G231">
         <v>3</v>
@@ -20334,7 +20340,7 @@
         <v>3</v>
       </c>
       <c r="I231" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J231">
         <v>2.25</v>
@@ -20402,16 +20408,16 @@
         <v>8104978</v>
       </c>
       <c r="C232" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D232" s="2">
         <v>45399.91666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G232">
         <v>7</v>
@@ -20420,7 +20426,7 @@
         <v>6</v>
       </c>
       <c r="I232" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J232">
         <v>2.2</v>
@@ -20488,16 +20494,16 @@
         <v>8104979</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D233" s="2">
         <v>45400</v>
       </c>
       <c r="E233" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -20506,7 +20512,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J233">
         <v>2.25</v>
@@ -20574,16 +20580,16 @@
         <v>8117254</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D234" s="2">
         <v>45403</v>
       </c>
       <c r="E234" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G234">
         <v>3</v>
@@ -20592,7 +20598,7 @@
         <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J234">
         <v>1.909</v>
@@ -20650,6 +20656,308 @@
       </c>
       <c r="AB234">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:28">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>8127902</v>
+      </c>
+      <c r="C235" t="s">
+        <v>29</v>
+      </c>
+      <c r="D235" s="2">
+        <v>45406.91666666666</v>
+      </c>
+      <c r="E235" t="s">
+        <v>44</v>
+      </c>
+      <c r="F235" t="s">
+        <v>32</v>
+      </c>
+      <c r="G235">
+        <v>4</v>
+      </c>
+      <c r="H235">
+        <v>3</v>
+      </c>
+      <c r="I235" t="s">
+        <v>49</v>
+      </c>
+      <c r="J235">
+        <v>2</v>
+      </c>
+      <c r="K235">
+        <v>3.5</v>
+      </c>
+      <c r="L235">
+        <v>3.25</v>
+      </c>
+      <c r="M235">
+        <v>1.95</v>
+      </c>
+      <c r="N235">
+        <v>3.6</v>
+      </c>
+      <c r="O235">
+        <v>3.75</v>
+      </c>
+      <c r="P235">
+        <v>-0.5</v>
+      </c>
+      <c r="Q235">
+        <v>1.925</v>
+      </c>
+      <c r="R235">
+        <v>1.875</v>
+      </c>
+      <c r="S235">
+        <v>2.5</v>
+      </c>
+      <c r="T235">
+        <v>1.9</v>
+      </c>
+      <c r="U235">
+        <v>1.9</v>
+      </c>
+      <c r="V235">
+        <v>0.95</v>
+      </c>
+      <c r="W235">
+        <v>-1</v>
+      </c>
+      <c r="X235">
+        <v>-1</v>
+      </c>
+      <c r="Y235">
+        <v>0.925</v>
+      </c>
+      <c r="Z235">
+        <v>-1</v>
+      </c>
+      <c r="AA235">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB235">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:28">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>8134910</v>
+      </c>
+      <c r="C236" t="s">
+        <v>29</v>
+      </c>
+      <c r="D236" s="2">
+        <v>45407.00347222222</v>
+      </c>
+      <c r="E236" t="s">
+        <v>36</v>
+      </c>
+      <c r="F236" t="s">
+        <v>31</v>
+      </c>
+      <c r="G236">
+        <v>3</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236" t="s">
+        <v>49</v>
+      </c>
+      <c r="J236">
+        <v>2.75</v>
+      </c>
+      <c r="K236">
+        <v>3.4</v>
+      </c>
+      <c r="L236">
+        <v>2.3</v>
+      </c>
+      <c r="M236">
+        <v>3.25</v>
+      </c>
+      <c r="N236">
+        <v>3.4</v>
+      </c>
+      <c r="O236">
+        <v>2.2</v>
+      </c>
+      <c r="P236">
+        <v>0.25</v>
+      </c>
+      <c r="Q236">
+        <v>1.875</v>
+      </c>
+      <c r="R236">
+        <v>1.925</v>
+      </c>
+      <c r="S236">
+        <v>2.5</v>
+      </c>
+      <c r="T236">
+        <v>1.875</v>
+      </c>
+      <c r="U236">
+        <v>1.925</v>
+      </c>
+      <c r="V236">
+        <v>2.25</v>
+      </c>
+      <c r="W236">
+        <v>-1</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
+        <v>0.875</v>
+      </c>
+      <c r="Z236">
+        <v>-1</v>
+      </c>
+      <c r="AA236">
+        <v>0.875</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:28">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237" t="s">
+        <v>29</v>
+      </c>
+      <c r="D237" s="2">
+        <v>45407.92013888889</v>
+      </c>
+      <c r="E237" t="s">
+        <v>38</v>
+      </c>
+      <c r="F237" t="s">
+        <v>30</v>
+      </c>
+      <c r="J237">
+        <v>2.25</v>
+      </c>
+      <c r="K237">
+        <v>3.2</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
+      </c>
+      <c r="M237">
+        <v>3.6</v>
+      </c>
+      <c r="N237">
+        <v>2.8</v>
+      </c>
+      <c r="O237">
+        <v>2.4</v>
+      </c>
+      <c r="P237">
+        <v>0.25</v>
+      </c>
+      <c r="Q237">
+        <v>1.775</v>
+      </c>
+      <c r="R237">
+        <v>2.025</v>
+      </c>
+      <c r="S237">
+        <v>1.75</v>
+      </c>
+      <c r="T237">
+        <v>1.95</v>
+      </c>
+      <c r="U237">
+        <v>1.85</v>
+      </c>
+      <c r="V237">
+        <v>0</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:28">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>28</v>
+      </c>
+      <c r="C238" t="s">
+        <v>29</v>
+      </c>
+      <c r="D238" s="2">
+        <v>45408.00347222222</v>
+      </c>
+      <c r="E238" t="s">
+        <v>35</v>
+      </c>
+      <c r="F238" t="s">
+        <v>39</v>
+      </c>
+      <c r="J238">
+        <v>2.3</v>
+      </c>
+      <c r="K238">
+        <v>3.4</v>
+      </c>
+      <c r="L238">
+        <v>2.75</v>
+      </c>
+      <c r="M238">
+        <v>2.4</v>
+      </c>
+      <c r="N238">
+        <v>3.6</v>
+      </c>
+      <c r="O238">
+        <v>2.75</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>1.775</v>
+      </c>
+      <c r="R238">
+        <v>2.025</v>
+      </c>
+      <c r="S238">
+        <v>3</v>
+      </c>
+      <c r="T238">
+        <v>1.975</v>
+      </c>
+      <c r="U238">
+        <v>1.825</v>
+      </c>
+      <c r="V238">
+        <v>0</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -97,10 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8127901</t>
+    <t>8127905</t>
   </si>
   <si>
-    <t>8134907</t>
+    <t>8127904</t>
   </si>
   <si>
     <t>Mexico Liga de Expansion</t>
@@ -151,16 +151,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Unam Pumas U23</t>
+  </si>
+  <si>
     <t>Monterrey U23</t>
   </si>
   <si>
-    <t>Unam Pumas U23</t>
+    <t>Tijuana U23</t>
   </si>
   <si>
     <t>Mazatlan FC U23</t>
-  </si>
-  <si>
-    <t>Tijuana U23</t>
   </si>
   <si>
     <t>H</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB238"/>
+  <dimension ref="A1:AB236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16449,7 +16449,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -16464,52 +16464,52 @@
         <v>47</v>
       </c>
       <c r="G186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="s">
         <v>49</v>
       </c>
       <c r="J186">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="K186">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L186">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M186">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P186">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S186">
         <v>2.75</v>
       </c>
       <c r="T186">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V186">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -16518,16 +16518,16 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16535,7 +16535,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -16550,52 +16550,52 @@
         <v>48</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I187" t="s">
         <v>49</v>
       </c>
       <c r="J187">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L187">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M187">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N187">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P187">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
         <v>2.75</v>
       </c>
       <c r="T187">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -16604,16 +16604,16 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -20662,301 +20662,129 @@
       <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235">
-        <v>8127902</v>
+      <c r="B235" t="s">
+        <v>27</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
       </c>
       <c r="D235" s="2">
-        <v>45406.91666666666</v>
+        <v>45409.83333333334</v>
       </c>
       <c r="E235" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F235" t="s">
-        <v>32</v>
-      </c>
-      <c r="G235">
+        <v>36</v>
+      </c>
+      <c r="J235">
+        <v>1.7</v>
+      </c>
+      <c r="K235">
+        <v>3.8</v>
+      </c>
+      <c r="L235">
         <v>4</v>
       </c>
-      <c r="H235">
-        <v>3</v>
-      </c>
-      <c r="I235" t="s">
-        <v>49</v>
-      </c>
-      <c r="J235">
-        <v>2</v>
-      </c>
-      <c r="K235">
-        <v>3.5</v>
-      </c>
-      <c r="L235">
-        <v>3.25</v>
-      </c>
       <c r="M235">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="N235">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O235">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q235">
+        <v>1.875</v>
+      </c>
+      <c r="R235">
         <v>1.925</v>
       </c>
-      <c r="R235">
-        <v>1.875</v>
-      </c>
       <c r="S235">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T235">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U235">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V235">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X235">
-        <v>-1</v>
-      </c>
-      <c r="Y235">
-        <v>0.925</v>
-      </c>
-      <c r="Z235">
-        <v>-1</v>
-      </c>
-      <c r="AA235">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB235">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:28">
       <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236">
-        <v>8134910</v>
+      <c r="B236" t="s">
+        <v>28</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
       </c>
       <c r="D236" s="2">
-        <v>45407.00347222222</v>
+        <v>45409.92013888889</v>
       </c>
       <c r="E236" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
-      </c>
-      <c r="G236">
-        <v>3</v>
-      </c>
-      <c r="H236">
-        <v>1</v>
-      </c>
-      <c r="I236" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J236">
+        <v>1.909</v>
+      </c>
+      <c r="K236">
+        <v>3.5</v>
+      </c>
+      <c r="L236">
+        <v>3.5</v>
+      </c>
+      <c r="M236">
+        <v>1.95</v>
+      </c>
+      <c r="N236">
+        <v>3.5</v>
+      </c>
+      <c r="O236">
+        <v>3.4</v>
+      </c>
+      <c r="P236">
+        <v>-0.5</v>
+      </c>
+      <c r="Q236">
+        <v>2</v>
+      </c>
+      <c r="R236">
+        <v>1.8</v>
+      </c>
+      <c r="S236">
         <v>2.75</v>
       </c>
-      <c r="K236">
-        <v>3.4</v>
-      </c>
-      <c r="L236">
-        <v>2.3</v>
-      </c>
-      <c r="M236">
-        <v>3.25</v>
-      </c>
-      <c r="N236">
-        <v>3.4</v>
-      </c>
-      <c r="O236">
-        <v>2.2</v>
-      </c>
-      <c r="P236">
-        <v>0.25</v>
-      </c>
-      <c r="Q236">
-        <v>1.875</v>
-      </c>
-      <c r="R236">
-        <v>1.925</v>
-      </c>
-      <c r="S236">
-        <v>2.5</v>
-      </c>
       <c r="T236">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U236">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V236">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X236">
-        <v>-1</v>
-      </c>
-      <c r="Y236">
-        <v>0.875</v>
-      </c>
-      <c r="Z236">
-        <v>-1</v>
-      </c>
-      <c r="AA236">
-        <v>0.875</v>
-      </c>
-      <c r="AB236">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:28">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237" t="s">
-        <v>27</v>
-      </c>
-      <c r="C237" t="s">
-        <v>29</v>
-      </c>
-      <c r="D237" s="2">
-        <v>45407.92013888889</v>
-      </c>
-      <c r="E237" t="s">
-        <v>38</v>
-      </c>
-      <c r="F237" t="s">
-        <v>30</v>
-      </c>
-      <c r="J237">
-        <v>2.25</v>
-      </c>
-      <c r="K237">
-        <v>3.2</v>
-      </c>
-      <c r="L237">
-        <v>3</v>
-      </c>
-      <c r="M237">
-        <v>3.6</v>
-      </c>
-      <c r="N237">
-        <v>2.8</v>
-      </c>
-      <c r="O237">
-        <v>2.4</v>
-      </c>
-      <c r="P237">
-        <v>0.25</v>
-      </c>
-      <c r="Q237">
-        <v>1.775</v>
-      </c>
-      <c r="R237">
-        <v>2.025</v>
-      </c>
-      <c r="S237">
-        <v>1.75</v>
-      </c>
-      <c r="T237">
-        <v>1.95</v>
-      </c>
-      <c r="U237">
-        <v>1.85</v>
-      </c>
-      <c r="V237">
-        <v>0</v>
-      </c>
-      <c r="W237">
-        <v>0</v>
-      </c>
-      <c r="X237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:28">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238" t="s">
-        <v>28</v>
-      </c>
-      <c r="C238" t="s">
-        <v>29</v>
-      </c>
-      <c r="D238" s="2">
-        <v>45408.00347222222</v>
-      </c>
-      <c r="E238" t="s">
-        <v>35</v>
-      </c>
-      <c r="F238" t="s">
-        <v>39</v>
-      </c>
-      <c r="J238">
-        <v>2.3</v>
-      </c>
-      <c r="K238">
-        <v>3.4</v>
-      </c>
-      <c r="L238">
-        <v>2.75</v>
-      </c>
-      <c r="M238">
-        <v>2.4</v>
-      </c>
-      <c r="N238">
-        <v>3.6</v>
-      </c>
-      <c r="O238">
-        <v>2.75</v>
-      </c>
-      <c r="P238">
-        <v>0</v>
-      </c>
-      <c r="Q238">
-        <v>1.775</v>
-      </c>
-      <c r="R238">
-        <v>2.025</v>
-      </c>
-      <c r="S238">
-        <v>3</v>
-      </c>
-      <c r="T238">
-        <v>1.975</v>
-      </c>
-      <c r="U238">
-        <v>1.825</v>
-      </c>
-      <c r="V238">
-        <v>0</v>
-      </c>
-      <c r="W238">
-        <v>0</v>
-      </c>
-      <c r="X238">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB236"/>
+  <dimension ref="A1:AB240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8279,7 +8279,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8288,76 +8288,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="K91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8365,7 +8365,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8374,76 +8374,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>4.5</v>
+      </c>
+      <c r="M92">
+        <v>1.5</v>
+      </c>
+      <c r="N92">
+        <v>4.75</v>
+      </c>
+      <c r="O92">
+        <v>5.75</v>
+      </c>
+      <c r="P92">
+        <v>-1.25</v>
+      </c>
+      <c r="Q92">
+        <v>1.925</v>
+      </c>
+      <c r="R92">
+        <v>1.875</v>
+      </c>
+      <c r="S92">
         <v>3</v>
       </c>
-      <c r="L92">
-        <v>2.875</v>
-      </c>
-      <c r="M92">
-        <v>2.7</v>
-      </c>
-      <c r="N92">
-        <v>3.1</v>
-      </c>
-      <c r="O92">
-        <v>2.8</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>1.85</v>
-      </c>
-      <c r="R92">
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.95</v>
       </c>
-      <c r="S92">
-        <v>2.25</v>
-      </c>
-      <c r="T92">
-        <v>1.975</v>
-      </c>
-      <c r="U92">
-        <v>1.725</v>
-      </c>
       <c r="V92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -20662,129 +20662,473 @@
       <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="s">
-        <v>27</v>
+      <c r="B235">
+        <v>8127902</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
       </c>
       <c r="D235" s="2">
-        <v>45409.83333333334</v>
+        <v>45406.91666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="G235">
+        <v>4</v>
+      </c>
+      <c r="H235">
+        <v>3</v>
+      </c>
+      <c r="I235" t="s">
+        <v>49</v>
       </c>
       <c r="J235">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="K235">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M235">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="N235">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O235">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q235">
+        <v>1.925</v>
+      </c>
+      <c r="R235">
         <v>1.875</v>
       </c>
-      <c r="R235">
-        <v>1.925</v>
-      </c>
       <c r="S235">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T235">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U235">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V235">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="W235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y235">
+        <v>0.925</v>
+      </c>
+      <c r="Z235">
+        <v>-1</v>
+      </c>
+      <c r="AA235">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB235">
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:28">
       <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236">
+        <v>8134910</v>
+      </c>
+      <c r="C236" t="s">
+        <v>29</v>
+      </c>
+      <c r="D236" s="2">
+        <v>45407.00347222222</v>
+      </c>
+      <c r="E236" t="s">
+        <v>36</v>
+      </c>
+      <c r="F236" t="s">
+        <v>31</v>
+      </c>
+      <c r="G236">
+        <v>3</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236" t="s">
+        <v>49</v>
+      </c>
+      <c r="J236">
+        <v>2.75</v>
+      </c>
+      <c r="K236">
+        <v>3.4</v>
+      </c>
+      <c r="L236">
+        <v>2.3</v>
+      </c>
+      <c r="M236">
+        <v>3.25</v>
+      </c>
+      <c r="N236">
+        <v>3.4</v>
+      </c>
+      <c r="O236">
+        <v>2.2</v>
+      </c>
+      <c r="P236">
+        <v>0.25</v>
+      </c>
+      <c r="Q236">
+        <v>1.875</v>
+      </c>
+      <c r="R236">
+        <v>1.925</v>
+      </c>
+      <c r="S236">
+        <v>2.5</v>
+      </c>
+      <c r="T236">
+        <v>1.875</v>
+      </c>
+      <c r="U236">
+        <v>1.925</v>
+      </c>
+      <c r="V236">
+        <v>2.25</v>
+      </c>
+      <c r="W236">
+        <v>-1</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
+        <v>0.875</v>
+      </c>
+      <c r="Z236">
+        <v>-1</v>
+      </c>
+      <c r="AA236">
+        <v>0.875</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:28">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>8127901</v>
+      </c>
+      <c r="C237" t="s">
+        <v>29</v>
+      </c>
+      <c r="D237" s="2">
+        <v>45407.92013888889</v>
+      </c>
+      <c r="E237" t="s">
+        <v>38</v>
+      </c>
+      <c r="F237" t="s">
+        <v>30</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
+        <v>51</v>
+      </c>
+      <c r="J237">
+        <v>2.25</v>
+      </c>
+      <c r="K237">
+        <v>3.2</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
+      </c>
+      <c r="M237">
+        <v>3.3</v>
+      </c>
+      <c r="N237">
+        <v>2.8</v>
+      </c>
+      <c r="O237">
+        <v>2.55</v>
+      </c>
+      <c r="P237">
+        <v>0.25</v>
+      </c>
+      <c r="Q237">
+        <v>1.725</v>
+      </c>
+      <c r="R237">
+        <v>2.075</v>
+      </c>
+      <c r="S237">
+        <v>1.75</v>
+      </c>
+      <c r="T237">
+        <v>1.95</v>
+      </c>
+      <c r="U237">
+        <v>1.85</v>
+      </c>
+      <c r="V237">
+        <v>-1</v>
+      </c>
+      <c r="W237">
+        <v>-1</v>
+      </c>
+      <c r="X237">
+        <v>1.55</v>
+      </c>
+      <c r="Y237">
+        <v>-1</v>
+      </c>
+      <c r="Z237">
+        <v>1.075</v>
+      </c>
+      <c r="AA237">
+        <v>-1</v>
+      </c>
+      <c r="AB237">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:28">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>8134907</v>
+      </c>
+      <c r="C238" t="s">
+        <v>29</v>
+      </c>
+      <c r="D238" s="2">
+        <v>45408.00347222222</v>
+      </c>
+      <c r="E238" t="s">
+        <v>35</v>
+      </c>
+      <c r="F238" t="s">
+        <v>39</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238" t="s">
+        <v>50</v>
+      </c>
+      <c r="J238">
+        <v>2.3</v>
+      </c>
+      <c r="K238">
+        <v>3.4</v>
+      </c>
+      <c r="L238">
+        <v>2.75</v>
+      </c>
+      <c r="M238">
+        <v>2.45</v>
+      </c>
+      <c r="N238">
+        <v>3.6</v>
+      </c>
+      <c r="O238">
+        <v>2.625</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>1.95</v>
+      </c>
+      <c r="R238">
+        <v>1.85</v>
+      </c>
+      <c r="S238">
+        <v>3</v>
+      </c>
+      <c r="T238">
+        <v>1.9</v>
+      </c>
+      <c r="U238">
+        <v>1.9</v>
+      </c>
+      <c r="V238">
+        <v>-1</v>
+      </c>
+      <c r="W238">
+        <v>2.6</v>
+      </c>
+      <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>-1</v>
+      </c>
+      <c r="AB238">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:28">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>27</v>
+      </c>
+      <c r="C239" t="s">
+        <v>29</v>
+      </c>
+      <c r="D239" s="2">
+        <v>45409.83333333334</v>
+      </c>
+      <c r="E239" t="s">
+        <v>31</v>
+      </c>
+      <c r="F239" t="s">
+        <v>36</v>
+      </c>
+      <c r="J239">
+        <v>1.7</v>
+      </c>
+      <c r="K239">
+        <v>3.8</v>
+      </c>
+      <c r="L239">
+        <v>4</v>
+      </c>
+      <c r="M239">
+        <v>1.55</v>
+      </c>
+      <c r="N239">
+        <v>4</v>
+      </c>
+      <c r="O239">
+        <v>5.25</v>
+      </c>
+      <c r="P239">
+        <v>-1</v>
+      </c>
+      <c r="Q239">
+        <v>1.9</v>
+      </c>
+      <c r="R239">
+        <v>1.9</v>
+      </c>
+      <c r="S239">
+        <v>2.75</v>
+      </c>
+      <c r="T239">
+        <v>1.8</v>
+      </c>
+      <c r="U239">
+        <v>2</v>
+      </c>
+      <c r="V239">
+        <v>0</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:28">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
         <v>28</v>
       </c>
-      <c r="C236" t="s">
-        <v>29</v>
-      </c>
-      <c r="D236" s="2">
+      <c r="C240" t="s">
+        <v>29</v>
+      </c>
+      <c r="D240" s="2">
         <v>45409.92013888889</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E240" t="s">
         <v>32</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F240" t="s">
         <v>44</v>
       </c>
-      <c r="J236">
+      <c r="J240">
         <v>1.909</v>
       </c>
-      <c r="K236">
+      <c r="K240">
         <v>3.5</v>
       </c>
-      <c r="L236">
+      <c r="L240">
         <v>3.5</v>
       </c>
-      <c r="M236">
+      <c r="M240">
+        <v>1.909</v>
+      </c>
+      <c r="N240">
+        <v>3.6</v>
+      </c>
+      <c r="O240">
+        <v>3.5</v>
+      </c>
+      <c r="P240">
+        <v>-0.5</v>
+      </c>
+      <c r="Q240">
         <v>1.95</v>
       </c>
-      <c r="N236">
-        <v>3.5</v>
-      </c>
-      <c r="O236">
-        <v>3.4</v>
-      </c>
-      <c r="P236">
-        <v>-0.5</v>
-      </c>
-      <c r="Q236">
-        <v>2</v>
-      </c>
-      <c r="R236">
+      <c r="R240">
+        <v>1.85</v>
+      </c>
+      <c r="S240">
+        <v>2.5</v>
+      </c>
+      <c r="T240">
         <v>1.8</v>
       </c>
-      <c r="S236">
-        <v>2.75</v>
-      </c>
-      <c r="T236">
-        <v>1.975</v>
-      </c>
-      <c r="U236">
-        <v>1.825</v>
-      </c>
-      <c r="V236">
-        <v>0</v>
-      </c>
-      <c r="W236">
-        <v>0</v>
-      </c>
-      <c r="X236">
+      <c r="U240">
+        <v>2</v>
+      </c>
+      <c r="V240">
+        <v>0</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -21031,7 +21031,7 @@
         <v>4</v>
       </c>
       <c r="M239">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="N239">
         <v>4</v>
@@ -21043,10 +21043,10 @@
         <v>-1</v>
       </c>
       <c r="Q239">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R239">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S239">
         <v>2.75</v>
@@ -21096,22 +21096,22 @@
         <v>3.5</v>
       </c>
       <c r="M240">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="N240">
         <v>3.6</v>
       </c>
       <c r="O240">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P240">
         <v>-0.5</v>
       </c>
       <c r="Q240">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S240">
         <v>2.5</v>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -97,10 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8127905</t>
+    <t>8127903</t>
   </si>
   <si>
-    <t>8127904</t>
+    <t>8127899</t>
   </si>
   <si>
     <t>Mexico Liga de Expansion</t>
@@ -151,16 +151,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Monterrey U23</t>
+  </si>
+  <si>
     <t>Unam Pumas U23</t>
   </si>
   <si>
-    <t>Monterrey U23</t>
+    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>Tijuana U23</t>
-  </si>
-  <si>
-    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>H</t>
@@ -16449,7 +16449,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -16464,52 +16464,52 @@
         <v>47</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I186" t="s">
         <v>49</v>
       </c>
       <c r="J186">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L186">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M186">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q186">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R186">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
         <v>2.75</v>
       </c>
       <c r="T186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -16518,16 +16518,16 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16535,7 +16535,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -16550,52 +16550,52 @@
         <v>48</v>
       </c>
       <c r="G187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="s">
         <v>49</v>
       </c>
       <c r="J187">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="K187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L187">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M187">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N187">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P187">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q187">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
         <v>2.75</v>
       </c>
       <c r="T187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -16604,16 +16604,16 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -21013,49 +21013,49 @@
         <v>29</v>
       </c>
       <c r="D239" s="2">
-        <v>45409.83333333334</v>
+        <v>45410.83333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J239">
+        <v>1.8</v>
+      </c>
+      <c r="K239">
+        <v>3.25</v>
+      </c>
+      <c r="L239">
+        <v>4.333</v>
+      </c>
+      <c r="M239">
         <v>1.7</v>
       </c>
-      <c r="K239">
-        <v>3.8</v>
-      </c>
-      <c r="L239">
-        <v>4</v>
-      </c>
-      <c r="M239">
-        <v>1.533</v>
-      </c>
       <c r="N239">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O239">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P239">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q239">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R239">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S239">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T239">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U239">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
         <v>0</v>
@@ -21078,43 +21078,43 @@
         <v>29</v>
       </c>
       <c r="D240" s="2">
-        <v>45409.92013888889</v>
+        <v>45410.92013888889</v>
       </c>
       <c r="E240" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F240" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J240">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="K240">
+        <v>3.4</v>
+      </c>
+      <c r="L240">
+        <v>3.1</v>
+      </c>
+      <c r="M240">
+        <v>2.1</v>
+      </c>
+      <c r="N240">
+        <v>3.4</v>
+      </c>
+      <c r="O240">
         <v>3.5</v>
       </c>
-      <c r="L240">
-        <v>3.5</v>
-      </c>
-      <c r="M240">
-        <v>1.95</v>
-      </c>
-      <c r="N240">
-        <v>3.6</v>
-      </c>
-      <c r="O240">
-        <v>3.4</v>
-      </c>
       <c r="P240">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q240">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R240">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S240">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T240">
         <v>1.8</v>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -112,28 +112,28 @@
     <t>Correcaminos</t>
   </si>
   <si>
-    <t>Mineros de Zacatecas</t>
+    <t>Tepatitlan FC</t>
   </si>
   <si>
-    <t>Tepatitlan FC</t>
+    <t>Mineros de Zacatecas</t>
   </si>
   <si>
     <t>Club Atletico La Paz</t>
   </si>
   <si>
-    <t>Cancun FC</t>
+    <t>Tlaxcala FC</t>
   </si>
   <si>
-    <t>Tlaxcala FC</t>
+    <t>Cancun FC</t>
   </si>
   <si>
     <t>Universidad Guadalajara</t>
   </si>
   <si>
-    <t>Oaxaca</t>
+    <t>Dorados</t>
   </si>
   <si>
-    <t>Dorados</t>
+    <t>Oaxaca</t>
   </si>
   <si>
     <t>Atletico Morelia</t>
@@ -717,7 +717,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -803,7 +803,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -963,85 +963,85 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6924484</v>
+        <v>6924483</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>45130.92013888889</v>
+        <v>45130.625</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J6">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K6">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="M6">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="N6">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O6">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q6">
+        <v>2.025</v>
+      </c>
+      <c r="R6">
         <v>1.775</v>
       </c>
-      <c r="R6">
-        <v>2.025</v>
-      </c>
       <c r="S6">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1049,85 +1049,85 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6924483</v>
+        <v>6924484</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>45130.625</v>
+        <v>45130.92013888889</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L7">
+        <v>2.3</v>
+      </c>
+      <c r="M7">
+        <v>2.9</v>
+      </c>
+      <c r="N7">
+        <v>3.6</v>
+      </c>
+      <c r="O7">
+        <v>2.375</v>
+      </c>
+      <c r="P7">
+        <v>0.25</v>
+      </c>
+      <c r="Q7">
+        <v>1.775</v>
+      </c>
+      <c r="R7">
+        <v>2.025</v>
+      </c>
+      <c r="S7">
         <v>2.75</v>
       </c>
-      <c r="M7">
-        <v>2.4</v>
-      </c>
-      <c r="N7">
-        <v>3.2</v>
-      </c>
-      <c r="O7">
-        <v>3.1</v>
-      </c>
-      <c r="P7">
-        <v>-0.25</v>
-      </c>
-      <c r="Q7">
-        <v>2.025</v>
-      </c>
-      <c r="R7">
-        <v>1.775</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
       <c r="T7">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1307,82 +1307,82 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6924488</v>
+        <v>6924486</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>45136.92013888889</v>
+        <v>45136.00347222222</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="K10">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L10">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="N10">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O10">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q10">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T10">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA10">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB10">
         <v>-1</v>
@@ -1402,7 +1402,7 @@
         <v>45136.83680555555</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -1479,82 +1479,82 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6924486</v>
+        <v>6924488</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>45136.00347222222</v>
+        <v>45136.92013888889</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="K12">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M12">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O12">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="P12">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T12">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W12">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1651,85 +1651,85 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6924492</v>
+        <v>6924491</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="2">
-        <v>45138.92013888889</v>
+        <v>45138.00347222222</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="K14">
         <v>3.3</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O14">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q14">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R14">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U14">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
         <v>-1</v>
       </c>
       <c r="W14">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1737,85 +1737,85 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6924491</v>
+        <v>6924492</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>45138.00347222222</v>
+        <v>45138.92013888889</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>3.3</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
+        <v>2.3</v>
+      </c>
+      <c r="N15">
         <v>3.3</v>
       </c>
-      <c r="N15">
-        <v>3.6</v>
-      </c>
       <c r="O15">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S15">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T15">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
         <v>-1</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1835,7 +1835,7 @@
         <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1909,22 +1909,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6924495</v>
+        <v>6924494</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="2">
-        <v>45143.92013888889</v>
+        <v>45143.83680555555</v>
       </c>
       <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
       <c r="G17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1933,43 +1933,43 @@
         <v>47</v>
       </c>
       <c r="J17">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="K17">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="M17">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="N17">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="O17">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T17">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>0.615</v>
       </c>
       <c r="W17">
         <v>-1</v>
@@ -1978,13 +1978,13 @@
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Z17">
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB17">
         <v>-1</v>
@@ -1995,22 +1995,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6924494</v>
+        <v>6924495</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="2">
-        <v>45143.83680555555</v>
+        <v>45143.92013888889</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2019,43 +2019,43 @@
         <v>47</v>
       </c>
       <c r="J18">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L18">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="M18">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="N18">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O18">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="P18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T18">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>0.615</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2064,13 +2064,13 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB18">
         <v>-1</v>
@@ -2179,7 +2179,7 @@
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2265,7 +2265,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2606,10 +2606,10 @@
         <v>45149.83680555555</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2692,10 +2692,10 @@
         <v>45150.92013888889</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2864,7 +2864,7 @@
         <v>45151.00347222222</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
@@ -3036,7 +3036,7 @@
         <v>45153.92013888889</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
@@ -3122,10 +3122,10 @@
         <v>45154.00347222222</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -3466,7 +3466,7 @@
         <v>45156.83680555555</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
         <v>41</v>
@@ -3543,85 +3543,85 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6924514</v>
+        <v>7067400</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2">
-        <v>45157.92013888889</v>
+        <v>45157.83680555555</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J36">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="K36">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="N36">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O36">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q36">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3629,85 +3629,85 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7067400</v>
+        <v>6924514</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2">
-        <v>45157.83680555555</v>
+        <v>45157.92013888889</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="K37">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="M37">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N37">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O37">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P37">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S37">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3896,10 +3896,10 @@
         <v>45161.92013888889</v>
       </c>
       <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
         <v>32</v>
-      </c>
-      <c r="F40" t="s">
-        <v>33</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -4071,7 +4071,7 @@
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4157,7 +4157,7 @@
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4243,7 +4243,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -4412,7 +4412,7 @@
         <v>45168.92013888889</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -4501,7 +4501,7 @@
         <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>7</v>
@@ -4584,10 +4584,10 @@
         <v>45168.83333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4759,7 +4759,7 @@
         <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4919,85 +4919,85 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6924530</v>
+        <v>6924529</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2">
-        <v>45174.92013888889</v>
+        <v>45174.83680555555</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J52">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="K52">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L52">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="M52">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="N52">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O52">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="P52">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="R52">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T52">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V52">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="W52">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z52">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>-0.5</v>
       </c>
       <c r="AB52">
-        <v>0.4625</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5005,85 +5005,85 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6924529</v>
+        <v>6924530</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2">
-        <v>45174.83680555555</v>
+        <v>45174.92013888889</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J53">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L53">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="M53">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="N53">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O53">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q53">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T53">
+        <v>1.875</v>
+      </c>
+      <c r="U53">
         <v>1.925</v>
       </c>
-      <c r="U53">
-        <v>1.775</v>
-      </c>
       <c r="V53">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA53">
         <v>-0.5</v>
       </c>
       <c r="AB53">
-        <v>0.3875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5186,10 +5186,10 @@
         <v>45175.92013888889</v>
       </c>
       <c r="E55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" t="s">
         <v>35</v>
-      </c>
-      <c r="F55" t="s">
-        <v>36</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5275,7 +5275,7 @@
         <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5358,10 +5358,10 @@
         <v>45179.00347222222</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5530,7 +5530,7 @@
         <v>45182.92013888889</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
         <v>28</v>
@@ -5616,7 +5616,7 @@
         <v>45182.83680555555</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
         <v>31</v>
@@ -5705,7 +5705,7 @@
         <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5791,7 +5791,7 @@
         <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>4</v>
@@ -5951,85 +5951,85 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6924542</v>
+        <v>6924541</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2">
-        <v>45186.83680555555</v>
+        <v>45186.00347222222</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="K64">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L64">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M64">
         <v>2</v>
       </c>
       <c r="N64">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O64">
         <v>3.6</v>
       </c>
       <c r="P64">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q64">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T64">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W64">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>0.4125</v>
+      </c>
+      <c r="AB64">
         <v>-0.5</v>
-      </c>
-      <c r="Z64">
-        <v>0.475</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>0.95</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6037,85 +6037,85 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6924541</v>
+        <v>6924542</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2">
-        <v>45186.00347222222</v>
+        <v>45186.83680555555</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J65">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L65">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
         <v>2</v>
       </c>
       <c r="N65">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O65">
         <v>3.6</v>
       </c>
       <c r="P65">
+        <v>-0.25</v>
+      </c>
+      <c r="Q65">
+        <v>1.75</v>
+      </c>
+      <c r="R65">
+        <v>1.95</v>
+      </c>
+      <c r="S65">
+        <v>2.5</v>
+      </c>
+      <c r="T65">
+        <v>1.85</v>
+      </c>
+      <c r="U65">
+        <v>1.95</v>
+      </c>
+      <c r="V65">
+        <v>-1</v>
+      </c>
+      <c r="W65">
+        <v>2.75</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
         <v>-0.5</v>
       </c>
-      <c r="Q65">
-        <v>2</v>
-      </c>
-      <c r="R65">
-        <v>1.8</v>
-      </c>
-      <c r="S65">
-        <v>2.75</v>
-      </c>
-      <c r="T65">
-        <v>1.825</v>
-      </c>
-      <c r="U65">
-        <v>1.975</v>
-      </c>
-      <c r="V65">
-        <v>1</v>
-      </c>
-      <c r="W65">
-        <v>-1</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>1</v>
-      </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA65">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6123,82 +6123,82 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6924543</v>
+        <v>6924544</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2">
-        <v>45188.83680555555</v>
+        <v>45188.92013888889</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J66">
+        <v>2.25</v>
+      </c>
+      <c r="K66">
+        <v>3.1</v>
+      </c>
+      <c r="L66">
+        <v>2.9</v>
+      </c>
+      <c r="M66">
+        <v>2.25</v>
+      </c>
+      <c r="N66">
+        <v>3.25</v>
+      </c>
+      <c r="O66">
+        <v>3.3</v>
+      </c>
+      <c r="P66">
+        <v>-0.25</v>
+      </c>
+      <c r="Q66">
+        <v>1.9</v>
+      </c>
+      <c r="R66">
+        <v>1.9</v>
+      </c>
+      <c r="S66">
+        <v>2.25</v>
+      </c>
+      <c r="T66">
         <v>1.85</v>
       </c>
-      <c r="K66">
-        <v>3.5</v>
-      </c>
-      <c r="L66">
-        <v>3.5</v>
-      </c>
-      <c r="M66">
+      <c r="U66">
         <v>1.95</v>
       </c>
-      <c r="N66">
-        <v>3.6</v>
-      </c>
-      <c r="O66">
-        <v>3.75</v>
-      </c>
-      <c r="P66">
-        <v>-0.5</v>
-      </c>
-      <c r="Q66">
-        <v>1.95</v>
-      </c>
-      <c r="R66">
-        <v>1.85</v>
-      </c>
-      <c r="S66">
-        <v>2.75</v>
-      </c>
-      <c r="T66">
-        <v>1.825</v>
-      </c>
-      <c r="U66">
-        <v>1.975</v>
-      </c>
       <c r="V66">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA66">
-        <v>0.825</v>
       </c>
       <c r="AB66">
         <v>-1</v>
@@ -6209,82 +6209,82 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6924544</v>
+        <v>6924543</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2">
-        <v>45188.92013888889</v>
+        <v>45188.83680555555</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J67">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="K67">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L67">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N67">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O67">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P67">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q67">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA67">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -6295,85 +6295,85 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6924547</v>
+        <v>6924545</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>45189.92013888889</v>
+        <v>45189.00347222222</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K68">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N68">
         <v>3.75</v>
       </c>
       <c r="O68">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P68">
+        <v>-0.25</v>
+      </c>
+      <c r="Q68">
+        <v>1.875</v>
+      </c>
+      <c r="R68">
+        <v>1.925</v>
+      </c>
+      <c r="S68">
+        <v>3</v>
+      </c>
+      <c r="T68">
+        <v>2</v>
+      </c>
+      <c r="U68">
+        <v>1.8</v>
+      </c>
+      <c r="V68">
+        <v>-1</v>
+      </c>
+      <c r="W68">
+        <v>2.75</v>
+      </c>
+      <c r="X68">
+        <v>-1</v>
+      </c>
+      <c r="Y68">
         <v>-0.5</v>
       </c>
-      <c r="Q68">
-        <v>1.9</v>
-      </c>
-      <c r="R68">
-        <v>1.9</v>
-      </c>
-      <c r="S68">
-        <v>2.75</v>
-      </c>
-      <c r="T68">
-        <v>1.825</v>
-      </c>
-      <c r="U68">
-        <v>1.975</v>
-      </c>
-      <c r="V68">
-        <v>-1</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>2.75</v>
-      </c>
-      <c r="Y68">
-        <v>-1</v>
-      </c>
       <c r="Z68">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA68">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6381,64 +6381,64 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6924546</v>
+        <v>6924547</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2">
-        <v>45189.83680555555</v>
+        <v>45189.92013888889</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="s">
         <v>49</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K69">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L69">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N69">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O69">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="P69">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q69">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R69">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T69">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
         <v>-1</v>
@@ -6447,19 +6447,19 @@
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA69">
-        <v>0.75</v>
+        <v>0.4125</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -6467,82 +6467,82 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6924545</v>
+        <v>6924546</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2">
-        <v>45189.00347222222</v>
+        <v>45189.83680555555</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G70">
         <v>2</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J70">
+        <v>3</v>
+      </c>
+      <c r="K70">
+        <v>3.2</v>
+      </c>
+      <c r="L70">
+        <v>2.15</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>3.2</v>
+      </c>
+      <c r="O70">
+        <v>2.45</v>
+      </c>
+      <c r="P70">
+        <v>0.25</v>
+      </c>
+      <c r="Q70">
+        <v>1.75</v>
+      </c>
+      <c r="R70">
         <v>2.05</v>
       </c>
-      <c r="K70">
-        <v>3.4</v>
-      </c>
-      <c r="L70">
-        <v>3</v>
-      </c>
-      <c r="M70">
+      <c r="S70">
         <v>2.25</v>
       </c>
-      <c r="N70">
-        <v>3.75</v>
-      </c>
-      <c r="O70">
-        <v>3.1</v>
-      </c>
-      <c r="P70">
-        <v>-0.25</v>
-      </c>
-      <c r="Q70">
-        <v>1.875</v>
-      </c>
-      <c r="R70">
-        <v>1.925</v>
-      </c>
-      <c r="S70">
-        <v>3</v>
-      </c>
       <c r="T70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
         <v>-1</v>
       </c>
       <c r="W70">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA70">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB70">
         <v>-1</v>
@@ -6651,7 +6651,7 @@
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6737,7 +6737,7 @@
         <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6811,67 +6811,67 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6924552</v>
+        <v>6924551</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2">
-        <v>45196.83680555555</v>
+        <v>45196.00347222222</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="s">
         <v>47</v>
       </c>
       <c r="J74">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="K74">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="M74">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O74">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q74">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T74">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -6880,13 +6880,13 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -6897,67 +6897,67 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6924551</v>
+        <v>6924552</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2">
-        <v>45196.00347222222</v>
+        <v>45196.83680555555</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
         <v>47</v>
       </c>
       <c r="J75">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="K75">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="L75">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="N75">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P75">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q75">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -6966,13 +6966,13 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB75">
         <v>-1</v>
@@ -6995,7 +6995,7 @@
         <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -7081,7 +7081,7 @@
         <v>42</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7253,7 +7253,7 @@
         <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7336,10 +7336,10 @@
         <v>45203.00347222222</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7422,7 +7422,7 @@
         <v>45203.92013888889</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
         <v>29</v>
@@ -7499,85 +7499,85 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6924561</v>
+        <v>6924558</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2">
-        <v>45204.00347222222</v>
+        <v>45204.92013888889</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J82">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K82">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L82">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="N82">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O82">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P82">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q82">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T82">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U82">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W82">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7671,85 +7671,85 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6924558</v>
+        <v>6924561</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2">
-        <v>45204.92013888889</v>
+        <v>45204.00347222222</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J84">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="K84">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L84">
+        <v>5.25</v>
+      </c>
+      <c r="M84">
+        <v>1.55</v>
+      </c>
+      <c r="N84">
+        <v>4.5</v>
+      </c>
+      <c r="O84">
+        <v>5.25</v>
+      </c>
+      <c r="P84">
+        <v>-1</v>
+      </c>
+      <c r="Q84">
+        <v>1.825</v>
+      </c>
+      <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
         <v>3</v>
       </c>
-      <c r="M84">
-        <v>2.25</v>
-      </c>
-      <c r="N84">
+      <c r="T84">
+        <v>2.025</v>
+      </c>
+      <c r="U84">
+        <v>1.775</v>
+      </c>
+      <c r="V84">
+        <v>-1</v>
+      </c>
+      <c r="W84">
         <v>3.5</v>
       </c>
-      <c r="O84">
-        <v>3.2</v>
-      </c>
-      <c r="P84">
-        <v>-0.25</v>
-      </c>
-      <c r="Q84">
-        <v>1.875</v>
-      </c>
-      <c r="R84">
-        <v>1.925</v>
-      </c>
-      <c r="S84">
-        <v>2.75</v>
-      </c>
-      <c r="T84">
-        <v>1.9</v>
-      </c>
-      <c r="U84">
-        <v>1.9</v>
-      </c>
-      <c r="V84">
-        <v>1.25</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7852,7 +7852,7 @@
         <v>45205.00347222222</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
         <v>34</v>
@@ -8024,10 +8024,10 @@
         <v>45212.83680555555</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8101,64 +8101,64 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6924566</v>
+        <v>6924567</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2">
-        <v>45213.00347222222</v>
+        <v>45213.83680555555</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I89" t="s">
         <v>49</v>
       </c>
       <c r="J89">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K89">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M89">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="N89">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R89">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T89">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
         <v>-1</v>
@@ -8167,19 +8167,19 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8187,85 +8187,85 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6924567</v>
+        <v>6924566</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2">
-        <v>45213.83680555555</v>
+        <v>45213.00347222222</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
         <v>49</v>
       </c>
       <c r="J90">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K90">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L90">
+        <v>3.1</v>
+      </c>
+      <c r="M90">
+        <v>1.909</v>
+      </c>
+      <c r="N90">
+        <v>3.75</v>
+      </c>
+      <c r="O90">
+        <v>3.8</v>
+      </c>
+      <c r="P90">
+        <v>-0.5</v>
+      </c>
+      <c r="Q90">
+        <v>1.95</v>
+      </c>
+      <c r="R90">
+        <v>1.85</v>
+      </c>
+      <c r="S90">
         <v>3</v>
       </c>
-      <c r="M90">
-        <v>2.6</v>
-      </c>
-      <c r="N90">
-        <v>3.2</v>
-      </c>
-      <c r="O90">
+      <c r="T90">
+        <v>1.975</v>
+      </c>
+      <c r="U90">
+        <v>1.825</v>
+      </c>
+      <c r="V90">
+        <v>-1</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
         <v>2.8</v>
       </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>1.825</v>
-      </c>
-      <c r="R90">
-        <v>1.975</v>
-      </c>
-      <c r="S90">
-        <v>2.5</v>
-      </c>
-      <c r="T90">
-        <v>1.875</v>
-      </c>
-      <c r="U90">
-        <v>1.925</v>
-      </c>
-      <c r="V90">
-        <v>-1</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
-      <c r="X90">
-        <v>1.8</v>
-      </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8285,7 +8285,7 @@
         <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>4</v>
@@ -8457,7 +8457,7 @@
         <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8626,7 +8626,7 @@
         <v>45223.92013888889</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
         <v>41</v>
@@ -8712,10 +8712,10 @@
         <v>45224.92013888889</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8798,7 +8798,7 @@
         <v>45225.00347222222</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
         <v>42</v>
@@ -8887,7 +8887,7 @@
         <v>28</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -9145,7 +9145,7 @@
         <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9228,7 +9228,7 @@
         <v>45230.83680555555</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
         <v>28</v>
@@ -9305,85 +9305,85 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6924581</v>
+        <v>6924582</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="2">
-        <v>45231.83680555555</v>
+        <v>45231.92013888889</v>
       </c>
       <c r="E103" t="s">
         <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J103">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="K103">
+        <v>3.5</v>
+      </c>
+      <c r="L103">
+        <v>2.9</v>
+      </c>
+      <c r="M103">
+        <v>2.15</v>
+      </c>
+      <c r="N103">
         <v>3.6</v>
       </c>
-      <c r="L103">
-        <v>1.8</v>
-      </c>
-      <c r="M103">
-        <v>6</v>
-      </c>
-      <c r="N103">
-        <v>4.2</v>
-      </c>
       <c r="O103">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q103">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
         <v>3</v>
       </c>
       <c r="T103">
+        <v>1.95</v>
+      </c>
+      <c r="U103">
         <v>1.85</v>
       </c>
-      <c r="U103">
-        <v>1.95</v>
-      </c>
       <c r="V103">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9391,85 +9391,85 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6924582</v>
+        <v>6924581</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
       </c>
       <c r="D104" s="2">
-        <v>45231.92013888889</v>
+        <v>45231.83680555555</v>
       </c>
       <c r="E104" t="s">
         <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J104">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="K104">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L104">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="M104">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="P104">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
         <v>3</v>
       </c>
       <c r="T104">
+        <v>1.85</v>
+      </c>
+      <c r="U104">
         <v>1.95</v>
       </c>
-      <c r="U104">
-        <v>1.85</v>
-      </c>
       <c r="V104">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y104">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9575,7 +9575,7 @@
         <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -10174,10 +10174,10 @@
         <v>45246.92013888889</v>
       </c>
       <c r="E113" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" t="s">
         <v>33</v>
-      </c>
-      <c r="F113" t="s">
-        <v>32</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10337,67 +10337,67 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7450712</v>
+        <v>7473836</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2">
-        <v>45248.83680555555</v>
+        <v>45248.92013888889</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
         <v>47</v>
       </c>
       <c r="J115">
-        <v>1.6</v>
+        <v>2.05</v>
       </c>
       <c r="K115">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L115">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="N115">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O115">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q115">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S115">
         <v>2.5</v>
       </c>
       <c r="T115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="W115">
         <v>-1</v>
@@ -10406,16 +10406,16 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10423,67 +10423,67 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7473836</v>
+        <v>7450712</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2">
-        <v>45248.92013888889</v>
+        <v>45248.83680555555</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="s">
         <v>47</v>
       </c>
       <c r="J116">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="K116">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M116">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="N116">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q116">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
         <v>2.5</v>
       </c>
       <c r="T116">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W116">
         <v>-1</v>
@@ -10492,16 +10492,16 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -10518,10 +10518,10 @@
         <v>45249.92013888889</v>
       </c>
       <c r="E117" t="s">
+        <v>33</v>
+      </c>
+      <c r="F117" t="s">
         <v>32</v>
-      </c>
-      <c r="F117" t="s">
-        <v>33</v>
       </c>
       <c r="G117">
         <v>5</v>
@@ -10604,7 +10604,7 @@
         <v>45249.83680555555</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
         <v>29</v>
@@ -10776,10 +10776,10 @@
         <v>45253.91666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10853,58 +10853,58 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7506798</v>
+        <v>7506103</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2">
-        <v>45256.83333333334</v>
+        <v>45256.00347222222</v>
       </c>
       <c r="E121" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J121">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="K121">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L121">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="M121">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N121">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T121">
         <v>1.8</v>
@@ -10913,25 +10913,25 @@
         <v>2</v>
       </c>
       <c r="V121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10939,58 +10939,58 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7506103</v>
+        <v>7506798</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="2">
-        <v>45256.00347222222</v>
+        <v>45256.83333333334</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J122">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="K122">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L122">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="M122">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N122">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O122">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q122">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R122">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T122">
         <v>1.8</v>
@@ -10999,25 +10999,25 @@
         <v>2</v>
       </c>
       <c r="V122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
         <v>0.8</v>
       </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
       <c r="AB122">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11037,7 +11037,7 @@
         <v>28</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11120,7 +11120,7 @@
         <v>45263.79166666666</v>
       </c>
       <c r="E124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
         <v>28</v>
@@ -11292,10 +11292,10 @@
         <v>45301.92013888889</v>
       </c>
       <c r="E126" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" t="s">
         <v>36</v>
-      </c>
-      <c r="F126" t="s">
-        <v>35</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11455,85 +11455,85 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7641633</v>
+        <v>7641634</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2">
-        <v>45302.00347222222</v>
+        <v>45302.92013888889</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J128">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="K128">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M128">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N128">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="P128">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q128">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R128">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S128">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T128">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U128">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z128">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11541,85 +11541,85 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7641634</v>
+        <v>7641633</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="2">
-        <v>45302.92013888889</v>
+        <v>45302.00347222222</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J129">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="K129">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L129">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N129">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="O129">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q129">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S129">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T129">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11636,7 +11636,7 @@
         <v>45303.00347222222</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
         <v>31</v>
@@ -11808,10 +11808,10 @@
         <v>45307.92013888889</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -11980,7 +11980,7 @@
         <v>45309.00347222222</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
         <v>41</v>
@@ -12066,7 +12066,7 @@
         <v>45309.92013888889</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F135" t="s">
         <v>29</v>
@@ -12152,7 +12152,7 @@
         <v>45310.00347222222</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
         <v>30</v>
@@ -12324,7 +12324,7 @@
         <v>45314.92013888889</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
         <v>41</v>
@@ -12413,7 +12413,7 @@
         <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12496,10 +12496,10 @@
         <v>45315.92013888889</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12573,85 +12573,85 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7641645</v>
+        <v>7640642</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
       </c>
       <c r="D141" s="2">
-        <v>45316.00347222222</v>
+        <v>45316.92013888889</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J141">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141">
+        <v>2.875</v>
+      </c>
+      <c r="M141">
+        <v>2.45</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141">
         <v>3.2</v>
-      </c>
-      <c r="L141">
-        <v>2.45</v>
-      </c>
-      <c r="M141">
-        <v>2.15</v>
-      </c>
-      <c r="N141">
-        <v>3.4</v>
-      </c>
-      <c r="O141">
-        <v>3.4</v>
       </c>
       <c r="P141">
         <v>-0.25</v>
       </c>
       <c r="Q141">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R141">
+        <v>1.8</v>
+      </c>
+      <c r="S141">
+        <v>1.75</v>
+      </c>
+      <c r="T141">
+        <v>1.725</v>
+      </c>
+      <c r="U141">
         <v>1.975</v>
       </c>
-      <c r="S141">
-        <v>2.5</v>
-      </c>
-      <c r="T141">
-        <v>2.025</v>
-      </c>
-      <c r="U141">
-        <v>1.775</v>
-      </c>
       <c r="V141">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W141">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
+        <v>1</v>
+      </c>
+      <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.3625</v>
+      </c>
+      <c r="AB141">
         <v>-0.5</v>
-      </c>
-      <c r="Z141">
-        <v>0.4875</v>
-      </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
-      <c r="AB141">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12659,85 +12659,85 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7640642</v>
+        <v>7641645</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
       </c>
       <c r="D142" s="2">
-        <v>45316.92013888889</v>
+        <v>45316.00347222222</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J142">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="K142">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L142">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="M142">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="N142">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
         <v>-0.25</v>
       </c>
       <c r="Q142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T142">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V142">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA142">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12843,7 +12843,7 @@
         <v>40</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12917,19 +12917,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7640643</v>
+        <v>7641648</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
       </c>
       <c r="D145" s="2">
-        <v>45322.83680555555</v>
+        <v>45322.00347222222</v>
       </c>
       <c r="E145" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12941,40 +12941,40 @@
         <v>49</v>
       </c>
       <c r="J145">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K145">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="L145">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M145">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="N145">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O145">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P145">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q145">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
         <v>2.75</v>
       </c>
       <c r="T145">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
         <v>-1</v>
@@ -12983,16 +12983,16 @@
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>0.475</v>
+        <v>0.4625</v>
       </c>
       <c r="AB145">
         <v>-0.5</v>
@@ -13003,65 +13003,65 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7641649</v>
+        <v>7640643</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
       </c>
       <c r="D146" s="2">
-        <v>45322.92013888889</v>
+        <v>45322.83680555555</v>
       </c>
       <c r="E146" t="s">
+        <v>28</v>
+      </c>
+      <c r="F146" t="s">
         <v>39</v>
       </c>
-      <c r="F146" t="s">
-        <v>29</v>
-      </c>
       <c r="G146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="s">
         <v>49</v>
       </c>
       <c r="J146">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="K146">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L146">
+        <v>7</v>
+      </c>
+      <c r="M146">
+        <v>1.4</v>
+      </c>
+      <c r="N146">
+        <v>4.75</v>
+      </c>
+      <c r="O146">
+        <v>7</v>
+      </c>
+      <c r="P146">
+        <v>-1.25</v>
+      </c>
+      <c r="Q146">
+        <v>1.825</v>
+      </c>
+      <c r="R146">
+        <v>1.975</v>
+      </c>
+      <c r="S146">
+        <v>2.75</v>
+      </c>
+      <c r="T146">
+        <v>1.95</v>
+      </c>
+      <c r="U146">
         <v>1.85</v>
       </c>
-      <c r="M146">
-        <v>4</v>
-      </c>
-      <c r="N146">
-        <v>3.75</v>
-      </c>
-      <c r="O146">
-        <v>1.85</v>
-      </c>
-      <c r="P146">
-        <v>0.5</v>
-      </c>
-      <c r="Q146">
-        <v>1.95</v>
-      </c>
-      <c r="R146">
-        <v>1.85</v>
-      </c>
-      <c r="S146">
-        <v>2.5</v>
-      </c>
-      <c r="T146">
-        <v>1.8</v>
-      </c>
-      <c r="U146">
-        <v>2</v>
-      </c>
       <c r="V146">
         <v>-1</v>
       </c>
@@ -13069,19 +13069,19 @@
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>0.8500000000000001</v>
+        <v>6</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13089,64 +13089,64 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7641648</v>
+        <v>7641649</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2">
-        <v>45322.00347222222</v>
+        <v>45322.92013888889</v>
       </c>
       <c r="E147" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147" t="s">
         <v>49</v>
       </c>
       <c r="J147">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="K147">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="L147">
-        <v>6.5</v>
+        <v>1.85</v>
       </c>
       <c r="M147">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O147">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="P147">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q147">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R147">
+        <v>1.85</v>
+      </c>
+      <c r="S147">
+        <v>2.5</v>
+      </c>
+      <c r="T147">
         <v>1.8</v>
       </c>
-      <c r="S147">
-        <v>2.75</v>
-      </c>
-      <c r="T147">
-        <v>1.925</v>
-      </c>
       <c r="U147">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V147">
         <v>-1</v>
@@ -13155,19 +13155,19 @@
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>4.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA147">
         <v>0.8</v>
       </c>
-      <c r="AA147">
-        <v>0.4625</v>
-      </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13175,85 +13175,85 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7641651</v>
+        <v>7641650</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2">
-        <v>45323.92013888889</v>
+        <v>45323.00347222222</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J148">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="K148">
+        <v>3.4</v>
+      </c>
+      <c r="L148">
         <v>3.5</v>
       </c>
-      <c r="L148">
-        <v>3.2</v>
-      </c>
       <c r="M148">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="N148">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="O148">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P148">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q148">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S148">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T148">
+        <v>1.95</v>
+      </c>
+      <c r="U148">
         <v>1.85</v>
       </c>
-      <c r="U148">
-        <v>1.95</v>
-      </c>
       <c r="V148">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13261,85 +13261,85 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7641650</v>
+        <v>7641651</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="2">
-        <v>45323.00347222222</v>
+        <v>45323.92013888889</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J149">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="K149">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L149">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M149">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="N149">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O149">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P149">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q149">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R149">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S149">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T149">
+        <v>1.85</v>
+      </c>
+      <c r="U149">
         <v>1.95</v>
       </c>
-      <c r="U149">
-        <v>1.85</v>
-      </c>
       <c r="V149">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y149">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA149">
+        <v>-1</v>
+      </c>
+      <c r="AB149">
         <v>0.95</v>
-      </c>
-      <c r="AB149">
-        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13356,7 +13356,7 @@
         <v>45324.00347222222</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
         <v>37</v>
@@ -13433,67 +13433,67 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7641653</v>
+        <v>7641659</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="2">
-        <v>45326.79513888889</v>
+        <v>45326.92013888889</v>
       </c>
       <c r="E151" t="s">
+        <v>29</v>
+      </c>
+      <c r="F151" t="s">
         <v>33</v>
       </c>
-      <c r="F151" t="s">
-        <v>40</v>
-      </c>
       <c r="G151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
       </c>
       <c r="J151">
+        <v>2.2</v>
+      </c>
+      <c r="K151">
+        <v>3.4</v>
+      </c>
+      <c r="L151">
+        <v>3.3</v>
+      </c>
+      <c r="M151">
+        <v>1.95</v>
+      </c>
+      <c r="N151">
+        <v>3.75</v>
+      </c>
+      <c r="O151">
+        <v>3.75</v>
+      </c>
+      <c r="P151">
+        <v>-0.5</v>
+      </c>
+      <c r="Q151">
+        <v>2</v>
+      </c>
+      <c r="R151">
+        <v>1.8</v>
+      </c>
+      <c r="S151">
         <v>3</v>
       </c>
-      <c r="K151">
-        <v>3.1</v>
-      </c>
-      <c r="L151">
-        <v>2.25</v>
-      </c>
-      <c r="M151">
-        <v>3.3</v>
-      </c>
-      <c r="N151">
-        <v>3.2</v>
-      </c>
-      <c r="O151">
-        <v>2.25</v>
-      </c>
-      <c r="P151">
-        <v>0.25</v>
-      </c>
-      <c r="Q151">
-        <v>1.9</v>
-      </c>
-      <c r="R151">
-        <v>1.9</v>
-      </c>
-      <c r="S151">
-        <v>2.25</v>
-      </c>
       <c r="T151">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U151">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V151">
-        <v>2.3</v>
+        <v>0.95</v>
       </c>
       <c r="W151">
         <v>-1</v>
@@ -13502,16 +13502,16 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13519,85 +13519,85 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7641659</v>
+        <v>7641653</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
       </c>
       <c r="D152" s="2">
-        <v>45326.92013888889</v>
+        <v>45326.79513888889</v>
       </c>
       <c r="E152" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G152">
+        <v>2</v>
+      </c>
+      <c r="H152">
         <v>1</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
       </c>
       <c r="J152">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="K152">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L152">
+        <v>2.25</v>
+      </c>
+      <c r="M152">
         <v>3.3</v>
       </c>
-      <c r="M152">
+      <c r="N152">
+        <v>3.2</v>
+      </c>
+      <c r="O152">
+        <v>2.25</v>
+      </c>
+      <c r="P152">
+        <v>0.25</v>
+      </c>
+      <c r="Q152">
+        <v>1.9</v>
+      </c>
+      <c r="R152">
+        <v>1.9</v>
+      </c>
+      <c r="S152">
+        <v>2.25</v>
+      </c>
+      <c r="T152">
         <v>1.95</v>
       </c>
-      <c r="N152">
-        <v>3.75</v>
-      </c>
-      <c r="O152">
-        <v>3.75</v>
-      </c>
-      <c r="P152">
-        <v>-0.5</v>
-      </c>
-      <c r="Q152">
-        <v>2</v>
-      </c>
-      <c r="R152">
-        <v>1.8</v>
-      </c>
-      <c r="S152">
-        <v>3</v>
-      </c>
-      <c r="T152">
-        <v>2</v>
-      </c>
       <c r="U152">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V152">
+        <v>2.3</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z152">
+        <v>-1</v>
+      </c>
+      <c r="AA152">
         <v>0.95</v>
       </c>
-      <c r="W152">
-        <v>-1</v>
-      </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>1</v>
-      </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
-      <c r="AA152">
-        <v>-1</v>
-      </c>
       <c r="AB152">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13617,7 +13617,7 @@
         <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13700,7 +13700,7 @@
         <v>45328.92013888889</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F154" t="s">
         <v>31</v>
@@ -13863,82 +13863,82 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7641656</v>
+        <v>7641658</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
       </c>
       <c r="D156" s="2">
-        <v>45330.00347222222</v>
+        <v>45330.92013888889</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G156">
+        <v>3</v>
+      </c>
+      <c r="H156">
         <v>1</v>
       </c>
-      <c r="H156">
-        <v>2</v>
-      </c>
       <c r="I156" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J156">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="K156">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M156">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N156">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O156">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q156">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S156">
         <v>2.5</v>
       </c>
       <c r="T156">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U156">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V156">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z156">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB156">
         <v>-1</v>
@@ -13949,82 +13949,82 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7641658</v>
+        <v>7641656</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="2">
-        <v>45330.92013888889</v>
+        <v>45330.00347222222</v>
       </c>
       <c r="E157" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J157">
+        <v>2.05</v>
+      </c>
+      <c r="K157">
+        <v>3.4</v>
+      </c>
+      <c r="L157">
+        <v>3.5</v>
+      </c>
+      <c r="M157">
+        <v>2.05</v>
+      </c>
+      <c r="N157">
+        <v>3.4</v>
+      </c>
+      <c r="O157">
+        <v>3.75</v>
+      </c>
+      <c r="P157">
+        <v>-0.5</v>
+      </c>
+      <c r="Q157">
+        <v>2</v>
+      </c>
+      <c r="R157">
         <v>1.8</v>
-      </c>
-      <c r="K157">
-        <v>3.6</v>
-      </c>
-      <c r="L157">
-        <v>4.333</v>
-      </c>
-      <c r="M157">
-        <v>1.65</v>
-      </c>
-      <c r="N157">
-        <v>4</v>
-      </c>
-      <c r="O157">
-        <v>5.25</v>
-      </c>
-      <c r="P157">
-        <v>-1</v>
-      </c>
-      <c r="Q157">
-        <v>1.95</v>
-      </c>
-      <c r="R157">
-        <v>1.75</v>
       </c>
       <c r="S157">
         <v>2.5</v>
       </c>
       <c r="T157">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V157">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA157">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB157">
         <v>-1</v>
@@ -14047,7 +14047,7 @@
         <v>37</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14130,7 +14130,7 @@
         <v>45335.92013888889</v>
       </c>
       <c r="E159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F159" t="s">
         <v>42</v>
@@ -14207,82 +14207,82 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7641670</v>
+        <v>7641661</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
       </c>
       <c r="D160" s="2">
-        <v>45336.92013888889</v>
+        <v>45336.00347222222</v>
       </c>
       <c r="E160" t="s">
         <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160" t="s">
+        <v>47</v>
+      </c>
+      <c r="J160">
+        <v>3.1</v>
+      </c>
+      <c r="K160">
+        <v>3.5</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
         <v>3</v>
       </c>
-      <c r="I160" t="s">
-        <v>49</v>
-      </c>
-      <c r="J160">
-        <v>2.5</v>
-      </c>
-      <c r="K160">
-        <v>3.4</v>
-      </c>
-      <c r="L160">
-        <v>2.45</v>
-      </c>
-      <c r="M160">
-        <v>3.1</v>
-      </c>
       <c r="N160">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O160">
         <v>2.3</v>
       </c>
       <c r="P160">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q160">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S160">
         <v>2.5</v>
       </c>
       <c r="T160">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U160">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14293,82 +14293,82 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7641661</v>
+        <v>7641670</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
       </c>
       <c r="D161" s="2">
-        <v>45336.00347222222</v>
+        <v>45336.92013888889</v>
       </c>
       <c r="E161" t="s">
         <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
         <v>3</v>
       </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
       <c r="I161" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J161">
+        <v>2.5</v>
+      </c>
+      <c r="K161">
+        <v>3.4</v>
+      </c>
+      <c r="L161">
+        <v>2.45</v>
+      </c>
+      <c r="M161">
         <v>3.1</v>
       </c>
-      <c r="K161">
-        <v>3.5</v>
-      </c>
-      <c r="L161">
-        <v>2</v>
-      </c>
-      <c r="M161">
-        <v>3</v>
-      </c>
       <c r="N161">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O161">
         <v>2.3</v>
       </c>
       <c r="P161">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q161">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R161">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S161">
         <v>2.5</v>
       </c>
       <c r="T161">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA161">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB161">
         <v>-1</v>
@@ -14379,85 +14379,85 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7641672</v>
+        <v>7641671</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
       </c>
       <c r="D162" s="2">
-        <v>45338.92013888889</v>
+        <v>45338.00347222222</v>
       </c>
       <c r="E162" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J162">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="K162">
         <v>3.4</v>
       </c>
       <c r="L162">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="M162">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N162">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O162">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="P162">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q162">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T162">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
         <v>-1</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X162">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14465,85 +14465,85 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7641671</v>
+        <v>7641672</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
       </c>
       <c r="D163" s="2">
-        <v>45338.00347222222</v>
+        <v>45338.92013888889</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J163">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="K163">
         <v>3.4</v>
       </c>
       <c r="L163">
+        <v>2.6</v>
+      </c>
+      <c r="M163">
+        <v>2.1</v>
+      </c>
+      <c r="N163">
+        <v>3.3</v>
+      </c>
+      <c r="O163">
+        <v>3.6</v>
+      </c>
+      <c r="P163">
+        <v>-0.25</v>
+      </c>
+      <c r="Q163">
+        <v>1.8</v>
+      </c>
+      <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
         <v>2.25</v>
       </c>
-      <c r="M163">
-        <v>3.6</v>
-      </c>
-      <c r="N163">
-        <v>3.8</v>
-      </c>
-      <c r="O163">
+      <c r="T163">
+        <v>1.75</v>
+      </c>
+      <c r="U163">
         <v>1.95</v>
       </c>
-      <c r="P163">
-        <v>0.5</v>
-      </c>
-      <c r="Q163">
-        <v>1.825</v>
-      </c>
-      <c r="R163">
-        <v>1.975</v>
-      </c>
-      <c r="S163">
-        <v>2.75</v>
-      </c>
-      <c r="T163">
-        <v>1.875</v>
-      </c>
-      <c r="U163">
-        <v>1.925</v>
-      </c>
       <c r="V163">
         <v>-1</v>
       </c>
       <c r="W163">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y163">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB163">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14732,10 +14732,10 @@
         <v>45342.92013888889</v>
       </c>
       <c r="E166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14809,67 +14809,67 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7641676</v>
+        <v>7641675</v>
       </c>
       <c r="C167" t="s">
         <v>27</v>
       </c>
       <c r="D167" s="2">
-        <v>45343.92013888889</v>
+        <v>45343.00347222222</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G167">
+        <v>3</v>
+      </c>
+      <c r="H167">
         <v>1</v>
-      </c>
-      <c r="H167">
-        <v>0</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
       </c>
       <c r="J167">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="K167">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L167">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="M167">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="N167">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O167">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="P167">
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R167">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S167">
         <v>2.25</v>
       </c>
       <c r="T167">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V167">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="W167">
         <v>-1</v>
@@ -14878,16 +14878,16 @@
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -14895,67 +14895,67 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7641675</v>
+        <v>7641676</v>
       </c>
       <c r="C168" t="s">
         <v>27</v>
       </c>
       <c r="D168" s="2">
-        <v>45343.00347222222</v>
+        <v>45343.92013888889</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
       </c>
       <c r="J168">
+        <v>3.4</v>
+      </c>
+      <c r="K168">
+        <v>3.3</v>
+      </c>
+      <c r="L168">
+        <v>2.1</v>
+      </c>
+      <c r="M168">
+        <v>2.9</v>
+      </c>
+      <c r="N168">
+        <v>3.4</v>
+      </c>
+      <c r="O168">
         <v>2.45</v>
       </c>
-      <c r="K168">
-        <v>3.25</v>
-      </c>
-      <c r="L168">
-        <v>2.875</v>
-      </c>
-      <c r="M168">
-        <v>2.55</v>
-      </c>
-      <c r="N168">
-        <v>3.25</v>
-      </c>
-      <c r="O168">
-        <v>2.875</v>
-      </c>
       <c r="P168">
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S168">
         <v>2.25</v>
       </c>
       <c r="T168">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="U168">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -14964,16 +14964,16 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:28">
@@ -14981,22 +14981,22 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7641678</v>
+        <v>7641674</v>
       </c>
       <c r="C169" t="s">
         <v>27</v>
       </c>
       <c r="D169" s="2">
-        <v>45344.92013888889</v>
+        <v>45344.00347222222</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15005,43 +15005,43 @@
         <v>47</v>
       </c>
       <c r="J169">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K169">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L169">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M169">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="N169">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O169">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P169">
         <v>-0.5</v>
       </c>
       <c r="Q169">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S169">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T169">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V169">
-        <v>0.8500000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="W169">
         <v>-1</v>
@@ -15050,16 +15050,16 @@
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB169">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:28">
@@ -15067,22 +15067,22 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7641674</v>
+        <v>7641678</v>
       </c>
       <c r="C170" t="s">
         <v>27</v>
       </c>
       <c r="D170" s="2">
-        <v>45344.00347222222</v>
+        <v>45344.92013888889</v>
       </c>
       <c r="E170" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15091,43 +15091,43 @@
         <v>47</v>
       </c>
       <c r="J170">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K170">
+        <v>3.5</v>
+      </c>
+      <c r="L170">
+        <v>4.5</v>
+      </c>
+      <c r="M170">
+        <v>1.85</v>
+      </c>
+      <c r="N170">
         <v>3.4</v>
       </c>
-      <c r="L170">
-        <v>3.6</v>
-      </c>
-      <c r="M170">
-        <v>1.833</v>
-      </c>
-      <c r="N170">
-        <v>3.8</v>
-      </c>
       <c r="O170">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P170">
         <v>-0.5</v>
       </c>
       <c r="Q170">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R170">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S170">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T170">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U170">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V170">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W170">
         <v>-1</v>
@@ -15136,16 +15136,16 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15165,7 +15165,7 @@
         <v>34</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15251,7 +15251,7 @@
         <v>42</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15411,19 +15411,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7641681</v>
+        <v>7641682</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
       </c>
       <c r="D174" s="2">
-        <v>45350.00347222222</v>
+        <v>45350.92013888889</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15435,40 +15435,40 @@
         <v>48</v>
       </c>
       <c r="J174">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="K174">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L174">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="M174">
-        <v>1.727</v>
+        <v>3.3</v>
       </c>
       <c r="N174">
         <v>3.75</v>
       </c>
       <c r="O174">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="P174">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q174">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S174">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T174">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U174">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V174">
         <v>-1</v>
@@ -15480,16 +15480,16 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z174">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15497,19 +15497,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7641682</v>
+        <v>7641681</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
       </c>
       <c r="D175" s="2">
-        <v>45350.92013888889</v>
+        <v>45350.00347222222</v>
       </c>
       <c r="E175" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15521,40 +15521,40 @@
         <v>48</v>
       </c>
       <c r="J175">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="K175">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L175">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="M175">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="N175">
         <v>3.75</v>
       </c>
       <c r="O175">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="P175">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q175">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R175">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
         <v>-1</v>
@@ -15566,16 +15566,16 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15592,7 +15592,7 @@
         <v>45351.92013888889</v>
       </c>
       <c r="E176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F176" t="s">
         <v>42</v>
@@ -15767,7 +15767,7 @@
         <v>31</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15850,7 +15850,7 @@
         <v>45353.83680555555</v>
       </c>
       <c r="E179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F179" t="s">
         <v>34</v>
@@ -15939,7 +15939,7 @@
         <v>28</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -16013,85 +16013,85 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7641687</v>
+        <v>7641688</v>
       </c>
       <c r="C181" t="s">
         <v>27</v>
       </c>
       <c r="D181" s="2">
-        <v>45357.00347222222</v>
+        <v>45357.92013888889</v>
       </c>
       <c r="E181" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J181">
+        <v>1.571</v>
+      </c>
+      <c r="K181">
+        <v>3.6</v>
+      </c>
+      <c r="L181">
+        <v>5.25</v>
+      </c>
+      <c r="M181">
         <v>1.65</v>
       </c>
-      <c r="K181">
-        <v>3.5</v>
-      </c>
-      <c r="L181">
-        <v>4.5</v>
-      </c>
-      <c r="M181">
-        <v>1.5</v>
-      </c>
       <c r="N181">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O181">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="P181">
         <v>-1</v>
       </c>
       <c r="Q181">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
         <v>2.5</v>
       </c>
       <c r="T181">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U181">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V181">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
         <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16099,85 +16099,85 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7641688</v>
+        <v>7641687</v>
       </c>
       <c r="C182" t="s">
         <v>27</v>
       </c>
       <c r="D182" s="2">
-        <v>45357.92013888889</v>
+        <v>45357.00347222222</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J182">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="K182">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L182">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="M182">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="N182">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O182">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="P182">
         <v>-1</v>
       </c>
       <c r="Q182">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R182">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S182">
         <v>2.5</v>
       </c>
       <c r="T182">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U182">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V182">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y182">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16185,49 +16185,49 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7641690</v>
+        <v>7641689</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
       </c>
       <c r="D183" s="2">
-        <v>45358.92013888889</v>
+        <v>45358.00347222222</v>
       </c>
       <c r="E183" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="s">
         <v>47</v>
       </c>
       <c r="J183">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="K183">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L183">
-        <v>4.333</v>
+        <v>1.833</v>
       </c>
       <c r="M183">
-        <v>1.55</v>
+        <v>3.3</v>
       </c>
       <c r="N183">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O183">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="P183">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q183">
         <v>1.85</v>
@@ -16236,16 +16236,16 @@
         <v>1.95</v>
       </c>
       <c r="S183">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T183">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U183">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V183">
-        <v>0.55</v>
+        <v>2.3</v>
       </c>
       <c r="W183">
         <v>-1</v>
@@ -16260,10 +16260,10 @@
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16271,49 +16271,49 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7641689</v>
+        <v>7641690</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
       </c>
       <c r="D184" s="2">
-        <v>45358.00347222222</v>
+        <v>45358.92013888889</v>
       </c>
       <c r="E184" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="s">
         <v>47</v>
       </c>
       <c r="J184">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="K184">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L184">
-        <v>1.833</v>
+        <v>4.333</v>
       </c>
       <c r="M184">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="N184">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O184">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="P184">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q184">
         <v>1.85</v>
@@ -16322,16 +16322,16 @@
         <v>1.95</v>
       </c>
       <c r="S184">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T184">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U184">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V184">
-        <v>2.3</v>
+        <v>0.55</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16346,10 +16346,10 @@
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -16369,7 +16369,7 @@
         <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16443,85 +16443,85 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7641692</v>
+        <v>7648957</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
       </c>
       <c r="D186" s="2">
-        <v>45361.92013888889</v>
+        <v>45361.5</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G186">
         <v>2</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J186">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="K186">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L186">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M186">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="N186">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O186">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="P186">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q186">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="R186">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S186">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T186">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="U186">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V186">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z186">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16529,85 +16529,85 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648957</v>
+        <v>7641692</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
       </c>
       <c r="D187" s="2">
-        <v>45361.5</v>
+        <v>45361.92013888889</v>
       </c>
       <c r="E187" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F187" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G187">
         <v>2</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J187">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="K187">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L187">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M187">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="N187">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O187">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="P187">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q187">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S187">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T187">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V187">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16710,7 +16710,7 @@
         <v>45363.92013888889</v>
       </c>
       <c r="E189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F189" t="s">
         <v>30</v>
@@ -16799,7 +16799,7 @@
         <v>29</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16882,7 +16882,7 @@
         <v>45364.92013888889</v>
       </c>
       <c r="E191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F191" t="s">
         <v>28</v>
@@ -16971,7 +16971,7 @@
         <v>40</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -17057,7 +17057,7 @@
         <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17315,7 +17315,7 @@
         <v>28</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17398,10 +17398,10 @@
         <v>45370.83680555555</v>
       </c>
       <c r="E197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -17475,85 +17475,85 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7641701</v>
+        <v>7641700</v>
       </c>
       <c r="C198" t="s">
         <v>27</v>
       </c>
       <c r="D198" s="2">
-        <v>45371.83680555555</v>
+        <v>45371.00347222222</v>
       </c>
       <c r="E198" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="s">
         <v>48</v>
       </c>
       <c r="J198">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K198">
+        <v>3.4</v>
+      </c>
+      <c r="L198">
+        <v>3.5</v>
+      </c>
+      <c r="M198">
+        <v>2.45</v>
+      </c>
+      <c r="N198">
         <v>3.3</v>
       </c>
-      <c r="L198">
-        <v>3.2</v>
-      </c>
-      <c r="M198">
-        <v>2.1</v>
-      </c>
-      <c r="N198">
-        <v>3.4</v>
-      </c>
       <c r="O198">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P198">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q198">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="R198">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T198">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U198">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V198">
         <v>-1</v>
       </c>
       <c r="W198">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z198">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA198">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17561,85 +17561,85 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7641700</v>
+        <v>7641702</v>
       </c>
       <c r="C199" t="s">
         <v>27</v>
       </c>
       <c r="D199" s="2">
-        <v>45371.00347222222</v>
+        <v>45371.92013888889</v>
       </c>
       <c r="E199" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="s">
         <v>48</v>
       </c>
       <c r="J199">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="K199">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L199">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M199">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="N199">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O199">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P199">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q199">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R199">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S199">
         <v>2.5</v>
       </c>
       <c r="T199">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V199">
         <v>-1</v>
       </c>
       <c r="W199">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -17647,85 +17647,85 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7641702</v>
+        <v>7641701</v>
       </c>
       <c r="C200" t="s">
         <v>27</v>
       </c>
       <c r="D200" s="2">
-        <v>45371.92013888889</v>
+        <v>45371.83680555555</v>
       </c>
       <c r="E200" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="s">
         <v>48</v>
       </c>
       <c r="J200">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K200">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M200">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N200">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O200">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q200">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T200">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U200">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V200">
         <v>-1</v>
       </c>
       <c r="W200">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z200">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17733,19 +17733,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7641704</v>
+        <v>7641703</v>
       </c>
       <c r="C201" t="s">
         <v>27</v>
       </c>
       <c r="D201" s="2">
-        <v>45372.92013888889</v>
+        <v>45372.00347222222</v>
       </c>
       <c r="E201" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17757,40 +17757,40 @@
         <v>49</v>
       </c>
       <c r="J201">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="K201">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L201">
-        <v>5</v>
+        <v>1.909</v>
       </c>
       <c r="M201">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N201">
         <v>4</v>
       </c>
       <c r="O201">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="P201">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="Q201">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R201">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T201">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V201">
         <v>-1</v>
@@ -17799,16 +17799,16 @@
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>4.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z201">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA201">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB201">
         <v>-1</v>
@@ -17819,19 +17819,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7641703</v>
+        <v>7641704</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
       </c>
       <c r="D202" s="2">
-        <v>45372.00347222222</v>
+        <v>45372.92013888889</v>
       </c>
       <c r="E202" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17843,40 +17843,40 @@
         <v>49</v>
       </c>
       <c r="J202">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="K202">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L202">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="M202">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N202">
         <v>4</v>
       </c>
       <c r="O202">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="P202">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q202">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R202">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S202">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T202">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V202">
         <v>-1</v>
@@ -17885,16 +17885,16 @@
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>0.5329999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="Y202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA202">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB202">
         <v>-1</v>
@@ -17917,7 +17917,7 @@
         <v>34</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17991,82 +17991,82 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7641708</v>
+        <v>7641706</v>
       </c>
       <c r="C204" t="s">
         <v>27</v>
       </c>
       <c r="D204" s="2">
-        <v>45374.92013888889</v>
+        <v>45374.75</v>
       </c>
       <c r="E204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F204" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I204" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J204">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="K204">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L204">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="M204">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N204">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O204">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="P204">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q204">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S204">
         <v>2.25</v>
       </c>
       <c r="T204">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U204">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V204">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y204">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA204">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB204">
         <v>-1</v>
@@ -18077,22 +18077,22 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7641707</v>
+        <v>7641708</v>
       </c>
       <c r="C205" t="s">
         <v>27</v>
       </c>
       <c r="D205" s="2">
-        <v>45374.83333333334</v>
+        <v>45374.92013888889</v>
       </c>
       <c r="E205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18101,43 +18101,43 @@
         <v>47</v>
       </c>
       <c r="J205">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="K205">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="L205">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="M205">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N205">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="O205">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="P205">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q205">
+        <v>1.9</v>
+      </c>
+      <c r="R205">
+        <v>1.9</v>
+      </c>
+      <c r="S205">
+        <v>2.25</v>
+      </c>
+      <c r="T205">
         <v>1.925</v>
       </c>
-      <c r="R205">
-        <v>1.775</v>
-      </c>
-      <c r="S205">
-        <v>3.25</v>
-      </c>
-      <c r="T205">
-        <v>1.85</v>
-      </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V205">
-        <v>0.444</v>
+        <v>1.625</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18146,13 +18146,13 @@
         <v>-1</v>
       </c>
       <c r="Y205">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z205">
+        <v>-1</v>
+      </c>
+      <c r="AA205">
         <v>0.925</v>
-      </c>
-      <c r="Z205">
-        <v>-1</v>
-      </c>
-      <c r="AA205">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AB205">
         <v>-1</v>
@@ -18163,82 +18163,82 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7641706</v>
+        <v>7641707</v>
       </c>
       <c r="C206" t="s">
         <v>27</v>
       </c>
       <c r="D206" s="2">
-        <v>45374.75</v>
+        <v>45374.83333333334</v>
       </c>
       <c r="E206" t="s">
         <v>33</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H206">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J206">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="K206">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L206">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="M206">
+        <v>1.444</v>
+      </c>
+      <c r="N206">
+        <v>5.25</v>
+      </c>
+      <c r="O206">
+        <v>5.75</v>
+      </c>
+      <c r="P206">
+        <v>-1.5</v>
+      </c>
+      <c r="Q206">
+        <v>1.925</v>
+      </c>
+      <c r="R206">
+        <v>1.775</v>
+      </c>
+      <c r="S206">
         <v>3.25</v>
       </c>
-      <c r="N206">
-        <v>3.1</v>
-      </c>
-      <c r="O206">
-        <v>2.375</v>
-      </c>
-      <c r="P206">
-        <v>0.25</v>
-      </c>
-      <c r="Q206">
+      <c r="T206">
         <v>1.85</v>
       </c>
-      <c r="R206">
+      <c r="U206">
         <v>1.95</v>
       </c>
-      <c r="S206">
-        <v>2.25</v>
-      </c>
-      <c r="T206">
-        <v>2.025</v>
-      </c>
-      <c r="U206">
-        <v>1.775</v>
-      </c>
       <c r="V206">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z206">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB206">
         <v>-1</v>
@@ -18430,7 +18430,7 @@
         <v>45375.00347222222</v>
       </c>
       <c r="E209" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F209" t="s">
         <v>37</v>
@@ -18516,7 +18516,7 @@
         <v>45377.92013888889</v>
       </c>
       <c r="E210" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F210" t="s">
         <v>30</v>
@@ -18593,85 +18593,85 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7641713</v>
+        <v>7641712</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
       </c>
       <c r="D211" s="2">
-        <v>45378.92013888889</v>
+        <v>45378.00347222222</v>
       </c>
       <c r="E211" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J211">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="K211">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L211">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M211">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="N211">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O211">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P211">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q211">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R211">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T211">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U211">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z211">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18679,85 +18679,85 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7641712</v>
+        <v>7641713</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
       </c>
       <c r="D212" s="2">
-        <v>45378.00347222222</v>
+        <v>45378.92013888889</v>
       </c>
       <c r="E212" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I212" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J212">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="K212">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L212">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M212">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="N212">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O212">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P212">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q212">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S212">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T212">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U212">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V212">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y212">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18765,64 +18765,64 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7641715</v>
+        <v>7641714</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
       </c>
       <c r="D213" s="2">
-        <v>45379.92013888889</v>
+        <v>45379.00347222222</v>
       </c>
       <c r="E213" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G213">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I213" t="s">
         <v>49</v>
       </c>
       <c r="J213">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="K213">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L213">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="M213">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N213">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O213">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
         <v>-0.25</v>
       </c>
       <c r="Q213">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R213">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S213">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T213">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U213">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
         <v>-1</v>
@@ -18831,19 +18831,19 @@
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA213">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18851,64 +18851,64 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7641714</v>
+        <v>7641715</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
       </c>
       <c r="D214" s="2">
-        <v>45379.00347222222</v>
+        <v>45379.92013888889</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I214" t="s">
         <v>49</v>
       </c>
       <c r="J214">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="K214">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L214">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="M214">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="N214">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
         <v>-0.25</v>
       </c>
       <c r="Q214">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R214">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T214">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
         <v>-1</v>
@@ -18917,19 +18917,19 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB214">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18946,7 +18946,7 @@
         <v>45380.00347222222</v>
       </c>
       <c r="E215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F215" t="s">
         <v>28</v>
@@ -19035,7 +19035,7 @@
         <v>42</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -19281,82 +19281,82 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7641719</v>
+        <v>7641718</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
       </c>
       <c r="D219" s="2">
-        <v>45385.92013888889</v>
+        <v>45385.00347222222</v>
       </c>
       <c r="E219" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F219" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I219" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J219">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="K219">
         <v>3.25</v>
       </c>
       <c r="L219">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M219">
         <v>2.3</v>
       </c>
       <c r="N219">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O219">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P219">
         <v>-0.25</v>
       </c>
       <c r="Q219">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R219">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S219">
         <v>2.5</v>
       </c>
       <c r="T219">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U219">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
         <v>-1</v>
       </c>
       <c r="W219">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AA219">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB219">
         <v>-1</v>
@@ -19367,82 +19367,82 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7641718</v>
+        <v>7641719</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
       </c>
       <c r="D220" s="2">
-        <v>45385.00347222222</v>
+        <v>45385.92013888889</v>
       </c>
       <c r="E220" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J220">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="K220">
         <v>3.25</v>
       </c>
       <c r="L220">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M220">
         <v>2.3</v>
       </c>
       <c r="N220">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O220">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P220">
         <v>-0.25</v>
       </c>
       <c r="Q220">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R220">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S220">
         <v>2.5</v>
       </c>
       <c r="T220">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U220">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V220">
         <v>-1</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X220">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z220">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AA220">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB220">
         <v>-1</v>
@@ -19465,7 +19465,7 @@
         <v>29</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19634,10 +19634,10 @@
         <v>45387.00347222222</v>
       </c>
       <c r="E223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19720,7 +19720,7 @@
         <v>45388.00347222222</v>
       </c>
       <c r="E224" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F224" t="s">
         <v>30</v>
@@ -19806,10 +19806,10 @@
         <v>45391.92013888889</v>
       </c>
       <c r="E225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19978,10 +19978,10 @@
         <v>45392.92013888889</v>
       </c>
       <c r="E227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F227" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -20153,7 +20153,7 @@
         <v>37</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -20322,7 +20322,7 @@
         <v>45395.83680555555</v>
       </c>
       <c r="E231" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F231" t="s">
         <v>40</v>
@@ -20408,7 +20408,7 @@
         <v>45399.91666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F232" t="s">
         <v>41</v>
@@ -20497,7 +20497,7 @@
         <v>34</v>
       </c>
       <c r="F233" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -20583,7 +20583,7 @@
         <v>34</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G234">
         <v>3</v>
@@ -20743,85 +20743,85 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>8127901</v>
+        <v>8134910</v>
       </c>
       <c r="C236" t="s">
         <v>27</v>
       </c>
       <c r="D236" s="2">
-        <v>45407.92013888889</v>
+        <v>45407.00347222222</v>
       </c>
       <c r="E236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F236" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J236">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="K236">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L236">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M236">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N236">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O236">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="P236">
         <v>0.25</v>
       </c>
       <c r="Q236">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="R236">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S236">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T236">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U236">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V236">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z236">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB236">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -20829,85 +20829,85 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>8134910</v>
+        <v>8127901</v>
       </c>
       <c r="C237" t="s">
         <v>27</v>
       </c>
       <c r="D237" s="2">
-        <v>45407.00347222222</v>
+        <v>45407.92013888889</v>
       </c>
       <c r="E237" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G237">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J237">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="K237">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L237">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M237">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N237">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="O237">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="P237">
         <v>0.25</v>
       </c>
       <c r="Q237">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S237">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T237">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U237">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA237">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20924,7 +20924,7 @@
         <v>45408.00347222222</v>
       </c>
       <c r="E238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F238" t="s">
         <v>37</v>
@@ -21173,67 +21173,67 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>8127899</v>
+        <v>8127903</v>
       </c>
       <c r="C241" t="s">
         <v>27</v>
       </c>
       <c r="D241" s="2">
-        <v>45410.92013888889</v>
+        <v>45410.83333333334</v>
       </c>
       <c r="E241" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="s">
         <v>47</v>
       </c>
       <c r="J241">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K241">
+        <v>3.25</v>
+      </c>
+      <c r="L241">
+        <v>4.333</v>
+      </c>
+      <c r="M241">
+        <v>1.833</v>
+      </c>
+      <c r="N241">
         <v>3.4</v>
       </c>
-      <c r="L241">
-        <v>3.1</v>
-      </c>
-      <c r="M241">
-        <v>1.95</v>
-      </c>
-      <c r="N241">
-        <v>3.5</v>
-      </c>
       <c r="O241">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P241">
         <v>-0.5</v>
       </c>
       <c r="Q241">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R241">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S241">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T241">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V241">
-        <v>0.95</v>
+        <v>0.833</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21242,16 +21242,16 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AB241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:28">
@@ -21259,67 +21259,67 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>8127903</v>
+        <v>8127899</v>
       </c>
       <c r="C242" t="s">
         <v>27</v>
       </c>
       <c r="D242" s="2">
-        <v>45410.83333333334</v>
+        <v>45410.92013888889</v>
       </c>
       <c r="E242" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F242" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="s">
         <v>47</v>
       </c>
       <c r="J242">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K242">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L242">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M242">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="N242">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O242">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P242">
         <v>-0.5</v>
       </c>
       <c r="Q242">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R242">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S242">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T242">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U242">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V242">
-        <v>0.833</v>
+        <v>0.95</v>
       </c>
       <c r="W242">
         <v>-1</v>
@@ -21328,16 +21328,16 @@
         <v>-1</v>
       </c>
       <c r="Y242">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -8279,7 +8279,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8288,76 +8288,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="K91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8365,7 +8365,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8374,76 +8374,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>4.5</v>
+      </c>
+      <c r="M92">
+        <v>1.5</v>
+      </c>
+      <c r="N92">
+        <v>4.75</v>
+      </c>
+      <c r="O92">
+        <v>5.75</v>
+      </c>
+      <c r="P92">
+        <v>-1.25</v>
+      </c>
+      <c r="Q92">
+        <v>1.925</v>
+      </c>
+      <c r="R92">
+        <v>1.875</v>
+      </c>
+      <c r="S92">
         <v>3</v>
       </c>
-      <c r="L92">
-        <v>2.875</v>
-      </c>
-      <c r="M92">
-        <v>2.7</v>
-      </c>
-      <c r="N92">
-        <v>3.1</v>
-      </c>
-      <c r="O92">
-        <v>2.8</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>1.85</v>
-      </c>
-      <c r="R92">
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.95</v>
       </c>
-      <c r="S92">
-        <v>2.25</v>
-      </c>
-      <c r="T92">
-        <v>1.975</v>
-      </c>
-      <c r="U92">
-        <v>1.725</v>
-      </c>
       <c r="V92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -21375,10 +21375,10 @@
         <v>2.375</v>
       </c>
       <c r="M243">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N243">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O243">
         <v>2.25</v>
@@ -21387,19 +21387,19 @@
         <v>0.25</v>
       </c>
       <c r="Q243">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R243">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S243">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T243">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U243">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V243">
         <v>0</v>
@@ -21440,31 +21440,31 @@
         <v>2.625</v>
       </c>
       <c r="M244">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="N244">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O244">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="P244">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q244">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R244">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S244">
         <v>2.25</v>
       </c>
       <c r="T244">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U244">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V244">
         <v>0</v>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -95,12 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>8161957</t>
-  </si>
-  <si>
-    <t>8161958</t>
   </si>
   <si>
     <t>Mexico Liga de Expansion</t>
@@ -531,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB244"/>
+  <dimension ref="A1:AB242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,16 +622,16 @@
         <v>6704110</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45080.91666666666</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -646,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>1.909</v>
@@ -714,16 +708,16 @@
         <v>6924481</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45128.92013888889</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -732,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J3">
         <v>2.25</v>
@@ -800,16 +794,16 @@
         <v>6924480</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45129.83680555555</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -818,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>1.8</v>
@@ -886,16 +880,16 @@
         <v>6924482</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45129.92013888889</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -904,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>1.571</v>
@@ -972,16 +966,16 @@
         <v>6924483</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45130.625</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -990,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>2.4</v>
@@ -1058,16 +1052,16 @@
         <v>6924484</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45130.92013888889</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1076,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>2.6</v>
@@ -1144,16 +1138,16 @@
         <v>6924485</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45131.92013888889</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1162,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1230,16 +1224,16 @@
         <v>6923357</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45134.00347222222</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1248,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>2.75</v>
@@ -1316,16 +1310,16 @@
         <v>6924486</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45136.00347222222</v>
       </c>
       <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1334,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>1.909</v>
@@ -1402,16 +1396,16 @@
         <v>6924487</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45136.83680555555</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1420,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>3.5</v>
@@ -1488,16 +1482,16 @@
         <v>6924488</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45136.92013888889</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1506,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J12">
         <v>2.375</v>
@@ -1574,16 +1568,16 @@
         <v>6924490</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45137.92013888889</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1592,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1660,16 +1654,16 @@
         <v>6924491</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45138.00347222222</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1678,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1746,16 +1740,16 @@
         <v>6924492</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45138.92013888889</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1764,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1832,16 +1826,16 @@
         <v>6924493</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45141.92013888889</v>
       </c>
       <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
         <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1850,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1918,16 +1912,16 @@
         <v>6924494</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45143.83680555555</v>
       </c>
       <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
         <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -1936,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -2004,16 +1998,16 @@
         <v>6924495</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45143.92013888889</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2022,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>2.8</v>
@@ -2090,16 +2084,16 @@
         <v>6924496</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45144.00347222222</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2108,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2176,16 +2170,16 @@
         <v>6924498</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45144.625</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2194,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>1.571</v>
@@ -2262,16 +2256,16 @@
         <v>6924497</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45144.83680555555</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2280,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J21">
         <v>2.9</v>
@@ -2348,16 +2342,16 @@
         <v>6924499</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45145.00347222222</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2366,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <v>2.375</v>
@@ -2434,16 +2428,16 @@
         <v>6924500</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45148.92013888889</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2452,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J23">
         <v>2.25</v>
@@ -2520,16 +2514,16 @@
         <v>6924501</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45149.83680555555</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2538,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J24">
         <v>1.952</v>
@@ -2606,16 +2600,16 @@
         <v>6924502</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45149.92013888889</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2624,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J25">
         <v>1.952</v>
@@ -2692,16 +2686,16 @@
         <v>6924503</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45150.92013888889</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2710,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J26">
         <v>2.8</v>
@@ -2778,16 +2772,16 @@
         <v>6924504</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45151.00347222222</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2796,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2864,16 +2858,16 @@
         <v>6924506</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45151.83680555555</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2882,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J28">
         <v>1.909</v>
@@ -2950,16 +2944,16 @@
         <v>6924507</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45152.00347222222</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2968,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3036,16 +3030,16 @@
         <v>6924508</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45153.92013888889</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3054,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J30">
         <v>2.5</v>
@@ -3122,16 +3116,16 @@
         <v>6924509</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45154.00347222222</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -3140,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J31">
         <v>3.6</v>
@@ -3208,16 +3202,16 @@
         <v>6924513</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45154.83680555555</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3226,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J32">
         <v>1.444</v>
@@ -3294,16 +3288,16 @@
         <v>6924510</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45155.00347222222</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3312,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J33">
         <v>1.909</v>
@@ -3380,16 +3374,16 @@
         <v>6924511</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45155.83680555555</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3398,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J34">
         <v>1.85</v>
@@ -3466,16 +3460,16 @@
         <v>6924512</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45156.83680555555</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3484,7 +3478,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J35">
         <v>3.1</v>
@@ -3552,16 +3546,16 @@
         <v>7067400</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45157.83680555555</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3570,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>1.833</v>
@@ -3638,16 +3632,16 @@
         <v>6924514</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45157.92013888889</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3656,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>2.6</v>
@@ -3724,16 +3718,16 @@
         <v>6924515</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45160.83680555555</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3742,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3810,16 +3804,16 @@
         <v>6924516</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45160.92013888889</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -3828,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J39">
         <v>2.55</v>
@@ -3896,16 +3890,16 @@
         <v>6924517</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45161.00347222222</v>
       </c>
       <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
         <v>31</v>
-      </c>
-      <c r="F40" t="s">
-        <v>33</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3914,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>2.2</v>
@@ -3982,16 +3976,16 @@
         <v>6924518</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45161.92013888889</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -4000,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J41">
         <v>1.65</v>
@@ -4068,16 +4062,16 @@
         <v>6924519</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45162.00347222222</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4086,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>1.571</v>
@@ -4154,16 +4148,16 @@
         <v>6924520</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45162.83680555555</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4172,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J43">
         <v>1.571</v>
@@ -4240,16 +4234,16 @@
         <v>6924521</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45162.92013888889</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -4258,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>1.363</v>
@@ -4326,16 +4320,16 @@
         <v>6924522</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45167.92013888889</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4344,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>2.25</v>
@@ -4412,16 +4406,16 @@
         <v>6924523</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45168.00347222222</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -4430,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4498,16 +4492,16 @@
         <v>6924524</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45168.83333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4516,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4584,16 +4578,16 @@
         <v>6924525</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45168.92013888889</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4602,7 +4596,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J48">
         <v>3.4</v>
@@ -4670,16 +4664,16 @@
         <v>6924526</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45169.00347222222</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4688,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J49">
         <v>2.1</v>
@@ -4756,16 +4750,16 @@
         <v>6924527</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45170.00347222222</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4774,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J50">
         <v>1.285</v>
@@ -4842,16 +4836,16 @@
         <v>6924528</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45171.00347222222</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4860,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4928,16 +4922,16 @@
         <v>6924529</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45174.83680555555</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4946,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J52">
         <v>2.4</v>
@@ -5014,16 +5008,16 @@
         <v>6924530</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45174.92013888889</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5032,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5100,16 +5094,16 @@
         <v>6924531</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45175.00347222222</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5118,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J54">
         <v>2.6</v>
@@ -5186,16 +5180,16 @@
         <v>6924532</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45175.92013888889</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5204,7 +5198,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <v>1.55</v>
@@ -5272,16 +5266,16 @@
         <v>6924533</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45176.92013888889</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5290,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J56">
         <v>1.95</v>
@@ -5358,16 +5352,16 @@
         <v>6924534</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45179.00347222222</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5376,7 +5370,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J57">
         <v>2.7</v>
@@ -5444,16 +5438,16 @@
         <v>6924535</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45179.92013888889</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5462,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J58">
         <v>1.727</v>
@@ -5530,16 +5524,16 @@
         <v>6924536</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45182.83680555555</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5548,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5616,16 +5610,16 @@
         <v>6924537</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45182.92013888889</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5634,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J60">
         <v>2.75</v>
@@ -5702,16 +5696,16 @@
         <v>6924538</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45183.00347222222</v>
       </c>
       <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s">
         <v>36</v>
-      </c>
-      <c r="F61" t="s">
-        <v>38</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5720,7 +5714,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J61">
         <v>2.2</v>
@@ -5788,16 +5782,16 @@
         <v>6924539</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45183.92013888889</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>4</v>
@@ -5806,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J62">
         <v>1.3</v>
@@ -5874,16 +5868,16 @@
         <v>6924540</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45185.92013888889</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5892,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J63">
         <v>2.05</v>
@@ -5960,16 +5954,16 @@
         <v>6924541</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45186.00347222222</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5978,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J64">
         <v>2.5</v>
@@ -6046,16 +6040,16 @@
         <v>6924542</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45186.83680555555</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6064,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J65">
         <v>1.85</v>
@@ -6132,16 +6126,16 @@
         <v>6924543</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45188.83680555555</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6150,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J66">
         <v>1.85</v>
@@ -6218,16 +6212,16 @@
         <v>6924544</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45188.92013888889</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -6236,7 +6230,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J67">
         <v>2.25</v>
@@ -6304,16 +6298,16 @@
         <v>6924545</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45189.00347222222</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6322,7 +6316,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>2.05</v>
@@ -6390,16 +6384,16 @@
         <v>6924546</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45189.83680555555</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6408,7 +6402,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -6476,16 +6470,16 @@
         <v>6924547</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45189.92013888889</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6494,7 +6488,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -6562,16 +6556,16 @@
         <v>6924548</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45191</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6580,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>1.5</v>
@@ -6648,17 +6642,17 @@
         <v>6924549</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45193.875</v>
       </c>
       <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s">
         <v>32</v>
       </c>
-      <c r="F72" t="s">
-        <v>34</v>
-      </c>
       <c r="G72">
         <v>2</v>
       </c>
@@ -6666,7 +6660,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J72">
         <v>1.8</v>
@@ -6734,16 +6728,16 @@
         <v>6924550</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45195.92013888889</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6752,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J73">
         <v>1.615</v>
@@ -6820,16 +6814,16 @@
         <v>6924551</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45196.00347222222</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6838,7 +6832,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J74">
         <v>2.15</v>
@@ -6906,16 +6900,16 @@
         <v>6924552</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45196.83680555555</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>4</v>
@@ -6924,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J75">
         <v>1.45</v>
@@ -6992,16 +6986,16 @@
         <v>6924553</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45196.92013888889</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -7010,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7078,16 +7072,16 @@
         <v>6924554</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45197.00347222222</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7096,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J77">
         <v>1.8</v>
@@ -7164,16 +7158,16 @@
         <v>6924555</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45199.83680555555</v>
       </c>
       <c r="E78" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" t="s">
         <v>30</v>
-      </c>
-      <c r="F78" t="s">
-        <v>32</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7182,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J78">
         <v>1.75</v>
@@ -7250,16 +7244,16 @@
         <v>6924556</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45200.91666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7268,7 +7262,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J79">
         <v>2.1</v>
@@ -7336,16 +7330,16 @@
         <v>6924559</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45203.00347222222</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7354,7 +7348,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7422,16 +7416,16 @@
         <v>6924560</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45203.92013888889</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7440,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J81">
         <v>1.909</v>
@@ -7508,16 +7502,16 @@
         <v>6924561</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45204.00347222222</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7526,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>1.5</v>
@@ -7594,16 +7588,16 @@
         <v>6924562</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45204.83680555555</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7612,7 +7606,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J83">
         <v>1.909</v>
@@ -7680,16 +7674,16 @@
         <v>6924558</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45204.92013888889</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7698,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J84">
         <v>2.1</v>
@@ -7766,16 +7760,16 @@
         <v>6924563</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45205.00347222222</v>
       </c>
       <c r="E85" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" t="s">
         <v>34</v>
-      </c>
-      <c r="F85" t="s">
-        <v>36</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -7784,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J85">
         <v>2.2</v>
@@ -7852,16 +7846,16 @@
         <v>6924557</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7870,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J86">
         <v>2.1</v>
@@ -7938,16 +7932,16 @@
         <v>6924564</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45210.92013888889</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7956,7 +7950,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -8024,16 +8018,16 @@
         <v>6924565</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45212.83680555555</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8042,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J88">
         <v>2.625</v>
@@ -8110,16 +8104,16 @@
         <v>6924566</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45213.00347222222</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8128,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J89">
         <v>2.1</v>
@@ -8196,16 +8190,16 @@
         <v>6924567</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45213.83680555555</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8214,7 +8208,7 @@
         <v>5</v>
       </c>
       <c r="I90" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J90">
         <v>2.25</v>
@@ -8279,85 +8273,85 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>4.5</v>
+      </c>
+      <c r="M91">
+        <v>1.5</v>
+      </c>
+      <c r="N91">
+        <v>4.75</v>
+      </c>
+      <c r="O91">
+        <v>5.75</v>
+      </c>
+      <c r="P91">
+        <v>-1.25</v>
+      </c>
+      <c r="Q91">
+        <v>1.925</v>
+      </c>
+      <c r="R91">
+        <v>1.875</v>
+      </c>
+      <c r="S91">
         <v>3</v>
       </c>
-      <c r="L91">
-        <v>2.875</v>
-      </c>
-      <c r="M91">
-        <v>2.7</v>
-      </c>
-      <c r="N91">
-        <v>3.1</v>
-      </c>
-      <c r="O91">
-        <v>2.8</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>1.85</v>
-      </c>
-      <c r="R91">
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.95</v>
       </c>
-      <c r="S91">
-        <v>2.25</v>
-      </c>
-      <c r="T91">
-        <v>1.975</v>
-      </c>
-      <c r="U91">
-        <v>1.725</v>
-      </c>
       <c r="V91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8365,22 +8359,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8389,61 +8383,61 @@
         <v>49</v>
       </c>
       <c r="J92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="K92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8454,16 +8448,16 @@
         <v>6924570</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45215.00347222222</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8472,7 +8466,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J93">
         <v>2.375</v>
@@ -8540,16 +8534,16 @@
         <v>6924571</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45219.00347222222</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8558,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>2.5</v>
@@ -8626,16 +8620,16 @@
         <v>6924572</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45223.92013888889</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8644,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8712,16 +8706,16 @@
         <v>6924574</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45224.92013888889</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8730,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8798,16 +8792,16 @@
         <v>6924575</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45225.00347222222</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8816,7 +8810,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J97">
         <v>2.9</v>
@@ -8884,16 +8878,16 @@
         <v>6924576</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45225.92013888889</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8902,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J98">
         <v>1.615</v>
@@ -8970,16 +8964,16 @@
         <v>6924573</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45226.00347222222</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8988,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9056,16 +9050,16 @@
         <v>6924578</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45227.92013888889</v>
       </c>
       <c r="E100" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G100">
         <v>4</v>
@@ -9074,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J100">
         <v>2.1</v>
@@ -9142,16 +9136,16 @@
         <v>6924577</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45228.83333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9160,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J101">
         <v>1.363</v>
@@ -9228,16 +9222,16 @@
         <v>6924579</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45230.83680555555</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9246,7 +9240,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -9314,16 +9308,16 @@
         <v>6924581</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45231.83680555555</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9332,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J103">
         <v>4.333</v>
@@ -9400,16 +9394,16 @@
         <v>6924582</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45231.92013888889</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9418,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9486,16 +9480,16 @@
         <v>6924580</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45232.83680555555</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9504,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J105">
         <v>2.375</v>
@@ -9572,16 +9566,16 @@
         <v>6924583</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45232.92013888889</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9590,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J106">
         <v>1.4</v>
@@ -9658,16 +9652,16 @@
         <v>6924584</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45233.00347222222</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9676,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J107">
         <v>1.65</v>
@@ -9744,16 +9738,16 @@
         <v>7449159</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45239.92013888889</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G108">
         <v>5</v>
@@ -9762,7 +9756,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9830,16 +9824,16 @@
         <v>7449160</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45240.00347222222</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9848,7 +9842,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J109">
         <v>1.444</v>
@@ -9916,16 +9910,16 @@
         <v>7460657</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45242.83680555555</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9934,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -10002,16 +9996,16 @@
         <v>7473421</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45245.92013888889</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10020,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>2.3</v>
@@ -10088,16 +10082,16 @@
         <v>7473419</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45246.00347222222</v>
       </c>
       <c r="E112" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10106,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J112">
         <v>2.25</v>
@@ -10174,16 +10168,16 @@
         <v>7473420</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45246.92013888889</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10192,7 +10186,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J113">
         <v>2.3</v>
@@ -10260,16 +10254,16 @@
         <v>7473526</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45247.00347222222</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10278,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J114">
         <v>2.75</v>
@@ -10346,16 +10340,16 @@
         <v>7450712</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45248.83680555555</v>
       </c>
       <c r="E115" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -10364,7 +10358,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J115">
         <v>1.6</v>
@@ -10432,16 +10426,16 @@
         <v>7473836</v>
       </c>
       <c r="C116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45248.92013888889</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10450,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J116">
         <v>2.05</v>
@@ -10518,16 +10512,16 @@
         <v>7473837</v>
       </c>
       <c r="C117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45249.83680555555</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10536,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J117">
         <v>1.909</v>
@@ -10604,16 +10598,16 @@
         <v>7450713</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45249.92013888889</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10622,7 +10616,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10690,16 +10684,16 @@
         <v>7505184</v>
       </c>
       <c r="C119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45252.91666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10708,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J119">
         <v>1.727</v>
@@ -10776,16 +10770,16 @@
         <v>7505183</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45253.91666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10794,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J120">
         <v>1.85</v>
@@ -10862,16 +10856,16 @@
         <v>7506103</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45256.00347222222</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10880,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J121">
         <v>2.625</v>
@@ -10948,16 +10942,16 @@
         <v>7506798</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10966,7 +10960,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J122">
         <v>2.1</v>
@@ -11034,16 +11028,16 @@
         <v>7528853</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45260.91666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11052,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J123">
         <v>1.909</v>
@@ -11120,16 +11114,16 @@
         <v>7531699</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45263.79166666666</v>
       </c>
       <c r="E124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11138,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J124">
         <v>2.375</v>
@@ -11206,16 +11200,16 @@
         <v>7641630</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45300.92013888889</v>
       </c>
       <c r="E125" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11224,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J125">
         <v>2.1</v>
@@ -11292,16 +11286,16 @@
         <v>7641631</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45301.00347222222</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11310,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J126">
         <v>2.45</v>
@@ -11378,16 +11372,16 @@
         <v>7641632</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45301.92013888889</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11396,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J127">
         <v>3.6</v>
@@ -11464,16 +11458,16 @@
         <v>7641633</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45302.00347222222</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11482,7 +11476,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11550,16 +11544,16 @@
         <v>7641634</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45302.92013888889</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11568,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J129">
         <v>1.5</v>
@@ -11636,16 +11630,16 @@
         <v>7641635</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45303.00347222222</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11654,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J130">
         <v>1.95</v>
@@ -11722,16 +11716,16 @@
         <v>7640640</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45305.79513888889</v>
       </c>
       <c r="E131" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11740,7 +11734,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J131">
         <v>1.833</v>
@@ -11808,16 +11802,16 @@
         <v>7641636</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45307.92013888889</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -11826,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J132">
         <v>1.571</v>
@@ -11894,16 +11888,16 @@
         <v>7641638</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45308.92013888889</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11912,7 +11906,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>1.615</v>
@@ -11980,16 +11974,16 @@
         <v>7641639</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45309.00347222222</v>
       </c>
       <c r="E134" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" t="s">
         <v>40</v>
-      </c>
-      <c r="F134" t="s">
-        <v>42</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11998,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J134">
         <v>3.6</v>
@@ -12066,16 +12060,16 @@
         <v>7641640</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45309.92013888889</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12084,7 +12078,7 @@
         <v>5</v>
       </c>
       <c r="I135" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J135">
         <v>2.1</v>
@@ -12152,16 +12146,16 @@
         <v>7641641</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45310.00347222222</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12170,7 +12164,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J136">
         <v>1.8</v>
@@ -12238,16 +12232,16 @@
         <v>7640641</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45312.83680555555</v>
       </c>
       <c r="E137" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12256,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J137">
         <v>2.75</v>
@@ -12324,16 +12318,16 @@
         <v>7641642</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45314.92013888889</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12342,7 +12336,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J138">
         <v>2.8</v>
@@ -12410,16 +12404,16 @@
         <v>7641643</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45315.00347222222</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12428,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J139">
         <v>2.05</v>
@@ -12496,16 +12490,16 @@
         <v>7641644</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45315.92013888889</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12514,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12582,16 +12576,16 @@
         <v>7641645</v>
       </c>
       <c r="C141" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45316.00347222222</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12600,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J141">
         <v>2.55</v>
@@ -12668,16 +12662,16 @@
         <v>7640642</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45316.92013888889</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12686,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12754,16 +12748,16 @@
         <v>7641646</v>
       </c>
       <c r="C143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45317.00347222222</v>
       </c>
       <c r="E143" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12772,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J143">
         <v>1.7</v>
@@ -12840,16 +12834,16 @@
         <v>7641647</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45319.87847222222</v>
       </c>
       <c r="E144" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12858,7 +12852,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J144">
         <v>1.909</v>
@@ -12926,16 +12920,16 @@
         <v>7641648</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45322.00347222222</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12944,7 +12938,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J145">
         <v>1.5</v>
@@ -13012,16 +13006,16 @@
         <v>7640643</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45322.83680555555</v>
       </c>
       <c r="E146" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13030,7 +13024,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J146">
         <v>1.4</v>
@@ -13098,16 +13092,16 @@
         <v>7641649</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45322.92013888889</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13116,7 +13110,7 @@
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J147">
         <v>3.8</v>
@@ -13184,16 +13178,16 @@
         <v>7641650</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45323.00347222222</v>
       </c>
       <c r="E148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13202,7 +13196,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J148">
         <v>2.05</v>
@@ -13270,16 +13264,16 @@
         <v>7641651</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45323.92013888889</v>
       </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13288,7 +13282,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J149">
         <v>2.15</v>
@@ -13356,16 +13350,16 @@
         <v>7641652</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45324.00347222222</v>
       </c>
       <c r="E150" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13374,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J150">
         <v>2</v>
@@ -13442,16 +13436,16 @@
         <v>7641653</v>
       </c>
       <c r="C151" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45326.79513888889</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13460,7 +13454,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J151">
         <v>3</v>
@@ -13528,16 +13522,16 @@
         <v>7641659</v>
       </c>
       <c r="C152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45326.92013888889</v>
       </c>
       <c r="E152" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13546,7 +13540,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J152">
         <v>2.2</v>
@@ -13614,16 +13608,16 @@
         <v>7641655</v>
       </c>
       <c r="C153" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45328.83680555555</v>
       </c>
       <c r="E153" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13632,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J153">
         <v>1.333</v>
@@ -13700,16 +13694,16 @@
         <v>7641654</v>
       </c>
       <c r="C154" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45328.92013888889</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13718,7 +13712,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J154">
         <v>2.5</v>
@@ -13786,16 +13780,16 @@
         <v>7640644</v>
       </c>
       <c r="C155" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45329.92013888889</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13804,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J155">
         <v>3.5</v>
@@ -13872,16 +13866,16 @@
         <v>7641656</v>
       </c>
       <c r="C156" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45330.00347222222</v>
       </c>
       <c r="E156" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13890,7 +13884,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J156">
         <v>2.05</v>
@@ -13958,16 +13952,16 @@
         <v>7641658</v>
       </c>
       <c r="C157" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45330.92013888889</v>
       </c>
       <c r="E157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13976,7 +13970,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J157">
         <v>1.8</v>
@@ -14044,16 +14038,16 @@
         <v>7641657</v>
       </c>
       <c r="C158" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45331.83680555555</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14062,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J158">
         <v>2</v>
@@ -14130,16 +14124,16 @@
         <v>7641660</v>
       </c>
       <c r="C159" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45335.92013888889</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14148,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J159">
         <v>2.5</v>
@@ -14216,16 +14210,16 @@
         <v>7641661</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45336.00347222222</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14234,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J160">
         <v>3.1</v>
@@ -14302,16 +14296,16 @@
         <v>7641670</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45336.92013888889</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14320,7 +14314,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J161">
         <v>2.5</v>
@@ -14388,16 +14382,16 @@
         <v>7641671</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45338.00347222222</v>
       </c>
       <c r="E162" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14406,7 +14400,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J162">
         <v>2.7</v>
@@ -14474,16 +14468,16 @@
         <v>7641672</v>
       </c>
       <c r="C163" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45338.92013888889</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14492,7 +14486,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J163">
         <v>2.4</v>
@@ -14560,16 +14554,16 @@
         <v>7641673</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45339.83680555555</v>
       </c>
       <c r="E164" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14578,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J164">
         <v>2.45</v>
@@ -14646,16 +14640,16 @@
         <v>7640645</v>
       </c>
       <c r="C165" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45340.625</v>
       </c>
       <c r="E165" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14664,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J165">
         <v>1.55</v>
@@ -14732,16 +14726,16 @@
         <v>7641679</v>
       </c>
       <c r="C166" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45342.92013888889</v>
       </c>
       <c r="E166" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14750,7 +14744,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J166">
         <v>1.909</v>
@@ -14818,16 +14812,16 @@
         <v>7641675</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45343.00347222222</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -14836,7 +14830,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J167">
         <v>2.45</v>
@@ -14904,16 +14898,16 @@
         <v>7641676</v>
       </c>
       <c r="C168" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45343.92013888889</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14922,7 +14916,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J168">
         <v>3.4</v>
@@ -14990,16 +14984,16 @@
         <v>7641674</v>
       </c>
       <c r="C169" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45344.00347222222</v>
       </c>
       <c r="E169" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G169">
         <v>4</v>
@@ -15008,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J169">
         <v>2</v>
@@ -15076,16 +15070,16 @@
         <v>7641678</v>
       </c>
       <c r="C170" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45344.92013888889</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15094,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J170">
         <v>1.8</v>
@@ -15162,16 +15156,16 @@
         <v>7641677</v>
       </c>
       <c r="C171" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45345.00347222222</v>
       </c>
       <c r="E171" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15180,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J171">
         <v>1.6</v>
@@ -15248,16 +15242,16 @@
         <v>7641680</v>
       </c>
       <c r="C172" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45347.83680555555</v>
       </c>
       <c r="E172" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15266,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J172">
         <v>1.333</v>
@@ -15334,16 +15328,16 @@
         <v>7640646</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45349.92013888889</v>
       </c>
       <c r="E173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15352,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J173">
         <v>2.9</v>
@@ -15420,16 +15414,16 @@
         <v>7641681</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45350.00347222222</v>
       </c>
       <c r="E174" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15438,7 +15432,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J174">
         <v>1.666</v>
@@ -15506,16 +15500,16 @@
         <v>7641682</v>
       </c>
       <c r="C175" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45350.92013888889</v>
       </c>
       <c r="E175" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15524,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J175">
         <v>2.3</v>
@@ -15592,16 +15586,16 @@
         <v>7641684</v>
       </c>
       <c r="C176" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45351.92013888889</v>
       </c>
       <c r="E176" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -15610,7 +15604,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J176">
         <v>4</v>
@@ -15678,16 +15672,16 @@
         <v>7641685</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45352.00347222222</v>
       </c>
       <c r="E177" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15696,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J177">
         <v>1.8</v>
@@ -15764,16 +15758,16 @@
         <v>7701489</v>
       </c>
       <c r="C178" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45352.83333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15782,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J178">
         <v>1.571</v>
@@ -15850,16 +15844,16 @@
         <v>7641686</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45353.83680555555</v>
       </c>
       <c r="E179" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15868,7 +15862,7 @@
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J179">
         <v>2</v>
@@ -15936,16 +15930,16 @@
         <v>7640647</v>
       </c>
       <c r="C180" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45356.92013888889</v>
       </c>
       <c r="E180" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15954,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J180">
         <v>1.4</v>
@@ -16022,16 +16016,16 @@
         <v>7641687</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45357.00347222222</v>
       </c>
       <c r="E181" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16040,7 +16034,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>1.65</v>
@@ -16108,16 +16102,16 @@
         <v>7641688</v>
       </c>
       <c r="C182" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45357.92013888889</v>
       </c>
       <c r="E182" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16126,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J182">
         <v>1.571</v>
@@ -16194,16 +16188,16 @@
         <v>7641689</v>
       </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45358.00347222222</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16212,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J183">
         <v>3.6</v>
@@ -16280,16 +16274,16 @@
         <v>7641690</v>
       </c>
       <c r="C184" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45358.92013888889</v>
       </c>
       <c r="E184" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G184">
         <v>3</v>
@@ -16298,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J184">
         <v>1.7</v>
@@ -16366,16 +16360,16 @@
         <v>7641691</v>
       </c>
       <c r="C185" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45359.00347222222</v>
       </c>
       <c r="E185" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16384,7 +16378,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J185">
         <v>1.571</v>
@@ -16452,16 +16446,16 @@
         <v>7648958</v>
       </c>
       <c r="C186" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45361.5</v>
       </c>
       <c r="E186" t="s">
+        <v>43</v>
+      </c>
+      <c r="F186" t="s">
         <v>45</v>
-      </c>
-      <c r="F186" t="s">
-        <v>47</v>
       </c>
       <c r="G186">
         <v>4</v>
@@ -16470,7 +16464,7 @@
         <v>3</v>
       </c>
       <c r="I186" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J186">
         <v>2.375</v>
@@ -16538,17 +16532,17 @@
         <v>7648957</v>
       </c>
       <c r="C187" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45361.5</v>
       </c>
       <c r="E187" t="s">
+        <v>44</v>
+      </c>
+      <c r="F187" t="s">
         <v>46</v>
       </c>
-      <c r="F187" t="s">
-        <v>48</v>
-      </c>
       <c r="G187">
         <v>2</v>
       </c>
@@ -16556,7 +16550,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J187">
         <v>1.666</v>
@@ -16624,16 +16618,16 @@
         <v>7641692</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
         <v>45361.92013888889</v>
       </c>
       <c r="E188" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16642,7 +16636,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J188">
         <v>2.15</v>
@@ -16710,16 +16704,16 @@
         <v>7641693</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2">
         <v>45363.92013888889</v>
       </c>
       <c r="E189" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16728,7 +16722,7 @@
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J189">
         <v>2.4</v>
@@ -16796,16 +16790,16 @@
         <v>7641694</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>45364.00347222222</v>
       </c>
       <c r="E190" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16814,7 +16808,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J190">
         <v>1.4</v>
@@ -16882,16 +16876,16 @@
         <v>7640648</v>
       </c>
       <c r="C191" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D191" s="2">
         <v>45364.92013888889</v>
       </c>
       <c r="E191" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16900,7 +16894,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J191">
         <v>4</v>
@@ -16968,16 +16962,16 @@
         <v>7641695</v>
       </c>
       <c r="C192" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2">
         <v>45365.00347222222</v>
       </c>
       <c r="E192" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F192" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16986,7 +16980,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J192">
         <v>2.25</v>
@@ -17054,16 +17048,16 @@
         <v>7641696</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D193" s="2">
         <v>45365.92013888889</v>
       </c>
       <c r="E193" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17072,7 +17066,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J193">
         <v>2.1</v>
@@ -17140,16 +17134,16 @@
         <v>7641697</v>
       </c>
       <c r="C194" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D194" s="2">
         <v>45366.00347222222</v>
       </c>
       <c r="E194" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F194" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17158,7 +17152,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J194">
         <v>2.25</v>
@@ -17226,16 +17220,16 @@
         <v>7641698</v>
       </c>
       <c r="C195" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D195" s="2">
         <v>45368.92013888889</v>
       </c>
       <c r="E195" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17244,7 +17238,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J195">
         <v>2.3</v>
@@ -17312,16 +17306,16 @@
         <v>7641699</v>
       </c>
       <c r="C196" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D196" s="2">
         <v>45370.83680555555</v>
       </c>
       <c r="E196" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17330,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J196">
         <v>1.533</v>
@@ -17398,16 +17392,16 @@
         <v>7640649</v>
       </c>
       <c r="C197" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D197" s="2">
         <v>45370.92013888889</v>
       </c>
       <c r="E197" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17416,7 +17410,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J197">
         <v>1.65</v>
@@ -17484,16 +17478,16 @@
         <v>7641700</v>
       </c>
       <c r="C198" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D198" s="2">
         <v>45371.00347222222</v>
       </c>
       <c r="E198" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17502,7 +17496,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J198">
         <v>1.95</v>
@@ -17570,16 +17564,16 @@
         <v>7641701</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2">
         <v>45371.83680555555</v>
       </c>
       <c r="E199" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17588,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J199">
         <v>2.1</v>
@@ -17656,16 +17650,16 @@
         <v>7641702</v>
       </c>
       <c r="C200" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2">
         <v>45371.92013888889</v>
       </c>
       <c r="E200" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F200" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -17674,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J200">
         <v>1.8</v>
@@ -17742,16 +17736,16 @@
         <v>7641703</v>
       </c>
       <c r="C201" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D201" s="2">
         <v>45372.00347222222</v>
       </c>
       <c r="E201" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17760,7 +17754,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J201">
         <v>3.6</v>
@@ -17828,16 +17822,16 @@
         <v>7641704</v>
       </c>
       <c r="C202" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D202" s="2">
         <v>45372.92013888889</v>
       </c>
       <c r="E202" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17846,7 +17840,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J202">
         <v>1.6</v>
@@ -17914,16 +17908,16 @@
         <v>7641705</v>
       </c>
       <c r="C203" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D203" s="2">
         <v>45373.92013888889</v>
       </c>
       <c r="E203" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17932,7 +17926,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J203">
         <v>1.75</v>
@@ -18000,16 +17994,16 @@
         <v>7641706</v>
       </c>
       <c r="C204" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D204" s="2">
         <v>45374.75</v>
       </c>
       <c r="E204" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -18018,7 +18012,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J204">
         <v>2.7</v>
@@ -18086,16 +18080,16 @@
         <v>7641707</v>
       </c>
       <c r="C205" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D205" s="2">
         <v>45374.83333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18104,7 +18098,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J205">
         <v>1.333</v>
@@ -18172,16 +18166,16 @@
         <v>7641708</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D206" s="2">
         <v>45374.92013888889</v>
       </c>
       <c r="E206" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18190,7 +18184,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J206">
         <v>2</v>
@@ -18258,16 +18252,16 @@
         <v>7641709</v>
       </c>
       <c r="C207" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D207" s="2">
         <v>45375.00347222222</v>
       </c>
       <c r="E207" t="s">
+        <v>35</v>
+      </c>
+      <c r="F207" t="s">
         <v>37</v>
-      </c>
-      <c r="F207" t="s">
-        <v>39</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18276,7 +18270,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J207">
         <v>4</v>
@@ -18344,16 +18338,16 @@
         <v>7640650</v>
       </c>
       <c r="C208" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D208" s="2">
         <v>45375.625</v>
       </c>
       <c r="E208" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18362,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J208">
         <v>1.444</v>
@@ -18430,16 +18424,16 @@
         <v>7641710</v>
       </c>
       <c r="C209" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D209" s="2">
         <v>45375.92013888889</v>
       </c>
       <c r="E209" t="s">
+        <v>40</v>
+      </c>
+      <c r="F209" t="s">
         <v>42</v>
-      </c>
-      <c r="F209" t="s">
-        <v>44</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18448,7 +18442,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J209">
         <v>2.6</v>
@@ -18516,16 +18510,16 @@
         <v>7641711</v>
       </c>
       <c r="C210" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D210" s="2">
         <v>45377.92013888889</v>
       </c>
       <c r="E210" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18534,7 +18528,7 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J210">
         <v>1.909</v>
@@ -18602,16 +18596,16 @@
         <v>7641712</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D211" s="2">
         <v>45378.00347222222</v>
       </c>
       <c r="E211" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18620,7 +18614,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J211">
         <v>1.833</v>
@@ -18688,16 +18682,16 @@
         <v>7641713</v>
       </c>
       <c r="C212" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D212" s="2">
         <v>45378.92013888889</v>
       </c>
       <c r="E212" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18706,7 +18700,7 @@
         <v>4</v>
       </c>
       <c r="I212" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J212">
         <v>1.666</v>
@@ -18774,16 +18768,16 @@
         <v>7641714</v>
       </c>
       <c r="C213" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D213" s="2">
         <v>45379.00347222222</v>
       </c>
       <c r="E213" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18792,7 +18786,7 @@
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J213">
         <v>1.95</v>
@@ -18860,16 +18854,16 @@
         <v>7641715</v>
       </c>
       <c r="C214" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D214" s="2">
         <v>45379.92013888889</v>
       </c>
       <c r="E214" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G214">
         <v>3</v>
@@ -18878,7 +18872,7 @@
         <v>4</v>
       </c>
       <c r="I214" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J214">
         <v>2.6</v>
@@ -18946,16 +18940,16 @@
         <v>7640651</v>
       </c>
       <c r="C215" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D215" s="2">
         <v>45380.00347222222</v>
       </c>
       <c r="E215" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F215" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -18964,7 +18958,7 @@
         <v>3</v>
       </c>
       <c r="I215" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J215">
         <v>7.5</v>
@@ -19032,16 +19026,16 @@
         <v>7641716</v>
       </c>
       <c r="C216" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D216" s="2">
         <v>45380.875</v>
       </c>
       <c r="E216" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -19050,7 +19044,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J216">
         <v>1.444</v>
@@ -19118,16 +19112,16 @@
         <v>7640652</v>
       </c>
       <c r="C217" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D217" s="2">
         <v>45384.83680555555</v>
       </c>
       <c r="E217" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19136,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J217">
         <v>2.6</v>
@@ -19204,16 +19198,16 @@
         <v>7641717</v>
       </c>
       <c r="C218" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D218" s="2">
         <v>45384.92013888889</v>
       </c>
       <c r="E218" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19222,7 +19216,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J218">
         <v>2.15</v>
@@ -19290,16 +19284,16 @@
         <v>7641718</v>
       </c>
       <c r="C219" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D219" s="2">
         <v>45385.00347222222</v>
       </c>
       <c r="E219" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F219" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19308,7 +19302,7 @@
         <v>3</v>
       </c>
       <c r="I219" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J219">
         <v>2.25</v>
@@ -19376,16 +19370,16 @@
         <v>7641719</v>
       </c>
       <c r="C220" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D220" s="2">
         <v>45385.92013888889</v>
       </c>
       <c r="E220" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F220" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -19394,7 +19388,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J220">
         <v>2.15</v>
@@ -19462,16 +19456,16 @@
         <v>7641720</v>
       </c>
       <c r="C221" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D221" s="2">
         <v>45386.00347222222</v>
       </c>
       <c r="E221" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19480,7 +19474,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J221">
         <v>2.5</v>
@@ -19548,16 +19542,16 @@
         <v>7641721</v>
       </c>
       <c r="C222" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D222" s="2">
         <v>45386.92013888889</v>
       </c>
       <c r="E222" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19566,7 +19560,7 @@
         <v>2</v>
       </c>
       <c r="I222" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J222">
         <v>2.6</v>
@@ -19634,16 +19628,16 @@
         <v>7641722</v>
       </c>
       <c r="C223" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D223" s="2">
         <v>45387.00347222222</v>
       </c>
       <c r="E223" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F223" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19652,7 +19646,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J223">
         <v>2.6</v>
@@ -19720,16 +19714,16 @@
         <v>7893216</v>
       </c>
       <c r="C224" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D224" s="2">
         <v>45388.00347222222</v>
       </c>
       <c r="E224" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19738,7 +19732,7 @@
         <v>3</v>
       </c>
       <c r="I224" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J224">
         <v>2.3</v>
@@ -19806,17 +19800,17 @@
         <v>7641723</v>
       </c>
       <c r="C225" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D225" s="2">
         <v>45391.92013888889</v>
       </c>
       <c r="E225" t="s">
+        <v>36</v>
+      </c>
+      <c r="F225" t="s">
         <v>38</v>
       </c>
-      <c r="F225" t="s">
-        <v>40</v>
-      </c>
       <c r="G225">
         <v>2</v>
       </c>
@@ -19824,7 +19818,7 @@
         <v>2</v>
       </c>
       <c r="I225" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J225">
         <v>1.4</v>
@@ -19892,16 +19886,16 @@
         <v>7641724</v>
       </c>
       <c r="C226" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D226" s="2">
         <v>45392.00347222222</v>
       </c>
       <c r="E226" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -19910,7 +19904,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J226">
         <v>2.3</v>
@@ -19978,16 +19972,16 @@
         <v>7641725</v>
       </c>
       <c r="C227" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D227" s="2">
         <v>45392.92013888889</v>
       </c>
       <c r="E227" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F227" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -19996,7 +19990,7 @@
         <v>2</v>
       </c>
       <c r="I227" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J227">
         <v>2.75</v>
@@ -20064,16 +20058,16 @@
         <v>7641726</v>
       </c>
       <c r="C228" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D228" s="2">
         <v>45393.00347222222</v>
       </c>
       <c r="E228" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20082,7 +20076,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J228">
         <v>1.25</v>
@@ -20150,16 +20144,16 @@
         <v>7640653</v>
       </c>
       <c r="C229" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D229" s="2">
         <v>45393.92013888889</v>
       </c>
       <c r="E229" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -20168,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J229">
         <v>1.6</v>
@@ -20236,16 +20230,16 @@
         <v>7641727</v>
       </c>
       <c r="C230" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D230" s="2">
         <v>45394.00347222222</v>
       </c>
       <c r="E230" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20254,7 +20248,7 @@
         <v>2</v>
       </c>
       <c r="I230" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J230">
         <v>1.8</v>
@@ -20322,16 +20316,16 @@
         <v>7641728</v>
       </c>
       <c r="C231" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D231" s="2">
         <v>45395.83680555555</v>
       </c>
       <c r="E231" t="s">
+        <v>39</v>
+      </c>
+      <c r="F231" t="s">
         <v>41</v>
-      </c>
-      <c r="F231" t="s">
-        <v>43</v>
       </c>
       <c r="G231">
         <v>3</v>
@@ -20340,7 +20334,7 @@
         <v>3</v>
       </c>
       <c r="I231" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J231">
         <v>2.25</v>
@@ -20408,16 +20402,16 @@
         <v>8104978</v>
       </c>
       <c r="C232" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D232" s="2">
         <v>45399.91666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F232" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G232">
         <v>7</v>
@@ -20426,7 +20420,7 @@
         <v>6</v>
       </c>
       <c r="I232" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J232">
         <v>2.2</v>
@@ -20494,16 +20488,16 @@
         <v>8104979</v>
       </c>
       <c r="C233" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D233" s="2">
         <v>45400</v>
       </c>
       <c r="E233" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -20512,7 +20506,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J233">
         <v>2.25</v>
@@ -20580,16 +20574,16 @@
         <v>8117254</v>
       </c>
       <c r="C234" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D234" s="2">
         <v>45403</v>
       </c>
       <c r="E234" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G234">
         <v>3</v>
@@ -20598,7 +20592,7 @@
         <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J234">
         <v>1.909</v>
@@ -20666,16 +20660,16 @@
         <v>8127902</v>
       </c>
       <c r="C235" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D235" s="2">
         <v>45406.91666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F235" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G235">
         <v>4</v>
@@ -20684,7 +20678,7 @@
         <v>3</v>
       </c>
       <c r="I235" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J235">
         <v>2</v>
@@ -20752,16 +20746,16 @@
         <v>8134910</v>
       </c>
       <c r="C236" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D236" s="2">
         <v>45407.00347222222</v>
       </c>
       <c r="E236" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -20770,7 +20764,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J236">
         <v>2.75</v>
@@ -20838,16 +20832,16 @@
         <v>8127901</v>
       </c>
       <c r="C237" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D237" s="2">
         <v>45407.92013888889</v>
       </c>
       <c r="E237" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F237" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20856,7 +20850,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J237">
         <v>2.25</v>
@@ -20924,16 +20918,16 @@
         <v>8134907</v>
       </c>
       <c r="C238" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D238" s="2">
         <v>45408.00347222222</v>
       </c>
       <c r="E238" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F238" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20942,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J238">
         <v>2.3</v>
@@ -21010,16 +21004,16 @@
         <v>8127905</v>
       </c>
       <c r="C239" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D239" s="2">
         <v>45409.83333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21028,7 +21022,7 @@
         <v>3</v>
       </c>
       <c r="I239" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J239">
         <v>1.7</v>
@@ -21096,16 +21090,16 @@
         <v>8127904</v>
       </c>
       <c r="C240" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D240" s="2">
         <v>45409.91666666666</v>
       </c>
       <c r="E240" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F240" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G240">
         <v>2</v>
@@ -21114,7 +21108,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J240">
         <v>1.909</v>
@@ -21182,16 +21176,16 @@
         <v>8127903</v>
       </c>
       <c r="C241" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D241" s="2">
         <v>45410.83333333334</v>
       </c>
       <c r="E241" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F241" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -21200,7 +21194,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J241">
         <v>1.8</v>
@@ -21268,16 +21262,16 @@
         <v>8127899</v>
       </c>
       <c r="C242" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D242" s="2">
         <v>45410.92013888889</v>
       </c>
       <c r="E242" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F242" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G242">
         <v>3</v>
@@ -21286,7 +21280,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J242">
         <v>2.1</v>
@@ -21344,136 +21338,6 @@
       </c>
       <c r="AB242">
         <v>-0.5</v>
-      </c>
-    </row>
-    <row r="243" spans="1:28">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" t="s">
-        <v>27</v>
-      </c>
-      <c r="C243" t="s">
-        <v>29</v>
-      </c>
-      <c r="D243" s="2">
-        <v>45414.85416666666</v>
-      </c>
-      <c r="E243" t="s">
-        <v>32</v>
-      </c>
-      <c r="F243" t="s">
-        <v>30</v>
-      </c>
-      <c r="J243">
-        <v>2.875</v>
-      </c>
-      <c r="K243">
-        <v>3.1</v>
-      </c>
-      <c r="L243">
-        <v>2.375</v>
-      </c>
-      <c r="M243">
-        <v>3.6</v>
-      </c>
-      <c r="N243">
-        <v>3</v>
-      </c>
-      <c r="O243">
-        <v>2.25</v>
-      </c>
-      <c r="P243">
-        <v>0.25</v>
-      </c>
-      <c r="Q243">
-        <v>1.9</v>
-      </c>
-      <c r="R243">
-        <v>1.9</v>
-      </c>
-      <c r="S243">
-        <v>2</v>
-      </c>
-      <c r="T243">
-        <v>1.9</v>
-      </c>
-      <c r="U243">
-        <v>1.9</v>
-      </c>
-      <c r="V243">
-        <v>0</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:28">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" t="s">
-        <v>28</v>
-      </c>
-      <c r="C244" t="s">
-        <v>29</v>
-      </c>
-      <c r="D244" s="2">
-        <v>45414.9375</v>
-      </c>
-      <c r="E244" t="s">
-        <v>36</v>
-      </c>
-      <c r="F244" t="s">
-        <v>39</v>
-      </c>
-      <c r="J244">
-        <v>2.5</v>
-      </c>
-      <c r="K244">
-        <v>3.2</v>
-      </c>
-      <c r="L244">
-        <v>2.625</v>
-      </c>
-      <c r="M244">
-        <v>3.2</v>
-      </c>
-      <c r="N244">
-        <v>3.3</v>
-      </c>
-      <c r="O244">
-        <v>2.25</v>
-      </c>
-      <c r="P244">
-        <v>0.25</v>
-      </c>
-      <c r="Q244">
-        <v>1.85</v>
-      </c>
-      <c r="R244">
-        <v>1.95</v>
-      </c>
-      <c r="S244">
-        <v>2.25</v>
-      </c>
-      <c r="T244">
-        <v>1.775</v>
-      </c>
-      <c r="U244">
-        <v>2.025</v>
-      </c>
-      <c r="V244">
-        <v>0</v>
-      </c>
-      <c r="W244">
-        <v>0</v>
-      </c>
-      <c r="X244">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8185480</t>
   </si>
   <si>
     <t>Mexico Liga de Expansion</t>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB242"/>
+  <dimension ref="A1:AB247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +625,16 @@
         <v>6704110</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45080.91666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -640,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>1.909</v>
@@ -708,16 +711,16 @@
         <v>6924481</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45128.92013888889</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -726,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>2.25</v>
@@ -794,16 +797,16 @@
         <v>6924480</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45129.83680555555</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -812,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>1.8</v>
@@ -880,16 +883,16 @@
         <v>6924482</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45129.92013888889</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -898,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5">
         <v>1.571</v>
@@ -966,16 +969,16 @@
         <v>6924483</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45130.625</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -984,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>2.4</v>
@@ -1052,16 +1055,16 @@
         <v>6924484</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45130.92013888889</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1070,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>2.6</v>
@@ -1138,16 +1141,16 @@
         <v>6924485</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45131.92013888889</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1156,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1224,16 +1227,16 @@
         <v>6923357</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45134.00347222222</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1242,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>2.75</v>
@@ -1310,16 +1313,16 @@
         <v>6924486</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45136.00347222222</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1328,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>1.909</v>
@@ -1396,16 +1399,16 @@
         <v>6924487</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45136.83680555555</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1414,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>3.5</v>
@@ -1482,16 +1485,16 @@
         <v>6924488</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45136.92013888889</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1500,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>2.375</v>
@@ -1568,16 +1571,16 @@
         <v>6924490</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45137.92013888889</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1586,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1654,16 +1657,16 @@
         <v>6924491</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45138.00347222222</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1672,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1740,16 +1743,16 @@
         <v>6924492</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45138.92013888889</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1758,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1826,16 +1829,16 @@
         <v>6924493</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45141.92013888889</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1844,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1912,16 +1915,16 @@
         <v>6924494</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45143.83680555555</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -1930,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -1998,16 +2001,16 @@
         <v>6924495</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45143.92013888889</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2016,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <v>2.8</v>
@@ -2084,16 +2087,16 @@
         <v>6924496</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45144.00347222222</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2102,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2170,16 +2173,16 @@
         <v>6924498</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45144.625</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2188,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>1.571</v>
@@ -2256,16 +2259,16 @@
         <v>6924497</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45144.83680555555</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2274,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>2.9</v>
@@ -2342,16 +2345,16 @@
         <v>6924499</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45145.00347222222</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2360,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>2.375</v>
@@ -2428,16 +2431,16 @@
         <v>6924500</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45148.92013888889</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2446,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J23">
         <v>2.25</v>
@@ -2514,16 +2517,16 @@
         <v>6924501</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45149.83680555555</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2532,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <v>1.952</v>
@@ -2600,16 +2603,16 @@
         <v>6924502</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45149.92013888889</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2618,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>1.952</v>
@@ -2686,16 +2689,16 @@
         <v>6924503</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45150.92013888889</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2704,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J26">
         <v>2.8</v>
@@ -2772,16 +2775,16 @@
         <v>6924504</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45151.00347222222</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2790,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2858,16 +2861,16 @@
         <v>6924506</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45151.83680555555</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2876,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J28">
         <v>1.909</v>
@@ -2944,16 +2947,16 @@
         <v>6924507</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45152.00347222222</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2962,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3030,16 +3033,16 @@
         <v>6924508</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45153.92013888889</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3048,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>2.5</v>
@@ -3116,16 +3119,16 @@
         <v>6924509</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45154.00347222222</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -3134,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J31">
         <v>3.6</v>
@@ -3202,16 +3205,16 @@
         <v>6924513</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45154.83680555555</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3220,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <v>1.444</v>
@@ -3288,17 +3291,17 @@
         <v>6924510</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45155.00347222222</v>
       </c>
       <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
         <v>31</v>
       </c>
-      <c r="F33" t="s">
-        <v>30</v>
-      </c>
       <c r="G33">
         <v>2</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J33">
         <v>1.909</v>
@@ -3374,16 +3377,16 @@
         <v>6924511</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45155.83680555555</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3392,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J34">
         <v>1.85</v>
@@ -3460,16 +3463,16 @@
         <v>6924512</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45156.83680555555</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3478,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J35">
         <v>3.1</v>
@@ -3546,16 +3549,16 @@
         <v>7067400</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45157.83680555555</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3564,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J36">
         <v>1.833</v>
@@ -3632,16 +3635,16 @@
         <v>6924514</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45157.92013888889</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3650,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J37">
         <v>2.6</v>
@@ -3718,16 +3721,16 @@
         <v>6924515</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45160.83680555555</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3736,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3804,16 +3807,16 @@
         <v>6924516</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45160.92013888889</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -3822,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J39">
         <v>2.55</v>
@@ -3890,16 +3893,16 @@
         <v>6924517</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45161.00347222222</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3908,7 +3911,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J40">
         <v>2.2</v>
@@ -3976,16 +3979,16 @@
         <v>6924518</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45161.92013888889</v>
       </c>
       <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
         <v>33</v>
-      </c>
-      <c r="F41" t="s">
-        <v>32</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -3994,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <v>1.65</v>
@@ -4062,16 +4065,16 @@
         <v>6924519</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45162.00347222222</v>
       </c>
       <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s">
         <v>40</v>
-      </c>
-      <c r="F42" t="s">
-        <v>39</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4080,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J42">
         <v>1.571</v>
@@ -4148,16 +4151,16 @@
         <v>6924520</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45162.83680555555</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4166,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J43">
         <v>1.571</v>
@@ -4234,16 +4237,16 @@
         <v>6924521</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45162.92013888889</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -4252,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J44">
         <v>1.363</v>
@@ -4320,16 +4323,16 @@
         <v>6924522</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45167.92013888889</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4338,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J45">
         <v>2.25</v>
@@ -4406,16 +4409,16 @@
         <v>6924523</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45168.00347222222</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -4424,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4492,16 +4495,16 @@
         <v>6924524</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45168.83333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4510,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4578,16 +4581,16 @@
         <v>6924525</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45168.92013888889</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4596,7 +4599,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <v>3.4</v>
@@ -4664,16 +4667,16 @@
         <v>6924526</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45169.00347222222</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4682,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J49">
         <v>2.1</v>
@@ -4750,16 +4753,16 @@
         <v>6924527</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45170.00347222222</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4768,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J50">
         <v>1.285</v>
@@ -4836,16 +4839,16 @@
         <v>6924528</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45171.00347222222</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4854,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4922,16 +4925,16 @@
         <v>6924529</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45174.83680555555</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4940,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J52">
         <v>2.4</v>
@@ -5008,16 +5011,16 @@
         <v>6924530</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45174.92013888889</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5026,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5094,16 +5097,16 @@
         <v>6924531</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45175.00347222222</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5112,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J54">
         <v>2.6</v>
@@ -5180,16 +5183,16 @@
         <v>6924532</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45175.92013888889</v>
       </c>
       <c r="E55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" t="s">
         <v>36</v>
-      </c>
-      <c r="F55" t="s">
-        <v>35</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5198,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J55">
         <v>1.55</v>
@@ -5266,16 +5269,16 @@
         <v>6924533</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45176.92013888889</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5284,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J56">
         <v>1.95</v>
@@ -5352,16 +5355,16 @@
         <v>6924534</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45179.00347222222</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5370,7 +5373,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J57">
         <v>2.7</v>
@@ -5438,16 +5441,16 @@
         <v>6924535</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45179.92013888889</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5456,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>1.727</v>
@@ -5524,16 +5527,16 @@
         <v>6924536</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45182.83680555555</v>
       </c>
       <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
         <v>32</v>
-      </c>
-      <c r="F59" t="s">
-        <v>31</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5542,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5610,16 +5613,16 @@
         <v>6924537</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45182.92013888889</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5628,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J60">
         <v>2.75</v>
@@ -5696,16 +5699,16 @@
         <v>6924538</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45183.00347222222</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5714,7 +5717,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J61">
         <v>2.2</v>
@@ -5782,16 +5785,16 @@
         <v>6924539</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45183.92013888889</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G62">
         <v>4</v>
@@ -5800,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>1.3</v>
@@ -5868,16 +5871,16 @@
         <v>6924540</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45185.92013888889</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5886,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J63">
         <v>2.05</v>
@@ -5954,16 +5957,16 @@
         <v>6924541</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45186.00347222222</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5972,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J64">
         <v>2.5</v>
@@ -6040,16 +6043,16 @@
         <v>6924542</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45186.83680555555</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6058,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J65">
         <v>1.85</v>
@@ -6126,16 +6129,16 @@
         <v>6924543</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45188.83680555555</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6144,7 +6147,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>1.85</v>
@@ -6212,16 +6215,16 @@
         <v>6924544</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45188.92013888889</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -6230,7 +6233,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J67">
         <v>2.25</v>
@@ -6298,16 +6301,16 @@
         <v>6924545</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45189.00347222222</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6316,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J68">
         <v>2.05</v>
@@ -6384,16 +6387,16 @@
         <v>6924546</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45189.83680555555</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6402,7 +6405,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -6470,16 +6473,16 @@
         <v>6924547</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45189.92013888889</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6488,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -6556,16 +6559,16 @@
         <v>6924548</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45191</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6574,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J71">
         <v>1.5</v>
@@ -6642,16 +6645,16 @@
         <v>6924549</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45193.875</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6660,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J72">
         <v>1.8</v>
@@ -6728,16 +6731,16 @@
         <v>6924550</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45195.92013888889</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6746,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J73">
         <v>1.615</v>
@@ -6814,16 +6817,16 @@
         <v>6924551</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45196.00347222222</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6832,7 +6835,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J74">
         <v>2.15</v>
@@ -6900,16 +6903,16 @@
         <v>6924552</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45196.83680555555</v>
       </c>
       <c r="E75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s">
         <v>39</v>
-      </c>
-      <c r="F75" t="s">
-        <v>38</v>
       </c>
       <c r="G75">
         <v>4</v>
@@ -6918,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J75">
         <v>1.45</v>
@@ -6986,16 +6989,16 @@
         <v>6924553</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45196.92013888889</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -7004,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7072,16 +7075,16 @@
         <v>6924554</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45197.00347222222</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7090,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J77">
         <v>1.8</v>
@@ -7158,16 +7161,16 @@
         <v>6924555</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45199.83680555555</v>
       </c>
       <c r="E78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7176,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J78">
         <v>1.75</v>
@@ -7244,16 +7247,16 @@
         <v>6924556</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45200.91666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7262,7 +7265,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J79">
         <v>2.1</v>
@@ -7330,16 +7333,16 @@
         <v>6924559</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45203.00347222222</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7348,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7416,16 +7419,16 @@
         <v>6924560</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45203.92013888889</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7434,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J81">
         <v>1.909</v>
@@ -7502,16 +7505,16 @@
         <v>6924561</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45204.00347222222</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7520,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J82">
         <v>1.5</v>
@@ -7588,16 +7591,16 @@
         <v>6924562</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45204.83680555555</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7606,7 +7609,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J83">
         <v>1.909</v>
@@ -7674,16 +7677,16 @@
         <v>6924558</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45204.92013888889</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7692,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J84">
         <v>2.1</v>
@@ -7760,16 +7763,16 @@
         <v>6924563</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45205.00347222222</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -7778,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J85">
         <v>2.2</v>
@@ -7846,16 +7849,16 @@
         <v>6924557</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7864,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J86">
         <v>2.1</v>
@@ -7932,16 +7935,16 @@
         <v>6924564</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45210.92013888889</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7950,7 +7953,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -8018,16 +8021,16 @@
         <v>6924565</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45212.83680555555</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8036,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J88">
         <v>2.625</v>
@@ -8104,16 +8107,16 @@
         <v>6924566</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45213.00347222222</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8122,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J89">
         <v>2.1</v>
@@ -8190,16 +8193,16 @@
         <v>6924567</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45213.83680555555</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8208,7 +8211,7 @@
         <v>5</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J90">
         <v>2.25</v>
@@ -8276,16 +8279,16 @@
         <v>6924569</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>4</v>
@@ -8294,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J91">
         <v>1.615</v>
@@ -8362,16 +8365,16 @@
         <v>6924568</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8380,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8448,16 +8451,16 @@
         <v>6924570</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45215.00347222222</v>
       </c>
       <c r="E93" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" t="s">
         <v>34</v>
-      </c>
-      <c r="F93" t="s">
-        <v>33</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8466,7 +8469,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J93">
         <v>2.375</v>
@@ -8534,16 +8537,16 @@
         <v>6924571</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45219.00347222222</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8552,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J94">
         <v>2.5</v>
@@ -8620,16 +8623,16 @@
         <v>6924572</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45223.92013888889</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8638,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8706,16 +8709,16 @@
         <v>6924574</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45224.92013888889</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8724,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8792,16 +8795,16 @@
         <v>6924575</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45225.00347222222</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8810,7 +8813,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J97">
         <v>2.9</v>
@@ -8878,16 +8881,16 @@
         <v>6924576</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45225.92013888889</v>
       </c>
       <c r="E98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8896,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J98">
         <v>1.615</v>
@@ -8964,16 +8967,16 @@
         <v>6924573</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45226.00347222222</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8982,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9050,16 +9053,16 @@
         <v>6924578</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45227.92013888889</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100">
         <v>4</v>
@@ -9068,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J100">
         <v>2.1</v>
@@ -9136,16 +9139,16 @@
         <v>6924577</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45228.83333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9154,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J101">
         <v>1.363</v>
@@ -9222,16 +9225,16 @@
         <v>6924579</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45230.83680555555</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9240,7 +9243,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -9308,16 +9311,16 @@
         <v>6924581</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45231.83680555555</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9326,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J103">
         <v>4.333</v>
@@ -9394,16 +9397,16 @@
         <v>6924582</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45231.92013888889</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9412,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9480,16 +9483,16 @@
         <v>6924580</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45232.83680555555</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9498,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J105">
         <v>2.375</v>
@@ -9566,16 +9569,16 @@
         <v>6924583</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45232.92013888889</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9584,7 +9587,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J106">
         <v>1.4</v>
@@ -9652,16 +9655,16 @@
         <v>6924584</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45233.00347222222</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9670,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J107">
         <v>1.65</v>
@@ -9738,16 +9741,16 @@
         <v>7449159</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45239.92013888889</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108">
         <v>5</v>
@@ -9756,7 +9759,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9824,16 +9827,16 @@
         <v>7449160</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45240.00347222222</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9842,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J109">
         <v>1.444</v>
@@ -9910,16 +9913,16 @@
         <v>7460657</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45242.83680555555</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9928,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -9996,16 +9999,16 @@
         <v>7473421</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45245.92013888889</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10014,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J111">
         <v>2.3</v>
@@ -10082,16 +10085,16 @@
         <v>7473419</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45246.00347222222</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10100,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J112">
         <v>2.25</v>
@@ -10168,16 +10171,16 @@
         <v>7473420</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45246.92013888889</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10186,7 +10189,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J113">
         <v>2.3</v>
@@ -10254,16 +10257,16 @@
         <v>7473526</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45247.00347222222</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10272,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J114">
         <v>2.75</v>
@@ -10340,16 +10343,16 @@
         <v>7450712</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45248.83680555555</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -10358,7 +10361,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J115">
         <v>1.6</v>
@@ -10426,16 +10429,16 @@
         <v>7473836</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45248.92013888889</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10444,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J116">
         <v>2.05</v>
@@ -10512,16 +10515,16 @@
         <v>7473837</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45249.83680555555</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10530,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J117">
         <v>1.909</v>
@@ -10598,16 +10601,16 @@
         <v>7450713</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45249.92013888889</v>
       </c>
       <c r="E118" t="s">
+        <v>34</v>
+      </c>
+      <c r="F118" t="s">
         <v>33</v>
-      </c>
-      <c r="F118" t="s">
-        <v>32</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10616,7 +10619,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10684,16 +10687,16 @@
         <v>7505184</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45252.91666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10702,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J119">
         <v>1.727</v>
@@ -10770,16 +10773,16 @@
         <v>7505183</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45253.91666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10788,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J120">
         <v>1.85</v>
@@ -10856,16 +10859,16 @@
         <v>7506103</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45256.00347222222</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10874,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J121">
         <v>2.625</v>
@@ -10942,16 +10945,16 @@
         <v>7506798</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10960,7 +10963,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J122">
         <v>2.1</v>
@@ -11028,16 +11031,16 @@
         <v>7528853</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45260.91666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11046,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J123">
         <v>1.909</v>
@@ -11114,16 +11117,16 @@
         <v>7531699</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45263.79166666666</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11132,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J124">
         <v>2.375</v>
@@ -11200,16 +11203,16 @@
         <v>7641630</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45300.92013888889</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11218,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J125">
         <v>2.1</v>
@@ -11286,16 +11289,16 @@
         <v>7641631</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45301.00347222222</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11304,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J126">
         <v>2.45</v>
@@ -11372,16 +11375,16 @@
         <v>7641632</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45301.92013888889</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11390,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J127">
         <v>3.6</v>
@@ -11458,17 +11461,17 @@
         <v>7641633</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45302.00347222222</v>
       </c>
       <c r="E128" t="s">
+        <v>31</v>
+      </c>
+      <c r="F128" t="s">
         <v>30</v>
       </c>
-      <c r="F128" t="s">
-        <v>29</v>
-      </c>
       <c r="G128">
         <v>0</v>
       </c>
@@ -11476,7 +11479,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11544,16 +11547,16 @@
         <v>7641634</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45302.92013888889</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11562,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J129">
         <v>1.5</v>
@@ -11630,16 +11633,16 @@
         <v>7641635</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45303.00347222222</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11648,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J130">
         <v>1.95</v>
@@ -11716,16 +11719,16 @@
         <v>7640640</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45305.79513888889</v>
       </c>
       <c r="E131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11734,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J131">
         <v>1.833</v>
@@ -11802,16 +11805,16 @@
         <v>7641636</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45307.92013888889</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -11820,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J132">
         <v>1.571</v>
@@ -11888,16 +11891,16 @@
         <v>7641638</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45308.92013888889</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11906,7 +11909,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J133">
         <v>1.615</v>
@@ -11974,16 +11977,16 @@
         <v>7641639</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45309.00347222222</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11992,7 +11995,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J134">
         <v>3.6</v>
@@ -12060,16 +12063,16 @@
         <v>7641640</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45309.92013888889</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12078,7 +12081,7 @@
         <v>5</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J135">
         <v>2.1</v>
@@ -12146,16 +12149,16 @@
         <v>7641641</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45310.00347222222</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12164,7 +12167,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J136">
         <v>1.8</v>
@@ -12232,16 +12235,16 @@
         <v>7640641</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45312.83680555555</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12250,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J137">
         <v>2.75</v>
@@ -12318,16 +12321,16 @@
         <v>7641642</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45314.92013888889</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12336,7 +12339,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J138">
         <v>2.8</v>
@@ -12404,16 +12407,16 @@
         <v>7641643</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45315.00347222222</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12422,7 +12425,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J139">
         <v>2.05</v>
@@ -12490,16 +12493,16 @@
         <v>7641644</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45315.92013888889</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12508,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12576,16 +12579,16 @@
         <v>7641645</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45316.00347222222</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12594,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J141">
         <v>2.55</v>
@@ -12662,16 +12665,16 @@
         <v>7640642</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45316.92013888889</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12680,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12748,16 +12751,16 @@
         <v>7641646</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45317.00347222222</v>
       </c>
       <c r="E143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12766,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J143">
         <v>1.7</v>
@@ -12834,16 +12837,16 @@
         <v>7641647</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45319.87847222222</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12852,7 +12855,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J144">
         <v>1.909</v>
@@ -12920,16 +12923,16 @@
         <v>7641648</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45322.00347222222</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12938,7 +12941,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J145">
         <v>1.5</v>
@@ -13006,16 +13009,16 @@
         <v>7640643</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45322.83680555555</v>
       </c>
       <c r="E146" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13024,7 +13027,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J146">
         <v>1.4</v>
@@ -13092,16 +13095,16 @@
         <v>7641649</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45322.92013888889</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13110,7 +13113,7 @@
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J147">
         <v>3.8</v>
@@ -13178,16 +13181,16 @@
         <v>7641650</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45323.00347222222</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13196,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J148">
         <v>2.05</v>
@@ -13264,16 +13267,16 @@
         <v>7641651</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45323.92013888889</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13282,7 +13285,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J149">
         <v>2.15</v>
@@ -13350,16 +13353,16 @@
         <v>7641652</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45324.00347222222</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13368,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J150">
         <v>2</v>
@@ -13436,16 +13439,16 @@
         <v>7641653</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45326.79513888889</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13454,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J151">
         <v>3</v>
@@ -13522,16 +13525,16 @@
         <v>7641659</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45326.92013888889</v>
       </c>
       <c r="E152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13540,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J152">
         <v>2.2</v>
@@ -13608,16 +13611,16 @@
         <v>7641655</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45328.83680555555</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13626,7 +13629,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J153">
         <v>1.333</v>
@@ -13694,16 +13697,16 @@
         <v>7641654</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45328.92013888889</v>
       </c>
       <c r="E154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13712,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J154">
         <v>2.5</v>
@@ -13780,16 +13783,16 @@
         <v>7640644</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45329.92013888889</v>
       </c>
       <c r="E155" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13798,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J155">
         <v>3.5</v>
@@ -13866,16 +13869,16 @@
         <v>7641656</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45330.00347222222</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13884,7 +13887,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J156">
         <v>2.05</v>
@@ -13952,16 +13955,16 @@
         <v>7641658</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45330.92013888889</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13970,7 +13973,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J157">
         <v>1.8</v>
@@ -14038,17 +14041,17 @@
         <v>7641657</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45331.83680555555</v>
       </c>
       <c r="E158" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" t="s">
         <v>37</v>
       </c>
-      <c r="F158" t="s">
-        <v>36</v>
-      </c>
       <c r="G158">
         <v>2</v>
       </c>
@@ -14056,7 +14059,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J158">
         <v>2</v>
@@ -14124,16 +14127,16 @@
         <v>7641660</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45335.92013888889</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14142,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J159">
         <v>2.5</v>
@@ -14210,16 +14213,16 @@
         <v>7641661</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45336.00347222222</v>
       </c>
       <c r="E160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14228,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J160">
         <v>3.1</v>
@@ -14296,16 +14299,16 @@
         <v>7641670</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45336.92013888889</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14314,7 +14317,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J161">
         <v>2.5</v>
@@ -14382,16 +14385,16 @@
         <v>7641671</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45338.00347222222</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14400,7 +14403,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J162">
         <v>2.7</v>
@@ -14468,16 +14471,16 @@
         <v>7641672</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45338.92013888889</v>
       </c>
       <c r="E163" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" t="s">
         <v>35</v>
-      </c>
-      <c r="F163" t="s">
-        <v>34</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14486,7 +14489,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J163">
         <v>2.4</v>
@@ -14554,16 +14557,16 @@
         <v>7641673</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45339.83680555555</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14572,7 +14575,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J164">
         <v>2.45</v>
@@ -14640,16 +14643,16 @@
         <v>7640645</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45340.625</v>
       </c>
       <c r="E165" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14658,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J165">
         <v>1.55</v>
@@ -14726,16 +14729,16 @@
         <v>7641679</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45342.92013888889</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14744,7 +14747,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J166">
         <v>1.909</v>
@@ -14812,16 +14815,16 @@
         <v>7641675</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45343.00347222222</v>
       </c>
       <c r="E167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -14830,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J167">
         <v>2.45</v>
@@ -14898,16 +14901,16 @@
         <v>7641676</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45343.92013888889</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14916,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J168">
         <v>3.4</v>
@@ -14984,16 +14987,16 @@
         <v>7641674</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45344.00347222222</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G169">
         <v>4</v>
@@ -15002,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J169">
         <v>2</v>
@@ -15070,16 +15073,16 @@
         <v>7641678</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45344.92013888889</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15088,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J170">
         <v>1.8</v>
@@ -15156,16 +15159,16 @@
         <v>7641677</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
         <v>45345.00347222222</v>
       </c>
       <c r="E171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15174,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J171">
         <v>1.6</v>
@@ -15242,16 +15245,16 @@
         <v>7641680</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
         <v>45347.83680555555</v>
       </c>
       <c r="E172" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15260,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J172">
         <v>1.333</v>
@@ -15328,16 +15331,16 @@
         <v>7640646</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D173" s="2">
         <v>45349.92013888889</v>
       </c>
       <c r="E173" t="s">
+        <v>30</v>
+      </c>
+      <c r="F173" t="s">
         <v>29</v>
-      </c>
-      <c r="F173" t="s">
-        <v>28</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15346,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J173">
         <v>2.9</v>
@@ -15414,16 +15417,16 @@
         <v>7641681</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
         <v>45350.00347222222</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15432,7 +15435,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J174">
         <v>1.666</v>
@@ -15500,16 +15503,16 @@
         <v>7641682</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2">
         <v>45350.92013888889</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15518,7 +15521,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J175">
         <v>2.3</v>
@@ -15586,16 +15589,16 @@
         <v>7641684</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D176" s="2">
         <v>45351.92013888889</v>
       </c>
       <c r="E176" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -15604,7 +15607,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J176">
         <v>4</v>
@@ -15672,16 +15675,16 @@
         <v>7641685</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D177" s="2">
         <v>45352.00347222222</v>
       </c>
       <c r="E177" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" t="s">
         <v>41</v>
-      </c>
-      <c r="F177" t="s">
-        <v>40</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15690,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J177">
         <v>1.8</v>
@@ -15758,16 +15761,16 @@
         <v>7701489</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D178" s="2">
         <v>45352.83333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15776,7 +15779,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J178">
         <v>1.571</v>
@@ -15844,16 +15847,16 @@
         <v>7641686</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D179" s="2">
         <v>45353.83680555555</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15862,7 +15865,7 @@
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J179">
         <v>2</v>
@@ -15930,16 +15933,16 @@
         <v>7640647</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D180" s="2">
         <v>45356.92013888889</v>
       </c>
       <c r="E180" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15948,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J180">
         <v>1.4</v>
@@ -16016,16 +16019,16 @@
         <v>7641687</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2">
         <v>45357.00347222222</v>
       </c>
       <c r="E181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16034,7 +16037,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J181">
         <v>1.65</v>
@@ -16102,16 +16105,16 @@
         <v>7641688</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D182" s="2">
         <v>45357.92013888889</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16120,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J182">
         <v>1.571</v>
@@ -16188,16 +16191,16 @@
         <v>7641689</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D183" s="2">
         <v>45358.00347222222</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16206,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J183">
         <v>3.6</v>
@@ -16274,16 +16277,16 @@
         <v>7641690</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D184" s="2">
         <v>45358.92013888889</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G184">
         <v>3</v>
@@ -16292,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J184">
         <v>1.7</v>
@@ -16360,16 +16363,16 @@
         <v>7641691</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D185" s="2">
         <v>45359.00347222222</v>
       </c>
       <c r="E185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16378,7 +16381,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J185">
         <v>1.571</v>
@@ -16446,16 +16449,16 @@
         <v>7648958</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D186" s="2">
         <v>45361.5</v>
       </c>
       <c r="E186" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G186">
         <v>4</v>
@@ -16464,7 +16467,7 @@
         <v>3</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J186">
         <v>2.375</v>
@@ -16532,16 +16535,16 @@
         <v>7648957</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D187" s="2">
         <v>45361.5</v>
       </c>
       <c r="E187" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16550,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J187">
         <v>1.666</v>
@@ -16618,16 +16621,16 @@
         <v>7641692</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D188" s="2">
         <v>45361.92013888889</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16636,7 +16639,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J188">
         <v>2.15</v>
@@ -16704,16 +16707,16 @@
         <v>7641693</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D189" s="2">
         <v>45363.92013888889</v>
       </c>
       <c r="E189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16722,7 +16725,7 @@
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J189">
         <v>2.4</v>
@@ -16790,16 +16793,16 @@
         <v>7641694</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D190" s="2">
         <v>45364.00347222222</v>
       </c>
       <c r="E190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16808,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J190">
         <v>1.4</v>
@@ -16876,16 +16879,16 @@
         <v>7640648</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D191" s="2">
         <v>45364.92013888889</v>
       </c>
       <c r="E191" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F191" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16894,7 +16897,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J191">
         <v>4</v>
@@ -16962,16 +16965,16 @@
         <v>7641695</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D192" s="2">
         <v>45365.00347222222</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16980,7 +16983,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J192">
         <v>2.25</v>
@@ -17048,16 +17051,16 @@
         <v>7641696</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D193" s="2">
         <v>45365.92013888889</v>
       </c>
       <c r="E193" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17066,7 +17069,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J193">
         <v>2.1</v>
@@ -17134,16 +17137,16 @@
         <v>7641697</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D194" s="2">
         <v>45366.00347222222</v>
       </c>
       <c r="E194" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17152,7 +17155,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J194">
         <v>2.25</v>
@@ -17220,16 +17223,16 @@
         <v>7641698</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D195" s="2">
         <v>45368.92013888889</v>
       </c>
       <c r="E195" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17238,7 +17241,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J195">
         <v>2.3</v>
@@ -17306,16 +17309,16 @@
         <v>7641699</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D196" s="2">
         <v>45370.83680555555</v>
       </c>
       <c r="E196" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17324,7 +17327,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J196">
         <v>1.533</v>
@@ -17392,16 +17395,16 @@
         <v>7640649</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D197" s="2">
         <v>45370.92013888889</v>
       </c>
       <c r="E197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17410,7 +17413,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J197">
         <v>1.65</v>
@@ -17478,16 +17481,16 @@
         <v>7641700</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D198" s="2">
         <v>45371.00347222222</v>
       </c>
       <c r="E198" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17496,7 +17499,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J198">
         <v>1.95</v>
@@ -17564,16 +17567,16 @@
         <v>7641701</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D199" s="2">
         <v>45371.83680555555</v>
       </c>
       <c r="E199" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17582,7 +17585,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J199">
         <v>2.1</v>
@@ -17650,16 +17653,16 @@
         <v>7641702</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D200" s="2">
         <v>45371.92013888889</v>
       </c>
       <c r="E200" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -17668,7 +17671,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J200">
         <v>1.8</v>
@@ -17736,16 +17739,16 @@
         <v>7641703</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D201" s="2">
         <v>45372.00347222222</v>
       </c>
       <c r="E201" t="s">
+        <v>39</v>
+      </c>
+      <c r="F201" t="s">
         <v>38</v>
-      </c>
-      <c r="F201" t="s">
-        <v>37</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17754,7 +17757,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J201">
         <v>3.6</v>
@@ -17822,16 +17825,16 @@
         <v>7641704</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D202" s="2">
         <v>45372.92013888889</v>
       </c>
       <c r="E202" t="s">
+        <v>43</v>
+      </c>
+      <c r="F202" t="s">
         <v>42</v>
-      </c>
-      <c r="F202" t="s">
-        <v>41</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17840,7 +17843,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J202">
         <v>1.6</v>
@@ -17908,16 +17911,16 @@
         <v>7641705</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D203" s="2">
         <v>45373.92013888889</v>
       </c>
       <c r="E203" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17926,7 +17929,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J203">
         <v>1.75</v>
@@ -17994,16 +17997,16 @@
         <v>7641706</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2">
         <v>45374.75</v>
       </c>
       <c r="E204" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -18012,7 +18015,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J204">
         <v>2.7</v>
@@ -18080,16 +18083,16 @@
         <v>7641707</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D205" s="2">
         <v>45374.83333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18098,7 +18101,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J205">
         <v>1.333</v>
@@ -18166,16 +18169,16 @@
         <v>7641708</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D206" s="2">
         <v>45374.92013888889</v>
       </c>
       <c r="E206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18184,7 +18187,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J206">
         <v>2</v>
@@ -18252,16 +18255,16 @@
         <v>7641709</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D207" s="2">
         <v>45375.00347222222</v>
       </c>
       <c r="E207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18270,7 +18273,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J207">
         <v>4</v>
@@ -18338,16 +18341,16 @@
         <v>7640650</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D208" s="2">
         <v>45375.625</v>
       </c>
       <c r="E208" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18356,7 +18359,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J208">
         <v>1.444</v>
@@ -18424,16 +18427,16 @@
         <v>7641710</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D209" s="2">
         <v>45375.92013888889</v>
       </c>
       <c r="E209" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18442,7 +18445,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J209">
         <v>2.6</v>
@@ -18510,16 +18513,16 @@
         <v>7641711</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D210" s="2">
         <v>45377.92013888889</v>
       </c>
       <c r="E210" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18528,7 +18531,7 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J210">
         <v>1.909</v>
@@ -18596,16 +18599,16 @@
         <v>7641712</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D211" s="2">
         <v>45378.00347222222</v>
       </c>
       <c r="E211" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18614,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J211">
         <v>1.833</v>
@@ -18682,16 +18685,16 @@
         <v>7641713</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D212" s="2">
         <v>45378.92013888889</v>
       </c>
       <c r="E212" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18700,7 +18703,7 @@
         <v>4</v>
       </c>
       <c r="I212" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J212">
         <v>1.666</v>
@@ -18768,16 +18771,16 @@
         <v>7641714</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D213" s="2">
         <v>45379.00347222222</v>
       </c>
       <c r="E213" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18786,7 +18789,7 @@
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J213">
         <v>1.95</v>
@@ -18854,16 +18857,16 @@
         <v>7641715</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D214" s="2">
         <v>45379.92013888889</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G214">
         <v>3</v>
@@ -18872,7 +18875,7 @@
         <v>4</v>
       </c>
       <c r="I214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J214">
         <v>2.6</v>
@@ -18940,16 +18943,16 @@
         <v>7640651</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D215" s="2">
         <v>45380.00347222222</v>
       </c>
       <c r="E215" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F215" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -18958,7 +18961,7 @@
         <v>3</v>
       </c>
       <c r="I215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J215">
         <v>7.5</v>
@@ -19026,16 +19029,16 @@
         <v>7641716</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D216" s="2">
         <v>45380.875</v>
       </c>
       <c r="E216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -19044,7 +19047,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J216">
         <v>1.444</v>
@@ -19112,16 +19115,16 @@
         <v>7640652</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D217" s="2">
         <v>45384.83680555555</v>
       </c>
       <c r="E217" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F217" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19130,7 +19133,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J217">
         <v>2.6</v>
@@ -19198,16 +19201,16 @@
         <v>7641717</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D218" s="2">
         <v>45384.92013888889</v>
       </c>
       <c r="E218" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19216,7 +19219,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J218">
         <v>2.15</v>
@@ -19284,16 +19287,16 @@
         <v>7641718</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D219" s="2">
         <v>45385.00347222222</v>
       </c>
       <c r="E219" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19302,7 +19305,7 @@
         <v>3</v>
       </c>
       <c r="I219" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J219">
         <v>2.25</v>
@@ -19370,16 +19373,16 @@
         <v>7641719</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D220" s="2">
         <v>45385.92013888889</v>
       </c>
       <c r="E220" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -19388,7 +19391,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J220">
         <v>2.15</v>
@@ -19456,16 +19459,16 @@
         <v>7641720</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D221" s="2">
         <v>45386.00347222222</v>
       </c>
       <c r="E221" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19474,7 +19477,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J221">
         <v>2.5</v>
@@ -19542,16 +19545,16 @@
         <v>7641721</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D222" s="2">
         <v>45386.92013888889</v>
       </c>
       <c r="E222" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F222" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19560,7 +19563,7 @@
         <v>2</v>
       </c>
       <c r="I222" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J222">
         <v>2.6</v>
@@ -19628,16 +19631,16 @@
         <v>7641722</v>
       </c>
       <c r="C223" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D223" s="2">
         <v>45387.00347222222</v>
       </c>
       <c r="E223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19646,7 +19649,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J223">
         <v>2.6</v>
@@ -19714,16 +19717,16 @@
         <v>7893216</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D224" s="2">
         <v>45388.00347222222</v>
       </c>
       <c r="E224" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19732,7 +19735,7 @@
         <v>3</v>
       </c>
       <c r="I224" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J224">
         <v>2.3</v>
@@ -19800,16 +19803,16 @@
         <v>7641723</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D225" s="2">
         <v>45391.92013888889</v>
       </c>
       <c r="E225" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19818,7 +19821,7 @@
         <v>2</v>
       </c>
       <c r="I225" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J225">
         <v>1.4</v>
@@ -19886,16 +19889,16 @@
         <v>7641724</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D226" s="2">
         <v>45392.00347222222</v>
       </c>
       <c r="E226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F226" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -19904,7 +19907,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J226">
         <v>2.3</v>
@@ -19972,16 +19975,16 @@
         <v>7641725</v>
       </c>
       <c r="C227" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D227" s="2">
         <v>45392.92013888889</v>
       </c>
       <c r="E227" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -19990,7 +19993,7 @@
         <v>2</v>
       </c>
       <c r="I227" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J227">
         <v>2.75</v>
@@ -20058,16 +20061,16 @@
         <v>7641726</v>
       </c>
       <c r="C228" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D228" s="2">
         <v>45393.00347222222</v>
       </c>
       <c r="E228" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20076,7 +20079,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J228">
         <v>1.25</v>
@@ -20144,16 +20147,16 @@
         <v>7640653</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D229" s="2">
         <v>45393.92013888889</v>
       </c>
       <c r="E229" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -20162,7 +20165,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J229">
         <v>1.6</v>
@@ -20230,16 +20233,16 @@
         <v>7641727</v>
       </c>
       <c r="C230" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D230" s="2">
         <v>45394.00347222222</v>
       </c>
       <c r="E230" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20248,7 +20251,7 @@
         <v>2</v>
       </c>
       <c r="I230" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J230">
         <v>1.8</v>
@@ -20316,16 +20319,16 @@
         <v>7641728</v>
       </c>
       <c r="C231" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D231" s="2">
         <v>45395.83680555555</v>
       </c>
       <c r="E231" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G231">
         <v>3</v>
@@ -20334,7 +20337,7 @@
         <v>3</v>
       </c>
       <c r="I231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J231">
         <v>2.25</v>
@@ -20402,16 +20405,16 @@
         <v>8104978</v>
       </c>
       <c r="C232" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D232" s="2">
         <v>45399.91666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G232">
         <v>7</v>
@@ -20420,7 +20423,7 @@
         <v>6</v>
       </c>
       <c r="I232" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J232">
         <v>2.2</v>
@@ -20488,16 +20491,16 @@
         <v>8104979</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D233" s="2">
         <v>45400</v>
       </c>
       <c r="E233" t="s">
+        <v>35</v>
+      </c>
+      <c r="F233" t="s">
         <v>34</v>
-      </c>
-      <c r="F233" t="s">
-        <v>33</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -20506,7 +20509,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J233">
         <v>2.25</v>
@@ -20574,16 +20577,16 @@
         <v>8117254</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D234" s="2">
         <v>45403</v>
       </c>
       <c r="E234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G234">
         <v>3</v>
@@ -20592,7 +20595,7 @@
         <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J234">
         <v>1.909</v>
@@ -20660,16 +20663,16 @@
         <v>8127902</v>
       </c>
       <c r="C235" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D235" s="2">
         <v>45406.91666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F235" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G235">
         <v>4</v>
@@ -20678,7 +20681,7 @@
         <v>3</v>
       </c>
       <c r="I235" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J235">
         <v>2</v>
@@ -20746,16 +20749,16 @@
         <v>8134910</v>
       </c>
       <c r="C236" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D236" s="2">
         <v>45407.00347222222</v>
       </c>
       <c r="E236" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -20764,7 +20767,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J236">
         <v>2.75</v>
@@ -20832,16 +20835,16 @@
         <v>8127901</v>
       </c>
       <c r="C237" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D237" s="2">
         <v>45407.92013888889</v>
       </c>
       <c r="E237" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F237" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20850,7 +20853,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J237">
         <v>2.25</v>
@@ -20918,16 +20921,16 @@
         <v>8134907</v>
       </c>
       <c r="C238" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D238" s="2">
         <v>45408.00347222222</v>
       </c>
       <c r="E238" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20936,7 +20939,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J238">
         <v>2.3</v>
@@ -21004,16 +21007,16 @@
         <v>8127905</v>
       </c>
       <c r="C239" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D239" s="2">
         <v>45409.83333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21022,7 +21025,7 @@
         <v>3</v>
       </c>
       <c r="I239" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J239">
         <v>1.7</v>
@@ -21090,16 +21093,16 @@
         <v>8127904</v>
       </c>
       <c r="C240" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D240" s="2">
         <v>45409.91666666666</v>
       </c>
       <c r="E240" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G240">
         <v>2</v>
@@ -21108,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J240">
         <v>1.909</v>
@@ -21176,16 +21179,16 @@
         <v>8127903</v>
       </c>
       <c r="C241" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D241" s="2">
         <v>45410.83333333334</v>
       </c>
       <c r="E241" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -21194,7 +21197,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J241">
         <v>1.8</v>
@@ -21262,16 +21265,16 @@
         <v>8127899</v>
       </c>
       <c r="C242" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D242" s="2">
         <v>45410.92013888889</v>
       </c>
       <c r="E242" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F242" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G242">
         <v>3</v>
@@ -21280,7 +21283,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J242">
         <v>2.1</v>
@@ -21338,6 +21341,415 @@
       </c>
       <c r="AB242">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:28">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>8161957</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" s="2">
+        <v>45414.85416666666</v>
+      </c>
+      <c r="E243" t="s">
+        <v>31</v>
+      </c>
+      <c r="F243" t="s">
+        <v>29</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>3</v>
+      </c>
+      <c r="I243" t="s">
+        <v>50</v>
+      </c>
+      <c r="J243">
+        <v>2.875</v>
+      </c>
+      <c r="K243">
+        <v>3.1</v>
+      </c>
+      <c r="L243">
+        <v>2.375</v>
+      </c>
+      <c r="M243">
+        <v>3.75</v>
+      </c>
+      <c r="N243">
+        <v>3</v>
+      </c>
+      <c r="O243">
+        <v>2.25</v>
+      </c>
+      <c r="P243">
+        <v>0.25</v>
+      </c>
+      <c r="Q243">
+        <v>1.95</v>
+      </c>
+      <c r="R243">
+        <v>1.85</v>
+      </c>
+      <c r="S243">
+        <v>2</v>
+      </c>
+      <c r="T243">
+        <v>1.9</v>
+      </c>
+      <c r="U243">
+        <v>1.9</v>
+      </c>
+      <c r="V243">
+        <v>-1</v>
+      </c>
+      <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
+        <v>1.25</v>
+      </c>
+      <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA243">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB243">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:28">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>8161958</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" s="2">
+        <v>45414.9375</v>
+      </c>
+      <c r="E244" t="s">
+        <v>35</v>
+      </c>
+      <c r="F244" t="s">
+        <v>38</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244" t="s">
+        <v>49</v>
+      </c>
+      <c r="J244">
+        <v>2.5</v>
+      </c>
+      <c r="K244">
+        <v>3.2</v>
+      </c>
+      <c r="L244">
+        <v>2.625</v>
+      </c>
+      <c r="M244">
+        <v>3.3</v>
+      </c>
+      <c r="N244">
+        <v>3.3</v>
+      </c>
+      <c r="O244">
+        <v>2.2</v>
+      </c>
+      <c r="P244">
+        <v>0.25</v>
+      </c>
+      <c r="Q244">
+        <v>1.9</v>
+      </c>
+      <c r="R244">
+        <v>1.9</v>
+      </c>
+      <c r="S244">
+        <v>2.5</v>
+      </c>
+      <c r="T244">
+        <v>1.95</v>
+      </c>
+      <c r="U244">
+        <v>1.75</v>
+      </c>
+      <c r="V244">
+        <v>-1</v>
+      </c>
+      <c r="W244">
+        <v>2.3</v>
+      </c>
+      <c r="X244">
+        <v>-1</v>
+      </c>
+      <c r="Y244">
+        <v>0.45</v>
+      </c>
+      <c r="Z244">
+        <v>-0.5</v>
+      </c>
+      <c r="AA244">
+        <v>-1</v>
+      </c>
+      <c r="AB244">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="245" spans="1:28">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>8161959</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" s="2">
+        <v>45417.79166666666</v>
+      </c>
+      <c r="E245" t="s">
+        <v>29</v>
+      </c>
+      <c r="F245" t="s">
+        <v>31</v>
+      </c>
+      <c r="G245">
+        <v>5</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245" t="s">
+        <v>48</v>
+      </c>
+      <c r="J245">
+        <v>1.8</v>
+      </c>
+      <c r="K245">
+        <v>3.2</v>
+      </c>
+      <c r="L245">
+        <v>4</v>
+      </c>
+      <c r="M245">
+        <v>1.615</v>
+      </c>
+      <c r="N245">
+        <v>3.6</v>
+      </c>
+      <c r="O245">
+        <v>5</v>
+      </c>
+      <c r="P245">
+        <v>-0.75</v>
+      </c>
+      <c r="Q245">
+        <v>1.825</v>
+      </c>
+      <c r="R245">
+        <v>1.975</v>
+      </c>
+      <c r="S245">
+        <v>2.25</v>
+      </c>
+      <c r="T245">
+        <v>1.925</v>
+      </c>
+      <c r="U245">
+        <v>1.875</v>
+      </c>
+      <c r="V245">
+        <v>0.615</v>
+      </c>
+      <c r="W245">
+        <v>-1</v>
+      </c>
+      <c r="X245">
+        <v>-1</v>
+      </c>
+      <c r="Y245">
+        <v>0.825</v>
+      </c>
+      <c r="Z245">
+        <v>-1</v>
+      </c>
+      <c r="AA245">
+        <v>0.925</v>
+      </c>
+      <c r="AB245">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:28">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>8161960</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" s="2">
+        <v>45417.87847222222</v>
+      </c>
+      <c r="E246" t="s">
+        <v>38</v>
+      </c>
+      <c r="F246" t="s">
+        <v>35</v>
+      </c>
+      <c r="G246">
+        <v>3</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246" t="s">
+        <v>48</v>
+      </c>
+      <c r="J246">
+        <v>1.8</v>
+      </c>
+      <c r="K246">
+        <v>3.2</v>
+      </c>
+      <c r="L246">
+        <v>4</v>
+      </c>
+      <c r="M246">
+        <v>1.55</v>
+      </c>
+      <c r="N246">
+        <v>4.2</v>
+      </c>
+      <c r="O246">
+        <v>5.25</v>
+      </c>
+      <c r="P246">
+        <v>-1</v>
+      </c>
+      <c r="Q246">
+        <v>1.9</v>
+      </c>
+      <c r="R246">
+        <v>1.9</v>
+      </c>
+      <c r="S246">
+        <v>2.75</v>
+      </c>
+      <c r="T246">
+        <v>2</v>
+      </c>
+      <c r="U246">
+        <v>1.8</v>
+      </c>
+      <c r="V246">
+        <v>0.55</v>
+      </c>
+      <c r="W246">
+        <v>-1</v>
+      </c>
+      <c r="X246">
+        <v>-1</v>
+      </c>
+      <c r="Y246">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z246">
+        <v>-1</v>
+      </c>
+      <c r="AA246">
+        <v>1</v>
+      </c>
+      <c r="AB246">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:28">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>27</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" s="2">
+        <v>45420.91666666666</v>
+      </c>
+      <c r="E247" t="s">
+        <v>29</v>
+      </c>
+      <c r="F247" t="s">
+        <v>38</v>
+      </c>
+      <c r="J247">
+        <v>1.571</v>
+      </c>
+      <c r="K247">
+        <v>3.75</v>
+      </c>
+      <c r="L247">
+        <v>4.75</v>
+      </c>
+      <c r="M247">
+        <v>1.6</v>
+      </c>
+      <c r="N247">
+        <v>3.6</v>
+      </c>
+      <c r="O247">
+        <v>4.75</v>
+      </c>
+      <c r="P247">
+        <v>-0.75</v>
+      </c>
+      <c r="Q247">
+        <v>1.8</v>
+      </c>
+      <c r="R247">
+        <v>2</v>
+      </c>
+      <c r="S247">
+        <v>2.25</v>
+      </c>
+      <c r="T247">
+        <v>1.8</v>
+      </c>
+      <c r="U247">
+        <v>2</v>
+      </c>
+      <c r="V247">
+        <v>0</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -21716,31 +21716,31 @@
         <v>4.75</v>
       </c>
       <c r="M247">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="N247">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O247">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="P247">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q247">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R247">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S247">
         <v>2.25</v>
       </c>
       <c r="T247">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U247">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V247">
         <v>0</v>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -97,9 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8185480</t>
-  </si>
-  <si>
     <t>Mexico Liga de Expansion</t>
   </si>
   <si>
@@ -148,16 +145,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Unam Pumas U23</t>
+  </si>
+  <si>
     <t>Monterrey U23</t>
   </si>
   <si>
-    <t>Unam Pumas U23</t>
+    <t>Tijuana U23</t>
   </si>
   <si>
     <t>Mazatlan FC U23</t>
-  </si>
-  <si>
-    <t>Tijuana U23</t>
   </si>
   <si>
     <t>H</t>
@@ -528,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB247"/>
+  <dimension ref="A1:AB246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,16 +622,16 @@
         <v>6704110</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45080.91666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -643,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>1.909</v>
@@ -711,16 +708,16 @@
         <v>6924481</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45128.92013888889</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -729,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3">
         <v>2.25</v>
@@ -797,16 +794,16 @@
         <v>6924480</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45129.83680555555</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -815,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>1.8</v>
@@ -883,16 +880,16 @@
         <v>6924482</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45129.92013888889</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -901,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>1.571</v>
@@ -969,16 +966,16 @@
         <v>6924483</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45130.625</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -987,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>2.4</v>
@@ -1055,16 +1052,16 @@
         <v>6924484</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45130.92013888889</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1073,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>2.6</v>
@@ -1141,16 +1138,16 @@
         <v>6924485</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45131.92013888889</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1159,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1227,16 +1224,16 @@
         <v>6923357</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45134.00347222222</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1245,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>2.75</v>
@@ -1313,16 +1310,16 @@
         <v>6924486</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45136.00347222222</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1331,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>1.909</v>
@@ -1399,16 +1396,16 @@
         <v>6924487</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45136.83680555555</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1417,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>3.5</v>
@@ -1485,16 +1482,16 @@
         <v>6924488</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45136.92013888889</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1503,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12">
         <v>2.375</v>
@@ -1571,16 +1568,16 @@
         <v>6924490</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45137.92013888889</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1589,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1657,16 +1654,16 @@
         <v>6924491</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45138.00347222222</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1675,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1743,16 +1740,16 @@
         <v>6924492</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45138.92013888889</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1761,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1829,16 +1826,16 @@
         <v>6924493</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45141.92013888889</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1847,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1915,16 +1912,16 @@
         <v>6924494</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45143.83680555555</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -1933,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -2001,16 +1998,16 @@
         <v>6924495</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45143.92013888889</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2019,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>2.8</v>
@@ -2087,16 +2084,16 @@
         <v>6924496</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45144.00347222222</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2105,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2173,16 +2170,16 @@
         <v>6924498</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45144.625</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2191,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>1.571</v>
@@ -2259,16 +2256,16 @@
         <v>6924497</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45144.83680555555</v>
       </c>
       <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
         <v>42</v>
-      </c>
-      <c r="F21" t="s">
-        <v>43</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2277,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21">
         <v>2.9</v>
@@ -2345,16 +2342,16 @@
         <v>6924499</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45145.00347222222</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2363,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <v>2.375</v>
@@ -2431,16 +2428,16 @@
         <v>6924500</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45148.92013888889</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2449,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23">
         <v>2.25</v>
@@ -2517,16 +2514,16 @@
         <v>6924501</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45149.83680555555</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2535,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J24">
         <v>1.952</v>
@@ -2603,16 +2600,16 @@
         <v>6924502</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45149.92013888889</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2621,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25">
         <v>1.952</v>
@@ -2689,16 +2686,16 @@
         <v>6924503</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45150.92013888889</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2707,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J26">
         <v>2.8</v>
@@ -2775,16 +2772,16 @@
         <v>6924504</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45151.00347222222</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2793,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2861,16 +2858,16 @@
         <v>6924506</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45151.83680555555</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2879,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J28">
         <v>1.909</v>
@@ -2947,16 +2944,16 @@
         <v>6924507</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45152.00347222222</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2965,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3033,16 +3030,16 @@
         <v>6924508</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45153.92013888889</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3051,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30">
         <v>2.5</v>
@@ -3119,16 +3116,16 @@
         <v>6924509</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45154.00347222222</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -3137,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31">
         <v>3.6</v>
@@ -3205,16 +3202,16 @@
         <v>6924513</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45154.83680555555</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3223,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J32">
         <v>1.444</v>
@@ -3291,16 +3288,16 @@
         <v>6924510</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45155.00347222222</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3309,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J33">
         <v>1.909</v>
@@ -3377,16 +3374,16 @@
         <v>6924511</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45155.83680555555</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3395,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34">
         <v>1.85</v>
@@ -3463,16 +3460,16 @@
         <v>6924512</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45156.83680555555</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3481,7 +3478,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35">
         <v>3.1</v>
@@ -3549,16 +3546,16 @@
         <v>7067400</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45157.83680555555</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3567,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>1.833</v>
@@ -3635,16 +3632,16 @@
         <v>6924514</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45157.92013888889</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3653,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>2.6</v>
@@ -3721,16 +3718,16 @@
         <v>6924515</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45160.83680555555</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3739,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3807,16 +3804,16 @@
         <v>6924516</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45160.92013888889</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -3825,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J39">
         <v>2.55</v>
@@ -3893,16 +3890,16 @@
         <v>6924517</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45161.00347222222</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3911,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>2.2</v>
@@ -3979,16 +3976,16 @@
         <v>6924518</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45161.92013888889</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -3997,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J41">
         <v>1.65</v>
@@ -4065,16 +4062,16 @@
         <v>6924519</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45162.00347222222</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4083,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>1.571</v>
@@ -4151,16 +4148,16 @@
         <v>6924520</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45162.83680555555</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4169,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J43">
         <v>1.571</v>
@@ -4237,16 +4234,16 @@
         <v>6924521</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45162.92013888889</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -4255,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>1.363</v>
@@ -4323,16 +4320,16 @@
         <v>6924522</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45167.92013888889</v>
       </c>
       <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
         <v>30</v>
-      </c>
-      <c r="F45" t="s">
-        <v>31</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4341,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>2.25</v>
@@ -4409,16 +4406,16 @@
         <v>6924523</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45168.00347222222</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -4427,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4495,16 +4492,16 @@
         <v>6924524</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45168.83333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4513,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4581,16 +4578,16 @@
         <v>6924525</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45168.92013888889</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4599,7 +4596,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J48">
         <v>3.4</v>
@@ -4667,16 +4664,16 @@
         <v>6924526</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45169.00347222222</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4685,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J49">
         <v>2.1</v>
@@ -4753,16 +4750,16 @@
         <v>6924527</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45170.00347222222</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4771,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J50">
         <v>1.285</v>
@@ -4839,16 +4836,16 @@
         <v>6924528</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45171.00347222222</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4857,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4925,16 +4922,16 @@
         <v>6924529</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45174.83680555555</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4943,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J52">
         <v>2.4</v>
@@ -5011,16 +5008,16 @@
         <v>6924530</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45174.92013888889</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5029,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5097,16 +5094,16 @@
         <v>6924531</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45175.00347222222</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5115,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J54">
         <v>2.6</v>
@@ -5183,16 +5180,16 @@
         <v>6924532</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45175.92013888889</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5201,7 +5198,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <v>1.55</v>
@@ -5269,16 +5266,16 @@
         <v>6924533</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45176.92013888889</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5287,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J56">
         <v>1.95</v>
@@ -5355,16 +5352,16 @@
         <v>6924534</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45179.00347222222</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5373,7 +5370,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J57">
         <v>2.7</v>
@@ -5441,16 +5438,16 @@
         <v>6924535</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45179.92013888889</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5459,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J58">
         <v>1.727</v>
@@ -5527,16 +5524,16 @@
         <v>6924536</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45182.83680555555</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5545,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5613,16 +5610,16 @@
         <v>6924537</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45182.92013888889</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5631,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J60">
         <v>2.75</v>
@@ -5699,16 +5696,16 @@
         <v>6924538</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45183.00347222222</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5717,7 +5714,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J61">
         <v>2.2</v>
@@ -5785,16 +5782,16 @@
         <v>6924539</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45183.92013888889</v>
       </c>
       <c r="E62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s">
         <v>38</v>
-      </c>
-      <c r="F62" t="s">
-        <v>39</v>
       </c>
       <c r="G62">
         <v>4</v>
@@ -5803,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J62">
         <v>1.3</v>
@@ -5871,16 +5868,16 @@
         <v>6924540</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45185.92013888889</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5889,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J63">
         <v>2.05</v>
@@ -5957,16 +5954,16 @@
         <v>6924541</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45186.00347222222</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5975,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64">
         <v>2.5</v>
@@ -6043,16 +6040,16 @@
         <v>6924542</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45186.83680555555</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6061,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J65">
         <v>1.85</v>
@@ -6129,16 +6126,16 @@
         <v>6924543</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45188.83680555555</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6147,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J66">
         <v>1.85</v>
@@ -6215,16 +6212,16 @@
         <v>6924544</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45188.92013888889</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -6233,7 +6230,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J67">
         <v>2.25</v>
@@ -6301,16 +6298,16 @@
         <v>6924545</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45189.00347222222</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6319,7 +6316,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>2.05</v>
@@ -6387,16 +6384,16 @@
         <v>6924546</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45189.83680555555</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6405,7 +6402,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -6473,16 +6470,16 @@
         <v>6924547</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45189.92013888889</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6491,7 +6488,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -6559,17 +6556,17 @@
         <v>6924548</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45191</v>
       </c>
       <c r="E71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" t="s">
         <v>29</v>
       </c>
-      <c r="F71" t="s">
-        <v>30</v>
-      </c>
       <c r="G71">
         <v>2</v>
       </c>
@@ -6577,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>1.5</v>
@@ -6645,16 +6642,16 @@
         <v>6924549</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45193.875</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6663,7 +6660,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J72">
         <v>1.8</v>
@@ -6731,16 +6728,16 @@
         <v>6924550</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45195.92013888889</v>
       </c>
       <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" t="s">
         <v>35</v>
-      </c>
-      <c r="F73" t="s">
-        <v>36</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6749,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J73">
         <v>1.615</v>
@@ -6817,16 +6814,16 @@
         <v>6924551</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45196.00347222222</v>
       </c>
       <c r="E74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s">
         <v>41</v>
-      </c>
-      <c r="F74" t="s">
-        <v>42</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6835,7 +6832,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J74">
         <v>2.15</v>
@@ -6903,16 +6900,16 @@
         <v>6924552</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45196.83680555555</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>4</v>
@@ -6921,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J75">
         <v>1.45</v>
@@ -6989,16 +6986,16 @@
         <v>6924553</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45196.92013888889</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -7007,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7075,16 +7072,16 @@
         <v>6924554</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45197.00347222222</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7093,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J77">
         <v>1.8</v>
@@ -7161,16 +7158,16 @@
         <v>6924555</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45199.83680555555</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7179,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J78">
         <v>1.75</v>
@@ -7247,16 +7244,16 @@
         <v>6924556</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45200.91666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7265,7 +7262,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J79">
         <v>2.1</v>
@@ -7333,16 +7330,16 @@
         <v>6924559</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45203.00347222222</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7351,7 +7348,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7419,16 +7416,16 @@
         <v>6924560</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45203.92013888889</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7437,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J81">
         <v>1.909</v>
@@ -7505,16 +7502,16 @@
         <v>6924561</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45204.00347222222</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7523,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>1.5</v>
@@ -7591,16 +7588,16 @@
         <v>6924562</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45204.83680555555</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7609,7 +7606,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J83">
         <v>1.909</v>
@@ -7677,17 +7674,17 @@
         <v>6924558</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45204.92013888889</v>
       </c>
       <c r="E84" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" t="s">
         <v>37</v>
       </c>
-      <c r="F84" t="s">
-        <v>38</v>
-      </c>
       <c r="G84">
         <v>2</v>
       </c>
@@ -7695,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J84">
         <v>2.1</v>
@@ -7763,16 +7760,16 @@
         <v>6924563</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45205.00347222222</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -7781,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J85">
         <v>2.2</v>
@@ -7849,16 +7846,16 @@
         <v>6924557</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7867,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J86">
         <v>2.1</v>
@@ -7935,16 +7932,16 @@
         <v>6924564</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45210.92013888889</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7953,7 +7950,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -8021,16 +8018,16 @@
         <v>6924565</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45212.83680555555</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8039,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J88">
         <v>2.625</v>
@@ -8107,16 +8104,16 @@
         <v>6924566</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45213.00347222222</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8125,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J89">
         <v>2.1</v>
@@ -8193,16 +8190,16 @@
         <v>6924567</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45213.83680555555</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8211,7 +8208,7 @@
         <v>5</v>
       </c>
       <c r="I90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J90">
         <v>2.25</v>
@@ -8276,85 +8273,85 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="K91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8362,85 +8359,85 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>4.5</v>
+      </c>
+      <c r="M92">
+        <v>1.5</v>
+      </c>
+      <c r="N92">
+        <v>4.75</v>
+      </c>
+      <c r="O92">
+        <v>5.75</v>
+      </c>
+      <c r="P92">
+        <v>-1.25</v>
+      </c>
+      <c r="Q92">
+        <v>1.925</v>
+      </c>
+      <c r="R92">
+        <v>1.875</v>
+      </c>
+      <c r="S92">
         <v>3</v>
       </c>
-      <c r="L92">
-        <v>2.875</v>
-      </c>
-      <c r="M92">
-        <v>2.7</v>
-      </c>
-      <c r="N92">
-        <v>3.1</v>
-      </c>
-      <c r="O92">
-        <v>2.8</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>1.85</v>
-      </c>
-      <c r="R92">
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.95</v>
       </c>
-      <c r="S92">
-        <v>2.25</v>
-      </c>
-      <c r="T92">
-        <v>1.975</v>
-      </c>
-      <c r="U92">
-        <v>1.725</v>
-      </c>
       <c r="V92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8451,16 +8448,16 @@
         <v>6924570</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45215.00347222222</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8469,7 +8466,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J93">
         <v>2.375</v>
@@ -8537,16 +8534,16 @@
         <v>6924571</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45219.00347222222</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8555,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>2.5</v>
@@ -8623,16 +8620,16 @@
         <v>6924572</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45223.92013888889</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8641,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8709,16 +8706,16 @@
         <v>6924574</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45224.92013888889</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8727,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8795,16 +8792,16 @@
         <v>6924575</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45225.00347222222</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8813,7 +8810,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J97">
         <v>2.9</v>
@@ -8881,16 +8878,16 @@
         <v>6924576</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45225.92013888889</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8899,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J98">
         <v>1.615</v>
@@ -8967,16 +8964,16 @@
         <v>6924573</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45226.00347222222</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8985,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9053,16 +9050,16 @@
         <v>6924578</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45227.92013888889</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100">
         <v>4</v>
@@ -9071,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J100">
         <v>2.1</v>
@@ -9139,16 +9136,16 @@
         <v>6924577</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45228.83333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9157,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J101">
         <v>1.363</v>
@@ -9225,16 +9222,16 @@
         <v>6924579</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45230.83680555555</v>
       </c>
       <c r="E102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9243,7 +9240,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -9311,16 +9308,16 @@
         <v>6924581</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45231.83680555555</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9329,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J103">
         <v>4.333</v>
@@ -9397,16 +9394,16 @@
         <v>6924582</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45231.92013888889</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9415,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9483,16 +9480,16 @@
         <v>6924580</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45232.83680555555</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9501,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J105">
         <v>2.375</v>
@@ -9569,16 +9566,16 @@
         <v>6924583</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45232.92013888889</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9587,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J106">
         <v>1.4</v>
@@ -9655,16 +9652,16 @@
         <v>6924584</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45233.00347222222</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9673,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J107">
         <v>1.65</v>
@@ -9741,16 +9738,16 @@
         <v>7449159</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45239.92013888889</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G108">
         <v>5</v>
@@ -9759,7 +9756,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9827,16 +9824,16 @@
         <v>7449160</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45240.00347222222</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9845,7 +9842,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J109">
         <v>1.444</v>
@@ -9913,16 +9910,16 @@
         <v>7460657</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45242.83680555555</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9931,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -9999,16 +9996,16 @@
         <v>7473421</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45245.92013888889</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10017,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>2.3</v>
@@ -10085,16 +10082,16 @@
         <v>7473419</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45246.00347222222</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10103,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J112">
         <v>2.25</v>
@@ -10171,17 +10168,17 @@
         <v>7473420</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45246.92013888889</v>
       </c>
       <c r="E113" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" t="s">
         <v>33</v>
       </c>
-      <c r="F113" t="s">
-        <v>34</v>
-      </c>
       <c r="G113">
         <v>0</v>
       </c>
@@ -10189,7 +10186,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J113">
         <v>2.3</v>
@@ -10257,16 +10254,16 @@
         <v>7473526</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45247.00347222222</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10275,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J114">
         <v>2.75</v>
@@ -10343,16 +10340,16 @@
         <v>7450712</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45248.83680555555</v>
       </c>
       <c r="E115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -10361,7 +10358,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J115">
         <v>1.6</v>
@@ -10429,16 +10426,16 @@
         <v>7473836</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45248.92013888889</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10447,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J116">
         <v>2.05</v>
@@ -10515,16 +10512,16 @@
         <v>7473837</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45249.83680555555</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10533,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J117">
         <v>1.909</v>
@@ -10601,16 +10598,16 @@
         <v>7450713</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45249.92013888889</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10619,7 +10616,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10687,16 +10684,16 @@
         <v>7505184</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45252.91666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10705,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J119">
         <v>1.727</v>
@@ -10773,16 +10770,16 @@
         <v>7505183</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45253.91666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10791,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J120">
         <v>1.85</v>
@@ -10859,16 +10856,16 @@
         <v>7506103</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45256.00347222222</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10877,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J121">
         <v>2.625</v>
@@ -10945,16 +10942,16 @@
         <v>7506798</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10963,7 +10960,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J122">
         <v>2.1</v>
@@ -11031,16 +11028,16 @@
         <v>7528853</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45260.91666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11049,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J123">
         <v>1.909</v>
@@ -11117,16 +11114,16 @@
         <v>7531699</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45263.79166666666</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11135,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J124">
         <v>2.375</v>
@@ -11203,16 +11200,16 @@
         <v>7641630</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45300.92013888889</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11221,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J125">
         <v>2.1</v>
@@ -11289,16 +11286,16 @@
         <v>7641631</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45301.00347222222</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11307,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J126">
         <v>2.45</v>
@@ -11375,16 +11372,16 @@
         <v>7641632</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45301.92013888889</v>
       </c>
       <c r="E127" t="s">
+        <v>35</v>
+      </c>
+      <c r="F127" t="s">
         <v>36</v>
-      </c>
-      <c r="F127" t="s">
-        <v>37</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11393,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J127">
         <v>3.6</v>
@@ -11461,16 +11458,16 @@
         <v>7641633</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45302.00347222222</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11479,7 +11476,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11547,16 +11544,16 @@
         <v>7641634</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45302.92013888889</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11565,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J129">
         <v>1.5</v>
@@ -11633,16 +11630,16 @@
         <v>7641635</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45303.00347222222</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11651,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J130">
         <v>1.95</v>
@@ -11719,16 +11716,16 @@
         <v>7640640</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45305.79513888889</v>
       </c>
       <c r="E131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11737,7 +11734,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J131">
         <v>1.833</v>
@@ -11805,16 +11802,16 @@
         <v>7641636</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45307.92013888889</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -11823,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J132">
         <v>1.571</v>
@@ -11891,16 +11888,16 @@
         <v>7641638</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45308.92013888889</v>
       </c>
       <c r="E133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11909,7 +11906,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>1.615</v>
@@ -11977,16 +11974,16 @@
         <v>7641639</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45309.00347222222</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11995,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J134">
         <v>3.6</v>
@@ -12063,16 +12060,16 @@
         <v>7641640</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45309.92013888889</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12081,7 +12078,7 @@
         <v>5</v>
       </c>
       <c r="I135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J135">
         <v>2.1</v>
@@ -12149,16 +12146,16 @@
         <v>7641641</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45310.00347222222</v>
       </c>
       <c r="E136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12167,7 +12164,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J136">
         <v>1.8</v>
@@ -12235,16 +12232,16 @@
         <v>7640641</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45312.83680555555</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12253,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J137">
         <v>2.75</v>
@@ -12321,17 +12318,17 @@
         <v>7641642</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45314.92013888889</v>
       </c>
       <c r="E138" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" t="s">
         <v>40</v>
       </c>
-      <c r="F138" t="s">
-        <v>41</v>
-      </c>
       <c r="G138">
         <v>2</v>
       </c>
@@ -12339,7 +12336,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J138">
         <v>2.8</v>
@@ -12407,16 +12404,16 @@
         <v>7641643</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45315.00347222222</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12425,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J139">
         <v>2.05</v>
@@ -12493,16 +12490,16 @@
         <v>7641644</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45315.92013888889</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12511,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12579,16 +12576,16 @@
         <v>7641645</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45316.00347222222</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12597,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J141">
         <v>2.55</v>
@@ -12665,16 +12662,16 @@
         <v>7640642</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45316.92013888889</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12683,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12751,16 +12748,16 @@
         <v>7641646</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45317.00347222222</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12769,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J143">
         <v>1.7</v>
@@ -12837,16 +12834,16 @@
         <v>7641647</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45319.87847222222</v>
       </c>
       <c r="E144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12855,7 +12852,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J144">
         <v>1.909</v>
@@ -12923,16 +12920,16 @@
         <v>7641648</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45322.00347222222</v>
       </c>
       <c r="E145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12941,7 +12938,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J145">
         <v>1.5</v>
@@ -13009,16 +13006,16 @@
         <v>7640643</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45322.83680555555</v>
       </c>
       <c r="E146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13027,7 +13024,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J146">
         <v>1.4</v>
@@ -13095,16 +13092,16 @@
         <v>7641649</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45322.92013888889</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13113,7 +13110,7 @@
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J147">
         <v>3.8</v>
@@ -13181,16 +13178,16 @@
         <v>7641650</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45323.00347222222</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13199,7 +13196,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J148">
         <v>2.05</v>
@@ -13267,16 +13264,16 @@
         <v>7641651</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45323.92013888889</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13285,7 +13282,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J149">
         <v>2.15</v>
@@ -13353,16 +13350,16 @@
         <v>7641652</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45324.00347222222</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13371,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J150">
         <v>2</v>
@@ -13439,16 +13436,16 @@
         <v>7641653</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45326.79513888889</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13457,7 +13454,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J151">
         <v>3</v>
@@ -13525,16 +13522,16 @@
         <v>7641659</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45326.92013888889</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13543,7 +13540,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J152">
         <v>2.2</v>
@@ -13611,16 +13608,16 @@
         <v>7641655</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45328.83680555555</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13629,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J153">
         <v>1.333</v>
@@ -13697,16 +13694,16 @@
         <v>7641654</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45328.92013888889</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13715,7 +13712,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J154">
         <v>2.5</v>
@@ -13783,16 +13780,16 @@
         <v>7640644</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45329.92013888889</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13801,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J155">
         <v>3.5</v>
@@ -13869,16 +13866,16 @@
         <v>7641656</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45330.00347222222</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13887,7 +13884,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J156">
         <v>2.05</v>
@@ -13955,16 +13952,16 @@
         <v>7641658</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45330.92013888889</v>
       </c>
       <c r="E157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13973,7 +13970,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J157">
         <v>1.8</v>
@@ -14041,16 +14038,16 @@
         <v>7641657</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45331.83680555555</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14059,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J158">
         <v>2</v>
@@ -14127,16 +14124,16 @@
         <v>7641660</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45335.92013888889</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14145,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J159">
         <v>2.5</v>
@@ -14213,16 +14210,16 @@
         <v>7641661</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45336.00347222222</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14231,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J160">
         <v>3.1</v>
@@ -14299,16 +14296,16 @@
         <v>7641670</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45336.92013888889</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14317,7 +14314,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J161">
         <v>2.5</v>
@@ -14385,16 +14382,16 @@
         <v>7641671</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45338.00347222222</v>
       </c>
       <c r="E162" t="s">
+        <v>32</v>
+      </c>
+      <c r="F162" t="s">
         <v>33</v>
-      </c>
-      <c r="F162" t="s">
-        <v>34</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14403,7 +14400,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J162">
         <v>2.7</v>
@@ -14471,16 +14468,16 @@
         <v>7641672</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45338.92013888889</v>
       </c>
       <c r="E163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14489,7 +14486,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J163">
         <v>2.4</v>
@@ -14557,16 +14554,16 @@
         <v>7641673</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45339.83680555555</v>
       </c>
       <c r="E164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14575,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J164">
         <v>2.45</v>
@@ -14643,16 +14640,16 @@
         <v>7640645</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45340.625</v>
       </c>
       <c r="E165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14661,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J165">
         <v>1.55</v>
@@ -14729,16 +14726,16 @@
         <v>7641679</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45342.92013888889</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14747,7 +14744,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J166">
         <v>1.909</v>
@@ -14815,16 +14812,16 @@
         <v>7641675</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45343.00347222222</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -14833,7 +14830,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J167">
         <v>2.45</v>
@@ -14901,16 +14898,16 @@
         <v>7641676</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45343.92013888889</v>
       </c>
       <c r="E168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14919,7 +14916,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J168">
         <v>3.4</v>
@@ -14987,16 +14984,16 @@
         <v>7641674</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45344.00347222222</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G169">
         <v>4</v>
@@ -15005,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J169">
         <v>2</v>
@@ -15073,16 +15070,16 @@
         <v>7641678</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45344.92013888889</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15091,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J170">
         <v>1.8</v>
@@ -15159,16 +15156,16 @@
         <v>7641677</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45345.00347222222</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15177,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J171">
         <v>1.6</v>
@@ -15245,16 +15242,16 @@
         <v>7641680</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45347.83680555555</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15263,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J172">
         <v>1.333</v>
@@ -15331,16 +15328,16 @@
         <v>7640646</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45349.92013888889</v>
       </c>
       <c r="E173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15349,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J173">
         <v>2.9</v>
@@ -15417,16 +15414,16 @@
         <v>7641681</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45350.00347222222</v>
       </c>
       <c r="E174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15435,7 +15432,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J174">
         <v>1.666</v>
@@ -15503,16 +15500,16 @@
         <v>7641682</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45350.92013888889</v>
       </c>
       <c r="E175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15521,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J175">
         <v>2.3</v>
@@ -15589,16 +15586,16 @@
         <v>7641684</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45351.92013888889</v>
       </c>
       <c r="E176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -15607,7 +15604,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J176">
         <v>4</v>
@@ -15675,16 +15672,16 @@
         <v>7641685</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45352.00347222222</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15693,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J177">
         <v>1.8</v>
@@ -15761,16 +15758,16 @@
         <v>7701489</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45352.83333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15779,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J178">
         <v>1.571</v>
@@ -15847,16 +15844,16 @@
         <v>7641686</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45353.83680555555</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15865,7 +15862,7 @@
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J179">
         <v>2</v>
@@ -15933,16 +15930,16 @@
         <v>7640647</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45356.92013888889</v>
       </c>
       <c r="E180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15951,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J180">
         <v>1.4</v>
@@ -16019,16 +16016,16 @@
         <v>7641687</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45357.00347222222</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16037,7 +16034,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>1.65</v>
@@ -16105,17 +16102,17 @@
         <v>7641688</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45357.92013888889</v>
       </c>
       <c r="E182" t="s">
+        <v>31</v>
+      </c>
+      <c r="F182" t="s">
         <v>32</v>
       </c>
-      <c r="F182" t="s">
-        <v>33</v>
-      </c>
       <c r="G182">
         <v>2</v>
       </c>
@@ -16123,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J182">
         <v>1.571</v>
@@ -16191,16 +16188,16 @@
         <v>7641689</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45358.00347222222</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16209,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J183">
         <v>3.6</v>
@@ -16277,16 +16274,16 @@
         <v>7641690</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45358.92013888889</v>
       </c>
       <c r="E184" t="s">
+        <v>33</v>
+      </c>
+      <c r="F184" t="s">
         <v>34</v>
-      </c>
-      <c r="F184" t="s">
-        <v>35</v>
       </c>
       <c r="G184">
         <v>3</v>
@@ -16295,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J184">
         <v>1.7</v>
@@ -16363,16 +16360,16 @@
         <v>7641691</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45359.00347222222</v>
       </c>
       <c r="E185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16381,7 +16378,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J185">
         <v>1.571</v>
@@ -16446,67 +16443,67 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45361.5</v>
       </c>
       <c r="E186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J186">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="K186">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L186">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M186">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P186">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S186">
         <v>2.75</v>
       </c>
       <c r="T186">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V186">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -16515,16 +16512,16 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16532,67 +16529,67 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45361.5</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F187" t="s">
+        <v>46</v>
+      </c>
+      <c r="G187">
+        <v>4</v>
+      </c>
+      <c r="H187">
+        <v>3</v>
+      </c>
+      <c r="I187" t="s">
         <v>47</v>
       </c>
-      <c r="G187">
-        <v>2</v>
-      </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
-      <c r="I187" t="s">
-        <v>48</v>
-      </c>
       <c r="J187">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L187">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M187">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N187">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P187">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
         <v>2.75</v>
       </c>
       <c r="T187">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -16601,16 +16598,16 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16621,16 +16618,16 @@
         <v>7641692</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
         <v>45361.92013888889</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16639,7 +16636,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J188">
         <v>2.15</v>
@@ -16707,16 +16704,16 @@
         <v>7641693</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2">
         <v>45363.92013888889</v>
       </c>
       <c r="E189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16725,7 +16722,7 @@
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J189">
         <v>2.4</v>
@@ -16793,16 +16790,16 @@
         <v>7641694</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>45364.00347222222</v>
       </c>
       <c r="E190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16811,7 +16808,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J190">
         <v>1.4</v>
@@ -16879,16 +16876,16 @@
         <v>7640648</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D191" s="2">
         <v>45364.92013888889</v>
       </c>
       <c r="E191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16897,7 +16894,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J191">
         <v>4</v>
@@ -16965,16 +16962,16 @@
         <v>7641695</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2">
         <v>45365.00347222222</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16983,7 +16980,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J192">
         <v>2.25</v>
@@ -17051,16 +17048,16 @@
         <v>7641696</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D193" s="2">
         <v>45365.92013888889</v>
       </c>
       <c r="E193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17069,7 +17066,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J193">
         <v>2.1</v>
@@ -17137,16 +17134,16 @@
         <v>7641697</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D194" s="2">
         <v>45366.00347222222</v>
       </c>
       <c r="E194" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17155,7 +17152,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J194">
         <v>2.25</v>
@@ -17223,16 +17220,16 @@
         <v>7641698</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D195" s="2">
         <v>45368.92013888889</v>
       </c>
       <c r="E195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17241,7 +17238,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J195">
         <v>2.3</v>
@@ -17309,16 +17306,16 @@
         <v>7641699</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D196" s="2">
         <v>45370.83680555555</v>
       </c>
       <c r="E196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17327,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J196">
         <v>1.533</v>
@@ -17395,16 +17392,16 @@
         <v>7640649</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D197" s="2">
         <v>45370.92013888889</v>
       </c>
       <c r="E197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17413,7 +17410,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J197">
         <v>1.65</v>
@@ -17481,16 +17478,16 @@
         <v>7641700</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D198" s="2">
         <v>45371.00347222222</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17499,7 +17496,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J198">
         <v>1.95</v>
@@ -17567,17 +17564,17 @@
         <v>7641701</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2">
         <v>45371.83680555555</v>
       </c>
       <c r="E199" t="s">
+        <v>30</v>
+      </c>
+      <c r="F199" t="s">
         <v>31</v>
       </c>
-      <c r="F199" t="s">
-        <v>32</v>
-      </c>
       <c r="G199">
         <v>2</v>
       </c>
@@ -17585,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J199">
         <v>2.1</v>
@@ -17653,16 +17650,16 @@
         <v>7641702</v>
       </c>
       <c r="C200" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2">
         <v>45371.92013888889</v>
       </c>
       <c r="E200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -17671,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J200">
         <v>1.8</v>
@@ -17739,16 +17736,16 @@
         <v>7641703</v>
       </c>
       <c r="C201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D201" s="2">
         <v>45372.00347222222</v>
       </c>
       <c r="E201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17757,7 +17754,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J201">
         <v>3.6</v>
@@ -17825,16 +17822,16 @@
         <v>7641704</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D202" s="2">
         <v>45372.92013888889</v>
       </c>
       <c r="E202" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17843,7 +17840,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J202">
         <v>1.6</v>
@@ -17911,16 +17908,16 @@
         <v>7641705</v>
       </c>
       <c r="C203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D203" s="2">
         <v>45373.92013888889</v>
       </c>
       <c r="E203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17929,7 +17926,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J203">
         <v>1.75</v>
@@ -17997,16 +17994,16 @@
         <v>7641706</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D204" s="2">
         <v>45374.75</v>
       </c>
       <c r="E204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -18015,7 +18012,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J204">
         <v>2.7</v>
@@ -18083,16 +18080,16 @@
         <v>7641707</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D205" s="2">
         <v>45374.83333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18101,7 +18098,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J205">
         <v>1.333</v>
@@ -18169,16 +18166,16 @@
         <v>7641708</v>
       </c>
       <c r="C206" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D206" s="2">
         <v>45374.92013888889</v>
       </c>
       <c r="E206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18187,7 +18184,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J206">
         <v>2</v>
@@ -18255,16 +18252,16 @@
         <v>7641709</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D207" s="2">
         <v>45375.00347222222</v>
       </c>
       <c r="E207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18273,7 +18270,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J207">
         <v>4</v>
@@ -18341,16 +18338,16 @@
         <v>7640650</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D208" s="2">
         <v>45375.625</v>
       </c>
       <c r="E208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18359,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J208">
         <v>1.444</v>
@@ -18427,16 +18424,16 @@
         <v>7641710</v>
       </c>
       <c r="C209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D209" s="2">
         <v>45375.92013888889</v>
       </c>
       <c r="E209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18445,7 +18442,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J209">
         <v>2.6</v>
@@ -18513,16 +18510,16 @@
         <v>7641711</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D210" s="2">
         <v>45377.92013888889</v>
       </c>
       <c r="E210" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18531,7 +18528,7 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J210">
         <v>1.909</v>
@@ -18599,16 +18596,16 @@
         <v>7641712</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D211" s="2">
         <v>45378.00347222222</v>
       </c>
       <c r="E211" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18617,7 +18614,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J211">
         <v>1.833</v>
@@ -18685,16 +18682,16 @@
         <v>7641713</v>
       </c>
       <c r="C212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D212" s="2">
         <v>45378.92013888889</v>
       </c>
       <c r="E212" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18703,7 +18700,7 @@
         <v>4</v>
       </c>
       <c r="I212" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J212">
         <v>1.666</v>
@@ -18771,16 +18768,16 @@
         <v>7641714</v>
       </c>
       <c r="C213" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D213" s="2">
         <v>45379.00347222222</v>
       </c>
       <c r="E213" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18789,7 +18786,7 @@
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J213">
         <v>1.95</v>
@@ -18857,16 +18854,16 @@
         <v>7641715</v>
       </c>
       <c r="C214" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D214" s="2">
         <v>45379.92013888889</v>
       </c>
       <c r="E214" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G214">
         <v>3</v>
@@ -18875,7 +18872,7 @@
         <v>4</v>
       </c>
       <c r="I214" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J214">
         <v>2.6</v>
@@ -18943,16 +18940,16 @@
         <v>7640651</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D215" s="2">
         <v>45380.00347222222</v>
       </c>
       <c r="E215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -18961,7 +18958,7 @@
         <v>3</v>
       </c>
       <c r="I215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J215">
         <v>7.5</v>
@@ -19029,16 +19026,16 @@
         <v>7641716</v>
       </c>
       <c r="C216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D216" s="2">
         <v>45380.875</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -19047,7 +19044,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J216">
         <v>1.444</v>
@@ -19115,16 +19112,16 @@
         <v>7640652</v>
       </c>
       <c r="C217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D217" s="2">
         <v>45384.83680555555</v>
       </c>
       <c r="E217" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19133,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J217">
         <v>2.6</v>
@@ -19201,16 +19198,16 @@
         <v>7641717</v>
       </c>
       <c r="C218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D218" s="2">
         <v>45384.92013888889</v>
       </c>
       <c r="E218" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19219,7 +19216,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J218">
         <v>2.15</v>
@@ -19287,16 +19284,16 @@
         <v>7641718</v>
       </c>
       <c r="C219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D219" s="2">
         <v>45385.00347222222</v>
       </c>
       <c r="E219" t="s">
+        <v>38</v>
+      </c>
+      <c r="F219" t="s">
         <v>39</v>
-      </c>
-      <c r="F219" t="s">
-        <v>40</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19305,7 +19302,7 @@
         <v>3</v>
       </c>
       <c r="I219" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J219">
         <v>2.25</v>
@@ -19373,16 +19370,16 @@
         <v>7641719</v>
       </c>
       <c r="C220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D220" s="2">
         <v>45385.92013888889</v>
       </c>
       <c r="E220" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -19391,7 +19388,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J220">
         <v>2.15</v>
@@ -19459,16 +19456,16 @@
         <v>7641720</v>
       </c>
       <c r="C221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D221" s="2">
         <v>45386.00347222222</v>
       </c>
       <c r="E221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19477,7 +19474,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J221">
         <v>2.5</v>
@@ -19545,16 +19542,16 @@
         <v>7641721</v>
       </c>
       <c r="C222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D222" s="2">
         <v>45386.92013888889</v>
       </c>
       <c r="E222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19563,7 +19560,7 @@
         <v>2</v>
       </c>
       <c r="I222" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J222">
         <v>2.6</v>
@@ -19631,16 +19628,16 @@
         <v>7641722</v>
       </c>
       <c r="C223" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D223" s="2">
         <v>45387.00347222222</v>
       </c>
       <c r="E223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19649,7 +19646,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J223">
         <v>2.6</v>
@@ -19717,16 +19714,16 @@
         <v>7893216</v>
       </c>
       <c r="C224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D224" s="2">
         <v>45388.00347222222</v>
       </c>
       <c r="E224" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19735,7 +19732,7 @@
         <v>3</v>
       </c>
       <c r="I224" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J224">
         <v>2.3</v>
@@ -19803,16 +19800,16 @@
         <v>7641723</v>
       </c>
       <c r="C225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D225" s="2">
         <v>45391.92013888889</v>
       </c>
       <c r="E225" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19821,7 +19818,7 @@
         <v>2</v>
       </c>
       <c r="I225" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J225">
         <v>1.4</v>
@@ -19889,16 +19886,16 @@
         <v>7641724</v>
       </c>
       <c r="C226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D226" s="2">
         <v>45392.00347222222</v>
       </c>
       <c r="E226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F226" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -19907,7 +19904,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J226">
         <v>2.3</v>
@@ -19975,16 +19972,16 @@
         <v>7641725</v>
       </c>
       <c r="C227" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D227" s="2">
         <v>45392.92013888889</v>
       </c>
       <c r="E227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -19993,7 +19990,7 @@
         <v>2</v>
       </c>
       <c r="I227" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J227">
         <v>2.75</v>
@@ -20061,16 +20058,16 @@
         <v>7641726</v>
       </c>
       <c r="C228" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D228" s="2">
         <v>45393.00347222222</v>
       </c>
       <c r="E228" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20079,7 +20076,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J228">
         <v>1.25</v>
@@ -20147,16 +20144,16 @@
         <v>7640653</v>
       </c>
       <c r="C229" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D229" s="2">
         <v>45393.92013888889</v>
       </c>
       <c r="E229" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -20165,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J229">
         <v>1.6</v>
@@ -20233,16 +20230,16 @@
         <v>7641727</v>
       </c>
       <c r="C230" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D230" s="2">
         <v>45394.00347222222</v>
       </c>
       <c r="E230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F230" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20251,7 +20248,7 @@
         <v>2</v>
       </c>
       <c r="I230" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J230">
         <v>1.8</v>
@@ -20319,16 +20316,16 @@
         <v>7641728</v>
       </c>
       <c r="C231" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D231" s="2">
         <v>45395.83680555555</v>
       </c>
       <c r="E231" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F231" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G231">
         <v>3</v>
@@ -20337,7 +20334,7 @@
         <v>3</v>
       </c>
       <c r="I231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J231">
         <v>2.25</v>
@@ -20405,16 +20402,16 @@
         <v>8104978</v>
       </c>
       <c r="C232" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D232" s="2">
         <v>45399.91666666666</v>
       </c>
       <c r="E232" t="s">
+        <v>39</v>
+      </c>
+      <c r="F232" t="s">
         <v>40</v>
-      </c>
-      <c r="F232" t="s">
-        <v>41</v>
       </c>
       <c r="G232">
         <v>7</v>
@@ -20423,7 +20420,7 @@
         <v>6</v>
       </c>
       <c r="I232" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J232">
         <v>2.2</v>
@@ -20491,16 +20488,16 @@
         <v>8104979</v>
       </c>
       <c r="C233" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D233" s="2">
         <v>45400</v>
       </c>
       <c r="E233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -20509,7 +20506,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J233">
         <v>2.25</v>
@@ -20577,16 +20574,16 @@
         <v>8117254</v>
       </c>
       <c r="C234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D234" s="2">
         <v>45403</v>
       </c>
       <c r="E234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G234">
         <v>3</v>
@@ -20595,7 +20592,7 @@
         <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J234">
         <v>1.909</v>
@@ -20663,16 +20660,16 @@
         <v>8127902</v>
       </c>
       <c r="C235" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D235" s="2">
         <v>45406.91666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G235">
         <v>4</v>
@@ -20681,7 +20678,7 @@
         <v>3</v>
       </c>
       <c r="I235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J235">
         <v>2</v>
@@ -20749,16 +20746,16 @@
         <v>8134910</v>
       </c>
       <c r="C236" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D236" s="2">
         <v>45407.00347222222</v>
       </c>
       <c r="E236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -20767,7 +20764,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J236">
         <v>2.75</v>
@@ -20835,16 +20832,16 @@
         <v>8127901</v>
       </c>
       <c r="C237" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D237" s="2">
         <v>45407.92013888889</v>
       </c>
       <c r="E237" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20853,7 +20850,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J237">
         <v>2.25</v>
@@ -20921,16 +20918,16 @@
         <v>8134907</v>
       </c>
       <c r="C238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D238" s="2">
         <v>45408.00347222222</v>
       </c>
       <c r="E238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20939,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J238">
         <v>2.3</v>
@@ -21007,16 +21004,16 @@
         <v>8127905</v>
       </c>
       <c r="C239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D239" s="2">
         <v>45409.83333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21025,7 +21022,7 @@
         <v>3</v>
       </c>
       <c r="I239" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J239">
         <v>1.7</v>
@@ -21093,16 +21090,16 @@
         <v>8127904</v>
       </c>
       <c r="C240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D240" s="2">
         <v>45409.91666666666</v>
       </c>
       <c r="E240" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G240">
         <v>2</v>
@@ -21111,7 +21108,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J240">
         <v>1.909</v>
@@ -21179,16 +21176,16 @@
         <v>8127903</v>
       </c>
       <c r="C241" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D241" s="2">
         <v>45410.83333333334</v>
       </c>
       <c r="E241" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -21197,7 +21194,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J241">
         <v>1.8</v>
@@ -21265,16 +21262,16 @@
         <v>8127899</v>
       </c>
       <c r="C242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D242" s="2">
         <v>45410.92013888889</v>
       </c>
       <c r="E242" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F242" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G242">
         <v>3</v>
@@ -21283,7 +21280,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J242">
         <v>2.1</v>
@@ -21351,16 +21348,16 @@
         <v>8161957</v>
       </c>
       <c r="C243" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D243" s="2">
         <v>45414.85416666666</v>
       </c>
       <c r="E243" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F243" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -21369,7 +21366,7 @@
         <v>3</v>
       </c>
       <c r="I243" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J243">
         <v>2.875</v>
@@ -21437,16 +21434,16 @@
         <v>8161958</v>
       </c>
       <c r="C244" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D244" s="2">
         <v>45414.9375</v>
       </c>
       <c r="E244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F244" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21455,7 +21452,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J244">
         <v>2.5</v>
@@ -21523,16 +21520,16 @@
         <v>8161959</v>
       </c>
       <c r="C245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D245" s="2">
         <v>45417.79166666666</v>
       </c>
       <c r="E245" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F245" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G245">
         <v>5</v>
@@ -21541,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J245">
         <v>1.8</v>
@@ -21609,16 +21606,16 @@
         <v>8161960</v>
       </c>
       <c r="C246" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D246" s="2">
         <v>45417.87847222222</v>
       </c>
       <c r="E246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G246">
         <v>3</v>
@@ -21627,7 +21624,7 @@
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J246">
         <v>1.8</v>
@@ -21685,71 +21682,6 @@
       </c>
       <c r="AB246">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:28">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" t="s">
-        <v>27</v>
-      </c>
-      <c r="C247" t="s">
-        <v>28</v>
-      </c>
-      <c r="D247" s="2">
-        <v>45420.91666666666</v>
-      </c>
-      <c r="E247" t="s">
-        <v>29</v>
-      </c>
-      <c r="F247" t="s">
-        <v>38</v>
-      </c>
-      <c r="J247">
-        <v>1.571</v>
-      </c>
-      <c r="K247">
-        <v>3.75</v>
-      </c>
-      <c r="L247">
-        <v>4.75</v>
-      </c>
-      <c r="M247">
-        <v>1.571</v>
-      </c>
-      <c r="N247">
-        <v>3.8</v>
-      </c>
-      <c r="O247">
-        <v>5.75</v>
-      </c>
-      <c r="P247">
-        <v>-1</v>
-      </c>
-      <c r="Q247">
-        <v>1.975</v>
-      </c>
-      <c r="R247">
-        <v>1.825</v>
-      </c>
-      <c r="S247">
-        <v>2.25</v>
-      </c>
-      <c r="T247">
-        <v>1.825</v>
-      </c>
-      <c r="U247">
-        <v>1.975</v>
-      </c>
-      <c r="V247">
-        <v>0</v>
-      </c>
-      <c r="W247">
-        <v>0</v>
-      </c>
-      <c r="X247">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -145,16 +145,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Monterrey U23</t>
+  </si>
+  <si>
     <t>Unam Pumas U23</t>
   </si>
   <si>
-    <t>Monterrey U23</t>
+    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>Tijuana U23</t>
-  </si>
-  <si>
-    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB246"/>
+  <dimension ref="A1:AB247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8273,7 +8273,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8282,76 +8282,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>4.5</v>
+      </c>
+      <c r="M91">
+        <v>1.5</v>
+      </c>
+      <c r="N91">
+        <v>4.75</v>
+      </c>
+      <c r="O91">
+        <v>5.75</v>
+      </c>
+      <c r="P91">
+        <v>-1.25</v>
+      </c>
+      <c r="Q91">
+        <v>1.925</v>
+      </c>
+      <c r="R91">
+        <v>1.875</v>
+      </c>
+      <c r="S91">
         <v>3</v>
       </c>
-      <c r="L91">
-        <v>2.875</v>
-      </c>
-      <c r="M91">
-        <v>2.7</v>
-      </c>
-      <c r="N91">
-        <v>3.1</v>
-      </c>
-      <c r="O91">
-        <v>2.8</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>1.85</v>
-      </c>
-      <c r="R91">
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.95</v>
       </c>
-      <c r="S91">
-        <v>2.25</v>
-      </c>
-      <c r="T91">
-        <v>1.975</v>
-      </c>
-      <c r="U91">
-        <v>1.725</v>
-      </c>
       <c r="V91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8359,7 +8359,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8368,76 +8368,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="K92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -16443,7 +16443,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16458,52 +16458,52 @@
         <v>45</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
       </c>
       <c r="J186">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L186">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M186">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q186">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R186">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
         <v>2.75</v>
       </c>
       <c r="T186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -16512,16 +16512,16 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16529,7 +16529,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -16544,52 +16544,52 @@
         <v>46</v>
       </c>
       <c r="G187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
       </c>
       <c r="J187">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="K187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L187">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M187">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N187">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P187">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q187">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
         <v>2.75</v>
       </c>
       <c r="T187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -16598,16 +16598,16 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -21682,6 +21682,92 @@
       </c>
       <c r="AB246">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:28">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>8185480</v>
+      </c>
+      <c r="C247" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247" s="2">
+        <v>45420.91666666666</v>
+      </c>
+      <c r="E247" t="s">
+        <v>28</v>
+      </c>
+      <c r="F247" t="s">
+        <v>37</v>
+      </c>
+      <c r="G247">
+        <v>2</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247" t="s">
+        <v>47</v>
+      </c>
+      <c r="J247">
+        <v>1.571</v>
+      </c>
+      <c r="K247">
+        <v>3.75</v>
+      </c>
+      <c r="L247">
+        <v>4.75</v>
+      </c>
+      <c r="M247">
+        <v>1.65</v>
+      </c>
+      <c r="N247">
+        <v>3.6</v>
+      </c>
+      <c r="O247">
+        <v>5.25</v>
+      </c>
+      <c r="P247">
+        <v>-0.75</v>
+      </c>
+      <c r="Q247">
+        <v>1.85</v>
+      </c>
+      <c r="R247">
+        <v>1.95</v>
+      </c>
+      <c r="S247">
+        <v>2.25</v>
+      </c>
+      <c r="T247">
+        <v>1.85</v>
+      </c>
+      <c r="U247">
+        <v>1.95</v>
+      </c>
+      <c r="V247">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="W247">
+        <v>-1</v>
+      </c>
+      <c r="X247">
+        <v>-1</v>
+      </c>
+      <c r="Y247">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z247">
+        <v>-1</v>
+      </c>
+      <c r="AA247">
+        <v>-0.5</v>
+      </c>
+      <c r="AB247">
+        <v>0.475</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -145,16 +145,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Unam Pumas U23</t>
+  </si>
+  <si>
     <t>Monterrey U23</t>
   </si>
   <si>
-    <t>Unam Pumas U23</t>
+    <t>Tijuana U23</t>
   </si>
   <si>
     <t>Mazatlan FC U23</t>
-  </si>
-  <si>
-    <t>Tijuana U23</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB247"/>
+  <dimension ref="A1:AB248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8273,7 +8273,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8282,76 +8282,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="K91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8359,7 +8359,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8368,76 +8368,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>4.5</v>
+      </c>
+      <c r="M92">
+        <v>1.5</v>
+      </c>
+      <c r="N92">
+        <v>4.75</v>
+      </c>
+      <c r="O92">
+        <v>5.75</v>
+      </c>
+      <c r="P92">
+        <v>-1.25</v>
+      </c>
+      <c r="Q92">
+        <v>1.925</v>
+      </c>
+      <c r="R92">
+        <v>1.875</v>
+      </c>
+      <c r="S92">
         <v>3</v>
       </c>
-      <c r="L92">
-        <v>2.875</v>
-      </c>
-      <c r="M92">
-        <v>2.7</v>
-      </c>
-      <c r="N92">
-        <v>3.1</v>
-      </c>
-      <c r="O92">
-        <v>2.8</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>1.85</v>
-      </c>
-      <c r="R92">
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.95</v>
       </c>
-      <c r="S92">
-        <v>2.25</v>
-      </c>
-      <c r="T92">
-        <v>1.975</v>
-      </c>
-      <c r="U92">
-        <v>1.725</v>
-      </c>
       <c r="V92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -16443,7 +16443,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16458,52 +16458,52 @@
         <v>45</v>
       </c>
       <c r="G186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
       </c>
       <c r="J186">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="K186">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L186">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M186">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P186">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S186">
         <v>2.75</v>
       </c>
       <c r="T186">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V186">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -16512,16 +16512,16 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16529,7 +16529,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -16544,52 +16544,52 @@
         <v>46</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
       </c>
       <c r="J187">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L187">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M187">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N187">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P187">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
         <v>2.75</v>
       </c>
       <c r="T187">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -16598,16 +16598,16 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -21768,6 +21768,92 @@
       </c>
       <c r="AB247">
         <v>0.475</v>
+      </c>
+    </row>
+    <row r="248" spans="1:28">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>8185481</v>
+      </c>
+      <c r="C248" t="s">
+        <v>27</v>
+      </c>
+      <c r="D248" s="2">
+        <v>45424.83333333334</v>
+      </c>
+      <c r="E248" t="s">
+        <v>37</v>
+      </c>
+      <c r="F248" t="s">
+        <v>28</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248">
+        <v>2</v>
+      </c>
+      <c r="I248" t="s">
+        <v>49</v>
+      </c>
+      <c r="J248">
+        <v>2.625</v>
+      </c>
+      <c r="K248">
+        <v>3</v>
+      </c>
+      <c r="L248">
+        <v>2.6</v>
+      </c>
+      <c r="M248">
+        <v>2.45</v>
+      </c>
+      <c r="N248">
+        <v>3</v>
+      </c>
+      <c r="O248">
+        <v>3.1</v>
+      </c>
+      <c r="P248">
+        <v>-0.25</v>
+      </c>
+      <c r="Q248">
+        <v>2.025</v>
+      </c>
+      <c r="R248">
+        <v>1.775</v>
+      </c>
+      <c r="S248">
+        <v>2</v>
+      </c>
+      <c r="T248">
+        <v>2</v>
+      </c>
+      <c r="U248">
+        <v>1.8</v>
+      </c>
+      <c r="V248">
+        <v>-1</v>
+      </c>
+      <c r="W248">
+        <v>-1</v>
+      </c>
+      <c r="X248">
+        <v>2.1</v>
+      </c>
+      <c r="Y248">
+        <v>-1</v>
+      </c>
+      <c r="Z248">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA248">
+        <v>1</v>
+      </c>
+      <c r="AB248">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -145,16 +145,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Monterrey U23</t>
+  </si>
+  <si>
     <t>Unam Pumas U23</t>
   </si>
   <si>
-    <t>Monterrey U23</t>
+    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>Tijuana U23</t>
-  </si>
-  <si>
-    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB248"/>
+  <dimension ref="A1:AB249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8273,7 +8273,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8282,76 +8282,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>4.5</v>
+      </c>
+      <c r="M91">
+        <v>1.5</v>
+      </c>
+      <c r="N91">
+        <v>4.75</v>
+      </c>
+      <c r="O91">
+        <v>5.75</v>
+      </c>
+      <c r="P91">
+        <v>-1.25</v>
+      </c>
+      <c r="Q91">
+        <v>1.925</v>
+      </c>
+      <c r="R91">
+        <v>1.875</v>
+      </c>
+      <c r="S91">
         <v>3</v>
       </c>
-      <c r="L91">
-        <v>2.875</v>
-      </c>
-      <c r="M91">
-        <v>2.7</v>
-      </c>
-      <c r="N91">
-        <v>3.1</v>
-      </c>
-      <c r="O91">
-        <v>2.8</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>1.85</v>
-      </c>
-      <c r="R91">
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.95</v>
       </c>
-      <c r="S91">
-        <v>2.25</v>
-      </c>
-      <c r="T91">
-        <v>1.975</v>
-      </c>
-      <c r="U91">
-        <v>1.725</v>
-      </c>
       <c r="V91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8359,7 +8359,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8368,76 +8368,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="K92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -16443,7 +16443,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16458,52 +16458,52 @@
         <v>45</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
       </c>
       <c r="J186">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L186">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M186">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q186">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R186">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
         <v>2.75</v>
       </c>
       <c r="T186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -16512,16 +16512,16 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16529,7 +16529,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -16544,52 +16544,52 @@
         <v>46</v>
       </c>
       <c r="G187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
       </c>
       <c r="J187">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="K187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L187">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M187">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N187">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P187">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q187">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
         <v>2.75</v>
       </c>
       <c r="T187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -16598,16 +16598,16 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -21854,6 +21854,92 @@
       </c>
       <c r="AB248">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:28">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>8219587</v>
+      </c>
+      <c r="C249" t="s">
+        <v>27</v>
+      </c>
+      <c r="D249" s="2">
+        <v>45427.91666666666</v>
+      </c>
+      <c r="E249" t="s">
+        <v>36</v>
+      </c>
+      <c r="F249" t="s">
+        <v>28</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249" t="s">
+        <v>48</v>
+      </c>
+      <c r="J249">
+        <v>2.5</v>
+      </c>
+      <c r="K249">
+        <v>3</v>
+      </c>
+      <c r="L249">
+        <v>2.6</v>
+      </c>
+      <c r="M249">
+        <v>3.1</v>
+      </c>
+      <c r="N249">
+        <v>3</v>
+      </c>
+      <c r="O249">
+        <v>2.3</v>
+      </c>
+      <c r="P249">
+        <v>0.25</v>
+      </c>
+      <c r="Q249">
+        <v>1.8</v>
+      </c>
+      <c r="R249">
+        <v>2</v>
+      </c>
+      <c r="S249">
+        <v>1.75</v>
+      </c>
+      <c r="T249">
+        <v>1.8</v>
+      </c>
+      <c r="U249">
+        <v>2</v>
+      </c>
+      <c r="V249">
+        <v>-1</v>
+      </c>
+      <c r="W249">
+        <v>2</v>
+      </c>
+      <c r="X249">
+        <v>-1</v>
+      </c>
+      <c r="Y249">
+        <v>0.4</v>
+      </c>
+      <c r="Z249">
+        <v>-0.5</v>
+      </c>
+      <c r="AA249">
+        <v>0.4</v>
+      </c>
+      <c r="AB249">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8219588</t>
   </si>
   <si>
     <t>Mexico Liga de Expansion</t>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB249"/>
+  <dimension ref="A1:AB250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,16 +625,16 @@
         <v>6704110</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45080.91666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -640,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>1.909</v>
@@ -708,16 +711,16 @@
         <v>6924481</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45128.92013888889</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -726,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>2.25</v>
@@ -794,16 +797,16 @@
         <v>6924480</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45129.83680555555</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -812,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>1.8</v>
@@ -880,16 +883,16 @@
         <v>6924482</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45129.92013888889</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -898,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5">
         <v>1.571</v>
@@ -966,16 +969,16 @@
         <v>6924483</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45130.625</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -984,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>2.4</v>
@@ -1052,16 +1055,16 @@
         <v>6924484</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45130.92013888889</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1070,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>2.6</v>
@@ -1138,16 +1141,16 @@
         <v>6924485</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45131.92013888889</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1156,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1224,16 +1227,16 @@
         <v>6923357</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45134.00347222222</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1242,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>2.75</v>
@@ -1310,16 +1313,16 @@
         <v>6924486</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45136.00347222222</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1328,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>1.909</v>
@@ -1396,16 +1399,16 @@
         <v>6924487</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45136.83680555555</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1414,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>3.5</v>
@@ -1482,16 +1485,16 @@
         <v>6924488</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45136.92013888889</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1500,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>2.375</v>
@@ -1568,16 +1571,16 @@
         <v>6924490</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45137.92013888889</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1586,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1654,16 +1657,16 @@
         <v>6924491</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45138.00347222222</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1672,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1740,16 +1743,16 @@
         <v>6924492</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45138.92013888889</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1758,7 +1761,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1826,16 +1829,16 @@
         <v>6924493</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45141.92013888889</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1844,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1912,16 +1915,16 @@
         <v>6924494</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45143.83680555555</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -1930,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -1998,16 +2001,16 @@
         <v>6924495</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45143.92013888889</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2016,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <v>2.8</v>
@@ -2084,16 +2087,16 @@
         <v>6924496</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45144.00347222222</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2102,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2170,16 +2173,16 @@
         <v>6924498</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45144.625</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2188,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>1.571</v>
@@ -2256,16 +2259,16 @@
         <v>6924497</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45144.83680555555</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2274,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>2.9</v>
@@ -2342,16 +2345,16 @@
         <v>6924499</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45145.00347222222</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2360,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>2.375</v>
@@ -2428,16 +2431,16 @@
         <v>6924500</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45148.92013888889</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2446,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J23">
         <v>2.25</v>
@@ -2514,16 +2517,16 @@
         <v>6924501</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45149.83680555555</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2532,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <v>1.952</v>
@@ -2600,16 +2603,16 @@
         <v>6924502</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45149.92013888889</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2618,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>1.952</v>
@@ -2686,16 +2689,16 @@
         <v>6924503</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45150.92013888889</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2704,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J26">
         <v>2.8</v>
@@ -2772,16 +2775,16 @@
         <v>6924504</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45151.00347222222</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2790,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2858,16 +2861,16 @@
         <v>6924506</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45151.83680555555</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2876,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J28">
         <v>1.909</v>
@@ -2944,16 +2947,16 @@
         <v>6924507</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45152.00347222222</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2962,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3030,16 +3033,16 @@
         <v>6924508</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45153.92013888889</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3048,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>2.5</v>
@@ -3116,16 +3119,16 @@
         <v>6924509</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45154.00347222222</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -3134,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J31">
         <v>3.6</v>
@@ -3202,16 +3205,16 @@
         <v>6924513</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45154.83680555555</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3220,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J32">
         <v>1.444</v>
@@ -3288,17 +3291,17 @@
         <v>6924510</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45155.00347222222</v>
       </c>
       <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
         <v>31</v>
       </c>
-      <c r="F33" t="s">
-        <v>30</v>
-      </c>
       <c r="G33">
         <v>2</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J33">
         <v>1.909</v>
@@ -3374,16 +3377,16 @@
         <v>6924511</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45155.83680555555</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3392,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J34">
         <v>1.85</v>
@@ -3460,16 +3463,16 @@
         <v>6924512</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45156.83680555555</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3478,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J35">
         <v>3.1</v>
@@ -3546,16 +3549,16 @@
         <v>7067400</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45157.83680555555</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3564,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J36">
         <v>1.833</v>
@@ -3632,16 +3635,16 @@
         <v>6924514</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45157.92013888889</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3650,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J37">
         <v>2.6</v>
@@ -3718,16 +3721,16 @@
         <v>6924515</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45160.83680555555</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3736,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3804,16 +3807,16 @@
         <v>6924516</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45160.92013888889</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -3822,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J39">
         <v>2.55</v>
@@ -3890,16 +3893,16 @@
         <v>6924517</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45161.00347222222</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3908,7 +3911,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J40">
         <v>2.2</v>
@@ -3976,16 +3979,16 @@
         <v>6924518</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45161.92013888889</v>
       </c>
       <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
         <v>33</v>
-      </c>
-      <c r="F41" t="s">
-        <v>32</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -3994,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <v>1.65</v>
@@ -4062,16 +4065,16 @@
         <v>6924519</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45162.00347222222</v>
       </c>
       <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s">
         <v>40</v>
-      </c>
-      <c r="F42" t="s">
-        <v>39</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4080,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J42">
         <v>1.571</v>
@@ -4148,16 +4151,16 @@
         <v>6924520</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45162.83680555555</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4166,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J43">
         <v>1.571</v>
@@ -4234,16 +4237,16 @@
         <v>6924521</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45162.92013888889</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -4252,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J44">
         <v>1.363</v>
@@ -4320,16 +4323,16 @@
         <v>6924522</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45167.92013888889</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4338,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J45">
         <v>2.25</v>
@@ -4406,16 +4409,16 @@
         <v>6924523</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45168.00347222222</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -4424,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4492,16 +4495,16 @@
         <v>6924524</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45168.83333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4510,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4578,16 +4581,16 @@
         <v>6924525</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45168.92013888889</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4596,7 +4599,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <v>3.4</v>
@@ -4664,16 +4667,16 @@
         <v>6924526</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45169.00347222222</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4682,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J49">
         <v>2.1</v>
@@ -4750,16 +4753,16 @@
         <v>6924527</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45170.00347222222</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4768,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J50">
         <v>1.285</v>
@@ -4836,16 +4839,16 @@
         <v>6924528</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45171.00347222222</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4854,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4922,16 +4925,16 @@
         <v>6924529</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45174.83680555555</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4940,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J52">
         <v>2.4</v>
@@ -5008,16 +5011,16 @@
         <v>6924530</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45174.92013888889</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5026,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5094,16 +5097,16 @@
         <v>6924531</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45175.00347222222</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5112,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J54">
         <v>2.6</v>
@@ -5180,16 +5183,16 @@
         <v>6924532</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45175.92013888889</v>
       </c>
       <c r="E55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" t="s">
         <v>36</v>
-      </c>
-      <c r="F55" t="s">
-        <v>35</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5198,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J55">
         <v>1.55</v>
@@ -5266,16 +5269,16 @@
         <v>6924533</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45176.92013888889</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5284,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J56">
         <v>1.95</v>
@@ -5352,16 +5355,16 @@
         <v>6924534</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45179.00347222222</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5370,7 +5373,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J57">
         <v>2.7</v>
@@ -5438,16 +5441,16 @@
         <v>6924535</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45179.92013888889</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5456,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>1.727</v>
@@ -5524,16 +5527,16 @@
         <v>6924536</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45182.83680555555</v>
       </c>
       <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
         <v>32</v>
-      </c>
-      <c r="F59" t="s">
-        <v>31</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5542,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5610,16 +5613,16 @@
         <v>6924537</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45182.92013888889</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5628,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J60">
         <v>2.75</v>
@@ -5696,16 +5699,16 @@
         <v>6924538</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45183.00347222222</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5714,7 +5717,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J61">
         <v>2.2</v>
@@ -5782,16 +5785,16 @@
         <v>6924539</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45183.92013888889</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G62">
         <v>4</v>
@@ -5800,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J62">
         <v>1.3</v>
@@ -5868,16 +5871,16 @@
         <v>6924540</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45185.92013888889</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5886,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J63">
         <v>2.05</v>
@@ -5954,16 +5957,16 @@
         <v>6924541</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45186.00347222222</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5972,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J64">
         <v>2.5</v>
@@ -6040,16 +6043,16 @@
         <v>6924542</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45186.83680555555</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6058,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J65">
         <v>1.85</v>
@@ -6126,16 +6129,16 @@
         <v>6924543</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45188.83680555555</v>
       </c>
       <c r="E66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6144,7 +6147,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J66">
         <v>1.85</v>
@@ -6212,16 +6215,16 @@
         <v>6924544</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45188.92013888889</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -6230,7 +6233,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J67">
         <v>2.25</v>
@@ -6298,16 +6301,16 @@
         <v>6924545</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45189.00347222222</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6316,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J68">
         <v>2.05</v>
@@ -6384,16 +6387,16 @@
         <v>6924546</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45189.83680555555</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6402,7 +6405,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -6470,16 +6473,16 @@
         <v>6924547</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45189.92013888889</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6488,7 +6491,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -6556,16 +6559,16 @@
         <v>6924548</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45191</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6574,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J71">
         <v>1.5</v>
@@ -6642,16 +6645,16 @@
         <v>6924549</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45193.875</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6660,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J72">
         <v>1.8</v>
@@ -6728,16 +6731,16 @@
         <v>6924550</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45195.92013888889</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6746,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J73">
         <v>1.615</v>
@@ -6814,16 +6817,16 @@
         <v>6924551</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45196.00347222222</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6832,7 +6835,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J74">
         <v>2.15</v>
@@ -6900,16 +6903,16 @@
         <v>6924552</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45196.83680555555</v>
       </c>
       <c r="E75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s">
         <v>39</v>
-      </c>
-      <c r="F75" t="s">
-        <v>38</v>
       </c>
       <c r="G75">
         <v>4</v>
@@ -6918,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J75">
         <v>1.45</v>
@@ -6986,16 +6989,16 @@
         <v>6924553</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45196.92013888889</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -7004,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7072,16 +7075,16 @@
         <v>6924554</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45197.00347222222</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7090,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J77">
         <v>1.8</v>
@@ -7158,16 +7161,16 @@
         <v>6924555</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45199.83680555555</v>
       </c>
       <c r="E78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7176,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J78">
         <v>1.75</v>
@@ -7244,16 +7247,16 @@
         <v>6924556</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45200.91666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7262,7 +7265,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J79">
         <v>2.1</v>
@@ -7330,16 +7333,16 @@
         <v>6924559</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45203.00347222222</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7348,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7416,16 +7419,16 @@
         <v>6924560</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45203.92013888889</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7434,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J81">
         <v>1.909</v>
@@ -7502,16 +7505,16 @@
         <v>6924561</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45204.00347222222</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7520,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J82">
         <v>1.5</v>
@@ -7588,16 +7591,16 @@
         <v>6924562</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45204.83680555555</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7606,7 +7609,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J83">
         <v>1.909</v>
@@ -7674,16 +7677,16 @@
         <v>6924558</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45204.92013888889</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7692,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J84">
         <v>2.1</v>
@@ -7760,16 +7763,16 @@
         <v>6924563</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45205.00347222222</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -7778,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J85">
         <v>2.2</v>
@@ -7846,16 +7849,16 @@
         <v>6924557</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7864,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J86">
         <v>2.1</v>
@@ -7932,16 +7935,16 @@
         <v>6924564</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45210.92013888889</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7950,7 +7953,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -8018,16 +8021,16 @@
         <v>6924565</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45212.83680555555</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8036,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J88">
         <v>2.625</v>
@@ -8104,16 +8107,16 @@
         <v>6924566</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45213.00347222222</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8122,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J89">
         <v>2.1</v>
@@ -8190,16 +8193,16 @@
         <v>6924567</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45213.83680555555</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8208,7 +8211,7 @@
         <v>5</v>
       </c>
       <c r="I90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J90">
         <v>2.25</v>
@@ -8276,16 +8279,16 @@
         <v>6924569</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>4</v>
@@ -8294,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J91">
         <v>1.615</v>
@@ -8362,16 +8365,16 @@
         <v>6924568</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8380,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8448,16 +8451,16 @@
         <v>6924570</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45215.00347222222</v>
       </c>
       <c r="E93" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" t="s">
         <v>34</v>
-      </c>
-      <c r="F93" t="s">
-        <v>33</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8466,7 +8469,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J93">
         <v>2.375</v>
@@ -8534,16 +8537,16 @@
         <v>6924571</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45219.00347222222</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8552,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J94">
         <v>2.5</v>
@@ -8620,16 +8623,16 @@
         <v>6924572</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45223.92013888889</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8638,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8706,16 +8709,16 @@
         <v>6924574</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45224.92013888889</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8724,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8792,16 +8795,16 @@
         <v>6924575</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45225.00347222222</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8810,7 +8813,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J97">
         <v>2.9</v>
@@ -8878,16 +8881,16 @@
         <v>6924576</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45225.92013888889</v>
       </c>
       <c r="E98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8896,7 +8899,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J98">
         <v>1.615</v>
@@ -8964,16 +8967,16 @@
         <v>6924573</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45226.00347222222</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8982,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9050,16 +9053,16 @@
         <v>6924578</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45227.92013888889</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100">
         <v>4</v>
@@ -9068,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J100">
         <v>2.1</v>
@@ -9136,16 +9139,16 @@
         <v>6924577</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45228.83333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9154,7 +9157,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J101">
         <v>1.363</v>
@@ -9222,16 +9225,16 @@
         <v>6924579</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45230.83680555555</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9240,7 +9243,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -9308,16 +9311,16 @@
         <v>6924581</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45231.83680555555</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9326,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J103">
         <v>4.333</v>
@@ -9394,16 +9397,16 @@
         <v>6924582</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45231.92013888889</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9412,7 +9415,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9480,16 +9483,16 @@
         <v>6924580</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45232.83680555555</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9498,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J105">
         <v>2.375</v>
@@ -9566,16 +9569,16 @@
         <v>6924583</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45232.92013888889</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9584,7 +9587,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J106">
         <v>1.4</v>
@@ -9652,16 +9655,16 @@
         <v>6924584</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45233.00347222222</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9670,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J107">
         <v>1.65</v>
@@ -9738,16 +9741,16 @@
         <v>7449159</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45239.92013888889</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108">
         <v>5</v>
@@ -9756,7 +9759,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9824,16 +9827,16 @@
         <v>7449160</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45240.00347222222</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9842,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J109">
         <v>1.444</v>
@@ -9910,16 +9913,16 @@
         <v>7460657</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45242.83680555555</v>
       </c>
       <c r="E110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9928,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -9996,16 +9999,16 @@
         <v>7473421</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45245.92013888889</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10014,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J111">
         <v>2.3</v>
@@ -10082,16 +10085,16 @@
         <v>7473419</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45246.00347222222</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10100,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J112">
         <v>2.25</v>
@@ -10168,16 +10171,16 @@
         <v>7473420</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45246.92013888889</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10186,7 +10189,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J113">
         <v>2.3</v>
@@ -10254,16 +10257,16 @@
         <v>7473526</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45247.00347222222</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10272,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J114">
         <v>2.75</v>
@@ -10340,16 +10343,16 @@
         <v>7450712</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45248.83680555555</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -10358,7 +10361,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J115">
         <v>1.6</v>
@@ -10426,16 +10429,16 @@
         <v>7473836</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45248.92013888889</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10444,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J116">
         <v>2.05</v>
@@ -10512,16 +10515,16 @@
         <v>7473837</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45249.83680555555</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10530,7 +10533,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J117">
         <v>1.909</v>
@@ -10598,16 +10601,16 @@
         <v>7450713</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45249.92013888889</v>
       </c>
       <c r="E118" t="s">
+        <v>34</v>
+      </c>
+      <c r="F118" t="s">
         <v>33</v>
-      </c>
-      <c r="F118" t="s">
-        <v>32</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10616,7 +10619,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10684,16 +10687,16 @@
         <v>7505184</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45252.91666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10702,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J119">
         <v>1.727</v>
@@ -10770,16 +10773,16 @@
         <v>7505183</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45253.91666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10788,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J120">
         <v>1.85</v>
@@ -10856,16 +10859,16 @@
         <v>7506103</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45256.00347222222</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10874,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J121">
         <v>2.625</v>
@@ -10942,16 +10945,16 @@
         <v>7506798</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10960,7 +10963,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J122">
         <v>2.1</v>
@@ -11028,16 +11031,16 @@
         <v>7528853</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45260.91666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11046,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J123">
         <v>1.909</v>
@@ -11114,16 +11117,16 @@
         <v>7531699</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45263.79166666666</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11132,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J124">
         <v>2.375</v>
@@ -11200,16 +11203,16 @@
         <v>7641630</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45300.92013888889</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11218,7 +11221,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J125">
         <v>2.1</v>
@@ -11286,16 +11289,16 @@
         <v>7641631</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45301.00347222222</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11304,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J126">
         <v>2.45</v>
@@ -11372,16 +11375,16 @@
         <v>7641632</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45301.92013888889</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11390,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J127">
         <v>3.6</v>
@@ -11458,17 +11461,17 @@
         <v>7641633</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45302.00347222222</v>
       </c>
       <c r="E128" t="s">
+        <v>31</v>
+      </c>
+      <c r="F128" t="s">
         <v>30</v>
       </c>
-      <c r="F128" t="s">
-        <v>29</v>
-      </c>
       <c r="G128">
         <v>0</v>
       </c>
@@ -11476,7 +11479,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11544,16 +11547,16 @@
         <v>7641634</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45302.92013888889</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11562,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J129">
         <v>1.5</v>
@@ -11630,16 +11633,16 @@
         <v>7641635</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45303.00347222222</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11648,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J130">
         <v>1.95</v>
@@ -11716,16 +11719,16 @@
         <v>7640640</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45305.79513888889</v>
       </c>
       <c r="E131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11734,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J131">
         <v>1.833</v>
@@ -11802,16 +11805,16 @@
         <v>7641636</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45307.92013888889</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -11820,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J132">
         <v>1.571</v>
@@ -11888,16 +11891,16 @@
         <v>7641638</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45308.92013888889</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11906,7 +11909,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J133">
         <v>1.615</v>
@@ -11974,16 +11977,16 @@
         <v>7641639</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45309.00347222222</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11992,7 +11995,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J134">
         <v>3.6</v>
@@ -12060,16 +12063,16 @@
         <v>7641640</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45309.92013888889</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12078,7 +12081,7 @@
         <v>5</v>
       </c>
       <c r="I135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J135">
         <v>2.1</v>
@@ -12146,16 +12149,16 @@
         <v>7641641</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45310.00347222222</v>
       </c>
       <c r="E136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12164,7 +12167,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J136">
         <v>1.8</v>
@@ -12232,16 +12235,16 @@
         <v>7640641</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45312.83680555555</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12250,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J137">
         <v>2.75</v>
@@ -12318,16 +12321,16 @@
         <v>7641642</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45314.92013888889</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12336,7 +12339,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J138">
         <v>2.8</v>
@@ -12404,16 +12407,16 @@
         <v>7641643</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45315.00347222222</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12422,7 +12425,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J139">
         <v>2.05</v>
@@ -12490,16 +12493,16 @@
         <v>7641644</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45315.92013888889</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12508,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12576,16 +12579,16 @@
         <v>7641645</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45316.00347222222</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12594,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J141">
         <v>2.55</v>
@@ -12662,16 +12665,16 @@
         <v>7640642</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45316.92013888889</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12680,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12748,16 +12751,16 @@
         <v>7641646</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45317.00347222222</v>
       </c>
       <c r="E143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12766,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J143">
         <v>1.7</v>
@@ -12834,16 +12837,16 @@
         <v>7641647</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45319.87847222222</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12852,7 +12855,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J144">
         <v>1.909</v>
@@ -12920,16 +12923,16 @@
         <v>7641648</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45322.00347222222</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12938,7 +12941,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J145">
         <v>1.5</v>
@@ -13006,16 +13009,16 @@
         <v>7640643</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45322.83680555555</v>
       </c>
       <c r="E146" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13024,7 +13027,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J146">
         <v>1.4</v>
@@ -13092,16 +13095,16 @@
         <v>7641649</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45322.92013888889</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13110,7 +13113,7 @@
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J147">
         <v>3.8</v>
@@ -13178,16 +13181,16 @@
         <v>7641650</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45323.00347222222</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13196,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J148">
         <v>2.05</v>
@@ -13264,16 +13267,16 @@
         <v>7641651</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45323.92013888889</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13282,7 +13285,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J149">
         <v>2.15</v>
@@ -13350,16 +13353,16 @@
         <v>7641652</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45324.00347222222</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13368,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J150">
         <v>2</v>
@@ -13436,16 +13439,16 @@
         <v>7641653</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45326.79513888889</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13454,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J151">
         <v>3</v>
@@ -13522,16 +13525,16 @@
         <v>7641659</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45326.92013888889</v>
       </c>
       <c r="E152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13540,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J152">
         <v>2.2</v>
@@ -13608,16 +13611,16 @@
         <v>7641655</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45328.83680555555</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13626,7 +13629,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J153">
         <v>1.333</v>
@@ -13694,16 +13697,16 @@
         <v>7641654</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45328.92013888889</v>
       </c>
       <c r="E154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13712,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J154">
         <v>2.5</v>
@@ -13780,16 +13783,16 @@
         <v>7640644</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45329.92013888889</v>
       </c>
       <c r="E155" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13798,7 +13801,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J155">
         <v>3.5</v>
@@ -13866,16 +13869,16 @@
         <v>7641656</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45330.00347222222</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13884,7 +13887,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J156">
         <v>2.05</v>
@@ -13952,16 +13955,16 @@
         <v>7641658</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45330.92013888889</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13970,7 +13973,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J157">
         <v>1.8</v>
@@ -14038,17 +14041,17 @@
         <v>7641657</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45331.83680555555</v>
       </c>
       <c r="E158" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" t="s">
         <v>37</v>
       </c>
-      <c r="F158" t="s">
-        <v>36</v>
-      </c>
       <c r="G158">
         <v>2</v>
       </c>
@@ -14056,7 +14059,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J158">
         <v>2</v>
@@ -14124,16 +14127,16 @@
         <v>7641660</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45335.92013888889</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14142,7 +14145,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J159">
         <v>2.5</v>
@@ -14210,16 +14213,16 @@
         <v>7641661</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45336.00347222222</v>
       </c>
       <c r="E160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14228,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J160">
         <v>3.1</v>
@@ -14296,16 +14299,16 @@
         <v>7641670</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45336.92013888889</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14314,7 +14317,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J161">
         <v>2.5</v>
@@ -14382,16 +14385,16 @@
         <v>7641671</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45338.00347222222</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14400,7 +14403,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J162">
         <v>2.7</v>
@@ -14468,16 +14471,16 @@
         <v>7641672</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45338.92013888889</v>
       </c>
       <c r="E163" t="s">
+        <v>36</v>
+      </c>
+      <c r="F163" t="s">
         <v>35</v>
-      </c>
-      <c r="F163" t="s">
-        <v>34</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14486,7 +14489,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J163">
         <v>2.4</v>
@@ -14554,16 +14557,16 @@
         <v>7641673</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45339.83680555555</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14572,7 +14575,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J164">
         <v>2.45</v>
@@ -14640,16 +14643,16 @@
         <v>7640645</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45340.625</v>
       </c>
       <c r="E165" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14658,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J165">
         <v>1.55</v>
@@ -14726,16 +14729,16 @@
         <v>7641679</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45342.92013888889</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14744,7 +14747,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J166">
         <v>1.909</v>
@@ -14812,16 +14815,16 @@
         <v>7641675</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45343.00347222222</v>
       </c>
       <c r="E167" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -14830,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J167">
         <v>2.45</v>
@@ -14898,16 +14901,16 @@
         <v>7641676</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45343.92013888889</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14916,7 +14919,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J168">
         <v>3.4</v>
@@ -14984,16 +14987,16 @@
         <v>7641674</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45344.00347222222</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G169">
         <v>4</v>
@@ -15002,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J169">
         <v>2</v>
@@ -15070,16 +15073,16 @@
         <v>7641678</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45344.92013888889</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15088,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J170">
         <v>1.8</v>
@@ -15156,16 +15159,16 @@
         <v>7641677</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
         <v>45345.00347222222</v>
       </c>
       <c r="E171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15174,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J171">
         <v>1.6</v>
@@ -15242,16 +15245,16 @@
         <v>7641680</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
         <v>45347.83680555555</v>
       </c>
       <c r="E172" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15260,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J172">
         <v>1.333</v>
@@ -15328,16 +15331,16 @@
         <v>7640646</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D173" s="2">
         <v>45349.92013888889</v>
       </c>
       <c r="E173" t="s">
+        <v>30</v>
+      </c>
+      <c r="F173" t="s">
         <v>29</v>
-      </c>
-      <c r="F173" t="s">
-        <v>28</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15346,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J173">
         <v>2.9</v>
@@ -15414,16 +15417,16 @@
         <v>7641681</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
         <v>45350.00347222222</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15432,7 +15435,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J174">
         <v>1.666</v>
@@ -15500,16 +15503,16 @@
         <v>7641682</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2">
         <v>45350.92013888889</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15518,7 +15521,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J175">
         <v>2.3</v>
@@ -15586,16 +15589,16 @@
         <v>7641684</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D176" s="2">
         <v>45351.92013888889</v>
       </c>
       <c r="E176" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -15604,7 +15607,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J176">
         <v>4</v>
@@ -15672,16 +15675,16 @@
         <v>7641685</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D177" s="2">
         <v>45352.00347222222</v>
       </c>
       <c r="E177" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" t="s">
         <v>41</v>
-      </c>
-      <c r="F177" t="s">
-        <v>40</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15690,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J177">
         <v>1.8</v>
@@ -15758,16 +15761,16 @@
         <v>7701489</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D178" s="2">
         <v>45352.83333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15776,7 +15779,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J178">
         <v>1.571</v>
@@ -15844,16 +15847,16 @@
         <v>7641686</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D179" s="2">
         <v>45353.83680555555</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15862,7 +15865,7 @@
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J179">
         <v>2</v>
@@ -15930,16 +15933,16 @@
         <v>7640647</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D180" s="2">
         <v>45356.92013888889</v>
       </c>
       <c r="E180" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15948,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J180">
         <v>1.4</v>
@@ -16016,16 +16019,16 @@
         <v>7641687</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2">
         <v>45357.00347222222</v>
       </c>
       <c r="E181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16034,7 +16037,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J181">
         <v>1.65</v>
@@ -16102,16 +16105,16 @@
         <v>7641688</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D182" s="2">
         <v>45357.92013888889</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16120,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J182">
         <v>1.571</v>
@@ -16188,16 +16191,16 @@
         <v>7641689</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D183" s="2">
         <v>45358.00347222222</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16206,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J183">
         <v>3.6</v>
@@ -16274,16 +16277,16 @@
         <v>7641690</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D184" s="2">
         <v>45358.92013888889</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G184">
         <v>3</v>
@@ -16292,7 +16295,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J184">
         <v>1.7</v>
@@ -16360,16 +16363,16 @@
         <v>7641691</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D185" s="2">
         <v>45359.00347222222</v>
       </c>
       <c r="E185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16378,7 +16381,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J185">
         <v>1.571</v>
@@ -16446,16 +16449,16 @@
         <v>7648958</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D186" s="2">
         <v>45361.5</v>
       </c>
       <c r="E186" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G186">
         <v>4</v>
@@ -16464,7 +16467,7 @@
         <v>3</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J186">
         <v>2.375</v>
@@ -16532,16 +16535,16 @@
         <v>7648957</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D187" s="2">
         <v>45361.5</v>
       </c>
       <c r="E187" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16550,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J187">
         <v>1.666</v>
@@ -16618,16 +16621,16 @@
         <v>7641692</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D188" s="2">
         <v>45361.92013888889</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16636,7 +16639,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J188">
         <v>2.15</v>
@@ -16704,16 +16707,16 @@
         <v>7641693</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D189" s="2">
         <v>45363.92013888889</v>
       </c>
       <c r="E189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16722,7 +16725,7 @@
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J189">
         <v>2.4</v>
@@ -16790,16 +16793,16 @@
         <v>7641694</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D190" s="2">
         <v>45364.00347222222</v>
       </c>
       <c r="E190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16808,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J190">
         <v>1.4</v>
@@ -16876,16 +16879,16 @@
         <v>7640648</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D191" s="2">
         <v>45364.92013888889</v>
       </c>
       <c r="E191" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F191" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16894,7 +16897,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J191">
         <v>4</v>
@@ -16962,16 +16965,16 @@
         <v>7641695</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D192" s="2">
         <v>45365.00347222222</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16980,7 +16983,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J192">
         <v>2.25</v>
@@ -17048,16 +17051,16 @@
         <v>7641696</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D193" s="2">
         <v>45365.92013888889</v>
       </c>
       <c r="E193" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17066,7 +17069,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J193">
         <v>2.1</v>
@@ -17134,16 +17137,16 @@
         <v>7641697</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D194" s="2">
         <v>45366.00347222222</v>
       </c>
       <c r="E194" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17152,7 +17155,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J194">
         <v>2.25</v>
@@ -17220,16 +17223,16 @@
         <v>7641698</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D195" s="2">
         <v>45368.92013888889</v>
       </c>
       <c r="E195" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17238,7 +17241,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J195">
         <v>2.3</v>
@@ -17306,16 +17309,16 @@
         <v>7641699</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D196" s="2">
         <v>45370.83680555555</v>
       </c>
       <c r="E196" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17324,7 +17327,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J196">
         <v>1.533</v>
@@ -17392,16 +17395,16 @@
         <v>7640649</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D197" s="2">
         <v>45370.92013888889</v>
       </c>
       <c r="E197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17410,7 +17413,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J197">
         <v>1.65</v>
@@ -17478,16 +17481,16 @@
         <v>7641700</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D198" s="2">
         <v>45371.00347222222</v>
       </c>
       <c r="E198" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17496,7 +17499,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J198">
         <v>1.95</v>
@@ -17564,16 +17567,16 @@
         <v>7641701</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D199" s="2">
         <v>45371.83680555555</v>
       </c>
       <c r="E199" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17582,7 +17585,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J199">
         <v>2.1</v>
@@ -17650,16 +17653,16 @@
         <v>7641702</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D200" s="2">
         <v>45371.92013888889</v>
       </c>
       <c r="E200" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -17668,7 +17671,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J200">
         <v>1.8</v>
@@ -17736,16 +17739,16 @@
         <v>7641703</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D201" s="2">
         <v>45372.00347222222</v>
       </c>
       <c r="E201" t="s">
+        <v>39</v>
+      </c>
+      <c r="F201" t="s">
         <v>38</v>
-      </c>
-      <c r="F201" t="s">
-        <v>37</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17754,7 +17757,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J201">
         <v>3.6</v>
@@ -17822,16 +17825,16 @@
         <v>7641704</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D202" s="2">
         <v>45372.92013888889</v>
       </c>
       <c r="E202" t="s">
+        <v>43</v>
+      </c>
+      <c r="F202" t="s">
         <v>42</v>
-      </c>
-      <c r="F202" t="s">
-        <v>41</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17840,7 +17843,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J202">
         <v>1.6</v>
@@ -17908,16 +17911,16 @@
         <v>7641705</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D203" s="2">
         <v>45373.92013888889</v>
       </c>
       <c r="E203" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17926,7 +17929,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J203">
         <v>1.75</v>
@@ -17994,16 +17997,16 @@
         <v>7641706</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2">
         <v>45374.75</v>
       </c>
       <c r="E204" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -18012,7 +18015,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J204">
         <v>2.7</v>
@@ -18080,16 +18083,16 @@
         <v>7641707</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D205" s="2">
         <v>45374.83333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18098,7 +18101,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J205">
         <v>1.333</v>
@@ -18166,16 +18169,16 @@
         <v>7641708</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D206" s="2">
         <v>45374.92013888889</v>
       </c>
       <c r="E206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18184,7 +18187,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J206">
         <v>2</v>
@@ -18252,16 +18255,16 @@
         <v>7641709</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D207" s="2">
         <v>45375.00347222222</v>
       </c>
       <c r="E207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18270,7 +18273,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J207">
         <v>4</v>
@@ -18338,16 +18341,16 @@
         <v>7640650</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D208" s="2">
         <v>45375.625</v>
       </c>
       <c r="E208" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18356,7 +18359,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J208">
         <v>1.444</v>
@@ -18424,16 +18427,16 @@
         <v>7641710</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D209" s="2">
         <v>45375.92013888889</v>
       </c>
       <c r="E209" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18442,7 +18445,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J209">
         <v>2.6</v>
@@ -18510,16 +18513,16 @@
         <v>7641711</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D210" s="2">
         <v>45377.92013888889</v>
       </c>
       <c r="E210" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18528,7 +18531,7 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J210">
         <v>1.909</v>
@@ -18596,16 +18599,16 @@
         <v>7641712</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D211" s="2">
         <v>45378.00347222222</v>
       </c>
       <c r="E211" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18614,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J211">
         <v>1.833</v>
@@ -18682,16 +18685,16 @@
         <v>7641713</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D212" s="2">
         <v>45378.92013888889</v>
       </c>
       <c r="E212" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18700,7 +18703,7 @@
         <v>4</v>
       </c>
       <c r="I212" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J212">
         <v>1.666</v>
@@ -18768,16 +18771,16 @@
         <v>7641714</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D213" s="2">
         <v>45379.00347222222</v>
       </c>
       <c r="E213" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18786,7 +18789,7 @@
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J213">
         <v>1.95</v>
@@ -18854,16 +18857,16 @@
         <v>7641715</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D214" s="2">
         <v>45379.92013888889</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G214">
         <v>3</v>
@@ -18872,7 +18875,7 @@
         <v>4</v>
       </c>
       <c r="I214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J214">
         <v>2.6</v>
@@ -18940,16 +18943,16 @@
         <v>7640651</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D215" s="2">
         <v>45380.00347222222</v>
       </c>
       <c r="E215" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F215" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -18958,7 +18961,7 @@
         <v>3</v>
       </c>
       <c r="I215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J215">
         <v>7.5</v>
@@ -19026,16 +19029,16 @@
         <v>7641716</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D216" s="2">
         <v>45380.875</v>
       </c>
       <c r="E216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -19044,7 +19047,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J216">
         <v>1.444</v>
@@ -19112,16 +19115,16 @@
         <v>7640652</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D217" s="2">
         <v>45384.83680555555</v>
       </c>
       <c r="E217" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F217" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19130,7 +19133,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J217">
         <v>2.6</v>
@@ -19198,16 +19201,16 @@
         <v>7641717</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D218" s="2">
         <v>45384.92013888889</v>
       </c>
       <c r="E218" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19216,7 +19219,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J218">
         <v>2.15</v>
@@ -19284,16 +19287,16 @@
         <v>7641718</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D219" s="2">
         <v>45385.00347222222</v>
       </c>
       <c r="E219" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19302,7 +19305,7 @@
         <v>3</v>
       </c>
       <c r="I219" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J219">
         <v>2.25</v>
@@ -19370,16 +19373,16 @@
         <v>7641719</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D220" s="2">
         <v>45385.92013888889</v>
       </c>
       <c r="E220" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -19388,7 +19391,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J220">
         <v>2.15</v>
@@ -19456,16 +19459,16 @@
         <v>7641720</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D221" s="2">
         <v>45386.00347222222</v>
       </c>
       <c r="E221" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19474,7 +19477,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J221">
         <v>2.5</v>
@@ -19542,16 +19545,16 @@
         <v>7641721</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D222" s="2">
         <v>45386.92013888889</v>
       </c>
       <c r="E222" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F222" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19560,7 +19563,7 @@
         <v>2</v>
       </c>
       <c r="I222" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J222">
         <v>2.6</v>
@@ -19628,16 +19631,16 @@
         <v>7641722</v>
       </c>
       <c r="C223" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D223" s="2">
         <v>45387.00347222222</v>
       </c>
       <c r="E223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19646,7 +19649,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J223">
         <v>2.6</v>
@@ -19714,16 +19717,16 @@
         <v>7893216</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D224" s="2">
         <v>45388.00347222222</v>
       </c>
       <c r="E224" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19732,7 +19735,7 @@
         <v>3</v>
       </c>
       <c r="I224" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J224">
         <v>2.3</v>
@@ -19800,16 +19803,16 @@
         <v>7641723</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D225" s="2">
         <v>45391.92013888889</v>
       </c>
       <c r="E225" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19818,7 +19821,7 @@
         <v>2</v>
       </c>
       <c r="I225" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J225">
         <v>1.4</v>
@@ -19886,16 +19889,16 @@
         <v>7641724</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D226" s="2">
         <v>45392.00347222222</v>
       </c>
       <c r="E226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F226" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -19904,7 +19907,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J226">
         <v>2.3</v>
@@ -19972,16 +19975,16 @@
         <v>7641725</v>
       </c>
       <c r="C227" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D227" s="2">
         <v>45392.92013888889</v>
       </c>
       <c r="E227" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -19990,7 +19993,7 @@
         <v>2</v>
       </c>
       <c r="I227" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J227">
         <v>2.75</v>
@@ -20058,16 +20061,16 @@
         <v>7641726</v>
       </c>
       <c r="C228" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D228" s="2">
         <v>45393.00347222222</v>
       </c>
       <c r="E228" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F228" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20076,7 +20079,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J228">
         <v>1.25</v>
@@ -20144,16 +20147,16 @@
         <v>7640653</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D229" s="2">
         <v>45393.92013888889</v>
       </c>
       <c r="E229" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -20162,7 +20165,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J229">
         <v>1.6</v>
@@ -20230,16 +20233,16 @@
         <v>7641727</v>
       </c>
       <c r="C230" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D230" s="2">
         <v>45394.00347222222</v>
       </c>
       <c r="E230" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F230" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20248,7 +20251,7 @@
         <v>2</v>
       </c>
       <c r="I230" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J230">
         <v>1.8</v>
@@ -20316,16 +20319,16 @@
         <v>7641728</v>
       </c>
       <c r="C231" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D231" s="2">
         <v>45395.83680555555</v>
       </c>
       <c r="E231" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G231">
         <v>3</v>
@@ -20334,7 +20337,7 @@
         <v>3</v>
       </c>
       <c r="I231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J231">
         <v>2.25</v>
@@ -20402,16 +20405,16 @@
         <v>8104978</v>
       </c>
       <c r="C232" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D232" s="2">
         <v>45399.91666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G232">
         <v>7</v>
@@ -20420,7 +20423,7 @@
         <v>6</v>
       </c>
       <c r="I232" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J232">
         <v>2.2</v>
@@ -20488,16 +20491,16 @@
         <v>8104979</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D233" s="2">
         <v>45400</v>
       </c>
       <c r="E233" t="s">
+        <v>35</v>
+      </c>
+      <c r="F233" t="s">
         <v>34</v>
-      </c>
-      <c r="F233" t="s">
-        <v>33</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -20506,7 +20509,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J233">
         <v>2.25</v>
@@ -20574,16 +20577,16 @@
         <v>8117254</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D234" s="2">
         <v>45403</v>
       </c>
       <c r="E234" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G234">
         <v>3</v>
@@ -20592,7 +20595,7 @@
         <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J234">
         <v>1.909</v>
@@ -20660,16 +20663,16 @@
         <v>8127902</v>
       </c>
       <c r="C235" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D235" s="2">
         <v>45406.91666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F235" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G235">
         <v>4</v>
@@ -20678,7 +20681,7 @@
         <v>3</v>
       </c>
       <c r="I235" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J235">
         <v>2</v>
@@ -20746,16 +20749,16 @@
         <v>8134910</v>
       </c>
       <c r="C236" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D236" s="2">
         <v>45407.00347222222</v>
       </c>
       <c r="E236" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -20764,7 +20767,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J236">
         <v>2.75</v>
@@ -20832,16 +20835,16 @@
         <v>8127901</v>
       </c>
       <c r="C237" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D237" s="2">
         <v>45407.92013888889</v>
       </c>
       <c r="E237" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F237" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20850,7 +20853,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J237">
         <v>2.25</v>
@@ -20918,16 +20921,16 @@
         <v>8134907</v>
       </c>
       <c r="C238" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D238" s="2">
         <v>45408.00347222222</v>
       </c>
       <c r="E238" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20936,7 +20939,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J238">
         <v>2.3</v>
@@ -21004,16 +21007,16 @@
         <v>8127905</v>
       </c>
       <c r="C239" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D239" s="2">
         <v>45409.83333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21022,7 +21025,7 @@
         <v>3</v>
       </c>
       <c r="I239" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J239">
         <v>1.7</v>
@@ -21090,16 +21093,16 @@
         <v>8127904</v>
       </c>
       <c r="C240" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D240" s="2">
         <v>45409.91666666666</v>
       </c>
       <c r="E240" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G240">
         <v>2</v>
@@ -21108,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J240">
         <v>1.909</v>
@@ -21176,16 +21179,16 @@
         <v>8127903</v>
       </c>
       <c r="C241" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D241" s="2">
         <v>45410.83333333334</v>
       </c>
       <c r="E241" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -21194,7 +21197,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J241">
         <v>1.8</v>
@@ -21262,16 +21265,16 @@
         <v>8127899</v>
       </c>
       <c r="C242" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D242" s="2">
         <v>45410.92013888889</v>
       </c>
       <c r="E242" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F242" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G242">
         <v>3</v>
@@ -21280,7 +21283,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J242">
         <v>2.1</v>
@@ -21348,16 +21351,16 @@
         <v>8161957</v>
       </c>
       <c r="C243" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D243" s="2">
         <v>45414.85416666666</v>
       </c>
       <c r="E243" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F243" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -21366,7 +21369,7 @@
         <v>3</v>
       </c>
       <c r="I243" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J243">
         <v>2.875</v>
@@ -21434,16 +21437,16 @@
         <v>8161958</v>
       </c>
       <c r="C244" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D244" s="2">
         <v>45414.9375</v>
       </c>
       <c r="E244" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F244" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21452,7 +21455,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J244">
         <v>2.5</v>
@@ -21520,16 +21523,16 @@
         <v>8161959</v>
       </c>
       <c r="C245" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D245" s="2">
         <v>45417.79166666666</v>
       </c>
       <c r="E245" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F245" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G245">
         <v>5</v>
@@ -21538,7 +21541,7 @@
         <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J245">
         <v>1.8</v>
@@ -21606,16 +21609,16 @@
         <v>8161960</v>
       </c>
       <c r="C246" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D246" s="2">
         <v>45417.87847222222</v>
       </c>
       <c r="E246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F246" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G246">
         <v>3</v>
@@ -21624,7 +21627,7 @@
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J246">
         <v>1.8</v>
@@ -21692,16 +21695,16 @@
         <v>8185480</v>
       </c>
       <c r="C247" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D247" s="2">
         <v>45420.91666666666</v>
       </c>
       <c r="E247" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21710,7 +21713,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J247">
         <v>1.571</v>
@@ -21778,16 +21781,16 @@
         <v>8185481</v>
       </c>
       <c r="C248" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D248" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E248" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F248" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21796,7 +21799,7 @@
         <v>2</v>
       </c>
       <c r="I248" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J248">
         <v>2.625</v>
@@ -21864,16 +21867,16 @@
         <v>8219587</v>
       </c>
       <c r="C249" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D249" s="2">
         <v>45427.91666666666</v>
       </c>
       <c r="E249" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F249" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -21882,7 +21885,7 @@
         <v>1</v>
       </c>
       <c r="I249" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J249">
         <v>2.5</v>
@@ -21940,6 +21943,71 @@
       </c>
       <c r="AB249">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:28">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>27</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" s="2">
+        <v>45430.875</v>
+      </c>
+      <c r="E250" t="s">
+        <v>29</v>
+      </c>
+      <c r="F250" t="s">
+        <v>37</v>
+      </c>
+      <c r="J250">
+        <v>1.833</v>
+      </c>
+      <c r="K250">
+        <v>3.3</v>
+      </c>
+      <c r="L250">
+        <v>4</v>
+      </c>
+      <c r="M250">
+        <v>1.8</v>
+      </c>
+      <c r="N250">
+        <v>3.4</v>
+      </c>
+      <c r="O250">
+        <v>4.2</v>
+      </c>
+      <c r="P250">
+        <v>-0.5</v>
+      </c>
+      <c r="Q250">
+        <v>1.8</v>
+      </c>
+      <c r="R250">
+        <v>2</v>
+      </c>
+      <c r="S250">
+        <v>2</v>
+      </c>
+      <c r="T250">
+        <v>1.9</v>
+      </c>
+      <c r="U250">
+        <v>1.9</v>
+      </c>
+      <c r="V250">
+        <v>0</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -8276,7 +8276,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8285,76 +8285,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="K91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8362,7 +8362,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>4.5</v>
+      </c>
+      <c r="M92">
+        <v>1.5</v>
+      </c>
+      <c r="N92">
+        <v>4.75</v>
+      </c>
+      <c r="O92">
+        <v>5.75</v>
+      </c>
+      <c r="P92">
+        <v>-1.25</v>
+      </c>
+      <c r="Q92">
+        <v>1.925</v>
+      </c>
+      <c r="R92">
+        <v>1.875</v>
+      </c>
+      <c r="S92">
         <v>3</v>
       </c>
-      <c r="L92">
-        <v>2.875</v>
-      </c>
-      <c r="M92">
-        <v>2.7</v>
-      </c>
-      <c r="N92">
-        <v>3.1</v>
-      </c>
-      <c r="O92">
-        <v>2.8</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>1.85</v>
-      </c>
-      <c r="R92">
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.95</v>
       </c>
-      <c r="S92">
-        <v>2.25</v>
-      </c>
-      <c r="T92">
-        <v>1.975</v>
-      </c>
-      <c r="U92">
-        <v>1.725</v>
-      </c>
       <c r="V92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -21974,31 +21974,31 @@
         <v>4</v>
       </c>
       <c r="M250">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="N250">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O250">
-        <v>4.2</v>
+        <v>6.25</v>
       </c>
       <c r="P250">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q250">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R250">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S250">
         <v>2</v>
       </c>
       <c r="T250">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U250">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V250">
         <v>0</v>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -97,9 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8219588</t>
-  </si>
-  <si>
     <t>Mexico Liga de Expansion</t>
   </si>
   <si>
@@ -148,16 +145,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Unam Pumas U23</t>
+  </si>
+  <si>
     <t>Monterrey U23</t>
   </si>
   <si>
-    <t>Unam Pumas U23</t>
+    <t>Tijuana U23</t>
   </si>
   <si>
     <t>Mazatlan FC U23</t>
-  </si>
-  <si>
-    <t>Tijuana U23</t>
   </si>
   <si>
     <t>H</t>
@@ -625,16 +622,16 @@
         <v>6704110</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45080.91666666666</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -643,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>1.909</v>
@@ -711,16 +708,16 @@
         <v>6924481</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45128.92013888889</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -729,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3">
         <v>2.25</v>
@@ -797,16 +794,16 @@
         <v>6924480</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45129.83680555555</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -815,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4">
         <v>1.8</v>
@@ -883,16 +880,16 @@
         <v>6924482</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45129.92013888889</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -901,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>1.571</v>
@@ -969,16 +966,16 @@
         <v>6924483</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45130.625</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -987,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6">
         <v>2.4</v>
@@ -1055,16 +1052,16 @@
         <v>6924484</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45130.92013888889</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1073,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>2.6</v>
@@ -1141,16 +1138,16 @@
         <v>6924485</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45131.92013888889</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1159,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>1.571</v>
@@ -1227,16 +1224,16 @@
         <v>6923357</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45134.00347222222</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1245,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9">
         <v>2.75</v>
@@ -1313,16 +1310,16 @@
         <v>6924486</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45136.00347222222</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1331,7 +1328,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>1.909</v>
@@ -1399,16 +1396,16 @@
         <v>6924487</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45136.83680555555</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1417,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>3.5</v>
@@ -1485,16 +1482,16 @@
         <v>6924488</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45136.92013888889</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1503,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12">
         <v>2.375</v>
@@ -1571,16 +1568,16 @@
         <v>6924490</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45137.92013888889</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1589,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1657,16 +1654,16 @@
         <v>6924491</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45138.00347222222</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1675,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>3.2</v>
@@ -1743,16 +1740,16 @@
         <v>6924492</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45138.92013888889</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1761,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1829,16 +1826,16 @@
         <v>6924493</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45141.92013888889</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -1847,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>2.2</v>
@@ -1915,16 +1912,16 @@
         <v>6924494</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45143.83680555555</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -1933,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17">
         <v>1.571</v>
@@ -2001,16 +1998,16 @@
         <v>6924495</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45143.92013888889</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2019,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>2.8</v>
@@ -2087,16 +2084,16 @@
         <v>6924496</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45144.00347222222</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2105,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2173,16 +2170,16 @@
         <v>6924498</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45144.625</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2191,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>1.571</v>
@@ -2259,16 +2256,16 @@
         <v>6924497</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45144.83680555555</v>
       </c>
       <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
         <v>42</v>
-      </c>
-      <c r="F21" t="s">
-        <v>43</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2277,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21">
         <v>2.9</v>
@@ -2345,16 +2342,16 @@
         <v>6924499</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45145.00347222222</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2363,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <v>2.375</v>
@@ -2431,16 +2428,16 @@
         <v>6924500</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45148.92013888889</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2449,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23">
         <v>2.25</v>
@@ -2517,16 +2514,16 @@
         <v>6924501</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45149.83680555555</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2535,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J24">
         <v>1.952</v>
@@ -2603,16 +2600,16 @@
         <v>6924502</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45149.92013888889</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2621,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25">
         <v>1.952</v>
@@ -2689,16 +2686,16 @@
         <v>6924503</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45150.92013888889</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2707,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J26">
         <v>2.8</v>
@@ -2775,16 +2772,16 @@
         <v>6924504</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45151.00347222222</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2793,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>2.5</v>
@@ -2861,16 +2858,16 @@
         <v>6924506</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45151.83680555555</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2879,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J28">
         <v>1.909</v>
@@ -2947,16 +2944,16 @@
         <v>6924507</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45152.00347222222</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2965,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J29">
         <v>2.5</v>
@@ -3033,16 +3030,16 @@
         <v>6924508</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45153.92013888889</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3051,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30">
         <v>2.5</v>
@@ -3119,16 +3116,16 @@
         <v>6924509</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45154.00347222222</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -3137,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31">
         <v>3.6</v>
@@ -3205,16 +3202,16 @@
         <v>6924513</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45154.83680555555</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>3</v>
@@ -3223,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J32">
         <v>1.444</v>
@@ -3291,16 +3288,16 @@
         <v>6924510</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45155.00347222222</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3309,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J33">
         <v>1.909</v>
@@ -3377,16 +3374,16 @@
         <v>6924511</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45155.83680555555</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -3395,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34">
         <v>1.85</v>
@@ -3463,16 +3460,16 @@
         <v>6924512</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45156.83680555555</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3481,7 +3478,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35">
         <v>3.1</v>
@@ -3549,16 +3546,16 @@
         <v>7067400</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45157.83680555555</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3567,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>1.833</v>
@@ -3635,16 +3632,16 @@
         <v>6924514</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45157.92013888889</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3653,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>2.6</v>
@@ -3721,16 +3718,16 @@
         <v>6924515</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45160.83680555555</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3739,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>2.75</v>
@@ -3807,16 +3804,16 @@
         <v>6924516</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45160.92013888889</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -3825,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J39">
         <v>2.55</v>
@@ -3893,16 +3890,16 @@
         <v>6924517</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45161.00347222222</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3911,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>2.2</v>
@@ -3979,16 +3976,16 @@
         <v>6924518</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45161.92013888889</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41">
         <v>4</v>
@@ -3997,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J41">
         <v>1.65</v>
@@ -4065,16 +4062,16 @@
         <v>6924519</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45162.00347222222</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>4</v>
@@ -4083,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>1.571</v>
@@ -4151,16 +4148,16 @@
         <v>6924520</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45162.83680555555</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4169,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J43">
         <v>1.571</v>
@@ -4237,16 +4234,16 @@
         <v>6924521</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45162.92013888889</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -4255,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J44">
         <v>1.363</v>
@@ -4323,16 +4320,16 @@
         <v>6924522</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45167.92013888889</v>
       </c>
       <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
         <v>30</v>
-      </c>
-      <c r="F45" t="s">
-        <v>31</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4341,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J45">
         <v>2.25</v>
@@ -4409,16 +4406,16 @@
         <v>6924523</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45168.00347222222</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -4427,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4495,16 +4492,16 @@
         <v>6924524</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45168.83333333334</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4513,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -4581,16 +4578,16 @@
         <v>6924525</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45168.92013888889</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4599,7 +4596,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J48">
         <v>3.4</v>
@@ -4667,16 +4664,16 @@
         <v>6924526</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45169.00347222222</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4685,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J49">
         <v>2.1</v>
@@ -4753,16 +4750,16 @@
         <v>6924527</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45170.00347222222</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4771,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J50">
         <v>1.285</v>
@@ -4839,16 +4836,16 @@
         <v>6924528</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45171.00347222222</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4857,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4925,16 +4922,16 @@
         <v>6924529</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45174.83680555555</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -4943,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J52">
         <v>2.4</v>
@@ -5011,16 +5008,16 @@
         <v>6924530</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45174.92013888889</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5029,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J53">
         <v>1.8</v>
@@ -5097,16 +5094,16 @@
         <v>6924531</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45175.00347222222</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5115,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J54">
         <v>2.6</v>
@@ -5183,16 +5180,16 @@
         <v>6924532</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45175.92013888889</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5201,7 +5198,7 @@
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <v>1.55</v>
@@ -5269,16 +5266,16 @@
         <v>6924533</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45176.92013888889</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5287,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J56">
         <v>1.95</v>
@@ -5355,16 +5352,16 @@
         <v>6924534</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45179.00347222222</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5373,7 +5370,7 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J57">
         <v>2.7</v>
@@ -5441,16 +5438,16 @@
         <v>6924535</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45179.92013888889</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5459,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J58">
         <v>1.727</v>
@@ -5527,16 +5524,16 @@
         <v>6924536</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45182.83680555555</v>
       </c>
       <c r="E59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -5545,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J59">
         <v>2.3</v>
@@ -5613,16 +5610,16 @@
         <v>6924537</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45182.92013888889</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5631,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J60">
         <v>2.75</v>
@@ -5699,16 +5696,16 @@
         <v>6924538</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45183.00347222222</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5717,7 +5714,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J61">
         <v>2.2</v>
@@ -5785,16 +5782,16 @@
         <v>6924539</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45183.92013888889</v>
       </c>
       <c r="E62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" t="s">
         <v>38</v>
-      </c>
-      <c r="F62" t="s">
-        <v>39</v>
       </c>
       <c r="G62">
         <v>4</v>
@@ -5803,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J62">
         <v>1.3</v>
@@ -5871,16 +5868,16 @@
         <v>6924540</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45185.92013888889</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5889,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J63">
         <v>2.05</v>
@@ -5957,16 +5954,16 @@
         <v>6924541</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45186.00347222222</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5975,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64">
         <v>2.5</v>
@@ -6043,16 +6040,16 @@
         <v>6924542</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45186.83680555555</v>
       </c>
       <c r="E65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6061,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J65">
         <v>1.85</v>
@@ -6129,16 +6126,16 @@
         <v>6924543</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45188.83680555555</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6147,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J66">
         <v>1.85</v>
@@ -6215,16 +6212,16 @@
         <v>6924544</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45188.92013888889</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G67">
         <v>5</v>
@@ -6233,7 +6230,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J67">
         <v>2.25</v>
@@ -6301,16 +6298,16 @@
         <v>6924545</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45189.00347222222</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -6319,7 +6316,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>2.05</v>
@@ -6387,16 +6384,16 @@
         <v>6924546</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45189.83680555555</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6405,7 +6402,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -6473,16 +6470,16 @@
         <v>6924547</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45189.92013888889</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6491,7 +6488,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -6559,17 +6556,17 @@
         <v>6924548</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45191</v>
       </c>
       <c r="E71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" t="s">
         <v>29</v>
       </c>
-      <c r="F71" t="s">
-        <v>30</v>
-      </c>
       <c r="G71">
         <v>2</v>
       </c>
@@ -6577,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>1.5</v>
@@ -6645,16 +6642,16 @@
         <v>6924549</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45193.875</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -6663,7 +6660,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J72">
         <v>1.8</v>
@@ -6731,16 +6728,16 @@
         <v>6924550</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45195.92013888889</v>
       </c>
       <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" t="s">
         <v>35</v>
-      </c>
-      <c r="F73" t="s">
-        <v>36</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6749,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J73">
         <v>1.615</v>
@@ -6817,16 +6814,16 @@
         <v>6924551</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45196.00347222222</v>
       </c>
       <c r="E74" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s">
         <v>41</v>
-      </c>
-      <c r="F74" t="s">
-        <v>42</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -6835,7 +6832,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J74">
         <v>2.15</v>
@@ -6903,16 +6900,16 @@
         <v>6924552</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45196.83680555555</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>4</v>
@@ -6921,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J75">
         <v>1.45</v>
@@ -6989,16 +6986,16 @@
         <v>6924553</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45196.92013888889</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -7007,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J76">
         <v>2.1</v>
@@ -7075,16 +7072,16 @@
         <v>6924554</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45197.00347222222</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7093,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J77">
         <v>1.8</v>
@@ -7161,16 +7158,16 @@
         <v>6924555</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45199.83680555555</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7179,7 +7176,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J78">
         <v>1.75</v>
@@ -7247,16 +7244,16 @@
         <v>6924556</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45200.91666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7265,7 +7262,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J79">
         <v>2.1</v>
@@ -7333,16 +7330,16 @@
         <v>6924559</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45203.00347222222</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7351,7 +7348,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J80">
         <v>2.3</v>
@@ -7419,16 +7416,16 @@
         <v>6924560</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45203.92013888889</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7437,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J81">
         <v>1.909</v>
@@ -7505,16 +7502,16 @@
         <v>6924561</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45204.00347222222</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7523,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J82">
         <v>1.5</v>
@@ -7591,16 +7588,16 @@
         <v>6924562</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45204.83680555555</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7609,7 +7606,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J83">
         <v>1.909</v>
@@ -7677,17 +7674,17 @@
         <v>6924558</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45204.92013888889</v>
       </c>
       <c r="E84" t="s">
+        <v>36</v>
+      </c>
+      <c r="F84" t="s">
         <v>37</v>
       </c>
-      <c r="F84" t="s">
-        <v>38</v>
-      </c>
       <c r="G84">
         <v>2</v>
       </c>
@@ -7695,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J84">
         <v>2.1</v>
@@ -7763,16 +7760,16 @@
         <v>6924563</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45205.00347222222</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -7781,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J85">
         <v>2.2</v>
@@ -7849,16 +7846,16 @@
         <v>6924557</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45205.83333333334</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7867,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J86">
         <v>2.1</v>
@@ -7935,16 +7932,16 @@
         <v>6924564</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45210.92013888889</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7953,7 +7950,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -8021,16 +8018,16 @@
         <v>6924565</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45212.83680555555</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -8039,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J88">
         <v>2.625</v>
@@ -8107,16 +8104,16 @@
         <v>6924566</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45213.00347222222</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8125,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J89">
         <v>2.1</v>
@@ -8193,16 +8190,16 @@
         <v>6924567</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45213.83680555555</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8211,7 +8208,7 @@
         <v>5</v>
       </c>
       <c r="I90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J90">
         <v>2.25</v>
@@ -8279,16 +8276,16 @@
         <v>6924568</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8297,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J91">
         <v>2.4</v>
@@ -8365,16 +8362,16 @@
         <v>6924569</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>4</v>
@@ -8383,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J92">
         <v>1.615</v>
@@ -8451,16 +8448,16 @@
         <v>6924570</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45215.00347222222</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -8469,7 +8466,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J93">
         <v>2.375</v>
@@ -8537,16 +8534,16 @@
         <v>6924571</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45219.00347222222</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8555,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>2.5</v>
@@ -8623,16 +8620,16 @@
         <v>6924572</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45223.92013888889</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8641,7 +8638,7 @@
         <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J95">
         <v>2.5</v>
@@ -8709,16 +8706,16 @@
         <v>6924574</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45224.92013888889</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>3</v>
@@ -8727,7 +8724,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J96">
         <v>2.1</v>
@@ -8795,16 +8792,16 @@
         <v>6924575</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45225.00347222222</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8813,7 +8810,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J97">
         <v>2.9</v>
@@ -8881,16 +8878,16 @@
         <v>6924576</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45225.92013888889</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8899,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J98">
         <v>1.615</v>
@@ -8967,16 +8964,16 @@
         <v>6924573</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45226.00347222222</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8985,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J99">
         <v>2</v>
@@ -9053,16 +9050,16 @@
         <v>6924578</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45227.92013888889</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100">
         <v>4</v>
@@ -9071,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J100">
         <v>2.1</v>
@@ -9139,16 +9136,16 @@
         <v>6924577</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45228.83333333334</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9157,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J101">
         <v>1.363</v>
@@ -9225,16 +9222,16 @@
         <v>6924579</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45230.83680555555</v>
       </c>
       <c r="E102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9243,7 +9240,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -9311,16 +9308,16 @@
         <v>6924581</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45231.83680555555</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9329,7 +9326,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J103">
         <v>4.333</v>
@@ -9397,16 +9394,16 @@
         <v>6924582</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45231.92013888889</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9415,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J104">
         <v>2.3</v>
@@ -9483,16 +9480,16 @@
         <v>6924580</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45232.83680555555</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -9501,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J105">
         <v>2.375</v>
@@ -9569,16 +9566,16 @@
         <v>6924583</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45232.92013888889</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9587,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J106">
         <v>1.4</v>
@@ -9655,16 +9652,16 @@
         <v>6924584</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45233.00347222222</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -9673,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J107">
         <v>1.65</v>
@@ -9741,16 +9738,16 @@
         <v>7449159</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45239.92013888889</v>
       </c>
       <c r="E108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G108">
         <v>5</v>
@@ -9759,7 +9756,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J108">
         <v>1.666</v>
@@ -9827,16 +9824,16 @@
         <v>7449160</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45240.00347222222</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9845,7 +9842,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J109">
         <v>1.444</v>
@@ -9913,16 +9910,16 @@
         <v>7460657</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45242.83680555555</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9931,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J110">
         <v>1.7</v>
@@ -9999,16 +9996,16 @@
         <v>7473421</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45245.92013888889</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10017,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>2.3</v>
@@ -10085,16 +10082,16 @@
         <v>7473419</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45246.00347222222</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10103,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J112">
         <v>2.25</v>
@@ -10171,17 +10168,17 @@
         <v>7473420</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45246.92013888889</v>
       </c>
       <c r="E113" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" t="s">
         <v>33</v>
       </c>
-      <c r="F113" t="s">
-        <v>34</v>
-      </c>
       <c r="G113">
         <v>0</v>
       </c>
@@ -10189,7 +10186,7 @@
         <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J113">
         <v>2.3</v>
@@ -10257,16 +10254,16 @@
         <v>7473526</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45247.00347222222</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10275,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J114">
         <v>2.75</v>
@@ -10343,16 +10340,16 @@
         <v>7450712</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45248.83680555555</v>
       </c>
       <c r="E115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>4</v>
@@ -10361,7 +10358,7 @@
         <v>2</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J115">
         <v>1.6</v>
@@ -10429,16 +10426,16 @@
         <v>7473836</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45248.92013888889</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10447,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J116">
         <v>2.05</v>
@@ -10515,16 +10512,16 @@
         <v>7473837</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45249.83680555555</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -10533,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J117">
         <v>1.909</v>
@@ -10601,16 +10598,16 @@
         <v>7450713</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45249.92013888889</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G118">
         <v>5</v>
@@ -10619,7 +10616,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J118">
         <v>1.666</v>
@@ -10687,16 +10684,16 @@
         <v>7505184</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45252.91666666666</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10705,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J119">
         <v>1.727</v>
@@ -10773,16 +10770,16 @@
         <v>7505183</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45253.91666666666</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10791,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J120">
         <v>1.85</v>
@@ -10859,16 +10856,16 @@
         <v>7506103</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45256.00347222222</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10877,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J121">
         <v>2.625</v>
@@ -10945,16 +10942,16 @@
         <v>7506798</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10963,7 +10960,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J122">
         <v>2.1</v>
@@ -11031,16 +11028,16 @@
         <v>7528853</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45260.91666666666</v>
       </c>
       <c r="E123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -11049,7 +11046,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J123">
         <v>1.909</v>
@@ -11117,16 +11114,16 @@
         <v>7531699</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45263.79166666666</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11135,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J124">
         <v>2.375</v>
@@ -11203,16 +11200,16 @@
         <v>7641630</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45300.92013888889</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11221,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J125">
         <v>2.1</v>
@@ -11289,16 +11286,16 @@
         <v>7641631</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45301.00347222222</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11307,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J126">
         <v>2.45</v>
@@ -11375,16 +11372,16 @@
         <v>7641632</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45301.92013888889</v>
       </c>
       <c r="E127" t="s">
+        <v>35</v>
+      </c>
+      <c r="F127" t="s">
         <v>36</v>
-      </c>
-      <c r="F127" t="s">
-        <v>37</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11393,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J127">
         <v>3.6</v>
@@ -11461,16 +11458,16 @@
         <v>7641633</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45302.00347222222</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11479,7 +11476,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J128">
         <v>1.95</v>
@@ -11547,16 +11544,16 @@
         <v>7641634</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45302.92013888889</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11565,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J129">
         <v>1.5</v>
@@ -11633,16 +11630,16 @@
         <v>7641635</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45303.00347222222</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11651,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J130">
         <v>1.95</v>
@@ -11719,16 +11716,16 @@
         <v>7640640</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45305.79513888889</v>
       </c>
       <c r="E131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11737,7 +11734,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J131">
         <v>1.833</v>
@@ -11805,16 +11802,16 @@
         <v>7641636</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45307.92013888889</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G132">
         <v>3</v>
@@ -11823,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J132">
         <v>1.571</v>
@@ -11891,16 +11888,16 @@
         <v>7641638</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45308.92013888889</v>
       </c>
       <c r="E133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -11909,7 +11906,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J133">
         <v>1.615</v>
@@ -11977,16 +11974,16 @@
         <v>7641639</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45309.00347222222</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11995,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J134">
         <v>3.6</v>
@@ -12063,16 +12060,16 @@
         <v>7641640</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45309.92013888889</v>
       </c>
       <c r="E135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12081,7 +12078,7 @@
         <v>5</v>
       </c>
       <c r="I135" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J135">
         <v>2.1</v>
@@ -12149,16 +12146,16 @@
         <v>7641641</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45310.00347222222</v>
       </c>
       <c r="E136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -12167,7 +12164,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J136">
         <v>1.8</v>
@@ -12235,16 +12232,16 @@
         <v>7640641</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45312.83680555555</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -12253,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J137">
         <v>2.75</v>
@@ -12321,17 +12318,17 @@
         <v>7641642</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45314.92013888889</v>
       </c>
       <c r="E138" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" t="s">
         <v>40</v>
       </c>
-      <c r="F138" t="s">
-        <v>41</v>
-      </c>
       <c r="G138">
         <v>2</v>
       </c>
@@ -12339,7 +12336,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J138">
         <v>2.8</v>
@@ -12407,16 +12404,16 @@
         <v>7641643</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45315.00347222222</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12425,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J139">
         <v>2.05</v>
@@ -12493,16 +12490,16 @@
         <v>7641644</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45315.92013888889</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12511,7 +12508,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J140">
         <v>2.1</v>
@@ -12579,16 +12576,16 @@
         <v>7641645</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45316.00347222222</v>
       </c>
       <c r="E141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12597,7 +12594,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J141">
         <v>2.55</v>
@@ -12665,16 +12662,16 @@
         <v>7640642</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45316.92013888889</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12683,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J142">
         <v>2.4</v>
@@ -12751,16 +12748,16 @@
         <v>7641646</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45317.00347222222</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12769,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J143">
         <v>1.7</v>
@@ -12837,16 +12834,16 @@
         <v>7641647</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45319.87847222222</v>
       </c>
       <c r="E144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12855,7 +12852,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J144">
         <v>1.909</v>
@@ -12923,16 +12920,16 @@
         <v>7641648</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45322.00347222222</v>
       </c>
       <c r="E145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12941,7 +12938,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J145">
         <v>1.5</v>
@@ -13009,16 +13006,16 @@
         <v>7640643</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45322.83680555555</v>
       </c>
       <c r="E146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -13027,7 +13024,7 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J146">
         <v>1.4</v>
@@ -13095,16 +13092,16 @@
         <v>7641649</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45322.92013888889</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -13113,7 +13110,7 @@
         <v>3</v>
       </c>
       <c r="I147" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J147">
         <v>3.8</v>
@@ -13181,16 +13178,16 @@
         <v>7641650</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45323.00347222222</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>3</v>
@@ -13199,7 +13196,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J148">
         <v>2.05</v>
@@ -13267,16 +13264,16 @@
         <v>7641651</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45323.92013888889</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13285,7 +13282,7 @@
         <v>2</v>
       </c>
       <c r="I149" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J149">
         <v>2.15</v>
@@ -13353,16 +13350,16 @@
         <v>7641652</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45324.00347222222</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13371,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J150">
         <v>2</v>
@@ -13439,16 +13436,16 @@
         <v>7641653</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45326.79513888889</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -13457,7 +13454,7 @@
         <v>1</v>
       </c>
       <c r="I151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J151">
         <v>3</v>
@@ -13525,16 +13522,16 @@
         <v>7641659</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45326.92013888889</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13543,7 +13540,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J152">
         <v>2.2</v>
@@ -13611,16 +13608,16 @@
         <v>7641655</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45328.83680555555</v>
       </c>
       <c r="E153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13629,7 +13626,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J153">
         <v>1.333</v>
@@ -13697,16 +13694,16 @@
         <v>7641654</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45328.92013888889</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13715,7 +13712,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J154">
         <v>2.5</v>
@@ -13783,16 +13780,16 @@
         <v>7640644</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45329.92013888889</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13801,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J155">
         <v>3.5</v>
@@ -13869,16 +13866,16 @@
         <v>7641656</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45330.00347222222</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13887,7 +13884,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J156">
         <v>2.05</v>
@@ -13955,16 +13952,16 @@
         <v>7641658</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45330.92013888889</v>
       </c>
       <c r="E157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -13973,7 +13970,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J157">
         <v>1.8</v>
@@ -14041,16 +14038,16 @@
         <v>7641657</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45331.83680555555</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14059,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J158">
         <v>2</v>
@@ -14127,16 +14124,16 @@
         <v>7641660</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45335.92013888889</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14145,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J159">
         <v>2.5</v>
@@ -14213,16 +14210,16 @@
         <v>7641661</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45336.00347222222</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14231,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J160">
         <v>3.1</v>
@@ -14299,16 +14296,16 @@
         <v>7641670</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45336.92013888889</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -14317,7 +14314,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J161">
         <v>2.5</v>
@@ -14385,16 +14382,16 @@
         <v>7641671</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45338.00347222222</v>
       </c>
       <c r="E162" t="s">
+        <v>32</v>
+      </c>
+      <c r="F162" t="s">
         <v>33</v>
-      </c>
-      <c r="F162" t="s">
-        <v>34</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14403,7 +14400,7 @@
         <v>1</v>
       </c>
       <c r="I162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J162">
         <v>2.7</v>
@@ -14471,16 +14468,16 @@
         <v>7641672</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45338.92013888889</v>
       </c>
       <c r="E163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14489,7 +14486,7 @@
         <v>3</v>
       </c>
       <c r="I163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J163">
         <v>2.4</v>
@@ -14557,16 +14554,16 @@
         <v>7641673</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45339.83680555555</v>
       </c>
       <c r="E164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14575,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J164">
         <v>2.45</v>
@@ -14643,16 +14640,16 @@
         <v>7640645</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45340.625</v>
       </c>
       <c r="E165" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -14661,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J165">
         <v>1.55</v>
@@ -14729,16 +14726,16 @@
         <v>7641679</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45342.92013888889</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14747,7 +14744,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J166">
         <v>1.909</v>
@@ -14815,16 +14812,16 @@
         <v>7641675</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45343.00347222222</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -14833,7 +14830,7 @@
         <v>1</v>
       </c>
       <c r="I167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J167">
         <v>2.45</v>
@@ -14901,16 +14898,16 @@
         <v>7641676</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45343.92013888889</v>
       </c>
       <c r="E168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14919,7 +14916,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J168">
         <v>3.4</v>
@@ -14987,16 +14984,16 @@
         <v>7641674</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45344.00347222222</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G169">
         <v>4</v>
@@ -15005,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J169">
         <v>2</v>
@@ -15073,16 +15070,16 @@
         <v>7641678</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45344.92013888889</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15091,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J170">
         <v>1.8</v>
@@ -15159,16 +15156,16 @@
         <v>7641677</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45345.00347222222</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15177,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J171">
         <v>1.6</v>
@@ -15245,16 +15242,16 @@
         <v>7641680</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45347.83680555555</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15263,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J172">
         <v>1.333</v>
@@ -15331,16 +15328,16 @@
         <v>7640646</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2">
         <v>45349.92013888889</v>
       </c>
       <c r="E173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15349,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J173">
         <v>2.9</v>
@@ -15417,16 +15414,16 @@
         <v>7641681</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2">
         <v>45350.00347222222</v>
       </c>
       <c r="E174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15435,7 +15432,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J174">
         <v>1.666</v>
@@ -15503,16 +15500,16 @@
         <v>7641682</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2">
         <v>45350.92013888889</v>
       </c>
       <c r="E175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15521,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J175">
         <v>2.3</v>
@@ -15589,16 +15586,16 @@
         <v>7641684</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2">
         <v>45351.92013888889</v>
       </c>
       <c r="E176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -15607,7 +15604,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J176">
         <v>4</v>
@@ -15675,16 +15672,16 @@
         <v>7641685</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2">
         <v>45352.00347222222</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15693,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J177">
         <v>1.8</v>
@@ -15761,16 +15758,16 @@
         <v>7701489</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2">
         <v>45352.83333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15779,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="I178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J178">
         <v>1.571</v>
@@ -15847,16 +15844,16 @@
         <v>7641686</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2">
         <v>45353.83680555555</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15865,7 +15862,7 @@
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J179">
         <v>2</v>
@@ -15933,16 +15930,16 @@
         <v>7640647</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D180" s="2">
         <v>45356.92013888889</v>
       </c>
       <c r="E180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15951,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J180">
         <v>1.4</v>
@@ -16019,16 +16016,16 @@
         <v>7641687</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2">
         <v>45357.00347222222</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -16037,7 +16034,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J181">
         <v>1.65</v>
@@ -16105,17 +16102,17 @@
         <v>7641688</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2">
         <v>45357.92013888889</v>
       </c>
       <c r="E182" t="s">
+        <v>31</v>
+      </c>
+      <c r="F182" t="s">
         <v>32</v>
       </c>
-      <c r="F182" t="s">
-        <v>33</v>
-      </c>
       <c r="G182">
         <v>2</v>
       </c>
@@ -16123,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J182">
         <v>1.571</v>
@@ -16191,16 +16188,16 @@
         <v>7641689</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D183" s="2">
         <v>45358.00347222222</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16209,7 +16206,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J183">
         <v>3.6</v>
@@ -16277,16 +16274,16 @@
         <v>7641690</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D184" s="2">
         <v>45358.92013888889</v>
       </c>
       <c r="E184" t="s">
+        <v>33</v>
+      </c>
+      <c r="F184" t="s">
         <v>34</v>
-      </c>
-      <c r="F184" t="s">
-        <v>35</v>
       </c>
       <c r="G184">
         <v>3</v>
@@ -16295,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J184">
         <v>1.7</v>
@@ -16363,16 +16360,16 @@
         <v>7641691</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>45359.00347222222</v>
       </c>
       <c r="E185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16381,7 +16378,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J185">
         <v>1.571</v>
@@ -16446,67 +16443,67 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D186" s="2">
         <v>45361.5</v>
       </c>
       <c r="E186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J186">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="K186">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L186">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M186">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P186">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S186">
         <v>2.75</v>
       </c>
       <c r="T186">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V186">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -16515,16 +16512,16 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16532,67 +16529,67 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
         <v>45361.5</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F187" t="s">
+        <v>46</v>
+      </c>
+      <c r="G187">
+        <v>4</v>
+      </c>
+      <c r="H187">
+        <v>3</v>
+      </c>
+      <c r="I187" t="s">
         <v>47</v>
       </c>
-      <c r="G187">
-        <v>2</v>
-      </c>
-      <c r="H187">
-        <v>0</v>
-      </c>
-      <c r="I187" t="s">
-        <v>48</v>
-      </c>
       <c r="J187">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L187">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M187">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N187">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P187">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
         <v>2.75</v>
       </c>
       <c r="T187">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -16601,16 +16598,16 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16621,16 +16618,16 @@
         <v>7641692</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
         <v>45361.92013888889</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16639,7 +16636,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J188">
         <v>2.15</v>
@@ -16707,16 +16704,16 @@
         <v>7641693</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D189" s="2">
         <v>45363.92013888889</v>
       </c>
       <c r="E189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16725,7 +16722,7 @@
         <v>3</v>
       </c>
       <c r="I189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J189">
         <v>2.4</v>
@@ -16793,16 +16790,16 @@
         <v>7641694</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D190" s="2">
         <v>45364.00347222222</v>
       </c>
       <c r="E190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -16811,7 +16808,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J190">
         <v>1.4</v>
@@ -16879,16 +16876,16 @@
         <v>7640648</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D191" s="2">
         <v>45364.92013888889</v>
       </c>
       <c r="E191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16897,7 +16894,7 @@
         <v>2</v>
       </c>
       <c r="I191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J191">
         <v>4</v>
@@ -16965,16 +16962,16 @@
         <v>7641695</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D192" s="2">
         <v>45365.00347222222</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16983,7 +16980,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J192">
         <v>2.25</v>
@@ -17051,16 +17048,16 @@
         <v>7641696</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D193" s="2">
         <v>45365.92013888889</v>
       </c>
       <c r="E193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17069,7 +17066,7 @@
         <v>1</v>
       </c>
       <c r="I193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J193">
         <v>2.1</v>
@@ -17137,16 +17134,16 @@
         <v>7641697</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D194" s="2">
         <v>45366.00347222222</v>
       </c>
       <c r="E194" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -17155,7 +17152,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J194">
         <v>2.25</v>
@@ -17223,16 +17220,16 @@
         <v>7641698</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D195" s="2">
         <v>45368.92013888889</v>
       </c>
       <c r="E195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17241,7 +17238,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J195">
         <v>2.3</v>
@@ -17309,16 +17306,16 @@
         <v>7641699</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D196" s="2">
         <v>45370.83680555555</v>
       </c>
       <c r="E196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F196" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G196">
         <v>2</v>
@@ -17327,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J196">
         <v>1.533</v>
@@ -17395,16 +17392,16 @@
         <v>7640649</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D197" s="2">
         <v>45370.92013888889</v>
       </c>
       <c r="E197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17413,7 +17410,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J197">
         <v>1.65</v>
@@ -17481,16 +17478,16 @@
         <v>7641700</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D198" s="2">
         <v>45371.00347222222</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17499,7 +17496,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J198">
         <v>1.95</v>
@@ -17567,17 +17564,17 @@
         <v>7641701</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2">
         <v>45371.83680555555</v>
       </c>
       <c r="E199" t="s">
+        <v>30</v>
+      </c>
+      <c r="F199" t="s">
         <v>31</v>
       </c>
-      <c r="F199" t="s">
-        <v>32</v>
-      </c>
       <c r="G199">
         <v>2</v>
       </c>
@@ -17585,7 +17582,7 @@
         <v>2</v>
       </c>
       <c r="I199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J199">
         <v>2.1</v>
@@ -17653,16 +17650,16 @@
         <v>7641702</v>
       </c>
       <c r="C200" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D200" s="2">
         <v>45371.92013888889</v>
       </c>
       <c r="E200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -17671,7 +17668,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J200">
         <v>1.8</v>
@@ -17739,16 +17736,16 @@
         <v>7641703</v>
       </c>
       <c r="C201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D201" s="2">
         <v>45372.00347222222</v>
       </c>
       <c r="E201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17757,7 +17754,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J201">
         <v>3.6</v>
@@ -17825,16 +17822,16 @@
         <v>7641704</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D202" s="2">
         <v>45372.92013888889</v>
       </c>
       <c r="E202" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -17843,7 +17840,7 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J202">
         <v>1.6</v>
@@ -17911,16 +17908,16 @@
         <v>7641705</v>
       </c>
       <c r="C203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D203" s="2">
         <v>45373.92013888889</v>
       </c>
       <c r="E203" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17929,7 +17926,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J203">
         <v>1.75</v>
@@ -17997,16 +17994,16 @@
         <v>7641706</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D204" s="2">
         <v>45374.75</v>
       </c>
       <c r="E204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -18015,7 +18012,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J204">
         <v>2.7</v>
@@ -18083,16 +18080,16 @@
         <v>7641707</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D205" s="2">
         <v>45374.83333333334</v>
       </c>
       <c r="E205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18101,7 +18098,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J205">
         <v>1.333</v>
@@ -18169,16 +18166,16 @@
         <v>7641708</v>
       </c>
       <c r="C206" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D206" s="2">
         <v>45374.92013888889</v>
       </c>
       <c r="E206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G206">
         <v>2</v>
@@ -18187,7 +18184,7 @@
         <v>1</v>
       </c>
       <c r="I206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J206">
         <v>2</v>
@@ -18255,16 +18252,16 @@
         <v>7641709</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D207" s="2">
         <v>45375.00347222222</v>
       </c>
       <c r="E207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18273,7 +18270,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J207">
         <v>4</v>
@@ -18341,16 +18338,16 @@
         <v>7640650</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D208" s="2">
         <v>45375.625</v>
       </c>
       <c r="E208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18359,7 +18356,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J208">
         <v>1.444</v>
@@ -18427,16 +18424,16 @@
         <v>7641710</v>
       </c>
       <c r="C209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D209" s="2">
         <v>45375.92013888889</v>
       </c>
       <c r="E209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -18445,7 +18442,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J209">
         <v>2.6</v>
@@ -18513,16 +18510,16 @@
         <v>7641711</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D210" s="2">
         <v>45377.92013888889</v>
       </c>
       <c r="E210" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18531,7 +18528,7 @@
         <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J210">
         <v>1.909</v>
@@ -18599,16 +18596,16 @@
         <v>7641712</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D211" s="2">
         <v>45378.00347222222</v>
       </c>
       <c r="E211" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18617,7 +18614,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J211">
         <v>1.833</v>
@@ -18685,16 +18682,16 @@
         <v>7641713</v>
       </c>
       <c r="C212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D212" s="2">
         <v>45378.92013888889</v>
       </c>
       <c r="E212" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G212">
         <v>2</v>
@@ -18703,7 +18700,7 @@
         <v>4</v>
       </c>
       <c r="I212" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J212">
         <v>1.666</v>
@@ -18771,16 +18768,16 @@
         <v>7641714</v>
       </c>
       <c r="C213" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D213" s="2">
         <v>45379.00347222222</v>
       </c>
       <c r="E213" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18789,7 +18786,7 @@
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J213">
         <v>1.95</v>
@@ -18857,16 +18854,16 @@
         <v>7641715</v>
       </c>
       <c r="C214" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D214" s="2">
         <v>45379.92013888889</v>
       </c>
       <c r="E214" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G214">
         <v>3</v>
@@ -18875,7 +18872,7 @@
         <v>4</v>
       </c>
       <c r="I214" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J214">
         <v>2.6</v>
@@ -18943,16 +18940,16 @@
         <v>7640651</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D215" s="2">
         <v>45380.00347222222</v>
       </c>
       <c r="E215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -18961,7 +18958,7 @@
         <v>3</v>
       </c>
       <c r="I215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J215">
         <v>7.5</v>
@@ -19029,16 +19026,16 @@
         <v>7641716</v>
       </c>
       <c r="C216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D216" s="2">
         <v>45380.875</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -19047,7 +19044,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J216">
         <v>1.444</v>
@@ -19115,16 +19112,16 @@
         <v>7640652</v>
       </c>
       <c r="C217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D217" s="2">
         <v>45384.83680555555</v>
       </c>
       <c r="E217" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F217" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -19133,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J217">
         <v>2.6</v>
@@ -19201,16 +19198,16 @@
         <v>7641717</v>
       </c>
       <c r="C218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D218" s="2">
         <v>45384.92013888889</v>
       </c>
       <c r="E218" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G218">
         <v>2</v>
@@ -19219,7 +19216,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J218">
         <v>2.15</v>
@@ -19287,16 +19284,16 @@
         <v>7641718</v>
       </c>
       <c r="C219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D219" s="2">
         <v>45385.00347222222</v>
       </c>
       <c r="E219" t="s">
+        <v>38</v>
+      </c>
+      <c r="F219" t="s">
         <v>39</v>
-      </c>
-      <c r="F219" t="s">
-        <v>40</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -19305,7 +19302,7 @@
         <v>3</v>
       </c>
       <c r="I219" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J219">
         <v>2.25</v>
@@ -19373,16 +19370,16 @@
         <v>7641719</v>
       </c>
       <c r="C220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D220" s="2">
         <v>45385.92013888889</v>
       </c>
       <c r="E220" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -19391,7 +19388,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J220">
         <v>2.15</v>
@@ -19459,16 +19456,16 @@
         <v>7641720</v>
       </c>
       <c r="C221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D221" s="2">
         <v>45386.00347222222</v>
       </c>
       <c r="E221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G221">
         <v>2</v>
@@ -19477,7 +19474,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J221">
         <v>2.5</v>
@@ -19545,16 +19542,16 @@
         <v>7641721</v>
       </c>
       <c r="C222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D222" s="2">
         <v>45386.92013888889</v>
       </c>
       <c r="E222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -19563,7 +19560,7 @@
         <v>2</v>
       </c>
       <c r="I222" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J222">
         <v>2.6</v>
@@ -19631,16 +19628,16 @@
         <v>7641722</v>
       </c>
       <c r="C223" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D223" s="2">
         <v>45387.00347222222</v>
       </c>
       <c r="E223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19649,7 +19646,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J223">
         <v>2.6</v>
@@ -19717,16 +19714,16 @@
         <v>7893216</v>
       </c>
       <c r="C224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D224" s="2">
         <v>45388.00347222222</v>
       </c>
       <c r="E224" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G224">
         <v>1</v>
@@ -19735,7 +19732,7 @@
         <v>3</v>
       </c>
       <c r="I224" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J224">
         <v>2.3</v>
@@ -19803,16 +19800,16 @@
         <v>7641723</v>
       </c>
       <c r="C225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D225" s="2">
         <v>45391.92013888889</v>
       </c>
       <c r="E225" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -19821,7 +19818,7 @@
         <v>2</v>
       </c>
       <c r="I225" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J225">
         <v>1.4</v>
@@ -19889,16 +19886,16 @@
         <v>7641724</v>
       </c>
       <c r="C226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D226" s="2">
         <v>45392.00347222222</v>
       </c>
       <c r="E226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F226" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -19907,7 +19904,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J226">
         <v>2.3</v>
@@ -19975,16 +19972,16 @@
         <v>7641725</v>
       </c>
       <c r="C227" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D227" s="2">
         <v>45392.92013888889</v>
       </c>
       <c r="E227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F227" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -19993,7 +19990,7 @@
         <v>2</v>
       </c>
       <c r="I227" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J227">
         <v>2.75</v>
@@ -20061,16 +20058,16 @@
         <v>7641726</v>
       </c>
       <c r="C228" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D228" s="2">
         <v>45393.00347222222</v>
       </c>
       <c r="E228" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20079,7 +20076,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J228">
         <v>1.25</v>
@@ -20147,16 +20144,16 @@
         <v>7640653</v>
       </c>
       <c r="C229" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D229" s="2">
         <v>45393.92013888889</v>
       </c>
       <c r="E229" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -20165,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J229">
         <v>1.6</v>
@@ -20233,16 +20230,16 @@
         <v>7641727</v>
       </c>
       <c r="C230" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D230" s="2">
         <v>45394.00347222222</v>
       </c>
       <c r="E230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F230" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20251,7 +20248,7 @@
         <v>2</v>
       </c>
       <c r="I230" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J230">
         <v>1.8</v>
@@ -20319,16 +20316,16 @@
         <v>7641728</v>
       </c>
       <c r="C231" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D231" s="2">
         <v>45395.83680555555</v>
       </c>
       <c r="E231" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F231" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G231">
         <v>3</v>
@@ -20337,7 +20334,7 @@
         <v>3</v>
       </c>
       <c r="I231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J231">
         <v>2.25</v>
@@ -20405,16 +20402,16 @@
         <v>8104978</v>
       </c>
       <c r="C232" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D232" s="2">
         <v>45399.91666666666</v>
       </c>
       <c r="E232" t="s">
+        <v>39</v>
+      </c>
+      <c r="F232" t="s">
         <v>40</v>
-      </c>
-      <c r="F232" t="s">
-        <v>41</v>
       </c>
       <c r="G232">
         <v>7</v>
@@ -20423,7 +20420,7 @@
         <v>6</v>
       </c>
       <c r="I232" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J232">
         <v>2.2</v>
@@ -20491,16 +20488,16 @@
         <v>8104979</v>
       </c>
       <c r="C233" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D233" s="2">
         <v>45400</v>
       </c>
       <c r="E233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -20509,7 +20506,7 @@
         <v>3</v>
       </c>
       <c r="I233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J233">
         <v>2.25</v>
@@ -20577,16 +20574,16 @@
         <v>8117254</v>
       </c>
       <c r="C234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D234" s="2">
         <v>45403</v>
       </c>
       <c r="E234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G234">
         <v>3</v>
@@ -20595,7 +20592,7 @@
         <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J234">
         <v>1.909</v>
@@ -20663,16 +20660,16 @@
         <v>8127902</v>
       </c>
       <c r="C235" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D235" s="2">
         <v>45406.91666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G235">
         <v>4</v>
@@ -20681,7 +20678,7 @@
         <v>3</v>
       </c>
       <c r="I235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J235">
         <v>2</v>
@@ -20749,16 +20746,16 @@
         <v>8134910</v>
       </c>
       <c r="C236" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D236" s="2">
         <v>45407.00347222222</v>
       </c>
       <c r="E236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -20767,7 +20764,7 @@
         <v>1</v>
       </c>
       <c r="I236" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J236">
         <v>2.75</v>
@@ -20835,16 +20832,16 @@
         <v>8127901</v>
       </c>
       <c r="C237" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D237" s="2">
         <v>45407.92013888889</v>
       </c>
       <c r="E237" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20853,7 +20850,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J237">
         <v>2.25</v>
@@ -20921,16 +20918,16 @@
         <v>8134907</v>
       </c>
       <c r="C238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D238" s="2">
         <v>45408.00347222222</v>
       </c>
       <c r="E238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20939,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J238">
         <v>2.3</v>
@@ -21007,16 +21004,16 @@
         <v>8127905</v>
       </c>
       <c r="C239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D239" s="2">
         <v>45409.83333333334</v>
       </c>
       <c r="E239" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21025,7 +21022,7 @@
         <v>3</v>
       </c>
       <c r="I239" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J239">
         <v>1.7</v>
@@ -21093,16 +21090,16 @@
         <v>8127904</v>
       </c>
       <c r="C240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D240" s="2">
         <v>45409.91666666666</v>
       </c>
       <c r="E240" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G240">
         <v>2</v>
@@ -21111,7 +21108,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J240">
         <v>1.909</v>
@@ -21179,16 +21176,16 @@
         <v>8127903</v>
       </c>
       <c r="C241" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D241" s="2">
         <v>45410.83333333334</v>
       </c>
       <c r="E241" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G241">
         <v>2</v>
@@ -21197,7 +21194,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J241">
         <v>1.8</v>
@@ -21265,16 +21262,16 @@
         <v>8127899</v>
       </c>
       <c r="C242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D242" s="2">
         <v>45410.92013888889</v>
       </c>
       <c r="E242" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F242" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G242">
         <v>3</v>
@@ -21283,7 +21280,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J242">
         <v>2.1</v>
@@ -21351,16 +21348,16 @@
         <v>8161957</v>
       </c>
       <c r="C243" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D243" s="2">
         <v>45414.85416666666</v>
       </c>
       <c r="E243" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F243" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -21369,7 +21366,7 @@
         <v>3</v>
       </c>
       <c r="I243" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J243">
         <v>2.875</v>
@@ -21437,16 +21434,16 @@
         <v>8161958</v>
       </c>
       <c r="C244" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D244" s="2">
         <v>45414.9375</v>
       </c>
       <c r="E244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F244" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21455,7 +21452,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J244">
         <v>2.5</v>
@@ -21523,16 +21520,16 @@
         <v>8161959</v>
       </c>
       <c r="C245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D245" s="2">
         <v>45417.79166666666</v>
       </c>
       <c r="E245" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F245" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G245">
         <v>5</v>
@@ -21541,7 +21538,7 @@
         <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J245">
         <v>1.8</v>
@@ -21609,16 +21606,16 @@
         <v>8161960</v>
       </c>
       <c r="C246" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D246" s="2">
         <v>45417.87847222222</v>
       </c>
       <c r="E246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G246">
         <v>3</v>
@@ -21627,7 +21624,7 @@
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J246">
         <v>1.8</v>
@@ -21695,16 +21692,16 @@
         <v>8185480</v>
       </c>
       <c r="C247" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D247" s="2">
         <v>45420.91666666666</v>
       </c>
       <c r="E247" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F247" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G247">
         <v>2</v>
@@ -21713,7 +21710,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J247">
         <v>1.571</v>
@@ -21781,16 +21778,16 @@
         <v>8185481</v>
       </c>
       <c r="C248" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D248" s="2">
         <v>45424.83333333334</v>
       </c>
       <c r="E248" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F248" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21799,7 +21796,7 @@
         <v>2</v>
       </c>
       <c r="I248" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J248">
         <v>2.625</v>
@@ -21867,16 +21864,16 @@
         <v>8219587</v>
       </c>
       <c r="C249" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D249" s="2">
         <v>45427.91666666666</v>
       </c>
       <c r="E249" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F249" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G249">
         <v>1</v>
@@ -21885,7 +21882,7 @@
         <v>1</v>
       </c>
       <c r="I249" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J249">
         <v>2.5</v>
@@ -21949,20 +21946,29 @@
       <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="s">
-        <v>27</v>
+      <c r="B250">
+        <v>8219588</v>
       </c>
       <c r="C250" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D250" s="2">
         <v>45430.875</v>
       </c>
       <c r="E250" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F250" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="H250">
+        <v>3</v>
+      </c>
+      <c r="I250" t="s">
+        <v>49</v>
       </c>
       <c r="J250">
         <v>1.833</v>
@@ -21974,40 +21980,52 @@
         <v>4</v>
       </c>
       <c r="M250">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="N250">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O250">
         <v>6.25</v>
       </c>
       <c r="P250">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q250">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R250">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S250">
         <v>2</v>
       </c>
       <c r="T250">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="U250">
         <v>1.975</v>
       </c>
       <c r="V250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X250">
-        <v>0</v>
+        <v>5.25</v>
+      </c>
+      <c r="Y250">
+        <v>-1</v>
+      </c>
+      <c r="Z250">
+        <v>0.8</v>
+      </c>
+      <c r="AA250">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AB250">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -8273,7 +8273,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8282,76 +8282,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>4.5</v>
+      </c>
+      <c r="M91">
+        <v>1.5</v>
+      </c>
+      <c r="N91">
+        <v>4.75</v>
+      </c>
+      <c r="O91">
+        <v>5.75</v>
+      </c>
+      <c r="P91">
+        <v>-1.25</v>
+      </c>
+      <c r="Q91">
+        <v>1.925</v>
+      </c>
+      <c r="R91">
+        <v>1.875</v>
+      </c>
+      <c r="S91">
         <v>3</v>
       </c>
-      <c r="L91">
-        <v>2.875</v>
-      </c>
-      <c r="M91">
-        <v>2.7</v>
-      </c>
-      <c r="N91">
-        <v>3.1</v>
-      </c>
-      <c r="O91">
-        <v>2.8</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>1.85</v>
-      </c>
-      <c r="R91">
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.95</v>
       </c>
-      <c r="S91">
-        <v>2.25</v>
-      </c>
-      <c r="T91">
-        <v>1.975</v>
-      </c>
-      <c r="U91">
-        <v>1.725</v>
-      </c>
       <c r="V91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8359,7 +8359,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8368,76 +8368,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="K92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:28">

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -145,16 +145,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Monterrey U23</t>
+  </si>
+  <si>
     <t>Unam Pumas U23</t>
   </si>
   <si>
-    <t>Monterrey U23</t>
+    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>Tijuana U23</t>
-  </si>
-  <si>
-    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>H</t>
@@ -8273,7 +8273,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8282,76 +8282,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="K91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8359,7 +8359,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8368,76 +8368,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>4.5</v>
+      </c>
+      <c r="M92">
+        <v>1.5</v>
+      </c>
+      <c r="N92">
+        <v>4.75</v>
+      </c>
+      <c r="O92">
+        <v>5.75</v>
+      </c>
+      <c r="P92">
+        <v>-1.25</v>
+      </c>
+      <c r="Q92">
+        <v>1.925</v>
+      </c>
+      <c r="R92">
+        <v>1.875</v>
+      </c>
+      <c r="S92">
         <v>3</v>
       </c>
-      <c r="L92">
-        <v>2.875</v>
-      </c>
-      <c r="M92">
-        <v>2.7</v>
-      </c>
-      <c r="N92">
-        <v>3.1</v>
-      </c>
-      <c r="O92">
-        <v>2.8</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>1.85</v>
-      </c>
-      <c r="R92">
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
         <v>1.95</v>
       </c>
-      <c r="S92">
-        <v>2.25</v>
-      </c>
-      <c r="T92">
-        <v>1.975</v>
-      </c>
-      <c r="U92">
-        <v>1.725</v>
-      </c>
       <c r="V92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -16443,7 +16443,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16458,52 +16458,52 @@
         <v>45</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
       </c>
       <c r="J186">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L186">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M186">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q186">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R186">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
         <v>2.75</v>
       </c>
       <c r="T186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -16512,16 +16512,16 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16529,7 +16529,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -16544,52 +16544,52 @@
         <v>46</v>
       </c>
       <c r="G187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
       </c>
       <c r="J187">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="K187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L187">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M187">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N187">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P187">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q187">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R187">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
         <v>2.75</v>
       </c>
       <c r="T187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -16598,16 +16598,16 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:28">

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -145,16 +145,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Unam Pumas U23</t>
+  </si>
+  <si>
     <t>Monterrey U23</t>
   </si>
   <si>
-    <t>Unam Pumas U23</t>
+    <t>Tijuana U23</t>
   </si>
   <si>
     <t>Mazatlan FC U23</t>
-  </si>
-  <si>
-    <t>Tijuana U23</t>
   </si>
   <si>
     <t>H</t>
@@ -8273,7 +8273,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8282,76 +8282,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>4.5</v>
+      </c>
+      <c r="M91">
+        <v>1.5</v>
+      </c>
+      <c r="N91">
+        <v>4.75</v>
+      </c>
+      <c r="O91">
+        <v>5.75</v>
+      </c>
+      <c r="P91">
+        <v>-1.25</v>
+      </c>
+      <c r="Q91">
+        <v>1.925</v>
+      </c>
+      <c r="R91">
+        <v>1.875</v>
+      </c>
+      <c r="S91">
         <v>3</v>
       </c>
-      <c r="L91">
-        <v>2.875</v>
-      </c>
-      <c r="M91">
-        <v>2.7</v>
-      </c>
-      <c r="N91">
-        <v>3.1</v>
-      </c>
-      <c r="O91">
-        <v>2.8</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>1.85</v>
-      </c>
-      <c r="R91">
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
         <v>1.95</v>
       </c>
-      <c r="S91">
-        <v>2.25</v>
-      </c>
-      <c r="T91">
-        <v>1.975</v>
-      </c>
-      <c r="U91">
-        <v>1.725</v>
-      </c>
       <c r="V91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8359,7 +8359,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8368,76 +8368,76 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="K92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -16443,7 +16443,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16458,52 +16458,52 @@
         <v>45</v>
       </c>
       <c r="G186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
       </c>
       <c r="J186">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="K186">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="L186">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M186">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P186">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S186">
         <v>2.75</v>
       </c>
       <c r="T186">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V186">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -16512,16 +16512,16 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16529,7 +16529,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -16544,52 +16544,52 @@
         <v>46</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
       </c>
       <c r="J187">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="K187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L187">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M187">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N187">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P187">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S187">
         <v>2.75</v>
       </c>
       <c r="T187">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -16598,16 +16598,16 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:28">

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -151,16 +151,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Monterrey U23</t>
+  </si>
+  <si>
     <t>Unam Pumas U23</t>
   </si>
   <si>
-    <t>Monterrey U23</t>
+    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>Tijuana U23</t>
-  </si>
-  <si>
-    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>H</t>
@@ -8819,7 +8819,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8828,82 +8828,82 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="O91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="P91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="R91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="X91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -8911,7 +8911,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8920,82 +8920,82 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="M92">
+        <v>4</v>
+      </c>
+      <c r="N92">
+        <v>4.5</v>
+      </c>
+      <c r="O92">
+        <v>1.5</v>
+      </c>
+      <c r="P92">
+        <v>4.75</v>
+      </c>
+      <c r="Q92">
+        <v>5.75</v>
+      </c>
+      <c r="R92">
+        <v>-1.25</v>
+      </c>
+      <c r="S92">
+        <v>1.925</v>
+      </c>
+      <c r="T92">
+        <v>1.875</v>
+      </c>
+      <c r="U92">
         <v>3</v>
       </c>
-      <c r="N92">
-        <v>2.875</v>
-      </c>
-      <c r="O92">
-        <v>2.7</v>
-      </c>
-      <c r="P92">
-        <v>3.1</v>
-      </c>
-      <c r="Q92">
-        <v>2.8</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>1.85</v>
-      </c>
-      <c r="T92">
+      <c r="V92">
+        <v>1.75</v>
+      </c>
+      <c r="W92">
         <v>1.95</v>
       </c>
-      <c r="U92">
-        <v>2.25</v>
-      </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
-      <c r="W92">
-        <v>1.725</v>
-      </c>
       <c r="X92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -17559,7 +17559,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -17574,52 +17574,58 @@
         <v>47</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
       </c>
       <c r="K186" t="s">
         <v>49</v>
       </c>
       <c r="L186">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="M186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N186">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="O186">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="P186">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S186">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U186">
         <v>2.75</v>
       </c>
       <c r="V186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X186">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Y186">
         <v>-1</v>
@@ -17628,16 +17634,16 @@
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -17645,7 +17651,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17660,58 +17666,52 @@
         <v>48</v>
       </c>
       <c r="G187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H187">
-        <v>3</v>
-      </c>
-      <c r="I187">
-        <v>2</v>
-      </c>
-      <c r="J187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187" t="s">
         <v>49</v>
       </c>
       <c r="L187">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="M187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N187">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="O187">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="P187">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R187">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S187">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T187">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U187">
         <v>2.75</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X187">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y187">
         <v>-1</v>
@@ -17720,16 +17720,16 @@
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:30">

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -37,10 +37,10 @@
     <t>FTAG</t>
   </si>
   <si>
-    <t>ht_goals_h</t>
+    <t>HTHG</t>
   </si>
   <si>
-    <t>ht_goals_a</t>
+    <t>HTAG</t>
   </si>
   <si>
     <t>FTR</t>
@@ -8819,7 +8819,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8828,82 +8828,82 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="M91">
+        <v>4</v>
+      </c>
+      <c r="N91">
+        <v>4.5</v>
+      </c>
+      <c r="O91">
+        <v>1.5</v>
+      </c>
+      <c r="P91">
+        <v>4.75</v>
+      </c>
+      <c r="Q91">
+        <v>5.75</v>
+      </c>
+      <c r="R91">
+        <v>-1.25</v>
+      </c>
+      <c r="S91">
+        <v>1.925</v>
+      </c>
+      <c r="T91">
+        <v>1.875</v>
+      </c>
+      <c r="U91">
         <v>3</v>
       </c>
-      <c r="N91">
-        <v>2.875</v>
-      </c>
-      <c r="O91">
-        <v>2.7</v>
-      </c>
-      <c r="P91">
-        <v>3.1</v>
-      </c>
-      <c r="Q91">
-        <v>2.8</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="S91">
-        <v>1.85</v>
-      </c>
-      <c r="T91">
+      <c r="V91">
+        <v>1.75</v>
+      </c>
+      <c r="W91">
         <v>1.95</v>
       </c>
-      <c r="U91">
-        <v>2.25</v>
-      </c>
-      <c r="V91">
-        <v>1.975</v>
-      </c>
-      <c r="W91">
-        <v>1.725</v>
-      </c>
       <c r="X91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -8911,7 +8911,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8920,82 +8920,82 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="O92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="P92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="R92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="X92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:30">

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -8819,7 +8819,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8828,82 +8828,82 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L91">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="O91">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="P91">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q91">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="R91">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="X91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD91">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -8911,7 +8911,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8920,82 +8920,82 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="M92">
+        <v>4</v>
+      </c>
+      <c r="N92">
+        <v>4.5</v>
+      </c>
+      <c r="O92">
+        <v>1.5</v>
+      </c>
+      <c r="P92">
+        <v>4.75</v>
+      </c>
+      <c r="Q92">
+        <v>5.75</v>
+      </c>
+      <c r="R92">
+        <v>-1.25</v>
+      </c>
+      <c r="S92">
+        <v>1.925</v>
+      </c>
+      <c r="T92">
+        <v>1.875</v>
+      </c>
+      <c r="U92">
         <v>3</v>
       </c>
-      <c r="N92">
-        <v>2.875</v>
-      </c>
-      <c r="O92">
-        <v>2.7</v>
-      </c>
-      <c r="P92">
-        <v>3.1</v>
-      </c>
-      <c r="Q92">
-        <v>2.8</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>1.85</v>
-      </c>
-      <c r="T92">
+      <c r="V92">
+        <v>1.75</v>
+      </c>
+      <c r="W92">
         <v>1.95</v>
       </c>
-      <c r="U92">
-        <v>2.25</v>
-      </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
-      <c r="W92">
-        <v>1.725</v>
-      </c>
       <c r="X92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD92">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:30">

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -151,16 +151,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Unam Pumas U23</t>
+  </si>
+  <si>
     <t>Monterrey U23</t>
   </si>
   <si>
-    <t>Unam Pumas U23</t>
+    <t>Tijuana U23</t>
   </si>
   <si>
     <t>Mazatlan FC U23</t>
-  </si>
-  <si>
-    <t>Tijuana U23</t>
   </si>
   <si>
     <t>H</t>
@@ -8819,7 +8819,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6924568</v>
+        <v>6924569</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8828,82 +8828,82 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L91">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="M91">
+        <v>4</v>
+      </c>
+      <c r="N91">
+        <v>4.5</v>
+      </c>
+      <c r="O91">
+        <v>1.5</v>
+      </c>
+      <c r="P91">
+        <v>4.75</v>
+      </c>
+      <c r="Q91">
+        <v>5.75</v>
+      </c>
+      <c r="R91">
+        <v>-1.25</v>
+      </c>
+      <c r="S91">
+        <v>1.925</v>
+      </c>
+      <c r="T91">
+        <v>1.875</v>
+      </c>
+      <c r="U91">
         <v>3</v>
       </c>
-      <c r="N91">
-        <v>2.875</v>
-      </c>
-      <c r="O91">
-        <v>2.7</v>
-      </c>
-      <c r="P91">
-        <v>3.1</v>
-      </c>
-      <c r="Q91">
-        <v>2.8</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="S91">
-        <v>1.85</v>
-      </c>
-      <c r="T91">
+      <c r="V91">
+        <v>1.75</v>
+      </c>
+      <c r="W91">
         <v>1.95</v>
       </c>
-      <c r="U91">
-        <v>2.25</v>
-      </c>
-      <c r="V91">
-        <v>1.975</v>
-      </c>
-      <c r="W91">
-        <v>1.725</v>
-      </c>
       <c r="X91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AD91">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -8911,7 +8911,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6924569</v>
+        <v>6924568</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8920,82 +8920,82 @@
         <v>45214.92013888889</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="O92">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="P92">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="R92">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U92">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V92">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="X92">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AD92">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -17559,7 +17559,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -17574,58 +17574,52 @@
         <v>47</v>
       </c>
       <c r="G186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>3</v>
-      </c>
-      <c r="I186">
-        <v>2</v>
-      </c>
-      <c r="J186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K186" t="s">
         <v>49</v>
       </c>
       <c r="L186">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="M186">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N186">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="O186">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="P186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R186">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U186">
         <v>2.75</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W186">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X186">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y186">
         <v>-1</v>
@@ -17634,16 +17628,16 @@
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -17651,7 +17645,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17666,52 +17660,58 @@
         <v>48</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
       </c>
       <c r="K187" t="s">
         <v>49</v>
       </c>
       <c r="L187">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="M187">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N187">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="O187">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="P187">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R187">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U187">
         <v>2.75</v>
       </c>
       <c r="V187">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X187">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Y187">
         <v>-1</v>
@@ -17720,16 +17720,16 @@
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD187">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:30">

--- a/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
+++ b/Mexico Liga de Expansion/Mexico Liga de Expansion.xlsx
@@ -151,16 +151,16 @@
     <t>Club Celaya</t>
   </si>
   <si>
+    <t>Monterrey U23</t>
+  </si>
+  <si>
     <t>Unam Pumas U23</t>
   </si>
   <si>
-    <t>Monterrey U23</t>
+    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>Tijuana U23</t>
-  </si>
-  <si>
-    <t>Mazatlan FC U23</t>
   </si>
   <si>
     <t>H</t>
@@ -17559,7 +17559,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7648957</v>
+        <v>7648958</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -17574,52 +17574,58 @@
         <v>47</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
       </c>
       <c r="K186" t="s">
         <v>49</v>
       </c>
       <c r="L186">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="M186">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N186">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="O186">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="P186">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="Q186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S186">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T186">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U186">
         <v>2.75</v>
       </c>
       <c r="V186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X186">
-        <v>0.5329999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Y186">
         <v>-1</v>
@@ -17628,16 +17634,16 @@
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -17645,7 +17651,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7648958</v>
+        <v>7648957</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17660,58 +17666,52 @@
         <v>48</v>
       </c>
       <c r="G187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H187">
-        <v>3</v>
-      </c>
-      <c r="I187">
-        <v>2</v>
-      </c>
-      <c r="J187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187" t="s">
         <v>49</v>
       </c>
       <c r="L187">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="M187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N187">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="O187">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="P187">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q187">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R187">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S187">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T187">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U187">
         <v>2.75</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W187">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X187">
-        <v>1.375</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y187">
         <v>-1</v>
@@ -17720,16 +17720,16 @@
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD187">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="188" spans="1:30">
